--- a/OPM经济数值/活动_5_巨人Boss.xlsx
+++ b/OPM经济数值/活动_5_巨人Boss.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/OPM_Excel/OPM经济数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEBD9B-F994-498D-BC67-6C64DB3C13C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37400" yWindow="600" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="积分计算" sheetId="1" r:id="rId1"/>
@@ -21,9 +20,15 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
   <si>
     <t>积分比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购买价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>积分排名/%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中等攻击天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中等生存天赋书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,12 +367,167 @@
     <t>随机2星饰品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>钻石消耗</t>
+    <rPh sb="0" eb="1">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级招募令</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等攻击天赋书</t>
+    <rPh sb="2" eb="3">
+      <t>gong'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机4星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总值</t>
+    <rPh sb="0" eb="1">
+      <t>zong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <rPh sb="0" eb="1">
+      <t>zuan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <rPh sb="0" eb="1">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liagn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <rPh sb="0" eb="1">
+      <t>jia'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀奖励</t>
+    <rPh sb="0" eb="1">
+      <t>ji'sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验鸡块</t>
+    <rPh sb="0" eb="1">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验鱼籽丼</t>
+  </si>
+  <si>
+    <t>现金</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值</t>
+    <rPh sb="0" eb="1">
+      <t>zong'jia'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览汇总</t>
+    <rPh sb="0" eb="1">
+      <t>yu'lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'zong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励汇总</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'zong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventWorldBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventDamageRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventPointRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +572,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,10 +606,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,9 +633,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,13 +670,8 @@
           <cell r="A1" t="str">
             <v>代币</v>
           </cell>
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
         </row>
         <row r="2">
-          <cell r="A2"/>
           <cell r="B2" t="str">
             <v>经验</v>
           </cell>
@@ -511,15 +681,11 @@
           <cell r="E2">
             <v>2E-3</v>
           </cell>
-          <cell r="F2">
-            <v>500</v>
-          </cell>
           <cell r="G2">
             <v>6.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>现金</v>
           </cell>
@@ -529,15 +695,11 @@
           <cell r="E3">
             <v>6.6667000000000002E-3</v>
           </cell>
-          <cell r="F3">
-            <v>149.99925000374998</v>
-          </cell>
           <cell r="G3">
             <v>0.02</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4"/>
           <cell r="B4" t="str">
             <v>体力</v>
           </cell>
@@ -547,12 +709,8 @@
           <cell r="E4">
             <v>3.125</v>
           </cell>
-          <cell r="F4">
-            <v>0.32</v>
-          </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>泽尼尔币</v>
           </cell>
@@ -562,12 +720,8 @@
           <cell r="E5">
             <v>3.2000000000000001E-2</v>
           </cell>
-          <cell r="F5">
-            <v>31.25</v>
-          </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>公会贡献</v>
           </cell>
@@ -577,12 +731,8 @@
           <cell r="E6">
             <v>0.32</v>
           </cell>
-          <cell r="F6">
-            <v>3.125</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>副本代币</v>
           </cell>
@@ -592,12 +742,8 @@
           <cell r="E7">
             <v>4.1666666666666664E-2</v>
           </cell>
-          <cell r="F7">
-            <v>24</v>
-          </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>强者之路货币</v>
           </cell>
@@ -607,16 +753,11 @@
           <cell r="E8">
             <v>0.05</v>
           </cell>
-          <cell r="F8">
-            <v>20</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
-          <cell r="C9"/>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -628,36 +769,22 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
-          <cell r="C10"/>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
           <cell r="E10">
             <v>2</v>
           </cell>
-        </row>
-        <row r="11">
-          <cell r="A11"/>
-          <cell r="B11"/>
-          <cell r="C11"/>
-          <cell r="D11"/>
-          <cell r="E11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>其他类型</v>
           </cell>
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
         </row>
         <row r="13">
-          <cell r="A13"/>
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
           </cell>
@@ -675,7 +802,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>随机2星饰品</v>
           </cell>
@@ -693,7 +819,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15"/>
           <cell r="B15" t="str">
             <v>随机3星饰品</v>
           </cell>
@@ -711,7 +836,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>随机4星饰品</v>
           </cell>
@@ -729,7 +853,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>随机5星饰品</v>
           </cell>
@@ -747,7 +870,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18"/>
           <cell r="B18" t="str">
             <v>随机图A碎片</v>
           </cell>
@@ -759,7 +881,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>随机图B碎片</v>
           </cell>
@@ -771,7 +892,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>随机图C碎片</v>
           </cell>
@@ -781,13 +901,6 @@
           <cell r="E20">
             <v>200</v>
           </cell>
-        </row>
-        <row r="21">
-          <cell r="A21"/>
-          <cell r="B21"/>
-          <cell r="C21"/>
-          <cell r="D21"/>
-          <cell r="E21"/>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -796,8 +909,6 @@
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
-          <cell r="C22"/>
-          <cell r="D22"/>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -806,12 +917,9 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
-          <cell r="C23"/>
-          <cell r="D23"/>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -820,12 +928,9 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24"/>
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
-          <cell r="C24"/>
-          <cell r="D24"/>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -834,12 +939,9 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25"/>
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
-          <cell r="C25"/>
-          <cell r="D25"/>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -848,12 +950,9 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
-          <cell r="C26"/>
-          <cell r="D26"/>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -862,12 +961,9 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
-          <cell r="C27"/>
-          <cell r="D27"/>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -876,11 +972,9 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>技能碎片</v>
           </cell>
-          <cell r="C28"/>
           <cell r="D28" t="str">
             <v>prop,403</v>
           </cell>
@@ -890,29 +984,11 @@
           <cell r="G28">
             <v>100</v>
           </cell>
-        </row>
-        <row r="29">
-          <cell r="A29"/>
-          <cell r="B29"/>
-          <cell r="C29"/>
-          <cell r="D29"/>
-          <cell r="E29"/>
-        </row>
-        <row r="30">
-          <cell r="A30"/>
-          <cell r="B30"/>
-          <cell r="C30"/>
-          <cell r="D30"/>
-          <cell r="E30"/>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>道具表</v>
           </cell>
-          <cell r="B31"/>
-          <cell r="C31"/>
-          <cell r="D31"/>
-          <cell r="E31"/>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -1064,7 +1140,6 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
-          <cell r="E39"/>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2779,7 +2854,6 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
-          <cell r="E134"/>
         </row>
         <row r="135">
           <cell r="A135">
@@ -2794,51 +2868,38 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
-          <cell r="E135"/>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
-          <cell r="B136"/>
-          <cell r="C136"/>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
-          <cell r="E136"/>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
-          <cell r="B137"/>
-          <cell r="C137"/>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
-          <cell r="E137"/>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
-          <cell r="B138"/>
-          <cell r="C138"/>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
-          <cell r="E138"/>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
-          <cell r="B139"/>
-          <cell r="C139"/>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
-          <cell r="E139"/>
         </row>
         <row r="140">
           <cell r="A140">
@@ -2847,11 +2908,9 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
-          <cell r="C140"/>
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
-          <cell r="E140"/>
         </row>
         <row r="141">
           <cell r="A141">
@@ -2866,7 +2925,6 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
-          <cell r="E141"/>
         </row>
         <row r="142">
           <cell r="A142">
@@ -2881,7 +2939,6 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
-          <cell r="E142"/>
         </row>
         <row r="143">
           <cell r="A143">
@@ -2896,7 +2953,6 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
-          <cell r="E143"/>
         </row>
         <row r="144">
           <cell r="A144">
@@ -2911,7 +2967,6 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
-          <cell r="E144"/>
         </row>
         <row r="145">
           <cell r="A145">
@@ -2926,7 +2981,6 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
-          <cell r="E145"/>
         </row>
         <row r="146">
           <cell r="A146">
@@ -2941,7 +2995,6 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
-          <cell r="E146"/>
         </row>
         <row r="147">
           <cell r="A147">
@@ -2956,7 +3009,6 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
-          <cell r="E147"/>
         </row>
         <row r="148">
           <cell r="A148">
@@ -2971,7 +3023,6 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
-          <cell r="E148"/>
         </row>
         <row r="149">
           <cell r="A149">
@@ -2986,7 +3037,6 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
-          <cell r="E149"/>
         </row>
         <row r="150">
           <cell r="A150">
@@ -3001,7 +3051,6 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
-          <cell r="E150"/>
         </row>
         <row r="151">
           <cell r="A151">
@@ -3016,7 +3065,6 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
-          <cell r="E151"/>
         </row>
         <row r="152">
           <cell r="A152">
@@ -3031,7 +3079,6 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
-          <cell r="E152"/>
         </row>
         <row r="153">
           <cell r="A153">
@@ -3046,7 +3093,6 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
-          <cell r="E153"/>
         </row>
         <row r="154">
           <cell r="A154">
@@ -3061,7 +3107,6 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
-          <cell r="E154"/>
         </row>
         <row r="155">
           <cell r="A155">
@@ -3076,7 +3121,6 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
-          <cell r="E155"/>
         </row>
         <row r="156">
           <cell r="A156">
@@ -3091,7 +3135,6 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
-          <cell r="E156"/>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3365,7 +3408,6 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
-          <cell r="C171"/>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -3648,21 +3690,10 @@
             <v>200</v>
           </cell>
         </row>
-        <row r="188">
-          <cell r="A188"/>
-          <cell r="B188"/>
-          <cell r="C188"/>
-          <cell r="D188"/>
-          <cell r="E188"/>
-        </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
           </cell>
-          <cell r="B189"/>
-          <cell r="C189"/>
-          <cell r="D189"/>
-          <cell r="E189"/>
         </row>
         <row r="190">
           <cell r="A190">
@@ -4744,10 +4775,131 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>战栗的龙卷普通技能卡</v>
+          </cell>
+          <cell r="D246" t="str">
+            <v>skill,1</v>
+          </cell>
+          <cell r="E246">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>战栗的龙卷主动技能卡-1</v>
+          </cell>
+          <cell r="D247" t="str">
+            <v>skill,2</v>
+          </cell>
+          <cell r="E247">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>战栗的龙卷主动技能卡-2</v>
+          </cell>
+          <cell r="D248" t="str">
+            <v>skill,3</v>
+          </cell>
+          <cell r="E248">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>战栗的龙卷特质1技能卡</v>
+          </cell>
+          <cell r="D249" t="str">
+            <v>skill,4</v>
+          </cell>
+          <cell r="E249">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>战栗的龙卷特质2技能卡</v>
+          </cell>
+          <cell r="D250" t="str">
+            <v>skill,5</v>
+          </cell>
+          <cell r="E250">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>战栗的龙卷特质3技能卡-1</v>
+          </cell>
+          <cell r="D251" t="str">
+            <v>skill,6</v>
+          </cell>
+          <cell r="E251">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>战栗的龙卷特质3技能卡-2</v>
+          </cell>
+          <cell r="D252" t="str">
+            <v>skill,7</v>
+          </cell>
+          <cell r="E252">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>战栗的龙卷特质4技能卡</v>
+          </cell>
+          <cell r="D253" t="str">
+            <v>skill,8</v>
+          </cell>
+          <cell r="E253">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>地狱的吹雪普通技能卡</v>
+          </cell>
+          <cell r="D254" t="str">
+            <v>skill,9</v>
+          </cell>
+          <cell r="E254">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>地狱的吹雪主动技能卡</v>
+          </cell>
+          <cell r="D255" t="str">
+            <v>skill,10</v>
+          </cell>
+          <cell r="E255">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>地狱的吹雪特质3技能卡</v>
+          </cell>
+          <cell r="D256" t="str">
+            <v>skill,11</v>
+          </cell>
+          <cell r="E256">
+            <v>300</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5015,24 +5167,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="9" style="3"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="9" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="1"/>
+    <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -5072,7 +5224,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5102,7 +5254,7 @@
         <v>2362.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>50000</v>
       </c>
@@ -5132,7 +5284,7 @@
         <v>11812.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>200000</v>
       </c>
@@ -5155,7 +5307,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>500000</v>
       </c>
@@ -5178,7 +5330,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -5207,7 +5359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>9999999</v>
       </c>
@@ -5237,7 +5389,7 @@
         <v>165375</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F9" s="1">
         <v>400000</v>
       </c>
@@ -5246,7 +5398,15 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="str">
+        <f>A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8</f>
+        <v>50000,200000,500000,1000000,9999999</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8</f>
+        <v>0.01,0.005,0.002,0.001,0.0005</v>
+      </c>
       <c r="F10" s="1">
         <v>450000</v>
       </c>
@@ -5255,7 +5415,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F11" s="1">
         <v>500000</v>
       </c>
@@ -5270,7 +5430,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F12" s="1">
         <v>550000</v>
       </c>
@@ -5286,7 +5446,7 @@
         <v>12.698412698412698</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F13" s="1">
         <v>600000</v>
       </c>
@@ -5295,7 +5455,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F14" s="1">
         <v>650000</v>
       </c>
@@ -5304,7 +5464,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F15" s="1">
         <v>700000</v>
       </c>
@@ -5313,7 +5473,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F16" s="1">
         <v>750000</v>
       </c>
@@ -5325,7 +5485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F17" s="1">
         <v>800000</v>
       </c>
@@ -5340,7 +5500,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F18" s="1">
         <v>850000</v>
       </c>
@@ -5355,7 +5515,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F19" s="1">
         <v>900000</v>
       </c>
@@ -5370,7 +5530,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F20" s="1">
         <v>950000</v>
       </c>
@@ -5379,7 +5539,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F21" s="1">
         <v>1000000</v>
       </c>
@@ -5388,7 +5548,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F22" s="1">
         <v>1050000</v>
       </c>
@@ -5397,7 +5557,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F23" s="1">
         <v>1100000</v>
       </c>
@@ -5406,7 +5566,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F24" s="1">
         <v>1150000</v>
       </c>
@@ -5415,7 +5575,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F25" s="1">
         <v>1200000</v>
       </c>
@@ -5424,7 +5584,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F26" s="1">
         <v>1250000</v>
       </c>
@@ -5433,7 +5593,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F27" s="1">
         <v>1300000</v>
       </c>
@@ -5442,7 +5602,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F28" s="1">
         <v>1350000</v>
       </c>
@@ -5451,7 +5611,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F29" s="1">
         <v>1400000</v>
       </c>
@@ -5460,7 +5620,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F30" s="1">
         <v>1450000</v>
       </c>
@@ -5469,7 +5629,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F31" s="1">
         <v>1500000</v>
       </c>
@@ -5478,7 +5638,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F32" s="1">
         <v>1550000</v>
       </c>
@@ -5487,7 +5647,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F33" s="1">
         <v>1600000</v>
       </c>
@@ -5496,7 +5656,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F34" s="1">
         <v>1650000</v>
       </c>
@@ -5505,7 +5665,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F35" s="1">
         <v>1700000</v>
       </c>
@@ -5514,7 +5674,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F36" s="1">
         <v>1750000</v>
       </c>
@@ -5523,7 +5683,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F37" s="1">
         <v>1800000</v>
       </c>
@@ -5532,7 +5692,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F38" s="1">
         <v>1850000</v>
       </c>
@@ -5541,7 +5701,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F39" s="1">
         <v>1900000</v>
       </c>
@@ -5550,7 +5710,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F40" s="1">
         <v>1950000</v>
       </c>
@@ -5559,7 +5719,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F41" s="1">
         <v>2000000</v>
       </c>
@@ -5568,7 +5728,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F42" s="1">
         <v>2050000</v>
       </c>
@@ -5577,7 +5737,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F43" s="1">
         <v>2100000</v>
       </c>
@@ -5586,7 +5746,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F44" s="1">
         <v>2150000</v>
       </c>
@@ -5595,7 +5755,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F45" s="1">
         <v>2200000</v>
       </c>
@@ -5604,7 +5764,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F46" s="1">
         <v>2250000</v>
       </c>
@@ -5613,7 +5773,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F47" s="1">
         <v>2300000</v>
       </c>
@@ -5622,7 +5782,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F48" s="1">
         <v>2350000</v>
       </c>
@@ -5631,7 +5791,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F49" s="1">
         <v>2400000</v>
       </c>
@@ -5640,7 +5800,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F50" s="1">
         <v>2450000</v>
       </c>
@@ -5649,7 +5809,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F51" s="1">
         <v>2500000</v>
       </c>
@@ -5658,7 +5818,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F52" s="1">
         <v>2550000</v>
       </c>
@@ -5667,7 +5827,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F53" s="1">
         <v>2600000</v>
       </c>
@@ -5684,34 +5844,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6051254C-E71C-4774-BD5C-F67D68329874}">
-  <dimension ref="A1:Z32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="4" width="6.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="6.125" style="2" customWidth="1"/>
-    <col min="15" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9" style="2"/>
-    <col min="25" max="25" width="9" style="4"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="8" width="6.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="6.1640625" style="2" customWidth="1"/>
+    <col min="19" max="24" width="8.83203125" style="2"/>
+    <col min="25" max="25" width="8.83203125" style="4"/>
+    <col min="26" max="26" width="8.83203125" style="2"/>
+    <col min="27" max="27" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="8.83203125" style="2"/>
+    <col min="33" max="33" width="8.83203125" style="4"/>
+    <col min="34" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -5721,223 +5881,322 @@
       <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5">
-        <v>26000</v>
+        <v>24600</v>
       </c>
       <c r="C2" s="5">
-        <v>22500</v>
+        <v>18860</v>
       </c>
       <c r="D2" s="5">
-        <v>20000</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="4">
+      <c r="AA2" s="4">
         <v>5000</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="4">
+      <c r="AB2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" s="4">
         <v>2</v>
       </c>
-      <c r="V2" s="4">
-        <f>VLOOKUP(T2,价值!$B:$G,6,0)*U2</f>
-        <v>100</v>
-      </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AD2" s="4">
+        <f>VLOOKUP(AB2,价值!$B:$G,6,0)*AC2</f>
+        <v>120</v>
+      </c>
+      <c r="AE2" s="4" t="str">
+        <f>VLOOKUP(AB2,价值!$B:$G,3,0)&amp;","&amp;AC2</f>
+        <v>prop,105,2</v>
+      </c>
+      <c r="AF2" s="3" t="str">
+        <f>IF(VLOOKUP(AB2,价值!$B:$G,5,0)=0,AE2,VLOOKUP(AB2,价值!$B:$G,5,0)&amp;","&amp;AC2)</f>
+        <v>prop,105,2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4">
         <f>D3</f>
-        <v>17200</v>
+        <v>11750</v>
       </c>
       <c r="C3" s="4">
         <f>D3</f>
-        <v>17200</v>
+        <v>11750</v>
       </c>
       <c r="D3" s="4">
         <f>D2-SUM(D4:D7)</f>
-        <v>17200</v>
-      </c>
-      <c r="F3" s="1">
+        <v>11750</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="L3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
-        <f>VLOOKUP(H3,价值!$B:$G,6,0)*I3</f>
+      <c r="N3" s="2">
+        <f>VLOOKUP(L3,价值!$B:$G,6,0)*M3</f>
         <v>1200</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="O3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="2">
         <v>20000</v>
       </c>
-      <c r="M3" s="2">
-        <f>VLOOKUP(K3,价值!$B:$G,6,0)*L3</f>
+      <c r="Q3" s="2">
+        <f>VLOOKUP(O3,价值!$B:$G,6,0)*P3</f>
         <v>400</v>
       </c>
-      <c r="N3" s="2">
-        <f>M3+J3</f>
+      <c r="R3" s="2">
+        <f>Q3+N3</f>
         <v>1600</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="S3" s="2" t="str">
+        <f>VLOOKUP(L3,价值!$B:$G,3,0)&amp;","&amp;M3</f>
+        <v>pack,304,2</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f>IF(VLOOKUP(L3,价值!$B:$G,5,0)=0,S3,VLOOKUP(L3,价值!$B:$G,5,0)&amp;","&amp;M3)</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="U3" s="2" t="str">
+        <f>VLOOKUP(O3,价值!$B:$G,3,0)&amp;","&amp;P3</f>
+        <v>coin,20000</v>
+      </c>
+      <c r="V3" s="2" t="str">
+        <f>IF(VLOOKUP(O3,价值!$B:$G,5,0)=0,U3,VLOOKUP(O3,价值!$B:$G,5,0)&amp;","&amp;P3)</f>
+        <v>coin,20000</v>
+      </c>
+      <c r="W3" s="2" t="str">
+        <f>S3&amp;";"&amp;U3</f>
+        <v>pack,304,2;coin,20000</v>
+      </c>
+      <c r="X3" s="2" t="str">
+        <f>T3&amp;";"&amp;V3</f>
+        <v>item,104,2;coin,20000</v>
+      </c>
+      <c r="Y3" s="5">
         <f>B4</f>
-        <v>1500</v>
-      </c>
-      <c r="S3" s="4">
+        <v>1600</v>
+      </c>
+      <c r="AA3" s="4">
         <v>10000</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="4">
-        <v>1</v>
-      </c>
-      <c r="V3" s="4">
-        <f>VLOOKUP(T3,价值!$B:$G,6,0)*U3</f>
-        <v>90</v>
-      </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>VLOOKUP(AB3,价值!$B:$G,6,0)*AC3</f>
+        <v>500</v>
+      </c>
+      <c r="AE3" s="4" t="str">
+        <f>VLOOKUP(AB3,价值!$B:$G,3,0)&amp;","&amp;AC3</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AF3" s="3" t="str">
+        <f>IF(VLOOKUP(AB3,价值!$B:$G,5,0)=0,AE3,VLOOKUP(AB3,价值!$B:$G,5,0)&amp;","&amp;AC3)</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C4" s="5">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <f>VLOOKUP(H4,价值!$B:$G,6,0)*I4</f>
+      <c r="N4" s="2">
+        <f>VLOOKUP(L4,价值!$B:$G,6,0)*M4</f>
         <v>600</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="O4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="2">
         <v>15000</v>
       </c>
-      <c r="M4" s="2">
-        <f>VLOOKUP(K4,价值!$B:$G,6,0)*L4</f>
+      <c r="Q4" s="2">
+        <f>VLOOKUP(O4,价值!$B:$G,6,0)*P4</f>
         <v>300</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" ref="N4:N13" si="0">M4+J4</f>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R13" si="0">Q4+N4</f>
         <v>900</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="4">
+      <c r="S4" s="2" t="str">
+        <f>VLOOKUP(L4,价值!$B:$G,3,0)&amp;","&amp;M4</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>IF(VLOOKUP(L4,价值!$B:$G,5,0)=0,S4,VLOOKUP(L4,价值!$B:$G,5,0)&amp;","&amp;M4)</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f>VLOOKUP(O4,价值!$B:$G,3,0)&amp;","&amp;P4</f>
+        <v>coin,15000</v>
+      </c>
+      <c r="V4" s="2" t="str">
+        <f>IF(VLOOKUP(O4,价值!$B:$G,5,0)=0,U4,VLOOKUP(O4,价值!$B:$G,5,0)&amp;","&amp;P4)</f>
+        <v>coin,15000</v>
+      </c>
+      <c r="W4" s="2" t="str">
+        <f t="shared" ref="W4:X13" si="1">S4&amp;";"&amp;U4</f>
+        <v>pack,304,1;coin,15000</v>
+      </c>
+      <c r="X4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,104,1;coin,15000</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" s="4">
         <v>20000</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="AB4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC4" s="4">
         <v>2</v>
       </c>
-      <c r="V4" s="4">
-        <f>VLOOKUP(T4,价值!$B:$G,6,0)*U4</f>
-        <v>100</v>
-      </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AD4" s="4">
+        <f>VLOOKUP(AB4,价值!$B:$G,6,0)*AC4</f>
+        <v>120</v>
+      </c>
+      <c r="AE4" s="4" t="str">
+        <f>VLOOKUP(AB4,价值!$B:$G,3,0)&amp;","&amp;AC4</f>
+        <v>prop,105,2</v>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f>IF(VLOOKUP(AB4,价值!$B:$G,5,0)=0,AE4,VLOOKUP(AB4,价值!$B:$G,5,0)&amp;","&amp;AC4)</f>
+        <v>prop,105,2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -5947,577 +6206,904 @@
       </c>
       <c r="C5" s="6">
         <f>C2-C3-C4-C6-C7</f>
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <f>VLOOKUP(H5,价值!$B:$G,6,0)*I5</f>
+      <c r="N5" s="2">
+        <f>VLOOKUP(L5,价值!$B:$G,6,0)*M5</f>
         <v>600</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="O5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="2">
         <v>12000</v>
       </c>
-      <c r="M5" s="2">
-        <f>VLOOKUP(K5,价值!$B:$G,6,0)*L5</f>
+      <c r="Q5" s="2">
+        <f>VLOOKUP(O5,价值!$B:$G,6,0)*P5</f>
         <v>240</v>
       </c>
-      <c r="N5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="S5" s="4">
+      <c r="S5" s="2" t="str">
+        <f>VLOOKUP(L5,价值!$B:$G,3,0)&amp;","&amp;M5</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f>IF(VLOOKUP(L5,价值!$B:$G,5,0)=0,S5,VLOOKUP(L5,价值!$B:$G,5,0)&amp;","&amp;M5)</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="U5" s="2" t="str">
+        <f>VLOOKUP(O5,价值!$B:$G,3,0)&amp;","&amp;P5</f>
+        <v>coin,12000</v>
+      </c>
+      <c r="V5" s="2" t="str">
+        <f>IF(VLOOKUP(O5,价值!$B:$G,5,0)=0,U5,VLOOKUP(O5,价值!$B:$G,5,0)&amp;","&amp;P5)</f>
+        <v>coin,12000</v>
+      </c>
+      <c r="W5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,304,1;coin,12000</v>
+      </c>
+      <c r="X5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,104,1;coin,12000</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA5" s="4">
         <v>40000</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="4">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
-        <f>VLOOKUP(T5,价值!$B:$G,6,0)*U5</f>
-        <v>90</v>
-      </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>VLOOKUP(AB5,价值!$B:$G,6,0)*AC5</f>
+        <v>500</v>
+      </c>
+      <c r="AE5" s="4" t="str">
+        <f>VLOOKUP(AB5,价值!$B:$G,3,0)&amp;","&amp;AC5</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>IF(VLOOKUP(AB5,价值!$B:$G,5,0)=0,AE5,VLOOKUP(AB5,价值!$B:$G,5,0)&amp;","&amp;AC5)</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4">
         <f>D6</f>
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="C6" s="4">
         <f>D6</f>
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="D6" s="5">
-        <v>500</v>
-      </c>
-      <c r="F6" s="1">
+        <f>SUM(E6:H6)</f>
+        <v>950</v>
+      </c>
+      <c r="E6" s="5">
+        <v>80</v>
+      </c>
+      <c r="F6" s="5">
+        <v>180</v>
+      </c>
+      <c r="G6" s="5">
+        <v>290</v>
+      </c>
+      <c r="H6" s="5">
+        <v>400</v>
+      </c>
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <f>VLOOKUP(L6,价值!$B:$G,6,0)*M6</f>
+        <v>250</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <f>VLOOKUP(H6,价值!$B:$G,6,0)*I6</f>
-        <v>250</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="P6" s="2">
         <v>10000</v>
       </c>
-      <c r="M6" s="2">
-        <f>VLOOKUP(K6,价值!$B:$G,6,0)*L6</f>
+      <c r="Q6" s="2">
+        <f>VLOOKUP(O6,价值!$B:$G,6,0)*P6</f>
         <v>200</v>
       </c>
-      <c r="N6" s="2">
+      <c r="R6" s="2">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="4">
+      <c r="S6" s="2" t="str">
+        <f>VLOOKUP(L6,价值!$B:$G,3,0)&amp;","&amp;M6</f>
+        <v>pack,303,5</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f>IF(VLOOKUP(L6,价值!$B:$G,5,0)=0,S6,VLOOKUP(L6,价值!$B:$G,5,0)&amp;","&amp;M6)</f>
+        <v>item,103,5</v>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f>VLOOKUP(O6,价值!$B:$G,3,0)&amp;","&amp;P6</f>
+        <v>coin,10000</v>
+      </c>
+      <c r="V6" s="2" t="str">
+        <f>IF(VLOOKUP(O6,价值!$B:$G,5,0)=0,U6,VLOOKUP(O6,价值!$B:$G,5,0)&amp;","&amp;P6)</f>
+        <v>coin,10000</v>
+      </c>
+      <c r="W6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,5;coin,10000</v>
+      </c>
+      <c r="X6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,5;coin,10000</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" s="4">
         <v>50000</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="AB6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="4">
         <v>2</v>
       </c>
-      <c r="V6" s="4">
-        <f>VLOOKUP(T6,价值!$B:$G,6,0)*U6</f>
-        <v>100</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AD6" s="4">
+        <f>VLOOKUP(AB6,价值!$B:$G,6,0)*AC6</f>
+        <v>120</v>
+      </c>
+      <c r="AE6" s="4" t="str">
+        <f>VLOOKUP(AB6,价值!$B:$G,3,0)&amp;","&amp;AC6</f>
+        <v>prop,105,2</v>
+      </c>
+      <c r="AF6" s="3" t="str">
+        <f>IF(VLOOKUP(AB6,价值!$B:$G,5,0)=0,AE6,VLOOKUP(AB6,价值!$B:$G,5,0)&amp;","&amp;AC6)</f>
+        <v>prop,105,2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="4">
         <f>B8*积分计算!$K$1*积分计算!$K$7</f>
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="C7" s="4">
         <f>C8*积分计算!$K$1*积分计算!$K$7</f>
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="D7" s="4">
         <f>D8*积分计算!$K$1*积分计算!$K$7</f>
         <v>2100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="K7" s="1">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <f>VLOOKUP(L7,价值!$B:$G,6,0)*M7</f>
+        <v>200</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <f>VLOOKUP(H7,价值!$B:$G,6,0)*I7</f>
-        <v>200</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>8000</v>
       </c>
-      <c r="M7" s="2">
-        <f>VLOOKUP(K7,价值!$B:$G,6,0)*L7</f>
+      <c r="Q7" s="2">
+        <f>VLOOKUP(O7,价值!$B:$G,6,0)*P7</f>
         <v>160</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="S7" s="2" t="str">
+        <f>VLOOKUP(L7,价值!$B:$G,3,0)&amp;","&amp;M7</f>
+        <v>pack,303,4</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f>IF(VLOOKUP(L7,价值!$B:$G,5,0)=0,S7,VLOOKUP(L7,价值!$B:$G,5,0)&amp;","&amp;M7)</f>
+        <v>item,103,4</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f>VLOOKUP(O7,价值!$B:$G,3,0)&amp;","&amp;P7</f>
+        <v>coin,8000</v>
+      </c>
+      <c r="V7" s="2" t="str">
+        <f>IF(VLOOKUP(O7,价值!$B:$G,5,0)=0,U7,VLOOKUP(O7,价值!$B:$G,5,0)&amp;","&amp;P7)</f>
+        <v>coin,8000</v>
+      </c>
+      <c r="W7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,4;coin,8000</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,4;coin,8000</v>
+      </c>
+      <c r="Y7" s="5">
         <f>C4</f>
-        <v>200</v>
-      </c>
-      <c r="S7" s="4">
+        <v>360</v>
+      </c>
+      <c r="AA7" s="4">
         <v>60000</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" s="4">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4">
-        <f>VLOOKUP(T7,价值!$B:$G,6,0)*U7</f>
-        <v>90</v>
-      </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>VLOOKUP(AB7,价值!$B:$G,6,0)*AC7</f>
+        <v>500</v>
+      </c>
+      <c r="AE7" s="4" t="str">
+        <f>VLOOKUP(AB7,价值!$B:$G,3,0)&amp;","&amp;AC7</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AF7" s="3" t="str">
+        <f>IF(VLOOKUP(AB7,价值!$B:$G,5,0)=0,AE7,VLOOKUP(AB7,价值!$B:$G,5,0)&amp;","&amp;AC7)</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8" s="1">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <f>VLOOKUP(L8,价值!$B:$G,6,0)*M8</f>
+        <v>150</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <f>VLOOKUP(H8,价值!$B:$G,6,0)*I8</f>
-        <v>150</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="P8" s="2">
         <v>6000</v>
       </c>
-      <c r="M8" s="2">
-        <f>VLOOKUP(K8,价值!$B:$G,6,0)*L8</f>
+      <c r="Q8" s="2">
+        <f>VLOOKUP(O8,价值!$B:$G,6,0)*P8</f>
         <v>120</v>
       </c>
-      <c r="N8" s="2">
+      <c r="R8" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="S8" s="4">
+      <c r="S8" s="2" t="str">
+        <f>VLOOKUP(L8,价值!$B:$G,3,0)&amp;","&amp;M8</f>
+        <v>pack,303,3</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f>IF(VLOOKUP(L8,价值!$B:$G,5,0)=0,S8,VLOOKUP(L8,价值!$B:$G,5,0)&amp;","&amp;M8)</f>
+        <v>item,103,3</v>
+      </c>
+      <c r="U8" s="2" t="str">
+        <f>VLOOKUP(O8,价值!$B:$G,3,0)&amp;","&amp;P8</f>
+        <v>coin,6000</v>
+      </c>
+      <c r="V8" s="2" t="str">
+        <f>IF(VLOOKUP(O8,价值!$B:$G,5,0)=0,U8,VLOOKUP(O8,价值!$B:$G,5,0)&amp;","&amp;P8)</f>
+        <v>coin,6000</v>
+      </c>
+      <c r="W8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,3;coin,6000</v>
+      </c>
+      <c r="X8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,3;coin,6000</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA8" s="4">
         <v>70000</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" s="4">
-        <v>1</v>
-      </c>
-      <c r="V8" s="4">
-        <f>VLOOKUP(T8,价值!$B:$G,6,0)*U8</f>
-        <v>600</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F9" s="1">
+      <c r="AB8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>VLOOKUP(AB8,价值!$B:$G,6,0)*AC8</f>
+        <v>180</v>
+      </c>
+      <c r="AE8" s="4" t="str">
+        <f>VLOOKUP(AB8,价值!$B:$G,3,0)&amp;","&amp;AC8</f>
+        <v>prop,317,2</v>
+      </c>
+      <c r="AF8" s="3" t="str">
+        <f>IF(VLOOKUP(AB8,价值!$B:$G,5,0)=0,AE8,VLOOKUP(AB8,价值!$B:$G,5,0)&amp;","&amp;AC8)</f>
+        <v>prop,317,2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="J9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="1">
+      <c r="K9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <f>VLOOKUP(L9,价值!$B:$G,6,0)*M9</f>
+        <v>100</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <f>VLOOKUP(H9,价值!$B:$G,6,0)*I9</f>
-        <v>100</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="P9" s="2">
         <v>4000</v>
       </c>
-      <c r="M9" s="2">
-        <f>VLOOKUP(K9,价值!$B:$G,6,0)*L9</f>
+      <c r="Q9" s="2">
+        <f>VLOOKUP(O9,价值!$B:$G,6,0)*P9</f>
         <v>80</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="S9" s="4">
+      <c r="S9" s="2" t="str">
+        <f>VLOOKUP(L9,价值!$B:$G,3,0)&amp;","&amp;M9</f>
+        <v>pack,303,2</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f>IF(VLOOKUP(L9,价值!$B:$G,5,0)=0,S9,VLOOKUP(L9,价值!$B:$G,5,0)&amp;","&amp;M9)</f>
+        <v>item,103,2</v>
+      </c>
+      <c r="U9" s="2" t="str">
+        <f>VLOOKUP(O9,价值!$B:$G,3,0)&amp;","&amp;P9</f>
+        <v>coin,4000</v>
+      </c>
+      <c r="V9" s="2" t="str">
+        <f>IF(VLOOKUP(O9,价值!$B:$G,5,0)=0,U9,VLOOKUP(O9,价值!$B:$G,5,0)&amp;","&amp;P9)</f>
+        <v>coin,4000</v>
+      </c>
+      <c r="W9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,2;coin,4000</v>
+      </c>
+      <c r="X9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,2;coin,4000</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="4">
         <v>80000</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="4">
+      <c r="AB9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>VLOOKUP(AB9,价值!$B:$G,6,0)*AC9</f>
+        <v>500</v>
+      </c>
+      <c r="AE9" s="4" t="str">
+        <f>VLOOKUP(AB9,价值!$B:$G,3,0)&amp;","&amp;AC9</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AF9" s="3" t="str">
+        <f>IF(VLOOKUP(AB9,价值!$B:$G,5,0)=0,AE9,VLOOKUP(AB9,价值!$B:$G,5,0)&amp;","&amp;AC9)</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>200</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="4">
-        <f>VLOOKUP(T9,价值!$B:$G,6,0)*U9</f>
-        <v>90</v>
-      </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F10" s="1">
-        <v>100</v>
-      </c>
-      <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <f>VLOOKUP(H10,价值!$B:$G,6,0)*I10</f>
+      <c r="N10" s="2">
+        <f>VLOOKUP(L10,价值!$B:$G,6,0)*M10</f>
         <v>50</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="2">
         <v>3000</v>
       </c>
-      <c r="M10" s="2">
-        <f>VLOOKUP(K10,价值!$B:$G,6,0)*L10</f>
+      <c r="Q10" s="2">
+        <f>VLOOKUP(O10,价值!$B:$G,6,0)*P10</f>
         <v>60</v>
       </c>
-      <c r="N10" s="2">
+      <c r="R10" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="S10" s="2" t="str">
+        <f>VLOOKUP(L10,价值!$B:$G,3,0)&amp;","&amp;M10</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f>IF(VLOOKUP(L10,价值!$B:$G,5,0)=0,S10,VLOOKUP(L10,价值!$B:$G,5,0)&amp;","&amp;M10)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="U10" s="2" t="str">
+        <f>VLOOKUP(O10,价值!$B:$G,3,0)&amp;","&amp;P10</f>
+        <v>coin,3000</v>
+      </c>
+      <c r="V10" s="2" t="str">
+        <f>IF(VLOOKUP(O10,价值!$B:$G,5,0)=0,U10,VLOOKUP(O10,价值!$B:$G,5,0)&amp;","&amp;P10)</f>
+        <v>coin,3000</v>
+      </c>
+      <c r="W10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,1;coin,3000</v>
+      </c>
+      <c r="X10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,1;coin,3000</v>
+      </c>
+      <c r="Y10" s="5">
         <f>D4</f>
         <v>100</v>
       </c>
-      <c r="S10" s="4">
+      <c r="AA10" s="4">
         <v>90000</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="AB10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="4">
+        <f>VLOOKUP(AB10,价值!$B:$G,6,0)*AC10</f>
+        <v>180</v>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>VLOOKUP(AB10,价值!$B:$G,3,0)&amp;","&amp;AC10</f>
+        <v>prop,314,2</v>
+      </c>
+      <c r="AF10" s="3" t="str">
+        <f>IF(VLOOKUP(AB10,价值!$B:$G,5,0)=0,AE10,VLOOKUP(AB10,价值!$B:$G,5,0)&amp;","&amp;AC10)</f>
+        <v>prop,314,2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="J11" s="1">
+        <v>200</v>
+      </c>
+      <c r="K11" s="1">
+        <v>500</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="4">
+      <c r="M11" s="2">
         <v>1</v>
       </c>
-      <c r="V10" s="4">
-        <f>VLOOKUP(T10,价值!$B:$G,6,0)*U10</f>
-        <v>600</v>
-      </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F11" s="1">
-        <v>200</v>
-      </c>
-      <c r="G11" s="1">
-        <v>500</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <f>VLOOKUP(H11,价值!$B:$G,6,0)*I11</f>
+      <c r="N11" s="2">
+        <f>VLOOKUP(L11,价值!$B:$G,6,0)*M11</f>
         <v>50</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="O11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="2">
         <v>2000</v>
       </c>
-      <c r="M11" s="2">
-        <f>VLOOKUP(K11,价值!$B:$G,6,0)*L11</f>
+      <c r="Q11" s="2">
+        <f>VLOOKUP(O11,价值!$B:$G,6,0)*P11</f>
         <v>40</v>
       </c>
-      <c r="N11" s="2">
+      <c r="R11" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="S11" s="4">
+      <c r="S11" s="2" t="str">
+        <f>VLOOKUP(L11,价值!$B:$G,3,0)&amp;","&amp;M11</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f>IF(VLOOKUP(L11,价值!$B:$G,5,0)=0,S11,VLOOKUP(L11,价值!$B:$G,5,0)&amp;","&amp;M11)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f>VLOOKUP(O11,价值!$B:$G,3,0)&amp;","&amp;P11</f>
+        <v>coin,2000</v>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f>IF(VLOOKUP(O11,价值!$B:$G,5,0)=0,U11,VLOOKUP(O11,价值!$B:$G,5,0)&amp;","&amp;P11)</f>
+        <v>coin,2000</v>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,1;coin,2000</v>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,1;coin,2000</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="4">
         <v>100000</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="4">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4">
-        <f>VLOOKUP(T11,价值!$B:$G,6,0)*U11</f>
-        <v>360</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>VLOOKUP(AB11,价值!$B:$G,6,0)*AC11</f>
+        <v>500</v>
+      </c>
+      <c r="AE11" s="4" t="str">
+        <f>VLOOKUP(AB11,价值!$B:$G,3,0)&amp;","&amp;AC11</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AF11" s="3" t="str">
+        <f>IF(VLOOKUP(AB11,价值!$B:$G,5,0)=0,AE11,VLOOKUP(AB11,价值!$B:$G,5,0)&amp;","&amp;AC11)</f>
+        <v>prop,702,2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1">
+      <c r="J12" s="1">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="K12" s="1">
         <v>1000</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="L12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
-        <f>VLOOKUP(H12,价值!$B:$G,6,0)*I12</f>
+      <c r="N12" s="2">
+        <f>VLOOKUP(L12,价值!$B:$G,6,0)*M12</f>
         <v>50</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="O12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="2">
-        <f>VLOOKUP(K12,价值!$B:$G,6,0)*L12</f>
+      <c r="Q12" s="2">
+        <f>VLOOKUP(O12,价值!$B:$G,6,0)*P12</f>
         <v>20</v>
       </c>
-      <c r="N12" s="2">
+      <c r="R12" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="S12" s="4">
+      <c r="S12" s="2" t="str">
+        <f>VLOOKUP(L12,价值!$B:$G,3,0)&amp;","&amp;M12</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f>IF(VLOOKUP(L12,价值!$B:$G,5,0)=0,S12,VLOOKUP(L12,价值!$B:$G,5,0)&amp;","&amp;M12)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f>VLOOKUP(O12,价值!$B:$G,3,0)&amp;","&amp;P12</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f>IF(VLOOKUP(O12,价值!$B:$G,5,0)=0,U12,VLOOKUP(O12,价值!$B:$G,5,0)&amp;","&amp;P12)</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,1;coin,1000</v>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,1;coin,1000</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="4">
         <v>110000</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" s="4">
-        <v>1</v>
-      </c>
-      <c r="V12" s="4">
-        <f>VLOOKUP(T12,价值!$B:$G,6,0)*U12</f>
-        <v>600</v>
-      </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="4">
+        <f>VLOOKUP(AB12,价值!$B:$G,6,0)*AC12</f>
+        <v>720</v>
+      </c>
+      <c r="AE12" s="4" t="str">
+        <f>VLOOKUP(AB12,价值!$B:$G,3,0)&amp;","&amp;AC12</f>
+        <v>prop,315,2</v>
+      </c>
+      <c r="AF12" s="3" t="str">
+        <f>IF(VLOOKUP(AB12,价值!$B:$G,5,0)=0,AE12,VLOOKUP(AB12,价值!$B:$G,5,0)&amp;","&amp;AC12)</f>
+        <v>prop,315,2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>22900</v>
       </c>
-      <c r="F13" s="1">
+      <c r="J13" s="1">
         <v>1000</v>
       </c>
-      <c r="G13" s="1">
+      <c r="K13" s="1">
         <v>9999</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="L13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2">
-        <f>VLOOKUP(H13,价值!$B:$G,6,0)*I13</f>
+      <c r="N13" s="2">
+        <f>VLOOKUP(L13,价值!$B:$G,6,0)*M13</f>
         <v>50</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="O13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="2">
         <v>500</v>
       </c>
-      <c r="M13" s="2">
-        <f>VLOOKUP(K13,价值!$B:$G,6,0)*L13</f>
+      <c r="Q13" s="2">
+        <f>VLOOKUP(O13,价值!$B:$G,6,0)*P13</f>
         <v>10</v>
       </c>
-      <c r="N13" s="2">
+      <c r="R13" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="S13" s="4">
+      <c r="S13" s="2" t="str">
+        <f>VLOOKUP(L13,价值!$B:$G,3,0)&amp;","&amp;M13</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f>IF(VLOOKUP(L13,价值!$B:$G,5,0)=0,S13,VLOOKUP(L13,价值!$B:$G,5,0)&amp;","&amp;M13)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="U13" s="2" t="str">
+        <f>VLOOKUP(O13,价值!$B:$G,3,0)&amp;","&amp;P13</f>
+        <v>coin,500</v>
+      </c>
+      <c r="V13" s="2" t="str">
+        <f>IF(VLOOKUP(O13,价值!$B:$G,5,0)=0,U13,VLOOKUP(O13,价值!$B:$G,5,0)&amp;","&amp;P13)</f>
+        <v>coin,500</v>
+      </c>
+      <c r="W13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,303,1;coin,500</v>
+      </c>
+      <c r="X13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>item,103,1;coin,500</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" s="4">
         <v>120000</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U13" s="4">
-        <v>1</v>
-      </c>
-      <c r="V13" s="4">
-        <f>VLOOKUP(T13,价值!$B:$G,6,0)*U13</f>
-        <v>360</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="S14" s="4">
+      <c r="AB13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="4">
+        <f>VLOOKUP(AB13,价值!$B:$G,6,0)*AC13</f>
+        <v>1200</v>
+      </c>
+      <c r="AE13" s="4" t="str">
+        <f>VLOOKUP(AB13,价值!$B:$G,3,0)&amp;","&amp;AC13</f>
+        <v>pack,304,2</v>
+      </c>
+      <c r="AF13" s="3" t="str">
+        <f>IF(VLOOKUP(AB13,价值!$B:$G,5,0)=0,AE13,VLOOKUP(AB13,价值!$B:$G,5,0)&amp;","&amp;AC13)</f>
+        <v>item,104,2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AA14" s="4">
         <v>130000</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="4">
-        <v>1</v>
-      </c>
-      <c r="V14" s="4">
-        <f>VLOOKUP(T14,价值!$B:$G,6,0)*U14</f>
-        <v>4800</v>
-      </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="S15" s="4">
+      <c r="AB14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>VLOOKUP(AB14,价值!$B:$G,6,0)*AC14</f>
+        <v>720</v>
+      </c>
+      <c r="AE14" s="4" t="str">
+        <f>VLOOKUP(AB14,价值!$B:$G,3,0)&amp;","&amp;AC14</f>
+        <v>prop,318,2</v>
+      </c>
+      <c r="AF14" s="3" t="str">
+        <f>IF(VLOOKUP(AB14,价值!$B:$G,5,0)=0,AE14,VLOOKUP(AB14,价值!$B:$G,5,0)&amp;","&amp;AC14)</f>
+        <v>prop,318,2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AA15" s="4">
         <v>140000</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-      <c r="V15" s="4">
-        <f>VLOOKUP(T15,价值!$B:$G,6,0)*U15</f>
-        <v>4800</v>
-      </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4">
+      <c r="AB15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="4">
+        <f>VLOOKUP(AB15,价值!$B:$G,6,0)*AC15</f>
+        <v>1200</v>
+      </c>
+      <c r="AE15" s="4" t="str">
+        <f>VLOOKUP(AB15,价值!$B:$G,3,0)&amp;","&amp;AC15</f>
+        <v>pack,304,2</v>
+      </c>
+      <c r="AF15" s="3" t="str">
+        <f>IF(VLOOKUP(AB15,价值!$B:$G,5,0)=0,AE15,VLOOKUP(AB15,价值!$B:$G,5,0)&amp;","&amp;AC15)</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="AG15" s="4">
         <f>积分计算!K11</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="S16" s="4">
+      <c r="AA16" s="4">
         <v>150000</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U16" s="4">
+      <c r="AB16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="4">
         <v>1</v>
       </c>
-      <c r="V16" s="4">
-        <f>VLOOKUP(T16,价值!$B:$G,6,0)*U16</f>
+      <c r="AD16" s="4">
+        <f>VLOOKUP(AB16,价值!$B:$G,6,0)*AC16</f>
         <v>4800</v>
       </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="5">
+      <c r="AE16" s="4" t="str">
+        <f>VLOOKUP(AB16,价值!$B:$G,3,0)&amp;","&amp;AC16</f>
+        <v>pack,305,1</v>
+      </c>
+      <c r="AF16" s="3" t="str">
+        <f>IF(VLOOKUP(AB16,价值!$B:$G,5,0)=0,AE16,VLOOKUP(AB16,价值!$B:$G,5,0)&amp;","&amp;AC16)</f>
+        <v>item,105,1</v>
+      </c>
+      <c r="AG16" s="5">
         <f>D3</f>
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B17" s="2">
         <v>50</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4">
-        <f>SUM(V2:V16)</f>
-        <v>17580</v>
-      </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4">
+        <f>SUM(AD2:AD16)</f>
+        <v>11860</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6525,732 +7111,1933 @@
         <f>220</f>
         <v>220</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F19" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="J19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="U19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="AC19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="AD19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="AE19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="AJ19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z19" s="4" t="s">
+      <c r="AK19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL19" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="AM19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="2">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
+        <f>B8</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="2">
+        <f>K20*100</f>
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
-        <f>VLOOKUP(H20,价值!$B:$G,6,0)*I20</f>
+      <c r="L20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <f>VLOOKUP(L20,价值!$B:$G,6,0)*M20</f>
         <v>1500</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="O20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2">
         <v>3</v>
       </c>
-      <c r="M20" s="2">
-        <f>VLOOKUP(K20,价值!$B:$G,6,0)*L20</f>
+      <c r="Q20" s="2">
+        <f>VLOOKUP(O20,价值!$B:$G,6,0)*P20</f>
         <v>1800</v>
       </c>
-      <c r="N20" s="2">
-        <f>J20+M20</f>
+      <c r="R20" s="2">
+        <f>N20+Q20</f>
         <v>3300</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="S20" s="2" t="str">
+        <f>VLOOKUP(L20,价值!$B:$G,3,0)&amp;","&amp;M20</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="T20" s="2" t="str">
+        <f>IF(VLOOKUP(L20,价值!$B:$G,5,0)=0,S20,VLOOKUP(L20,价值!$B:$G,5,0)&amp;","&amp;M20)</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="U20" s="2" t="str">
+        <f>VLOOKUP(O20,价值!$B:$G,3,0)&amp;","&amp;P20</f>
+        <v>pack,304,3</v>
+      </c>
+      <c r="V20" s="2" t="str">
+        <f>IF(VLOOKUP(O20,价值!$B:$G,5,0)=0,U20,VLOOKUP(O20,价值!$B:$G,5,0)&amp;","&amp;P20)</f>
+        <v>item,104,3</v>
+      </c>
+      <c r="W20" s="2" t="str">
+        <f>S20&amp;";"&amp;U20</f>
+        <v>prop,705,1;pack,304,3</v>
+      </c>
+      <c r="X20" s="2" t="str">
+        <f>T20&amp;";"&amp;V20</f>
+        <v>prop,705,1;item,104,3</v>
+      </c>
+      <c r="Y20" s="5">
         <f>B5</f>
         <v>3300</v>
       </c>
-      <c r="S20" s="4">
+      <c r="AA20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U20" s="4">
+      <c r="AB20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC20" s="4">
         <v>1</v>
       </c>
-      <c r="V20" s="4">
-        <f>VLOOKUP(T20,价值!$B:$G,6,0)*U20</f>
+      <c r="AD20" s="4">
+        <f>VLOOKUP(AB20,价值!$B:$G,6,0)*AC20</f>
         <v>15</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="AE20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <f>3*AF20</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI20" s="4">
         <v>750</v>
       </c>
-      <c r="Y20" s="4">
-        <f>VLOOKUP(W20,价值!$B:$G,6,0)*X20</f>
+      <c r="AJ20" s="4">
+        <f>VLOOKUP(AH20,价值!$B:$G,6,0)*AI20</f>
         <v>15</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="AK20" s="4">
+        <f>AD20+AG20+AJ20</f>
+        <v>30</v>
+      </c>
+      <c r="AL20" s="5">
         <f>D8</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
+      <c r="AM20" s="2" t="str">
+        <f>VLOOKUP(AB20,价值!$B:$G,3,0)&amp;","&amp;AC20</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN20" s="2" t="str">
+        <f>IF(VLOOKUP(AB20,价值!$B:$G,5,0)=0,AM20,VLOOKUP(AB20,价值!$B:$G,5,0)&amp;","&amp;AC20)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO20" s="2" t="str">
+        <f>IF(AF20=0,"",VLOOKUP(AE20,价值!$B:$G,3,0)&amp;","&amp;AF20)</f>
+        <v/>
+      </c>
+      <c r="AP20" s="2" t="str">
+        <f>IF(AF20=0,"",IF(VLOOKUP(AE20,价值!$B:$G,5,0)=0,AO20,VLOOKUP(AE20,价值!$B:$G,5,0)&amp;","&amp;AF20))</f>
+        <v/>
+      </c>
+      <c r="AQ20" s="2" t="str">
+        <f>VLOOKUP(AH20,价值!$B:$G,3,0)&amp;","&amp;AI20</f>
+        <v>coin,750</v>
+      </c>
+      <c r="AR20" s="2" t="str">
+        <f>IF(VLOOKUP(AH20,价值!$B:$G,5,0)=0,AQ20,VLOOKUP(AH20,价值!$B:$G,5,0)&amp;","&amp;AI20)</f>
+        <v>coin,750</v>
+      </c>
+      <c r="AS20" s="2" t="str">
+        <f>AM20&amp;IF(AO20="","",";"&amp;AO20)&amp;";"&amp;AQ20</f>
+        <v>pack,302,1;coin,750</v>
+      </c>
+      <c r="AT20" s="2" t="str">
+        <f>AS20</f>
+        <v>pack,302,1;coin,750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B21" s="2">
         <f>B20/B18*B17</f>
-        <v>11.363636363636363</v>
-      </c>
-      <c r="F21" s="1">
+        <v>22.727272727272727</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" ref="I21:I28" si="2">K21*100</f>
+        <v>300</v>
+      </c>
+      <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1">
+      <c r="K21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="L21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="2">
-        <f>VLOOKUP(H21,价值!$B:$G,6,0)*I21</f>
+      <c r="N21" s="2">
+        <f>VLOOKUP(L21,价值!$B:$G,6,0)*M21</f>
         <v>1500</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="O21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="2">
         <v>2</v>
       </c>
-      <c r="M21" s="2">
-        <f>VLOOKUP(K21,价值!$B:$G,6,0)*L21</f>
+      <c r="Q21" s="2">
+        <f>VLOOKUP(O21,价值!$B:$G,6,0)*P21</f>
         <v>1200</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" ref="N21:N28" si="1">J21+M21</f>
+      <c r="R21" s="2">
+        <f t="shared" ref="R21:R28" si="3">N21+Q21</f>
         <v>2700</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="S21" s="4">
+      <c r="S21" s="2" t="str">
+        <f>VLOOKUP(L21,价值!$B:$G,3,0)&amp;","&amp;M21</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="T21" s="2" t="str">
+        <f>IF(VLOOKUP(L21,价值!$B:$G,5,0)=0,S21,VLOOKUP(L21,价值!$B:$G,5,0)&amp;","&amp;M21)</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="U21" s="2" t="str">
+        <f>VLOOKUP(O21,价值!$B:$G,3,0)&amp;","&amp;P21</f>
+        <v>pack,304,2</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f>IF(VLOOKUP(O21,价值!$B:$G,5,0)=0,U21,VLOOKUP(O21,价值!$B:$G,5,0)&amp;","&amp;P21)</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="W21" s="2" t="str">
+        <f t="shared" ref="W21:W28" si="4">S21&amp;";"&amp;U21</f>
+        <v>prop,705,1;pack,304,2</v>
+      </c>
+      <c r="X21" s="2" t="str">
+        <f t="shared" ref="X21:X28" si="5">T21&amp;";"&amp;V21</f>
+        <v>prop,705,1;item,104,2</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" s="4">
         <v>2</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21" s="4">
+      <c r="AB21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC21" s="4">
         <v>1</v>
       </c>
-      <c r="V21" s="4">
-        <f>VLOOKUP(T21,价值!$B:$G,6,0)*U21</f>
+      <c r="AD21" s="4">
+        <f>VLOOKUP(AB21,价值!$B:$G,6,0)*AC21</f>
         <v>15</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="AE21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <f t="shared" ref="AG21:AG32" si="6">3*AF21</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>800</v>
+      </c>
+      <c r="AJ21" s="4">
+        <f>VLOOKUP(AH21,价值!$B:$G,6,0)*AI21</f>
+        <v>16</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" ref="AK21:AK32" si="7">AD21+AG21+AJ21</f>
+        <v>31</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="2" t="str">
+        <f>VLOOKUP(AB21,价值!$B:$G,3,0)&amp;","&amp;AC21</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN21" s="2" t="str">
+        <f>IF(VLOOKUP(AB21,价值!$B:$G,5,0)=0,AM21,VLOOKUP(AB21,价值!$B:$G,5,0)&amp;","&amp;AC21)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO21" s="2" t="str">
+        <f>IF(AF21=0,"",VLOOKUP(AE21,价值!$B:$G,3,0)&amp;","&amp;AF21)</f>
+        <v/>
+      </c>
+      <c r="AP21" s="2" t="str">
+        <f>IF(AF21=0,"",IF(VLOOKUP(AE21,价值!$B:$G,5,0)=0,AO21,VLOOKUP(AE21,价值!$B:$G,5,0)&amp;","&amp;AF21))</f>
+        <v/>
+      </c>
+      <c r="AQ21" s="2" t="str">
+        <f>VLOOKUP(AH21,价值!$B:$G,3,0)&amp;","&amp;AI21</f>
+        <v>coin,800</v>
+      </c>
+      <c r="AR21" s="2" t="str">
+        <f>IF(VLOOKUP(AH21,价值!$B:$G,5,0)=0,AQ21,VLOOKUP(AH21,价值!$B:$G,5,0)&amp;","&amp;AI21)</f>
+        <v>coin,800</v>
+      </c>
+      <c r="AS21" s="2" t="str">
+        <f t="shared" ref="AS21:AT32" si="8">AM21&amp;IF(AO21="","",";"&amp;AO21)&amp;";"&amp;AQ21</f>
+        <v>pack,302,1;coin,800</v>
+      </c>
+      <c r="AT21" s="2" t="str">
+        <f>AT20&amp;"#S#"&amp;AS21</f>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="I22" s="2">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <f>VLOOKUP(L22,价值!$B:$G,6,0)*M22</f>
+        <v>1500</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>VLOOKUP(O22,价值!$B:$G,6,0)*P22</f>
+        <v>600</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="S22" s="2" t="str">
+        <f>VLOOKUP(L22,价值!$B:$G,3,0)&amp;","&amp;M22</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="T22" s="2" t="str">
+        <f>IF(VLOOKUP(L22,价值!$B:$G,5,0)=0,S22,VLOOKUP(L22,价值!$B:$G,5,0)&amp;","&amp;M22)</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="U22" s="2" t="str">
+        <f>VLOOKUP(O22,价值!$B:$G,3,0)&amp;","&amp;P22</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="V22" s="2" t="str">
+        <f>IF(VLOOKUP(O22,价值!$B:$G,5,0)=0,U22,VLOOKUP(O22,价值!$B:$G,5,0)&amp;","&amp;P22)</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="W22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>prop,705,1;pack,304,1</v>
+      </c>
+      <c r="X22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>prop,705,1;item,104,1</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="4">
+        <f>VLOOKUP(AB22,价值!$B:$G,6,0)*AC22</f>
+        <v>15</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>850</v>
+      </c>
+      <c r="AJ22" s="4">
+        <f>VLOOKUP(AH22,价值!$B:$G,6,0)*AI22</f>
+        <v>17</v>
+      </c>
+      <c r="AK22" s="4">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="2" t="str">
+        <f>VLOOKUP(AB22,价值!$B:$G,3,0)&amp;","&amp;AC22</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN22" s="2" t="str">
+        <f>IF(VLOOKUP(AB22,价值!$B:$G,5,0)=0,AM22,VLOOKUP(AB22,价值!$B:$G,5,0)&amp;","&amp;AC22)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO22" s="2" t="str">
+        <f>IF(AF22=0,"",VLOOKUP(AE22,价值!$B:$G,3,0)&amp;","&amp;AF22)</f>
+        <v/>
+      </c>
+      <c r="AP22" s="2" t="str">
+        <f>IF(AF22=0,"",IF(VLOOKUP(AE22,价值!$B:$G,5,0)=0,AO22,VLOOKUP(AE22,价值!$B:$G,5,0)&amp;","&amp;AF22))</f>
+        <v/>
+      </c>
+      <c r="AQ22" s="2" t="str">
+        <f>VLOOKUP(AH22,价值!$B:$G,3,0)&amp;","&amp;AI22</f>
+        <v>coin,850</v>
+      </c>
+      <c r="AR22" s="2" t="str">
+        <f>IF(VLOOKUP(AH22,价值!$B:$G,5,0)=0,AQ22,VLOOKUP(AH22,价值!$B:$G,5,0)&amp;","&amp;AI22)</f>
+        <v>coin,850</v>
+      </c>
+      <c r="AS22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,302,1;coin,850</v>
+      </c>
+      <c r="AT22" s="2" t="str">
+        <f t="shared" ref="AT22:AT32" si="9">AT21&amp;"#S#"&amp;AS22</f>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X21" s="4">
-        <v>800</v>
-      </c>
-      <c r="Y21" s="4">
-        <f>VLOOKUP(W21,价值!$B:$G,6,0)*X21</f>
-        <v>16</v>
-      </c>
-      <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F22" s="1">
+      <c r="B23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4</v>
+      </c>
+      <c r="N23" s="2">
+        <f>VLOOKUP(L23,价值!$B:$G,6,0)*M23</f>
+        <v>1000</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>VLOOKUP(O23,价值!$B:$G,6,0)*P23</f>
+        <v>600</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f>VLOOKUP(L23,价值!$B:$G,3,0)&amp;","&amp;M23</f>
+        <v>prop,702,4</v>
+      </c>
+      <c r="T23" s="2" t="str">
+        <f>IF(VLOOKUP(L23,价值!$B:$G,5,0)=0,S23,VLOOKUP(L23,价值!$B:$G,5,0)&amp;","&amp;M23)</f>
+        <v>prop,702,4</v>
+      </c>
+      <c r="U23" s="2" t="str">
+        <f>VLOOKUP(O23,价值!$B:$G,3,0)&amp;","&amp;P23</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="V23" s="2" t="str">
+        <f>IF(VLOOKUP(O23,价值!$B:$G,5,0)=0,U23,VLOOKUP(O23,价值!$B:$G,5,0)&amp;","&amp;P23)</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="W23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>prop,702,4;pack,304,1</v>
+      </c>
+      <c r="X23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>prop,702,4;item,104,1</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>C5</f>
+        <v>1600</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>VLOOKUP(AB23,价值!$B:$G,6,0)*AC23</f>
+        <v>15</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G22" s="1">
-        <v>6</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <f>VLOOKUP(H22,价值!$B:$G,6,0)*I22</f>
-        <v>1500</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <f>VLOOKUP(K22,价值!$B:$G,6,0)*L22</f>
-        <v>600</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="1"/>
-        <v>2100</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="S22" s="4">
-        <v>3</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <f>VLOOKUP(T22,价值!$B:$G,6,0)*U22</f>
-        <v>15</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X22" s="4">
-        <v>850</v>
-      </c>
-      <c r="Y22" s="4">
-        <f>VLOOKUP(W22,价值!$B:$G,6,0)*X22</f>
-        <v>17</v>
-      </c>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="AH23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>900</v>
+      </c>
+      <c r="AJ23" s="4">
+        <f>VLOOKUP(AH23,价值!$B:$G,6,0)*AI23</f>
+        <v>18</v>
+      </c>
+      <c r="AK23" s="4">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="2" t="str">
+        <f>VLOOKUP(AB23,价值!$B:$G,3,0)&amp;","&amp;AC23</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN23" s="2" t="str">
+        <f>IF(VLOOKUP(AB23,价值!$B:$G,5,0)=0,AM23,VLOOKUP(AB23,价值!$B:$G,5,0)&amp;","&amp;AC23)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO23" s="2" t="str">
+        <f>IF(AF23=0,"",VLOOKUP(AE23,价值!$B:$G,3,0)&amp;","&amp;AF23)</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AP23" s="2" t="str">
+        <f>IF(AF23=0,"",IF(VLOOKUP(AE23,价值!$B:$G,5,0)=0,AO23,VLOOKUP(AE23,价值!$B:$G,5,0)&amp;","&amp;AF23))</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AQ23" s="2" t="str">
+        <f>VLOOKUP(AH23,价值!$B:$G,3,0)&amp;","&amp;AI23</f>
+        <v>coin,900</v>
+      </c>
+      <c r="AR23" s="2" t="str">
+        <f>IF(VLOOKUP(AH23,价值!$B:$G,5,0)=0,AQ23,VLOOKUP(AH23,价值!$B:$G,5,0)&amp;","&amp;AI23)</f>
+        <v>coin,900</v>
+      </c>
+      <c r="AS23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,302,1;pack,302,1;coin,900</v>
+      </c>
+      <c r="AT23" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
-        <f>VLOOKUP(H23,价值!$B:$G,6,0)*I23</f>
-        <v>1250</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <f>VLOOKUP(K23,价值!$B:$G,6,0)*L23</f>
-        <v>600</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="1"/>
-        <v>1850</v>
-      </c>
-      <c r="Q23" s="5">
-        <f>C5</f>
-        <v>1800</v>
-      </c>
-      <c r="S23" s="4">
-        <v>4</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U23" s="4">
-        <v>1</v>
-      </c>
-      <c r="V23" s="4">
-        <f>VLOOKUP(T23,价值!$B:$G,6,0)*U23</f>
-        <v>15</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X23" s="4">
-        <v>900</v>
-      </c>
-      <c r="Y23" s="4">
-        <f>VLOOKUP(W23,价值!$B:$G,6,0)*X23</f>
-        <v>18</v>
-      </c>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B24" s="2">
         <f>FLOOR(B21/B23,10)</f>
         <v>50</v>
       </c>
-      <c r="F24" s="1">
+      <c r="I24" s="2">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="J24" s="1">
         <v>10</v>
       </c>
-      <c r="G24" s="1">
+      <c r="K24" s="1">
         <v>15</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="L24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2">
+        <f>VLOOKUP(L24,价值!$B:$G,6,0)*M24</f>
+        <v>750</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="2">
-        <v>4</v>
-      </c>
-      <c r="J24" s="2">
-        <f>VLOOKUP(H24,价值!$B:$G,6,0)*I24</f>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>VLOOKUP(O24,价值!$B:$G,6,0)*P24</f>
+        <v>600</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f>VLOOKUP(L24,价值!$B:$G,3,0)&amp;","&amp;M24</f>
+        <v>prop,702,3</v>
+      </c>
+      <c r="T24" s="2" t="str">
+        <f>IF(VLOOKUP(L24,价值!$B:$G,5,0)=0,S24,VLOOKUP(L24,价值!$B:$G,5,0)&amp;","&amp;M24)</f>
+        <v>prop,702,3</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f>VLOOKUP(O24,价值!$B:$G,3,0)&amp;","&amp;P24</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="V24" s="2" t="str">
+        <f>IF(VLOOKUP(O24,价值!$B:$G,5,0)=0,U24,VLOOKUP(O24,价值!$B:$G,5,0)&amp;","&amp;P24)</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="W24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>prop,702,3;pack,304,1</v>
+      </c>
+      <c r="X24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>prop,702,3;item,104,1</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>VLOOKUP(AB24,价值!$B:$G,6,0)*AC24</f>
+        <v>15</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>950</v>
+      </c>
+      <c r="AJ24" s="4">
+        <f>VLOOKUP(AH24,价值!$B:$G,6,0)*AI24</f>
+        <v>19</v>
+      </c>
+      <c r="AK24" s="4">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="2" t="str">
+        <f>VLOOKUP(AB24,价值!$B:$G,3,0)&amp;","&amp;AC24</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN24" s="2" t="str">
+        <f>IF(VLOOKUP(AB24,价值!$B:$G,5,0)=0,AM24,VLOOKUP(AB24,价值!$B:$G,5,0)&amp;","&amp;AC24)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO24" s="2" t="str">
+        <f>IF(AF24=0,"",VLOOKUP(AE24,价值!$B:$G,3,0)&amp;","&amp;AF24)</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AP24" s="2" t="str">
+        <f>IF(AF24=0,"",IF(VLOOKUP(AE24,价值!$B:$G,5,0)=0,AO24,VLOOKUP(AE24,价值!$B:$G,5,0)&amp;","&amp;AF24))</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AQ24" s="2" t="str">
+        <f>VLOOKUP(AH24,价值!$B:$G,3,0)&amp;","&amp;AI24</f>
+        <v>coin,950</v>
+      </c>
+      <c r="AR24" s="2" t="str">
+        <f>IF(VLOOKUP(AH24,价值!$B:$G,5,0)=0,AQ24,VLOOKUP(AH24,价值!$B:$G,5,0)&amp;","&amp;AI24)</f>
+        <v>coin,950</v>
+      </c>
+      <c r="AS24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,302,1;pack,302,1;coin,950</v>
+      </c>
+      <c r="AT24" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="I25" s="2">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <f>VLOOKUP(L25,价值!$B:$G,6,0)*M25</f>
+        <v>500</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>VLOOKUP(O25,价值!$B:$G,6,0)*P25</f>
+        <v>600</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f>VLOOKUP(L25,价值!$B:$G,3,0)&amp;","&amp;M25</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="T25" s="2" t="str">
+        <f>IF(VLOOKUP(L25,价值!$B:$G,5,0)=0,S25,VLOOKUP(L25,价值!$B:$G,5,0)&amp;","&amp;M25)</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>VLOOKUP(O25,价值!$B:$G,3,0)&amp;","&amp;P25</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="V25" s="2" t="str">
+        <f>IF(VLOOKUP(O25,价值!$B:$G,5,0)=0,U25,VLOOKUP(O25,价值!$B:$G,5,0)&amp;","&amp;P25)</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="W25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>prop,702,2;pack,304,1</v>
+      </c>
+      <c r="X25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>prop,702,2;item,104,1</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="4">
+        <f>VLOOKUP(AB25,价值!$B:$G,6,0)*AC25</f>
+        <v>15</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI25" s="4">
         <v>1000</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="AJ25" s="4">
+        <f>VLOOKUP(AH25,价值!$B:$G,6,0)*AI25</f>
+        <v>20</v>
+      </c>
+      <c r="AK25" s="4">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="2" t="str">
+        <f>VLOOKUP(AB25,价值!$B:$G,3,0)&amp;","&amp;AC25</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN25" s="2" t="str">
+        <f>IF(VLOOKUP(AB25,价值!$B:$G,5,0)=0,AM25,VLOOKUP(AB25,价值!$B:$G,5,0)&amp;","&amp;AC25)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO25" s="2" t="str">
+        <f>IF(AF25=0,"",VLOOKUP(AE25,价值!$B:$G,3,0)&amp;","&amp;AF25)</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AP25" s="2" t="str">
+        <f>IF(AF25=0,"",IF(VLOOKUP(AE25,价值!$B:$G,5,0)=0,AO25,VLOOKUP(AE25,价值!$B:$G,5,0)&amp;","&amp;AF25))</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AQ25" s="2" t="str">
+        <f>VLOOKUP(AH25,价值!$B:$G,3,0)&amp;","&amp;AI25</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="AR25" s="2" t="str">
+        <f>IF(VLOOKUP(AH25,价值!$B:$G,5,0)=0,AQ25,VLOOKUP(AH25,价值!$B:$G,5,0)&amp;","&amp;AI25)</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="AS25" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,302,1;pack,302,1;coin,1000</v>
+      </c>
+      <c r="AT25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="I26" s="2">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1">
+        <v>30</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="2">
         <v>1</v>
       </c>
-      <c r="M24" s="2">
-        <f>VLOOKUP(K24,价值!$B:$G,6,0)*L24</f>
-        <v>600</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="S24" s="4">
+      <c r="N26" s="2">
+        <f>VLOOKUP(L26,价值!$B:$G,6,0)*M26</f>
+        <v>250</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="2">
         <v>5</v>
       </c>
-      <c r="T24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U24" s="4">
+      <c r="Q26" s="2">
+        <f>VLOOKUP(O26,价值!$B:$G,6,0)*P26</f>
+        <v>250</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f>VLOOKUP(L26,价值!$B:$G,3,0)&amp;","&amp;M26</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f>IF(VLOOKUP(L26,价值!$B:$G,5,0)=0,S26,VLOOKUP(L26,价值!$B:$G,5,0)&amp;","&amp;M26)</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f>VLOOKUP(O26,价值!$B:$G,3,0)&amp;","&amp;P26</f>
+        <v>pack,303,5</v>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f>IF(VLOOKUP(O26,价值!$B:$G,5,0)=0,U26,VLOOKUP(O26,价值!$B:$G,5,0)&amp;","&amp;P26)</f>
+        <v>item,103,5</v>
+      </c>
+      <c r="W26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>prop,702,1;pack,303,5</v>
+      </c>
+      <c r="X26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>prop,702,1;item,103,5</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC26" s="4">
         <v>1</v>
       </c>
-      <c r="V24" s="4">
-        <f>VLOOKUP(T24,价值!$B:$G,6,0)*U24</f>
+      <c r="AD26" s="4">
+        <f>VLOOKUP(AB26,价值!$B:$G,6,0)*AC26</f>
         <v>15</v>
       </c>
-      <c r="W24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X24" s="4">
-        <v>950</v>
-      </c>
-      <c r="Y24" s="4">
-        <f>VLOOKUP(W24,价值!$B:$G,6,0)*X24</f>
-        <v>19</v>
-      </c>
-      <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F25" s="1">
+      <c r="AE26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="4">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1100</v>
+      </c>
+      <c r="AJ26" s="4">
+        <f>VLOOKUP(AH26,价值!$B:$G,6,0)*AI26</f>
+        <v>22</v>
+      </c>
+      <c r="AK26" s="4">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="2" t="str">
+        <f>VLOOKUP(AB26,价值!$B:$G,3,0)&amp;","&amp;AC26</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN26" s="2" t="str">
+        <f>IF(VLOOKUP(AB26,价值!$B:$G,5,0)=0,AM26,VLOOKUP(AB26,价值!$B:$G,5,0)&amp;","&amp;AC26)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO26" s="2" t="str">
+        <f>IF(AF26=0,"",VLOOKUP(AE26,价值!$B:$G,3,0)&amp;","&amp;AF26)</f>
+        <v>pack,302,2</v>
+      </c>
+      <c r="AP26" s="2" t="str">
+        <f>IF(AF26=0,"",IF(VLOOKUP(AE26,价值!$B:$G,5,0)=0,AO26,VLOOKUP(AE26,价值!$B:$G,5,0)&amp;","&amp;AF26))</f>
+        <v>item,102,2</v>
+      </c>
+      <c r="AQ26" s="2" t="str">
+        <f>VLOOKUP(AH26,价值!$B:$G,3,0)&amp;","&amp;AI26</f>
+        <v>coin,1100</v>
+      </c>
+      <c r="AR26" s="2" t="str">
+        <f>IF(VLOOKUP(AH26,价值!$B:$G,5,0)=0,AQ26,VLOOKUP(AH26,价值!$B:$G,5,0)&amp;","&amp;AI26)</f>
+        <v>coin,1100</v>
+      </c>
+      <c r="AS26" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,302,1;pack,302,2;coin,1100</v>
+      </c>
+      <c r="AT26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="I27" s="2">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1">
+        <v>50</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <f>VLOOKUP(L27,价值!$B:$G,6,0)*M27</f>
+        <v>250</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>VLOOKUP(O27,价值!$B:$G,6,0)*P27</f>
+        <v>100</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="S27" s="2" t="str">
+        <f>VLOOKUP(L27,价值!$B:$G,3,0)&amp;","&amp;M27</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="T27" s="2" t="str">
+        <f>IF(VLOOKUP(L27,价值!$B:$G,5,0)=0,S27,VLOOKUP(L27,价值!$B:$G,5,0)&amp;","&amp;M27)</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="U27" s="2" t="str">
+        <f>VLOOKUP(O27,价值!$B:$G,3,0)&amp;","&amp;P27</f>
+        <v>pack,303,2</v>
+      </c>
+      <c r="V27" s="2" t="str">
+        <f>IF(VLOOKUP(O27,价值!$B:$G,5,0)=0,U27,VLOOKUP(O27,价值!$B:$G,5,0)&amp;","&amp;P27)</f>
+        <v>item,103,2</v>
+      </c>
+      <c r="W27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>prop,702,1;pack,303,2</v>
+      </c>
+      <c r="X27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>prop,702,1;item,103,2</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="4">
+        <f>VLOOKUP(AB27,价值!$B:$G,6,0)*AC27</f>
         <v>15</v>
       </c>
-      <c r="G25" s="1">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2">
-        <f>VLOOKUP(H25,价值!$B:$G,6,0)*I25</f>
-        <v>750</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="AE27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="4">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1200</v>
+      </c>
+      <c r="AJ27" s="4">
+        <f>VLOOKUP(AH27,价值!$B:$G,6,0)*AI27</f>
+        <v>24</v>
+      </c>
+      <c r="AK27" s="4">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="2" t="str">
+        <f>VLOOKUP(AB27,价值!$B:$G,3,0)&amp;","&amp;AC27</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="AN27" s="2" t="str">
+        <f>IF(VLOOKUP(AB27,价值!$B:$G,5,0)=0,AM27,VLOOKUP(AB27,价值!$B:$G,5,0)&amp;","&amp;AC27)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="AO27" s="2" t="str">
+        <f>IF(AF27=0,"",VLOOKUP(AE27,价值!$B:$G,3,0)&amp;","&amp;AF27)</f>
+        <v>pack,302,2</v>
+      </c>
+      <c r="AP27" s="2" t="str">
+        <f>IF(AF27=0,"",IF(VLOOKUP(AE27,价值!$B:$G,5,0)=0,AO27,VLOOKUP(AE27,价值!$B:$G,5,0)&amp;","&amp;AF27))</f>
+        <v>item,102,2</v>
+      </c>
+      <c r="AQ27" s="2" t="str">
+        <f>VLOOKUP(AH27,价值!$B:$G,3,0)&amp;","&amp;AI27</f>
+        <v>coin,1200</v>
+      </c>
+      <c r="AR27" s="2" t="str">
+        <f>IF(VLOOKUP(AH27,价值!$B:$G,5,0)=0,AQ27,VLOOKUP(AH27,价值!$B:$G,5,0)&amp;","&amp;AI27)</f>
+        <v>coin,1200</v>
+      </c>
+      <c r="AS27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,302,1;pack,302,2;coin,1200</v>
+      </c>
+      <c r="AT27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="I28" s="2">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>50</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="2">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2">
+        <v>50</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="2">
-        <f>VLOOKUP(K25,价值!$B:$G,6,0)*L25</f>
-        <v>600</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="S25" s="4">
-        <v>6</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U25" s="4">
-        <v>1</v>
-      </c>
-      <c r="V25" s="4">
-        <f>VLOOKUP(T25,价值!$B:$G,6,0)*U25</f>
-        <v>15</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="Y25" s="4">
-        <f>VLOOKUP(W25,价值!$B:$G,6,0)*X25</f>
-        <v>20</v>
-      </c>
-      <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F26" s="1">
-        <v>20</v>
-      </c>
-      <c r="G26" s="1">
-        <v>30</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2">
-        <f>VLOOKUP(H26,价值!$B:$G,6,0)*I26</f>
-        <v>500</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="2">
-        <v>5</v>
-      </c>
-      <c r="M26" s="2">
-        <f>VLOOKUP(K26,价值!$B:$G,6,0)*L26</f>
-        <v>250</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-      <c r="Q26" s="5"/>
-      <c r="S26" s="4">
-        <v>7</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U26" s="4">
-        <v>1</v>
-      </c>
-      <c r="V26" s="4">
-        <f>VLOOKUP(T26,价值!$B:$G,6,0)*U26</f>
-        <v>15</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X26" s="4">
-        <v>1100</v>
-      </c>
-      <c r="Y26" s="4">
-        <f>VLOOKUP(W26,价值!$B:$G,6,0)*X26</f>
-        <v>22</v>
-      </c>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F27" s="1">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="Q28" s="2">
+        <f>VLOOKUP(O28,价值!$B:$G,6,0)*P28</f>
         <v>50</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <f>VLOOKUP(H27,价值!$B:$G,6,0)*I27</f>
-        <v>250</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="2">
-        <v>3</v>
-      </c>
-      <c r="M27" s="2">
-        <f>VLOOKUP(K27,价值!$B:$G,6,0)*L27</f>
-        <v>150</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="Q27" s="5"/>
-      <c r="S27" s="4">
-        <v>8</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U27" s="4">
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
-        <f>VLOOKUP(T27,价值!$B:$G,6,0)*U27</f>
-        <v>15</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X27" s="4">
-        <v>1200</v>
-      </c>
-      <c r="Y27" s="4">
-        <f>VLOOKUP(W27,价值!$B:$G,6,0)*X27</f>
-        <v>24</v>
-      </c>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F28" s="1">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
-        <v>50</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <f>VLOOKUP(K28,价值!$B:$G,6,0)*L28</f>
-        <v>50</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="Q28" s="5">
+      <c r="S28" s="2" t="str">
+        <f>VLOOKUP(L28,价值!$B:$G,3,0)&amp;","&amp;M28</f>
+        <v>cash,10</v>
+      </c>
+      <c r="T28" s="2" t="str">
+        <f>IF(VLOOKUP(L28,价值!$B:$G,5,0)=0,S28,VLOOKUP(L28,价值!$B:$G,5,0)&amp;","&amp;M28)</f>
+        <v>cash,10</v>
+      </c>
+      <c r="U28" s="2" t="str">
+        <f>VLOOKUP(O28,价值!$B:$G,3,0)&amp;","&amp;P28</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="V28" s="2" t="str">
+        <f>IF(VLOOKUP(O28,价值!$B:$G,5,0)=0,U28,VLOOKUP(O28,价值!$B:$G,5,0)&amp;","&amp;P28)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="W28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>cash,10;pack,303,1</v>
+      </c>
+      <c r="X28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>cash,10;item,103,1</v>
+      </c>
+      <c r="Y28" s="5">
         <f>D5</f>
         <v>100</v>
       </c>
-      <c r="S28" s="4">
+      <c r="AA28" s="4">
         <v>9</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="AB28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="4">
+        <f>VLOOKUP(AB28,价值!$B:$G,6,0)*AC28</f>
+        <v>50</v>
+      </c>
+      <c r="AE28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="4">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>1300</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f>VLOOKUP(AH28,价值!$B:$G,6,0)*AI28</f>
+        <v>26</v>
+      </c>
+      <c r="AK28" s="4">
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="U28" s="4">
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="2" t="str">
+        <f>VLOOKUP(AB28,价值!$B:$G,3,0)&amp;","&amp;AC28</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="AN28" s="2" t="str">
+        <f>IF(VLOOKUP(AB28,价值!$B:$G,5,0)=0,AM28,VLOOKUP(AB28,价值!$B:$G,5,0)&amp;","&amp;AC28)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="AO28" s="2" t="str">
+        <f>IF(AF28=0,"",VLOOKUP(AE28,价值!$B:$G,3,0)&amp;","&amp;AF28)</f>
+        <v>pack,302,2</v>
+      </c>
+      <c r="AP28" s="2" t="str">
+        <f>IF(AF28=0,"",IF(VLOOKUP(AE28,价值!$B:$G,5,0)=0,AO28,VLOOKUP(AE28,价值!$B:$G,5,0)&amp;","&amp;AF28))</f>
+        <v>item,102,2</v>
+      </c>
+      <c r="AQ28" s="2" t="str">
+        <f>VLOOKUP(AH28,价值!$B:$G,3,0)&amp;","&amp;AI28</f>
+        <v>coin,1300</v>
+      </c>
+      <c r="AR28" s="2" t="str">
+        <f>IF(VLOOKUP(AH28,价值!$B:$G,5,0)=0,AQ28,VLOOKUP(AH28,价值!$B:$G,5,0)&amp;","&amp;AI28)</f>
+        <v>coin,1300</v>
+      </c>
+      <c r="AS28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303,1;pack,302,2;coin,1300</v>
+      </c>
+      <c r="AT28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AA29" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC29" s="4">
         <v>1</v>
       </c>
-      <c r="V28" s="4">
-        <f>VLOOKUP(T28,价值!$B:$G,6,0)*U28</f>
+      <c r="AD29" s="4">
+        <f>VLOOKUP(AB29,价值!$B:$G,6,0)*AC29</f>
+        <v>50</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG29" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>1400</v>
+      </c>
+      <c r="AJ29" s="4">
+        <f>VLOOKUP(AH29,价值!$B:$G,6,0)*AI29</f>
+        <v>28</v>
+      </c>
+      <c r="AK29" s="4">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="2" t="str">
+        <f>VLOOKUP(AB29,价值!$B:$G,3,0)&amp;","&amp;AC29</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="AN29" s="2" t="str">
+        <f>IF(VLOOKUP(AB29,价值!$B:$G,5,0)=0,AM29,VLOOKUP(AB29,价值!$B:$G,5,0)&amp;","&amp;AC29)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="AO29" s="2" t="str">
+        <f>IF(AF29=0,"",VLOOKUP(AE29,价值!$B:$G,3,0)&amp;","&amp;AF29)</f>
+        <v>pack,302,3</v>
+      </c>
+      <c r="AP29" s="2" t="str">
+        <f>IF(AF29=0,"",IF(VLOOKUP(AE29,价值!$B:$G,5,0)=0,AO29,VLOOKUP(AE29,价值!$B:$G,5,0)&amp;","&amp;AF29))</f>
+        <v>item,102,3</v>
+      </c>
+      <c r="AQ29" s="2" t="str">
+        <f>VLOOKUP(AH29,价值!$B:$G,3,0)&amp;","&amp;AI29</f>
+        <v>coin,1400</v>
+      </c>
+      <c r="AR29" s="2" t="str">
+        <f>IF(VLOOKUP(AH29,价值!$B:$G,5,0)=0,AQ29,VLOOKUP(AH29,价值!$B:$G,5,0)&amp;","&amp;AI29)</f>
+        <v>coin,1400</v>
+      </c>
+      <c r="AS29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303,1;pack,302,3;coin,1400</v>
+      </c>
+      <c r="AT29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="J30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="4">
+        <f>VLOOKUP(AB30,价值!$B:$G,6,0)*AC30</f>
+        <v>50</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="4">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AJ30" s="4">
+        <f>VLOOKUP(AH30,价值!$B:$G,6,0)*AI30</f>
+        <v>30</v>
+      </c>
+      <c r="AK30" s="4">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="2" t="str">
+        <f>VLOOKUP(AB30,价值!$B:$G,3,0)&amp;","&amp;AC30</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="AN30" s="2" t="str">
+        <f>IF(VLOOKUP(AB30,价值!$B:$G,5,0)=0,AM30,VLOOKUP(AB30,价值!$B:$G,5,0)&amp;","&amp;AC30)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="AO30" s="2" t="str">
+        <f>IF(AF30=0,"",VLOOKUP(AE30,价值!$B:$G,3,0)&amp;","&amp;AF30)</f>
+        <v>pack,302,3</v>
+      </c>
+      <c r="AP30" s="2" t="str">
+        <f>IF(AF30=0,"",IF(VLOOKUP(AE30,价值!$B:$G,5,0)=0,AO30,VLOOKUP(AE30,价值!$B:$G,5,0)&amp;","&amp;AF30))</f>
+        <v>item,102,3</v>
+      </c>
+      <c r="AQ30" s="2" t="str">
+        <f>VLOOKUP(AH30,价值!$B:$G,3,0)&amp;","&amp;AI30</f>
+        <v>coin,1500</v>
+      </c>
+      <c r="AR30" s="2" t="str">
+        <f>IF(VLOOKUP(AH30,价值!$B:$G,5,0)=0,AQ30,VLOOKUP(AH30,价值!$B:$G,5,0)&amp;","&amp;AI30)</f>
+        <v>coin,1500</v>
+      </c>
+      <c r="AS30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303,1;pack,302,3;coin,1500</v>
+      </c>
+      <c r="AT30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="J31" s="2"/>
+      <c r="K31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="4">
+        <f>VLOOKUP(AB31,价值!$B:$G,6,0)*AC31</f>
+        <v>50</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1600</v>
+      </c>
+      <c r="AJ31" s="4">
+        <f>VLOOKUP(AH31,价值!$B:$G,6,0)*AI31</f>
+        <v>32</v>
+      </c>
+      <c r="AK31" s="4">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="2" t="str">
+        <f>VLOOKUP(AB31,价值!$B:$G,3,0)&amp;","&amp;AC31</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="AN31" s="2" t="str">
+        <f>IF(VLOOKUP(AB31,价值!$B:$G,5,0)=0,AM31,VLOOKUP(AB31,价值!$B:$G,5,0)&amp;","&amp;AC31)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="AO31" s="2" t="str">
+        <f>IF(AF31=0,"",VLOOKUP(AE31,价值!$B:$G,3,0)&amp;","&amp;AF31)</f>
+        <v>pack,302,4</v>
+      </c>
+      <c r="AP31" s="2" t="str">
+        <f>IF(AF31=0,"",IF(VLOOKUP(AE31,价值!$B:$G,5,0)=0,AO31,VLOOKUP(AE31,价值!$B:$G,5,0)&amp;","&amp;AF31))</f>
+        <v>item,102,4</v>
+      </c>
+      <c r="AQ31" s="2" t="str">
+        <f>VLOOKUP(AH31,价值!$B:$G,3,0)&amp;","&amp;AI31</f>
+        <v>coin,1600</v>
+      </c>
+      <c r="AR31" s="2" t="str">
+        <f>IF(VLOOKUP(AH31,价值!$B:$G,5,0)=0,AQ31,VLOOKUP(AH31,价值!$B:$G,5,0)&amp;","&amp;AI31)</f>
+        <v>coin,1600</v>
+      </c>
+      <c r="AS31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303,1;pack,302,4;coin,1600</v>
+      </c>
+      <c r="AT31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="J32" s="2">
+        <f>E6</f>
+        <v>80</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="4">
+        <v>50</v>
+      </c>
+      <c r="N32" s="4">
+        <f>VLOOKUP(L32,价值!$B:$G,6,0)*M32</f>
+        <v>50</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>VLOOKUP(O32,价值!$B:$G,6,0)*P32</f>
+        <v>36</v>
+      </c>
+      <c r="R32" s="2">
+        <f>M32+Q32</f>
+        <v>86</v>
+      </c>
+      <c r="S32" s="2" t="str">
+        <f>VLOOKUP(L32,价值!$B:$G,3,0)&amp;","&amp;M32</f>
+        <v>cash,50</v>
+      </c>
+      <c r="T32" s="2" t="str">
+        <f>IF(VLOOKUP(L32,价值!$B:$G,5,0)=0,S32,VLOOKUP(L32,价值!$B:$G,5,0)&amp;","&amp;M32)</f>
+        <v>cash,50</v>
+      </c>
+      <c r="U32" s="2" t="str">
+        <f>VLOOKUP(O32,价值!$B:$G,3,0)&amp;","&amp;P32</f>
+        <v>prop,104,2</v>
+      </c>
+      <c r="V32" s="2" t="str">
+        <f>IF(VLOOKUP(O32,价值!$B:$G,5,0)=0,U32,VLOOKUP(O32,价值!$B:$G,5,0)&amp;","&amp;P32)</f>
+        <v>prop,104,2</v>
+      </c>
+      <c r="W32" s="2" t="str">
+        <f>S32&amp;";"&amp;U32</f>
+        <v>cash,50;prop,104,2</v>
+      </c>
+      <c r="X32" s="2" t="str">
+        <f>T32&amp;";"&amp;V32</f>
+        <v>cash,50;prop,104,2</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>13</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="4">
+        <f>VLOOKUP(AB32,价值!$B:$G,6,0)*AC32</f>
+        <v>50</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="4">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="W28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X28" s="4">
-        <v>1300</v>
-      </c>
-      <c r="Y28" s="4">
-        <f>VLOOKUP(W28,价值!$B:$G,6,0)*X28</f>
-        <v>26</v>
-      </c>
-      <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S29" s="4">
-        <v>10</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U29" s="4">
-        <v>1</v>
-      </c>
-      <c r="V29" s="4">
-        <f>VLOOKUP(T29,价值!$B:$G,6,0)*U29</f>
-        <v>15</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X29" s="4">
-        <v>1400</v>
-      </c>
-      <c r="Y29" s="4">
-        <f>VLOOKUP(W29,价值!$B:$G,6,0)*X29</f>
-        <v>28</v>
-      </c>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S30" s="4">
-        <v>11</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U30" s="4">
-        <v>1</v>
-      </c>
-      <c r="V30" s="4">
-        <f>VLOOKUP(T30,价值!$B:$G,6,0)*U30</f>
-        <v>15</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X30" s="4">
-        <v>1500</v>
-      </c>
-      <c r="Y30" s="4">
-        <f>VLOOKUP(W30,价值!$B:$G,6,0)*X30</f>
-        <v>30</v>
-      </c>
-      <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S31" s="4">
-        <v>12</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
-      <c r="V31" s="4">
-        <f>VLOOKUP(T31,价值!$B:$G,6,0)*U31</f>
-        <v>15</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X31" s="4">
-        <v>1600</v>
-      </c>
-      <c r="Y31" s="4">
-        <f>VLOOKUP(W31,价值!$B:$G,6,0)*X31</f>
-        <v>32</v>
-      </c>
-      <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S32" s="4">
-        <v>13</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U32" s="4">
-        <v>1</v>
-      </c>
-      <c r="V32" s="4">
-        <f>VLOOKUP(T32,价值!$B:$G,6,0)*U32</f>
-        <v>15</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X32" s="4">
+      <c r="AH32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI32" s="4">
         <v>1750</v>
       </c>
-      <c r="Y32" s="4">
-        <f>VLOOKUP(W32,价值!$B:$G,6,0)*X32</f>
+      <c r="AJ32" s="4">
+        <f>VLOOKUP(AH32,价值!$B:$G,6,0)*AI32</f>
         <v>35</v>
       </c>
-      <c r="Z32" s="5">
+      <c r="AK32" s="4">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="AL32" s="5">
         <f>B8</f>
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="AM32" s="2" t="str">
+        <f>VLOOKUP(AB32,价值!$B:$G,3,0)&amp;","&amp;AC32</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="AN32" s="2" t="str">
+        <f>IF(VLOOKUP(AB32,价值!$B:$G,5,0)=0,AM32,VLOOKUP(AB32,价值!$B:$G,5,0)&amp;","&amp;AC32)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="AO32" s="2" t="str">
+        <f>IF(AF32=0,"",VLOOKUP(AE32,价值!$B:$G,3,0)&amp;","&amp;AF32)</f>
+        <v>pack,302,5</v>
+      </c>
+      <c r="AP32" s="2" t="str">
+        <f>IF(AF32=0,"",IF(VLOOKUP(AE32,价值!$B:$G,5,0)=0,AO32,VLOOKUP(AE32,价值!$B:$G,5,0)&amp;","&amp;AF32))</f>
+        <v>item,102,5</v>
+      </c>
+      <c r="AQ32" s="2" t="str">
+        <f>VLOOKUP(AH32,价值!$B:$G,3,0)&amp;","&amp;AI32</f>
+        <v>coin,1750</v>
+      </c>
+      <c r="AR32" s="2" t="str">
+        <f>IF(VLOOKUP(AH32,价值!$B:$G,5,0)=0,AQ32,VLOOKUP(AH32,价值!$B:$G,5,0)&amp;","&amp;AI32)</f>
+        <v>coin,1750</v>
+      </c>
+      <c r="AS32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+      <c r="AT32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+    </row>
+    <row r="33" spans="10:25" x14ac:dyDescent="0.15">
+      <c r="J33" s="2">
+        <f>F6</f>
+        <v>180</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="4">
+        <v>80</v>
+      </c>
+      <c r="N33" s="4">
+        <f>VLOOKUP(L33,价值!$B:$G,6,0)*M33</f>
+        <v>80</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>VLOOKUP(O33,价值!$B:$G,6,0)*P33</f>
+        <v>100</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" ref="R33:R35" si="10">M33+Q33</f>
+        <v>180</v>
+      </c>
+      <c r="S33" s="2" t="str">
+        <f>VLOOKUP(L33,价值!$B:$G,3,0)&amp;","&amp;M33</f>
+        <v>cash,80</v>
+      </c>
+      <c r="T33" s="2" t="str">
+        <f>IF(VLOOKUP(L33,价值!$B:$G,5,0)=0,S33,VLOOKUP(L33,价值!$B:$G,5,0)&amp;","&amp;M33)</f>
+        <v>cash,80</v>
+      </c>
+      <c r="U33" s="2" t="str">
+        <f>VLOOKUP(O33,价值!$B:$G,3,0)&amp;","&amp;P33</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="V33" s="2" t="str">
+        <f>IF(VLOOKUP(O33,价值!$B:$G,5,0)=0,U33,VLOOKUP(O33,价值!$B:$G,5,0)&amp;","&amp;P33)</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="W33" s="2" t="str">
+        <f t="shared" ref="W33:W35" si="11">S33&amp;";"&amp;U33</f>
+        <v>cash,80;coin,5000</v>
+      </c>
+      <c r="X33" s="2" t="str">
+        <f t="shared" ref="X33:X35" si="12">T33&amp;";"&amp;V33</f>
+        <v>cash,80;coin,5000</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="10:25" x14ac:dyDescent="0.15">
+      <c r="J34" s="2">
+        <f>G6</f>
+        <v>290</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="4">
+        <v>100</v>
+      </c>
+      <c r="N34" s="4">
+        <f>VLOOKUP(L34,价值!$B:$G,6,0)*M34</f>
+        <v>100</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>VLOOKUP(O34,价值!$B:$G,6,0)*P34</f>
+        <v>180</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="S34" s="2" t="str">
+        <f>VLOOKUP(L34,价值!$B:$G,3,0)&amp;","&amp;M34</f>
+        <v>cash,100</v>
+      </c>
+      <c r="T34" s="2" t="str">
+        <f>IF(VLOOKUP(L34,价值!$B:$G,5,0)=0,S34,VLOOKUP(L34,价值!$B:$G,5,0)&amp;","&amp;M34)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f>VLOOKUP(O34,价值!$B:$G,3,0)&amp;","&amp;P34</f>
+        <v>prop,105,3</v>
+      </c>
+      <c r="V34" s="2" t="str">
+        <f>IF(VLOOKUP(O34,价值!$B:$G,5,0)=0,U34,VLOOKUP(O34,价值!$B:$G,5,0)&amp;","&amp;P34)</f>
+        <v>prop,105,3</v>
+      </c>
+      <c r="W34" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>cash,100;prop,105,3</v>
+      </c>
+      <c r="X34" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>cash,100;prop,105,3</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="10:25" x14ac:dyDescent="0.15">
+      <c r="J35" s="2">
+        <f>H6</f>
+        <v>400</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="4">
+        <v>150</v>
+      </c>
+      <c r="N35" s="4">
+        <f>VLOOKUP(L35,价值!$B:$G,6,0)*M35</f>
+        <v>150</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" s="2">
+        <v>12500</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>VLOOKUP(O35,价值!$B:$G,6,0)*P35</f>
+        <v>250</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="S35" s="2" t="str">
+        <f>VLOOKUP(L35,价值!$B:$G,3,0)&amp;","&amp;M35</f>
+        <v>cash,150</v>
+      </c>
+      <c r="T35" s="2" t="str">
+        <f>IF(VLOOKUP(L35,价值!$B:$G,5,0)=0,S35,VLOOKUP(L35,价值!$B:$G,5,0)&amp;","&amp;M35)</f>
+        <v>cash,150</v>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f>VLOOKUP(O35,价值!$B:$G,3,0)&amp;","&amp;P35</f>
+        <v>coin,12500</v>
+      </c>
+      <c r="V35" s="2" t="str">
+        <f>IF(VLOOKUP(O35,价值!$B:$G,5,0)=0,U35,VLOOKUP(O35,价值!$B:$G,5,0)&amp;","&amp;P35)</f>
+        <v>coin,12500</v>
+      </c>
+      <c r="W35" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>cash,150;coin,12500</v>
+      </c>
+      <c r="X35" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>cash,150;coin,12500</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -7261,23 +9048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27061B-86DD-4954-BF7E-405B8FE415D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="14.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="14.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="8.83203125" style="3"/>
+    <col min="11" max="11" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="8.83203125" style="3"/>
+    <col min="17" max="17" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -7303,7 +9091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7350,22 +9138,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -7378,18 +9166,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C3316-5F9D-4639-8E01-B900F5584D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G368"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7443,10 +9231,6 @@
         <f>[1]物品定价!E2</f>
         <v>2E-3</v>
       </c>
-      <c r="F2">
-        <f>[1]物品定价!F2</f>
-        <v>500</v>
-      </c>
       <c r="G2">
         <f>[1]物品定价!G2</f>
         <v>6.0000000000000001E-3</v>
@@ -7473,10 +9257,6 @@
         <f>[1]物品定价!E3</f>
         <v>6.6667000000000002E-3</v>
       </c>
-      <c r="F3">
-        <f>[1]物品定价!F3</f>
-        <v>149.99925000374998</v>
-      </c>
       <c r="G3">
         <f>[1]物品定价!G3</f>
         <v>0.02</v>
@@ -7503,10 +9283,6 @@
         <f>[1]物品定价!E4</f>
         <v>3.125</v>
       </c>
-      <c r="F4">
-        <f>[1]物品定价!F4</f>
-        <v>0.32</v>
-      </c>
       <c r="G4">
         <f>[1]物品定价!G4</f>
         <v>0</v>
@@ -7533,10 +9309,6 @@
         <f>[1]物品定价!E5</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F5">
-        <f>[1]物品定价!F5</f>
-        <v>31.25</v>
-      </c>
       <c r="G5">
         <f>[1]物品定价!G5</f>
         <v>0</v>
@@ -7563,10 +9335,6 @@
         <f>[1]物品定价!E6</f>
         <v>0.32</v>
       </c>
-      <c r="F6">
-        <f>[1]物品定价!F6</f>
-        <v>3.125</v>
-      </c>
       <c r="G6">
         <f>[1]物品定价!G6</f>
         <v>0</v>
@@ -7593,10 +9361,6 @@
         <f>[1]物品定价!E7</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F7">
-        <f>[1]物品定价!F7</f>
-        <v>24</v>
-      </c>
       <c r="G7">
         <f>[1]物品定价!G7</f>
         <v>0</v>
@@ -7623,10 +9387,6 @@
         <f>[1]物品定价!E8</f>
         <v>0.05</v>
       </c>
-      <c r="F8">
-        <f>[1]物品定价!F8</f>
-        <v>20</v>
-      </c>
       <c r="G8">
         <f>[1]物品定价!G8</f>
         <v>0</v>
@@ -7653,10 +9413,6 @@
         <f>[1]物品定价!E9</f>
         <v>1</v>
       </c>
-      <c r="F9">
-        <f>[1]物品定价!F9</f>
-        <v>0</v>
-      </c>
       <c r="G9">
         <f>[1]物品定价!G9</f>
         <v>1</v>
@@ -7682,10 +9438,6 @@
       <c r="E10">
         <f>[1]物品定价!E10</f>
         <v>2</v>
-      </c>
-      <c r="F10">
-        <f>[1]物品定价!F10</f>
-        <v>0</v>
       </c>
       <c r="G10">
         <f>[1]物品定价!G10</f>
@@ -14747,21 +16499,21 @@
         <f>[1]物品定价!A246</f>
         <v>0</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="str">
         <f>[1]物品定价!B246</f>
-        <v>0</v>
+        <v>战栗的龙卷普通技能卡</v>
       </c>
       <c r="C246">
         <f>[1]物品定价!C246</f>
         <v>0</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="str">
         <f>[1]物品定价!D246</f>
-        <v>0</v>
+        <v>skill,1</v>
       </c>
       <c r="E246">
         <f>[1]物品定价!E246</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F246">
         <f>[1]物品定价!F246</f>
@@ -14777,21 +16529,21 @@
         <f>[1]物品定价!A247</f>
         <v>0</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="str">
         <f>[1]物品定价!B247</f>
-        <v>0</v>
+        <v>战栗的龙卷主动技能卡-1</v>
       </c>
       <c r="C247">
         <f>[1]物品定价!C247</f>
         <v>0</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="str">
         <f>[1]物品定价!D247</f>
-        <v>0</v>
+        <v>skill,2</v>
       </c>
       <c r="E247">
         <f>[1]物品定价!E247</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F247">
         <f>[1]物品定价!F247</f>
@@ -14807,21 +16559,21 @@
         <f>[1]物品定价!A248</f>
         <v>0</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="str">
         <f>[1]物品定价!B248</f>
-        <v>0</v>
+        <v>战栗的龙卷主动技能卡-2</v>
       </c>
       <c r="C248">
         <f>[1]物品定价!C248</f>
         <v>0</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="str">
         <f>[1]物品定价!D248</f>
-        <v>0</v>
+        <v>skill,3</v>
       </c>
       <c r="E248">
         <f>[1]物品定价!E248</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F248">
         <f>[1]物品定价!F248</f>
@@ -14837,21 +16589,21 @@
         <f>[1]物品定价!A249</f>
         <v>0</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="str">
         <f>[1]物品定价!B249</f>
-        <v>0</v>
+        <v>战栗的龙卷特质1技能卡</v>
       </c>
       <c r="C249">
         <f>[1]物品定价!C249</f>
         <v>0</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="str">
         <f>[1]物品定价!D249</f>
-        <v>0</v>
+        <v>skill,4</v>
       </c>
       <c r="E249">
         <f>[1]物品定价!E249</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F249">
         <f>[1]物品定价!F249</f>
@@ -14867,21 +16619,21 @@
         <f>[1]物品定价!A250</f>
         <v>0</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="str">
         <f>[1]物品定价!B250</f>
-        <v>0</v>
+        <v>战栗的龙卷特质2技能卡</v>
       </c>
       <c r="C250">
         <f>[1]物品定价!C250</f>
         <v>0</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="str">
         <f>[1]物品定价!D250</f>
-        <v>0</v>
+        <v>skill,5</v>
       </c>
       <c r="E250">
         <f>[1]物品定价!E250</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F250">
         <f>[1]物品定价!F250</f>
@@ -14897,21 +16649,21 @@
         <f>[1]物品定价!A251</f>
         <v>0</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="str">
         <f>[1]物品定价!B251</f>
-        <v>0</v>
+        <v>战栗的龙卷特质3技能卡-1</v>
       </c>
       <c r="C251">
         <f>[1]物品定价!C251</f>
         <v>0</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="str">
         <f>[1]物品定价!D251</f>
-        <v>0</v>
+        <v>skill,6</v>
       </c>
       <c r="E251">
         <f>[1]物品定价!E251</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F251">
         <f>[1]物品定价!F251</f>
@@ -14927,21 +16679,21 @@
         <f>[1]物品定价!A252</f>
         <v>0</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="str">
         <f>[1]物品定价!B252</f>
-        <v>0</v>
+        <v>战栗的龙卷特质3技能卡-2</v>
       </c>
       <c r="C252">
         <f>[1]物品定价!C252</f>
         <v>0</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="str">
         <f>[1]物品定价!D252</f>
-        <v>0</v>
+        <v>skill,7</v>
       </c>
       <c r="E252">
         <f>[1]物品定价!E252</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F252">
         <f>[1]物品定价!F252</f>
@@ -14957,21 +16709,21 @@
         <f>[1]物品定价!A253</f>
         <v>0</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="str">
         <f>[1]物品定价!B253</f>
-        <v>0</v>
+        <v>战栗的龙卷特质4技能卡</v>
       </c>
       <c r="C253">
         <f>[1]物品定价!C253</f>
         <v>0</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="str">
         <f>[1]物品定价!D253</f>
-        <v>0</v>
+        <v>skill,8</v>
       </c>
       <c r="E253">
         <f>[1]物品定价!E253</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F253">
         <f>[1]物品定价!F253</f>
@@ -14987,21 +16739,21 @@
         <f>[1]物品定价!A254</f>
         <v>0</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="str">
         <f>[1]物品定价!B254</f>
-        <v>0</v>
+        <v>地狱的吹雪普通技能卡</v>
       </c>
       <c r="C254">
         <f>[1]物品定价!C254</f>
         <v>0</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="str">
         <f>[1]物品定价!D254</f>
-        <v>0</v>
+        <v>skill,9</v>
       </c>
       <c r="E254">
         <f>[1]物品定价!E254</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F254">
         <f>[1]物品定价!F254</f>
@@ -15017,21 +16769,21 @@
         <f>[1]物品定价!A255</f>
         <v>0</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="str">
         <f>[1]物品定价!B255</f>
-        <v>0</v>
+        <v>地狱的吹雪主动技能卡</v>
       </c>
       <c r="C255">
         <f>[1]物品定价!C255</f>
         <v>0</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="str">
         <f>[1]物品定价!D255</f>
-        <v>0</v>
+        <v>skill,10</v>
       </c>
       <c r="E255">
         <f>[1]物品定价!E255</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F255">
         <f>[1]物品定价!F255</f>
@@ -15047,21 +16799,21 @@
         <f>[1]物品定价!A256</f>
         <v>0</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="str">
         <f>[1]物品定价!B256</f>
-        <v>0</v>
+        <v>地狱的吹雪特质3技能卡</v>
       </c>
       <c r="C256">
         <f>[1]物品定价!C256</f>
         <v>0</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="str">
         <f>[1]物品定价!D256</f>
-        <v>0</v>
+        <v>skill,11</v>
       </c>
       <c r="E256">
         <f>[1]物品定价!E256</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F256">
         <f>[1]物品定价!F256</f>

--- a/OPM经济数值/活动_5_巨人Boss.xlsx
+++ b/OPM经济数值/活动_5_巨人Boss.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37400" yWindow="600" windowWidth="38400" windowHeight="20080" activeTab="1"/>
+    <workbookView xWindow="-37780" yWindow="800" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="积分计算" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
   <si>
     <t>积分比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,23 +307,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机5星饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄招募令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高级招募令</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机4星饰品</t>
   </si>
   <si>
     <t>随机4星饰品</t>
@@ -346,10 +331,6 @@
   </si>
   <si>
     <t>实际价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等生存天赋书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,13 +365,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhao'mu'ling</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等攻击天赋书</t>
-    <rPh sb="2" eb="3">
-      <t>gong'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,12 +496,250 @@
     <t>EventPointRank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>头像框</t>
+    <rPh sb="0" eb="1">
+      <t>tou'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄招募令</t>
+    <rPh sb="0" eb="1">
+      <t>ying'xiong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外奖励</t>
+    <rPh sb="0" eb="1">
+      <t>e'wai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiang'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警犬侠招募令</t>
+    <rPh sb="0" eb="1">
+      <t>jing'quan'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop,707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警犬侠招募令</t>
+    <rPh sb="0" eb="1">
+      <t>jign'quan'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>te'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等格斗力认证</t>
+    <rPh sb="0" eb="1">
+      <t>gao'deng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'dou'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗力认证</t>
+    <rPh sb="0" eb="1">
+      <t>ge'dou'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>chao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等攻击天赋书</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'deng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'fu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等生存天赋书</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'deng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'cun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'fu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级觉醒胶囊</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'nagn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒胶囊</t>
+    <rPh sb="0" eb="1">
+      <t>jue'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'nang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Super-X”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元气牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌力药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机3星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览</t>
+    <rPh sb="0" eb="1">
+      <t>yu'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +800,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -606,12 +836,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,11 +869,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4897,9 +5138,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5845,10 +6086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5868,10 +6109,11 @@
     <col min="28" max="28" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="32" width="8.83203125" style="2"/>
     <col min="33" max="33" width="8.83203125" style="4"/>
-    <col min="34" max="16384" width="8.83203125" style="2"/>
+    <col min="34" max="34" width="13" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -5889,7 +6131,7 @@
         <v>58</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>32</v>
@@ -5904,27 +6146,64 @@
         <v>28</v>
       </c>
       <c r="AE1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AS1"/>
+      <c r="AU1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5">
-        <v>24600</v>
+        <v>30000</v>
       </c>
       <c r="C2" s="5">
-        <v>18860</v>
+        <v>25000</v>
       </c>
       <c r="D2" s="5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -5939,41 +6218,11 @@
       <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>46</v>
@@ -5981,40 +6230,95 @@
       <c r="AA2" s="4">
         <v>5000</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC2" s="4">
+      <c r="AB2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="1">
         <v>2</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="1">
         <f>VLOOKUP(AB2,价值!$B:$G,6,0)*AC2</f>
-        <v>120</v>
-      </c>
-      <c r="AE2" s="4" t="str">
+        <v>500</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>VLOOKUP(AE2,价值!$B:$G,6,0)*AF2</f>
+        <v>54</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>VLOOKUP(AH2,价值!$B:$G,6,0)*AI2</f>
+        <v>60</v>
+      </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1">
+        <f>VLOOKUP(AK2,价值!$B:$G,6,0)*AL2</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <f>AD2+AG2+AJ2+AM2</f>
+        <v>614</v>
+      </c>
+      <c r="AO2" s="4" t="str">
         <f>VLOOKUP(AB2,价值!$B:$G,3,0)&amp;","&amp;AC2</f>
-        <v>prop,105,2</v>
-      </c>
-      <c r="AF2" s="3" t="str">
-        <f>IF(VLOOKUP(AB2,价值!$B:$G,5,0)=0,AE2,VLOOKUP(AB2,价值!$B:$G,5,0)&amp;","&amp;AC2)</f>
-        <v>prop,105,2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,707,2</v>
+      </c>
+      <c r="AP2" s="3" t="str">
+        <f>IF(VLOOKUP(AB2,价值!$B:$G,5,0)=0,AO2,VLOOKUP(AB2,价值!$B:$G,5,0)&amp;","&amp;AC2)</f>
+        <v>prop,707,2</v>
+      </c>
+      <c r="AQ2" s="4" t="str">
+        <f>VLOOKUP(AE2,价值!$B:$G,3,0)&amp;","&amp;AF2</f>
+        <v>prop,104,3</v>
+      </c>
+      <c r="AR2" s="3" t="str">
+        <f>IF(VLOOKUP(AE2,价值!$B:$G,5,0)=0,AQ2,VLOOKUP(AE2,价值!$B:$G,5,0)&amp;","&amp;AF2)</f>
+        <v>prop,104,3</v>
+      </c>
+      <c r="AS2" s="4" t="str">
+        <f>VLOOKUP(AH2,价值!$B:$G,3,0)&amp;","&amp;AI2</f>
+        <v>prop,202,10</v>
+      </c>
+      <c r="AT2" s="3" t="str">
+        <f>IF(VLOOKUP(AH2,价值!$B:$G,5,0)=0,AS2,VLOOKUP(AH2,价值!$B:$G,5,0)&amp;","&amp;AI2)</f>
+        <v>prop,202,10</v>
+      </c>
+      <c r="AU2" s="2" t="str">
+        <f>AO2&amp;";"&amp;AQ2&amp;";"&amp;AS2</f>
+        <v>prop,707,2;prop,104,3;prop,202,10</v>
+      </c>
+      <c r="AV2" s="2" t="str">
+        <f>AP2&amp;";"&amp;AR2&amp;";"&amp;AT2</f>
+        <v>prop,707,2;prop,104,3;prop,202,10</v>
+      </c>
+      <c r="AY2" s="4"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4">
         <f>D3</f>
-        <v>11750</v>
+        <v>16650</v>
       </c>
       <c r="C3" s="4">
         <f>D3</f>
-        <v>11750</v>
+        <v>16650</v>
       </c>
       <c r="D3" s="4">
         <f>D2-SUM(D4:D7)</f>
-        <v>11750</v>
+        <v>16650</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -6026,275 +6330,400 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
-        <f>VLOOKUP(L3,价值!$B:$G,6,0)*M3</f>
-        <v>1200</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>VLOOKUP(O3,价值!$B:$G,6,0)*P3</f>
-        <v>400</v>
-      </c>
-      <c r="R3" s="2">
-        <f>Q3+N3</f>
-        <v>1600</v>
-      </c>
-      <c r="S3" s="2" t="str">
-        <f>VLOOKUP(L3,价值!$B:$G,3,0)&amp;","&amp;M3</f>
-        <v>pack,304,2</v>
-      </c>
-      <c r="T3" s="2" t="str">
-        <f>IF(VLOOKUP(L3,价值!$B:$G,5,0)=0,S3,VLOOKUP(L3,价值!$B:$G,5,0)&amp;","&amp;M3)</f>
-        <v>item,104,2</v>
-      </c>
-      <c r="U3" s="2" t="str">
-        <f>VLOOKUP(O3,价值!$B:$G,3,0)&amp;","&amp;P3</f>
-        <v>coin,20000</v>
-      </c>
-      <c r="V3" s="2" t="str">
-        <f>IF(VLOOKUP(O3,价值!$B:$G,5,0)=0,U3,VLOOKUP(O3,价值!$B:$G,5,0)&amp;","&amp;P3)</f>
-        <v>coin,20000</v>
-      </c>
-      <c r="W3" s="2" t="str">
-        <f>S3&amp;";"&amp;U3</f>
-        <v>pack,304,2;coin,20000</v>
-      </c>
-      <c r="X3" s="2" t="str">
-        <f>T3&amp;";"&amp;V3</f>
-        <v>item,104,2;coin,20000</v>
+      <c r="L3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="Y3" s="5">
-        <f>B4</f>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4">
         <v>10000</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="4">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="1">
         <f>VLOOKUP(AB3,价值!$B:$G,6,0)*AC3</f>
-        <v>500</v>
-      </c>
-      <c r="AE3" s="4" t="str">
+        <v>150</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>VLOOKUP(AE3,价值!$B:$G,6,0)*AF3</f>
+        <v>45</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>VLOOKUP(AH3,价值!$B:$G,6,0)*AI3</f>
+        <v>90</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1">
+        <f>VLOOKUP(AK3,价值!$B:$G,6,0)*AL3</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" ref="AN3:AN16" si="0">AD3+AG3+AJ3+AM3</f>
+        <v>285</v>
+      </c>
+      <c r="AO3" s="4" t="str">
         <f>VLOOKUP(AB3,价值!$B:$G,3,0)&amp;","&amp;AC3</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="AF3" s="3" t="str">
-        <f>IF(VLOOKUP(AB3,价值!$B:$G,5,0)=0,AE3,VLOOKUP(AB3,价值!$B:$G,5,0)&amp;","&amp;AC3)</f>
-        <v>prop,702,2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,205,5</v>
+      </c>
+      <c r="AP3" s="3" t="str">
+        <f>IF(VLOOKUP(AB3,价值!$B:$G,5,0)=0,AO3,VLOOKUP(AB3,价值!$B:$G,5,0)&amp;","&amp;AC3)</f>
+        <v>prop,205,5</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <f>VLOOKUP(AE3,价值!$B:$G,3,0)&amp;","&amp;AF3</f>
+        <v>prop,204,3</v>
+      </c>
+      <c r="AR3" s="3" t="str">
+        <f>IF(VLOOKUP(AE3,价值!$B:$G,5,0)=0,AQ3,VLOOKUP(AE3,价值!$B:$G,5,0)&amp;","&amp;AF3)</f>
+        <v>prop,204,3</v>
+      </c>
+      <c r="AS3" s="4" t="str">
+        <f>VLOOKUP(AH3,价值!$B:$G,3,0)&amp;","&amp;AI3</f>
+        <v>prop,203,10</v>
+      </c>
+      <c r="AT3" s="3" t="str">
+        <f>IF(VLOOKUP(AH3,价值!$B:$G,5,0)=0,AS3,VLOOKUP(AH3,价值!$B:$G,5,0)&amp;","&amp;AI3)</f>
+        <v>prop,203,10</v>
+      </c>
+      <c r="AU3" s="2" t="str">
+        <f t="shared" ref="AU3:AU16" si="1">AO3&amp;";"&amp;AQ3&amp;";"&amp;AS3</f>
+        <v>prop,205,5;prop,204,3;prop,203,10</v>
+      </c>
+      <c r="AV3" s="2" t="str">
+        <f t="shared" ref="AV3:AV16" si="2">AP3&amp;";"&amp;AR3&amp;";"&amp;AT3</f>
+        <v>prop,205,5;prop,204,3;prop,203,10</v>
+      </c>
+      <c r="AY3" s="4"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="1">
+      <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="10">
         <v>3</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="11">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="11">
         <f>VLOOKUP(L4,价值!$B:$G,6,0)*M4</f>
         <v>600</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="O4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="11">
         <v>15000</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="11">
         <f>VLOOKUP(O4,价值!$B:$G,6,0)*P4</f>
         <v>300</v>
       </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4:R13" si="0">Q4+N4</f>
+      <c r="R4" s="11">
+        <f t="shared" ref="R4:R13" si="3">Q4+N4</f>
         <v>900</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="S4" s="11" t="str">
         <f>VLOOKUP(L4,价值!$B:$G,3,0)&amp;","&amp;M4</f>
         <v>pack,304,1</v>
       </c>
-      <c r="T4" s="2" t="str">
+      <c r="T4" s="11" t="str">
         <f>IF(VLOOKUP(L4,价值!$B:$G,5,0)=0,S4,VLOOKUP(L4,价值!$B:$G,5,0)&amp;","&amp;M4)</f>
         <v>item,104,1</v>
       </c>
-      <c r="U4" s="2" t="str">
+      <c r="U4" s="11" t="str">
         <f>VLOOKUP(O4,价值!$B:$G,3,0)&amp;","&amp;P4</f>
         <v>coin,15000</v>
       </c>
-      <c r="V4" s="2" t="str">
+      <c r="V4" s="11" t="str">
         <f>IF(VLOOKUP(O4,价值!$B:$G,5,0)=0,U4,VLOOKUP(O4,价值!$B:$G,5,0)&amp;","&amp;P4)</f>
         <v>coin,15000</v>
       </c>
-      <c r="W4" s="2" t="str">
-        <f t="shared" ref="W4:X13" si="1">S4&amp;";"&amp;U4</f>
+      <c r="W4" s="11" t="str">
+        <f t="shared" ref="W4:X13" si="4">S4&amp;";"&amp;U4</f>
         <v>pack,304,1;coin,15000</v>
       </c>
-      <c r="X4" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X4" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,104,1;coin,15000</v>
       </c>
-      <c r="Y4" s="5" t="s">
-        <v>99</v>
+      <c r="Y4" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA4" s="4">
         <v>20000</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="AB4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4" s="1">
         <v>2</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="1">
         <f>VLOOKUP(AB4,价值!$B:$G,6,0)*AC4</f>
-        <v>120</v>
-      </c>
-      <c r="AE4" s="4" t="str">
+        <v>500</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>VLOOKUP(AE4,价值!$B:$G,6,0)*AF4</f>
+        <v>90</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>VLOOKUP(AH4,价值!$B:$G,6,0)*AI4</f>
+        <v>100</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1">
+        <f>VLOOKUP(AK4,价值!$B:$G,6,0)*AL4</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="AO4" s="4" t="str">
         <f>VLOOKUP(AB4,价值!$B:$G,3,0)&amp;","&amp;AC4</f>
-        <v>prop,105,2</v>
-      </c>
-      <c r="AF4" s="3" t="str">
-        <f>IF(VLOOKUP(AB4,价值!$B:$G,5,0)=0,AE4,VLOOKUP(AB4,价值!$B:$G,5,0)&amp;","&amp;AC4)</f>
-        <v>prop,105,2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,707,2</v>
+      </c>
+      <c r="AP4" s="3" t="str">
+        <f>IF(VLOOKUP(AB4,价值!$B:$G,5,0)=0,AO4,VLOOKUP(AB4,价值!$B:$G,5,0)&amp;","&amp;AC4)</f>
+        <v>prop,707,2</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <f>VLOOKUP(AE4,价值!$B:$G,3,0)&amp;","&amp;AF4</f>
+        <v>prop,104,5</v>
+      </c>
+      <c r="AR4" s="3" t="str">
+        <f>IF(VLOOKUP(AE4,价值!$B:$G,5,0)=0,AQ4,VLOOKUP(AE4,价值!$B:$G,5,0)&amp;","&amp;AF4)</f>
+        <v>prop,104,5</v>
+      </c>
+      <c r="AS4" s="4" t="str">
+        <f>VLOOKUP(AH4,价值!$B:$G,3,0)&amp;","&amp;AI4</f>
+        <v>pack,303,2</v>
+      </c>
+      <c r="AT4" s="3" t="str">
+        <f>IF(VLOOKUP(AH4,价值!$B:$G,5,0)=0,AS4,VLOOKUP(AH4,价值!$B:$G,5,0)&amp;","&amp;AI4)</f>
+        <v>item,103,2</v>
+      </c>
+      <c r="AU4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,2;prop,104,5;pack,303,2</v>
+      </c>
+      <c r="AV4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,707,2;prop,104,5;item,103,2</v>
+      </c>
+      <c r="AY4" s="4"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="6">
         <f>B2-B3-B4-B6-B7</f>
-        <v>3300</v>
+        <v>5400</v>
       </c>
       <c r="C5" s="6">
         <f>C2-C3-C4-C6-C7</f>
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D5" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="J5" s="1">
+      <c r="J5" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="10">
         <v>5</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="11">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="11">
         <f>VLOOKUP(L5,价值!$B:$G,6,0)*M5</f>
         <v>600</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="O5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="11">
         <v>12000</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="11">
         <f>VLOOKUP(O5,价值!$B:$G,6,0)*P5</f>
         <v>240</v>
       </c>
-      <c r="R5" s="2">
-        <f t="shared" si="0"/>
+      <c r="R5" s="11">
+        <f t="shared" si="3"/>
         <v>840</v>
       </c>
-      <c r="S5" s="2" t="str">
+      <c r="S5" s="11" t="str">
         <f>VLOOKUP(L5,价值!$B:$G,3,0)&amp;","&amp;M5</f>
         <v>pack,304,1</v>
       </c>
-      <c r="T5" s="2" t="str">
+      <c r="T5" s="11" t="str">
         <f>IF(VLOOKUP(L5,价值!$B:$G,5,0)=0,S5,VLOOKUP(L5,价值!$B:$G,5,0)&amp;","&amp;M5)</f>
         <v>item,104,1</v>
       </c>
-      <c r="U5" s="2" t="str">
+      <c r="U5" s="11" t="str">
         <f>VLOOKUP(O5,价值!$B:$G,3,0)&amp;","&amp;P5</f>
         <v>coin,12000</v>
       </c>
-      <c r="V5" s="2" t="str">
+      <c r="V5" s="11" t="str">
         <f>IF(VLOOKUP(O5,价值!$B:$G,5,0)=0,U5,VLOOKUP(O5,价值!$B:$G,5,0)&amp;","&amp;P5)</f>
         <v>coin,12000</v>
       </c>
-      <c r="W5" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W5" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,304,1;coin,12000</v>
       </c>
-      <c r="X5" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X5" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,104,1;coin,12000</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>99</v>
+      <c r="Y5" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA5" s="4">
         <v>40000</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="4">
+        <v>109</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="1">
         <f>VLOOKUP(AB5,价值!$B:$G,6,0)*AC5</f>
-        <v>500</v>
-      </c>
-      <c r="AE5" s="4" t="str">
+        <v>300</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>VLOOKUP(AE5,价值!$B:$G,6,0)*AF5</f>
+        <v>90</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>VLOOKUP(AH5,价值!$B:$G,6,0)*AI5</f>
+        <v>100</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1">
+        <f>VLOOKUP(AK5,价值!$B:$G,6,0)*AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="AO5" s="4" t="str">
         <f>VLOOKUP(AB5,价值!$B:$G,3,0)&amp;","&amp;AC5</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="AF5" s="3" t="str">
-        <f>IF(VLOOKUP(AB5,价值!$B:$G,5,0)=0,AE5,VLOOKUP(AB5,价值!$B:$G,5,0)&amp;","&amp;AC5)</f>
-        <v>prop,702,2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,211,5</v>
+      </c>
+      <c r="AP5" s="3" t="str">
+        <f>IF(VLOOKUP(AB5,价值!$B:$G,5,0)=0,AO5,VLOOKUP(AB5,价值!$B:$G,5,0)&amp;","&amp;AC5)</f>
+        <v>prop,211,5</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <f>VLOOKUP(AE5,价值!$B:$G,3,0)&amp;","&amp;AF5</f>
+        <v>prop,207,3</v>
+      </c>
+      <c r="AR5" s="3" t="str">
+        <f>IF(VLOOKUP(AE5,价值!$B:$G,5,0)=0,AQ5,VLOOKUP(AE5,价值!$B:$G,5,0)&amp;","&amp;AF5)</f>
+        <v>prop,207,3</v>
+      </c>
+      <c r="AS5" s="4" t="str">
+        <f>VLOOKUP(AH5,价值!$B:$G,3,0)&amp;","&amp;AI5</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="AT5" s="3" t="str">
+        <f>IF(VLOOKUP(AH5,价值!$B:$G,5,0)=0,AS5,VLOOKUP(AH5,价值!$B:$G,5,0)&amp;","&amp;AI5)</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="AU5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,211,5;prop,207,3;coin,5000</v>
+      </c>
+      <c r="AV5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,211,5;prop,207,3;coin,5000</v>
+      </c>
+      <c r="AY5" s="4"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -6322,86 +6751,141 @@
       <c r="H6" s="5">
         <v>400</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <v>5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="10">
         <v>10</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="L6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="11">
         <v>5</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="11">
         <f>VLOOKUP(L6,价值!$B:$G,6,0)*M6</f>
         <v>250</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="11">
         <v>10000</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="11">
         <f>VLOOKUP(O6,价值!$B:$G,6,0)*P6</f>
         <v>200</v>
       </c>
-      <c r="R6" s="2">
-        <f t="shared" si="0"/>
+      <c r="R6" s="11">
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="S6" s="2" t="str">
+      <c r="S6" s="11" t="str">
         <f>VLOOKUP(L6,价值!$B:$G,3,0)&amp;","&amp;M6</f>
         <v>pack,303,5</v>
       </c>
-      <c r="T6" s="2" t="str">
+      <c r="T6" s="11" t="str">
         <f>IF(VLOOKUP(L6,价值!$B:$G,5,0)=0,S6,VLOOKUP(L6,价值!$B:$G,5,0)&amp;","&amp;M6)</f>
         <v>item,103,5</v>
       </c>
-      <c r="U6" s="2" t="str">
+      <c r="U6" s="11" t="str">
         <f>VLOOKUP(O6,价值!$B:$G,3,0)&amp;","&amp;P6</f>
         <v>coin,10000</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="V6" s="11" t="str">
         <f>IF(VLOOKUP(O6,价值!$B:$G,5,0)=0,U6,VLOOKUP(O6,价值!$B:$G,5,0)&amp;","&amp;P6)</f>
         <v>coin,10000</v>
       </c>
-      <c r="W6" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W6" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,5;coin,10000</v>
       </c>
-      <c r="X6" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X6" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,5;coin,10000</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>99</v>
+      <c r="Y6" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA6" s="4">
         <v>50000</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC6" s="4">
+      <c r="AB6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="1">
         <v>2</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="1">
         <f>VLOOKUP(AB6,价值!$B:$G,6,0)*AC6</f>
+        <v>500</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>VLOOKUP(AE6,价值!$B:$G,6,0)*AF6</f>
         <v>120</v>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AH6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>VLOOKUP(AH6,价值!$B:$G,6,0)*AI6</f>
+        <v>100</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1">
+        <f>VLOOKUP(AK6,价值!$B:$G,6,0)*AL6</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="AO6" s="4" t="str">
         <f>VLOOKUP(AB6,价值!$B:$G,3,0)&amp;","&amp;AC6</f>
+        <v>prop,707,2</v>
+      </c>
+      <c r="AP6" s="3" t="str">
+        <f>IF(VLOOKUP(AB6,价值!$B:$G,5,0)=0,AO6,VLOOKUP(AB6,价值!$B:$G,5,0)&amp;","&amp;AC6)</f>
+        <v>prop,707,2</v>
+      </c>
+      <c r="AQ6" s="4" t="str">
+        <f>VLOOKUP(AE6,价值!$B:$G,3,0)&amp;","&amp;AF6</f>
         <v>prop,105,2</v>
       </c>
-      <c r="AF6" s="3" t="str">
-        <f>IF(VLOOKUP(AB6,价值!$B:$G,5,0)=0,AE6,VLOOKUP(AB6,价值!$B:$G,5,0)&amp;","&amp;AC6)</f>
+      <c r="AR6" s="3" t="str">
+        <f>IF(VLOOKUP(AE6,价值!$B:$G,5,0)=0,AQ6,VLOOKUP(AE6,价值!$B:$G,5,0)&amp;","&amp;AF6)</f>
         <v>prop,105,2</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AS6" s="4" t="str">
+        <f>VLOOKUP(AH6,价值!$B:$G,3,0)&amp;","&amp;AI6</f>
+        <v>pack,303,2</v>
+      </c>
+      <c r="AT6" s="3" t="str">
+        <f>IF(VLOOKUP(AH6,价值!$B:$G,5,0)=0,AS6,VLOOKUP(AH6,价值!$B:$G,5,0)&amp;","&amp;AI6)</f>
+        <v>item,103,2</v>
+      </c>
+      <c r="AU6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,2;prop,105,2;pack,303,2</v>
+      </c>
+      <c r="AV6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,707,2;prop,105,2;item,103,2</v>
+      </c>
+      <c r="AY6" s="4"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -6421,87 +6905,141 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="1">
+      <c r="J7" s="10">
         <v>10</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="10">
         <v>20</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="11">
         <v>4</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="11">
         <f>VLOOKUP(L7,价值!$B:$G,6,0)*M7</f>
         <v>200</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="O7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="11">
         <v>8000</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="11">
         <f>VLOOKUP(O7,价值!$B:$G,6,0)*P7</f>
         <v>160</v>
       </c>
-      <c r="R7" s="2">
-        <f t="shared" si="0"/>
+      <c r="R7" s="11">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="11" t="str">
         <f>VLOOKUP(L7,价值!$B:$G,3,0)&amp;","&amp;M7</f>
         <v>pack,303,4</v>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="11" t="str">
         <f>IF(VLOOKUP(L7,价值!$B:$G,5,0)=0,S7,VLOOKUP(L7,价值!$B:$G,5,0)&amp;","&amp;M7)</f>
         <v>item,103,4</v>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="11" t="str">
         <f>VLOOKUP(O7,价值!$B:$G,3,0)&amp;","&amp;P7</f>
         <v>coin,8000</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="11" t="str">
         <f>IF(VLOOKUP(O7,价值!$B:$G,5,0)=0,U7,VLOOKUP(O7,价值!$B:$G,5,0)&amp;","&amp;P7)</f>
         <v>coin,8000</v>
       </c>
-      <c r="W7" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W7" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,4;coin,8000</v>
       </c>
-      <c r="X7" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X7" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,4;coin,8000</v>
       </c>
-      <c r="Y7" s="5">
-        <f>C4</f>
-        <v>360</v>
+      <c r="Y7" s="10">
+        <v>0</v>
       </c>
       <c r="AA7" s="4">
         <v>60000</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="4">
+        <v>116</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1">
         <f>VLOOKUP(AB7,价值!$B:$G,6,0)*AC7</f>
-        <v>500</v>
-      </c>
-      <c r="AE7" s="4" t="str">
+        <v>450</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>VLOOKUP(AE7,价值!$B:$G,6,0)*AF7</f>
+        <v>180</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f>VLOOKUP(AH7,价值!$B:$G,6,0)*AI7</f>
+        <v>100</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1">
+        <f>VLOOKUP(AK7,价值!$B:$G,6,0)*AL7</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="AO7" s="4" t="str">
         <f>VLOOKUP(AB7,价值!$B:$G,3,0)&amp;","&amp;AC7</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="AF7" s="3" t="str">
-        <f>IF(VLOOKUP(AB7,价值!$B:$G,5,0)=0,AE7,VLOOKUP(AB7,价值!$B:$G,5,0)&amp;","&amp;AC7)</f>
-        <v>prop,702,2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,302,3</v>
+      </c>
+      <c r="AP7" s="3" t="str">
+        <f>IF(VLOOKUP(AB7,价值!$B:$G,5,0)=0,AO7,VLOOKUP(AB7,价值!$B:$G,5,0)&amp;","&amp;AC7)</f>
+        <v>prop,302,3</v>
+      </c>
+      <c r="AQ7" s="4" t="str">
+        <f>VLOOKUP(AE7,价值!$B:$G,3,0)&amp;","&amp;AF7</f>
+        <v>prop,301,3</v>
+      </c>
+      <c r="AR7" s="3" t="str">
+        <f>IF(VLOOKUP(AE7,价值!$B:$G,5,0)=0,AQ7,VLOOKUP(AE7,价值!$B:$G,5,0)&amp;","&amp;AF7)</f>
+        <v>prop,301,3</v>
+      </c>
+      <c r="AS7" s="4" t="str">
+        <f>VLOOKUP(AH7,价值!$B:$G,3,0)&amp;","&amp;AI7</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="AT7" s="3" t="str">
+        <f>IF(VLOOKUP(AH7,价值!$B:$G,5,0)=0,AS7,VLOOKUP(AH7,价值!$B:$G,5,0)&amp;","&amp;AI7)</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="AU7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,302,3;prop,301,3;coin,5000</v>
+      </c>
+      <c r="AV7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,302,3;prop,301,3;coin,5000</v>
+      </c>
+      <c r="AY7" s="4"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -6518,590 +7056,1136 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="J8" s="1">
+      <c r="J8" s="10">
         <v>20</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="10">
         <v>50</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="11">
         <v>3</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="11">
         <f>VLOOKUP(L8,价值!$B:$G,6,0)*M8</f>
         <v>150</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="O8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="11">
         <v>6000</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="11">
         <f>VLOOKUP(O8,价值!$B:$G,6,0)*P8</f>
         <v>120</v>
       </c>
-      <c r="R8" s="2">
-        <f t="shared" si="0"/>
+      <c r="R8" s="11">
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="S8" s="2" t="str">
+      <c r="S8" s="11" t="str">
         <f>VLOOKUP(L8,价值!$B:$G,3,0)&amp;","&amp;M8</f>
         <v>pack,303,3</v>
       </c>
-      <c r="T8" s="2" t="str">
+      <c r="T8" s="11" t="str">
         <f>IF(VLOOKUP(L8,价值!$B:$G,5,0)=0,S8,VLOOKUP(L8,价值!$B:$G,5,0)&amp;","&amp;M8)</f>
         <v>item,103,3</v>
       </c>
-      <c r="U8" s="2" t="str">
+      <c r="U8" s="11" t="str">
         <f>VLOOKUP(O8,价值!$B:$G,3,0)&amp;","&amp;P8</f>
         <v>coin,6000</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="V8" s="11" t="str">
         <f>IF(VLOOKUP(O8,价值!$B:$G,5,0)=0,U8,VLOOKUP(O8,价值!$B:$G,5,0)&amp;","&amp;P8)</f>
         <v>coin,6000</v>
       </c>
-      <c r="W8" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W8" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,3;coin,6000</v>
       </c>
-      <c r="X8" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X8" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,3;coin,6000</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>99</v>
+      <c r="Y8" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA8" s="4">
         <v>70000</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC8" s="4">
+      <c r="AB8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" s="1">
         <v>2</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="1">
         <f>VLOOKUP(AB8,价值!$B:$G,6,0)*AC8</f>
-        <v>180</v>
-      </c>
-      <c r="AE8" s="4" t="str">
+        <v>500</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="1">
+        <f>VLOOKUP(AE8,价值!$B:$G,6,0)*AF8</f>
+        <v>54</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f>VLOOKUP(AH8,价值!$B:$G,6,0)*AI8</f>
+        <v>100</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1">
+        <f>VLOOKUP(AK8,价值!$B:$G,6,0)*AL8</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" si="0"/>
+        <v>654</v>
+      </c>
+      <c r="AO8" s="4" t="str">
         <f>VLOOKUP(AB8,价值!$B:$G,3,0)&amp;","&amp;AC8</f>
-        <v>prop,317,2</v>
-      </c>
-      <c r="AF8" s="3" t="str">
-        <f>IF(VLOOKUP(AB8,价值!$B:$G,5,0)=0,AE8,VLOOKUP(AB8,价值!$B:$G,5,0)&amp;","&amp;AC8)</f>
-        <v>prop,317,2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="J9" s="1">
+        <v>prop,707,2</v>
+      </c>
+      <c r="AP8" s="3" t="str">
+        <f>IF(VLOOKUP(AB8,价值!$B:$G,5,0)=0,AO8,VLOOKUP(AB8,价值!$B:$G,5,0)&amp;","&amp;AC8)</f>
+        <v>prop,707,2</v>
+      </c>
+      <c r="AQ8" s="4" t="str">
+        <f>VLOOKUP(AE8,价值!$B:$G,3,0)&amp;","&amp;AF8</f>
+        <v>prop,104,3</v>
+      </c>
+      <c r="AR8" s="3" t="str">
+        <f>IF(VLOOKUP(AE8,价值!$B:$G,5,0)=0,AQ8,VLOOKUP(AE8,价值!$B:$G,5,0)&amp;","&amp;AF8)</f>
+        <v>prop,104,3</v>
+      </c>
+      <c r="AS8" s="4" t="str">
+        <f>VLOOKUP(AH8,价值!$B:$G,3,0)&amp;","&amp;AI8</f>
+        <v>pack,303,2</v>
+      </c>
+      <c r="AT8" s="3" t="str">
+        <f>IF(VLOOKUP(AH8,价值!$B:$G,5,0)=0,AS8,VLOOKUP(AH8,价值!$B:$G,5,0)&amp;","&amp;AI8)</f>
+        <v>item,103,2</v>
+      </c>
+      <c r="AU8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,2;prop,104,3;pack,303,2</v>
+      </c>
+      <c r="AV8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,707,2;prop,104,3;item,103,2</v>
+      </c>
+      <c r="AY8" s="4"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J9" s="10">
         <v>50</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="10">
         <v>100</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="11">
         <v>2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="11">
         <f>VLOOKUP(L9,价值!$B:$G,6,0)*M9</f>
         <v>100</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="O9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="11">
         <v>4000</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="11">
         <f>VLOOKUP(O9,价值!$B:$G,6,0)*P9</f>
         <v>80</v>
       </c>
-      <c r="R9" s="2">
-        <f t="shared" si="0"/>
+      <c r="R9" s="11">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="S9" s="2" t="str">
+      <c r="S9" s="11" t="str">
         <f>VLOOKUP(L9,价值!$B:$G,3,0)&amp;","&amp;M9</f>
         <v>pack,303,2</v>
       </c>
-      <c r="T9" s="2" t="str">
+      <c r="T9" s="11" t="str">
         <f>IF(VLOOKUP(L9,价值!$B:$G,5,0)=0,S9,VLOOKUP(L9,价值!$B:$G,5,0)&amp;","&amp;M9)</f>
         <v>item,103,2</v>
       </c>
-      <c r="U9" s="2" t="str">
+      <c r="U9" s="11" t="str">
         <f>VLOOKUP(O9,价值!$B:$G,3,0)&amp;","&amp;P9</f>
         <v>coin,4000</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="V9" s="11" t="str">
         <f>IF(VLOOKUP(O9,价值!$B:$G,5,0)=0,U9,VLOOKUP(O9,价值!$B:$G,5,0)&amp;","&amp;P9)</f>
         <v>coin,4000</v>
       </c>
-      <c r="W9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W9" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,2;coin,4000</v>
       </c>
-      <c r="X9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X9" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,2;coin,4000</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>99</v>
+      <c r="Y9" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA9" s="4">
         <v>80000</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="4">
+        <v>118</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1">
         <f>VLOOKUP(AB9,价值!$B:$G,6,0)*AC9</f>
-        <v>500</v>
-      </c>
-      <c r="AE9" s="4" t="str">
+        <v>1350</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>VLOOKUP(AE9,价值!$B:$G,6,0)*AF9</f>
+        <v>180</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f>VLOOKUP(AH9,价值!$B:$G,6,0)*AI9</f>
+        <v>100</v>
+      </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1">
+        <f>VLOOKUP(AK9,价值!$B:$G,6,0)*AL9</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="0"/>
+        <v>1630</v>
+      </c>
+      <c r="AO9" s="4" t="str">
         <f>VLOOKUP(AB9,价值!$B:$G,3,0)&amp;","&amp;AC9</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="AF9" s="3" t="str">
-        <f>IF(VLOOKUP(AB9,价值!$B:$G,5,0)=0,AE9,VLOOKUP(AB9,价值!$B:$G,5,0)&amp;","&amp;AC9)</f>
-        <v>prop,702,2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="J10" s="1">
+        <v>prop,303,3</v>
+      </c>
+      <c r="AP9" s="3" t="str">
+        <f>IF(VLOOKUP(AB9,价值!$B:$G,5,0)=0,AO9,VLOOKUP(AB9,价值!$B:$G,5,0)&amp;","&amp;AC9)</f>
+        <v>prop,303,3</v>
+      </c>
+      <c r="AQ9" s="4" t="str">
+        <f>VLOOKUP(AE9,价值!$B:$G,3,0)&amp;","&amp;AF9</f>
+        <v>prop,206,3</v>
+      </c>
+      <c r="AR9" s="3" t="str">
+        <f>IF(VLOOKUP(AE9,价值!$B:$G,5,0)=0,AQ9,VLOOKUP(AE9,价值!$B:$G,5,0)&amp;","&amp;AF9)</f>
+        <v>prop,206,3</v>
+      </c>
+      <c r="AS9" s="4" t="str">
+        <f>VLOOKUP(AH9,价值!$B:$G,3,0)&amp;","&amp;AI9</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="AT9" s="3" t="str">
+        <f>IF(VLOOKUP(AH9,价值!$B:$G,5,0)=0,AS9,VLOOKUP(AH9,价值!$B:$G,5,0)&amp;","&amp;AI9)</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="AU9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,303,3;prop,206,3;coin,5000</v>
+      </c>
+      <c r="AV9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,303,3;prop,206,3;coin,5000</v>
+      </c>
+      <c r="AY9" s="4"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J10" s="10">
         <v>100</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="10">
         <v>200</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="11">
         <v>1</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="11">
         <f>VLOOKUP(L10,价值!$B:$G,6,0)*M10</f>
         <v>50</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="O10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="11">
         <v>3000</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="11">
         <f>VLOOKUP(O10,价值!$B:$G,6,0)*P10</f>
         <v>60</v>
       </c>
-      <c r="R10" s="2">
-        <f t="shared" si="0"/>
+      <c r="R10" s="11">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="S10" s="2" t="str">
+      <c r="S10" s="11" t="str">
         <f>VLOOKUP(L10,价值!$B:$G,3,0)&amp;","&amp;M10</f>
         <v>pack,303,1</v>
       </c>
-      <c r="T10" s="2" t="str">
+      <c r="T10" s="11" t="str">
         <f>IF(VLOOKUP(L10,价值!$B:$G,5,0)=0,S10,VLOOKUP(L10,价值!$B:$G,5,0)&amp;","&amp;M10)</f>
         <v>item,103,1</v>
       </c>
-      <c r="U10" s="2" t="str">
+      <c r="U10" s="11" t="str">
         <f>VLOOKUP(O10,价值!$B:$G,3,0)&amp;","&amp;P10</f>
         <v>coin,3000</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="V10" s="11" t="str">
         <f>IF(VLOOKUP(O10,价值!$B:$G,5,0)=0,U10,VLOOKUP(O10,价值!$B:$G,5,0)&amp;","&amp;P10)</f>
         <v>coin,3000</v>
       </c>
-      <c r="W10" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W10" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,1;coin,3000</v>
       </c>
-      <c r="X10" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X10" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,1;coin,3000</v>
       </c>
-      <c r="Y10" s="5">
-        <f>D4</f>
-        <v>100</v>
+      <c r="Y10" s="10">
+        <v>0</v>
       </c>
       <c r="AA10" s="4">
         <v>90000</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" s="4">
+        <v>104</v>
+      </c>
+      <c r="AC10" s="1">
         <v>2</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="1">
         <f>VLOOKUP(AB10,价值!$B:$G,6,0)*AC10</f>
-        <v>180</v>
-      </c>
-      <c r="AE10" s="4" t="str">
+        <v>500</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>VLOOKUP(AE10,价值!$B:$G,6,0)*AF10</f>
+        <v>120</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f>VLOOKUP(AH10,价值!$B:$G,6,0)*AI10</f>
+        <v>100</v>
+      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1">
+        <f>VLOOKUP(AK10,价值!$B:$G,6,0)*AL10</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="AO10" s="4" t="str">
         <f>VLOOKUP(AB10,价值!$B:$G,3,0)&amp;","&amp;AC10</f>
-        <v>prop,314,2</v>
-      </c>
-      <c r="AF10" s="3" t="str">
-        <f>IF(VLOOKUP(AB10,价值!$B:$G,5,0)=0,AE10,VLOOKUP(AB10,价值!$B:$G,5,0)&amp;","&amp;AC10)</f>
-        <v>prop,314,2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="J11" s="1">
+        <v>prop,707,2</v>
+      </c>
+      <c r="AP10" s="3" t="str">
+        <f>IF(VLOOKUP(AB10,价值!$B:$G,5,0)=0,AO10,VLOOKUP(AB10,价值!$B:$G,5,0)&amp;","&amp;AC10)</f>
+        <v>prop,707,2</v>
+      </c>
+      <c r="AQ10" s="4" t="str">
+        <f>VLOOKUP(AE10,价值!$B:$G,3,0)&amp;","&amp;AF10</f>
+        <v>prop,105,2</v>
+      </c>
+      <c r="AR10" s="3" t="str">
+        <f>IF(VLOOKUP(AE10,价值!$B:$G,5,0)=0,AQ10,VLOOKUP(AE10,价值!$B:$G,5,0)&amp;","&amp;AF10)</f>
+        <v>prop,105,2</v>
+      </c>
+      <c r="AS10" s="4" t="str">
+        <f>VLOOKUP(AH10,价值!$B:$G,3,0)&amp;","&amp;AI10</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT10" s="3" t="str">
+        <f>IF(VLOOKUP(AH10,价值!$B:$G,5,0)=0,AS10,VLOOKUP(AH10,价值!$B:$G,5,0)&amp;","&amp;AI10)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,2;prop,105,2;cash,100</v>
+      </c>
+      <c r="AV10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,707,2;prop,105,2;cash,100</v>
+      </c>
+      <c r="AY10" s="4"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="J11" s="10">
         <v>200</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="10">
         <v>500</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="11">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="11">
         <f>VLOOKUP(L11,价值!$B:$G,6,0)*M11</f>
         <v>50</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="O11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="11">
         <v>2000</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="11">
         <f>VLOOKUP(O11,价值!$B:$G,6,0)*P11</f>
         <v>40</v>
       </c>
-      <c r="R11" s="2">
-        <f t="shared" si="0"/>
+      <c r="R11" s="11">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="S11" s="2" t="str">
+      <c r="S11" s="11" t="str">
         <f>VLOOKUP(L11,价值!$B:$G,3,0)&amp;","&amp;M11</f>
         <v>pack,303,1</v>
       </c>
-      <c r="T11" s="2" t="str">
+      <c r="T11" s="11" t="str">
         <f>IF(VLOOKUP(L11,价值!$B:$G,5,0)=0,S11,VLOOKUP(L11,价值!$B:$G,5,0)&amp;","&amp;M11)</f>
         <v>item,103,1</v>
       </c>
-      <c r="U11" s="2" t="str">
+      <c r="U11" s="11" t="str">
         <f>VLOOKUP(O11,价值!$B:$G,3,0)&amp;","&amp;P11</f>
         <v>coin,2000</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="V11" s="11" t="str">
         <f>IF(VLOOKUP(O11,价值!$B:$G,5,0)=0,U11,VLOOKUP(O11,价值!$B:$G,5,0)&amp;","&amp;P11)</f>
         <v>coin,2000</v>
       </c>
-      <c r="W11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W11" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,1;coin,2000</v>
       </c>
-      <c r="X11" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X11" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,1;coin,2000</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>99</v>
+      <c r="Y11" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA11" s="4">
         <v>100000</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="4">
+        <v>114</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1">
         <f>VLOOKUP(AB11,价值!$B:$G,6,0)*AC11</f>
-        <v>500</v>
-      </c>
-      <c r="AE11" s="4" t="str">
+        <v>900</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>VLOOKUP(AE11,价值!$B:$G,6,0)*AF11</f>
+        <v>450</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f>VLOOKUP(AH11,价值!$B:$G,6,0)*AI11</f>
+        <v>100</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1">
+        <f>VLOOKUP(AK11,价值!$B:$G,6,0)*AL11</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="AO11" s="4" t="str">
         <f>VLOOKUP(AB11,价值!$B:$G,3,0)&amp;","&amp;AC11</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="AF11" s="3" t="str">
-        <f>IF(VLOOKUP(AB11,价值!$B:$G,5,0)=0,AE11,VLOOKUP(AB11,价值!$B:$G,5,0)&amp;","&amp;AC11)</f>
-        <v>prop,702,2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,323,3</v>
+      </c>
+      <c r="AP11" s="3" t="str">
+        <f>IF(VLOOKUP(AB11,价值!$B:$G,5,0)=0,AO11,VLOOKUP(AB11,价值!$B:$G,5,0)&amp;","&amp;AC11)</f>
+        <v>prop,323,3</v>
+      </c>
+      <c r="AQ11" s="4" t="str">
+        <f>VLOOKUP(AE11,价值!$B:$G,3,0)&amp;","&amp;AF11</f>
+        <v>prop,322,3</v>
+      </c>
+      <c r="AR11" s="3" t="str">
+        <f>IF(VLOOKUP(AE11,价值!$B:$G,5,0)=0,AQ11,VLOOKUP(AE11,价值!$B:$G,5,0)&amp;","&amp;AF11)</f>
+        <v>prop,322,3</v>
+      </c>
+      <c r="AS11" s="4" t="str">
+        <f>VLOOKUP(AH11,价值!$B:$G,3,0)&amp;","&amp;AI11</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT11" s="3" t="str">
+        <f>IF(VLOOKUP(AH11,价值!$B:$G,5,0)=0,AS11,VLOOKUP(AH11,价值!$B:$G,5,0)&amp;","&amp;AI11)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,323,3;prop,322,3;cash,100</v>
+      </c>
+      <c r="AV11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,323,3;prop,322,3;cash,100</v>
+      </c>
+      <c r="AY11" s="4"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="10">
         <v>500</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="10">
         <v>1000</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="11">
         <v>1</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="11">
         <f>VLOOKUP(L12,价值!$B:$G,6,0)*M12</f>
         <v>50</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="O12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="11">
         <v>1000</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="11">
         <f>VLOOKUP(O12,价值!$B:$G,6,0)*P12</f>
         <v>20</v>
       </c>
-      <c r="R12" s="2">
-        <f t="shared" si="0"/>
+      <c r="R12" s="11">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="S12" s="2" t="str">
+      <c r="S12" s="11" t="str">
         <f>VLOOKUP(L12,价值!$B:$G,3,0)&amp;","&amp;M12</f>
         <v>pack,303,1</v>
       </c>
-      <c r="T12" s="2" t="str">
+      <c r="T12" s="11" t="str">
         <f>IF(VLOOKUP(L12,价值!$B:$G,5,0)=0,S12,VLOOKUP(L12,价值!$B:$G,5,0)&amp;","&amp;M12)</f>
         <v>item,103,1</v>
       </c>
-      <c r="U12" s="2" t="str">
+      <c r="U12" s="11" t="str">
         <f>VLOOKUP(O12,价值!$B:$G,3,0)&amp;","&amp;P12</f>
         <v>coin,1000</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="V12" s="11" t="str">
         <f>IF(VLOOKUP(O12,价值!$B:$G,5,0)=0,U12,VLOOKUP(O12,价值!$B:$G,5,0)&amp;","&amp;P12)</f>
         <v>coin,1000</v>
       </c>
-      <c r="W12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W12" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,1;coin,1000</v>
       </c>
-      <c r="X12" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X12" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,1;coin,1000</v>
       </c>
-      <c r="Y12" s="5" t="s">
-        <v>99</v>
+      <c r="Y12" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA12" s="4">
         <v>110000</v>
       </c>
-      <c r="AB12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC12" s="4">
+      <c r="AB12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="1">
         <v>2</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="1">
         <f>VLOOKUP(AB12,价值!$B:$G,6,0)*AC12</f>
-        <v>720</v>
-      </c>
-      <c r="AE12" s="4" t="str">
+        <v>1200</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>VLOOKUP(AE12,价值!$B:$G,6,0)*AF12</f>
+        <v>400</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f>VLOOKUP(AH12,价值!$B:$G,6,0)*AI12</f>
+        <v>100</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1">
+        <f>VLOOKUP(AK12,价值!$B:$G,6,0)*AL12</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="AO12" s="4" t="str">
         <f>VLOOKUP(AB12,价值!$B:$G,3,0)&amp;","&amp;AC12</f>
-        <v>prop,315,2</v>
-      </c>
-      <c r="AF12" s="3" t="str">
-        <f>IF(VLOOKUP(AB12,价值!$B:$G,5,0)=0,AE12,VLOOKUP(AB12,价值!$B:$G,5,0)&amp;","&amp;AC12)</f>
-        <v>prop,315,2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+        <v>pack,304,2</v>
+      </c>
+      <c r="AP12" s="3" t="str">
+        <f>IF(VLOOKUP(AB12,价值!$B:$G,5,0)=0,AO12,VLOOKUP(AB12,价值!$B:$G,5,0)&amp;","&amp;AC12)</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="AQ12" s="4" t="str">
+        <f>VLOOKUP(AE12,价值!$B:$G,3,0)&amp;","&amp;AF12</f>
+        <v>coin,20000</v>
+      </c>
+      <c r="AR12" s="3" t="str">
+        <f>IF(VLOOKUP(AE12,价值!$B:$G,5,0)=0,AQ12,VLOOKUP(AE12,价值!$B:$G,5,0)&amp;","&amp;AF12)</f>
+        <v>coin,20000</v>
+      </c>
+      <c r="AS12" s="4" t="str">
+        <f>VLOOKUP(AH12,价值!$B:$G,3,0)&amp;","&amp;AI12</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT12" s="3" t="str">
+        <f>IF(VLOOKUP(AH12,价值!$B:$G,5,0)=0,AS12,VLOOKUP(AH12,价值!$B:$G,5,0)&amp;","&amp;AI12)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,304,2;coin,20000;cash,100</v>
+      </c>
+      <c r="AV12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>item,104,2;coin,20000;cash,100</v>
+      </c>
+      <c r="AY12" s="4"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>22900</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="10">
         <v>1000</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="10">
         <v>9999</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="11">
         <v>1</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="11">
         <f>VLOOKUP(L13,价值!$B:$G,6,0)*M13</f>
         <v>50</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="O13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="11">
         <v>500</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="11">
         <f>VLOOKUP(O13,价值!$B:$G,6,0)*P13</f>
         <v>10</v>
       </c>
-      <c r="R13" s="2">
-        <f t="shared" si="0"/>
+      <c r="R13" s="11">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="S13" s="2" t="str">
+      <c r="S13" s="11" t="str">
         <f>VLOOKUP(L13,价值!$B:$G,3,0)&amp;","&amp;M13</f>
         <v>pack,303,1</v>
       </c>
-      <c r="T13" s="2" t="str">
+      <c r="T13" s="11" t="str">
         <f>IF(VLOOKUP(L13,价值!$B:$G,5,0)=0,S13,VLOOKUP(L13,价值!$B:$G,5,0)&amp;","&amp;M13)</f>
         <v>item,103,1</v>
       </c>
-      <c r="U13" s="2" t="str">
+      <c r="U13" s="11" t="str">
         <f>VLOOKUP(O13,价值!$B:$G,3,0)&amp;","&amp;P13</f>
         <v>coin,500</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="V13" s="11" t="str">
         <f>IF(VLOOKUP(O13,价值!$B:$G,5,0)=0,U13,VLOOKUP(O13,价值!$B:$G,5,0)&amp;","&amp;P13)</f>
         <v>coin,500</v>
       </c>
-      <c r="W13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="W13" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>pack,303,1;coin,500</v>
       </c>
-      <c r="X13" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="X13" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>item,103,1;coin,500</v>
       </c>
-      <c r="Y13" s="5" t="s">
-        <v>99</v>
+      <c r="Y13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AA13" s="4">
         <v>120000</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC13" s="4">
+        <v>74</v>
+      </c>
+      <c r="AC13" s="1">
         <v>2</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="1">
         <f>VLOOKUP(AB13,价值!$B:$G,6,0)*AC13</f>
-        <v>1200</v>
-      </c>
-      <c r="AE13" s="4" t="str">
+        <v>720</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>VLOOKUP(AE13,价值!$B:$G,6,0)*AF13</f>
+        <v>270</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f>VLOOKUP(AH13,价值!$B:$G,6,0)*AI13</f>
+        <v>100</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1">
+        <f>VLOOKUP(AK13,价值!$B:$G,6,0)*AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+      <c r="AO13" s="4" t="str">
         <f>VLOOKUP(AB13,价值!$B:$G,3,0)&amp;","&amp;AC13</f>
-        <v>pack,304,2</v>
-      </c>
-      <c r="AF13" s="3" t="str">
-        <f>IF(VLOOKUP(AB13,价值!$B:$G,5,0)=0,AE13,VLOOKUP(AB13,价值!$B:$G,5,0)&amp;","&amp;AC13)</f>
-        <v>item,104,2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+        <v>prop,318,2</v>
+      </c>
+      <c r="AP13" s="3" t="str">
+        <f>IF(VLOOKUP(AB13,价值!$B:$G,5,0)=0,AO13,VLOOKUP(AB13,价值!$B:$G,5,0)&amp;","&amp;AC13)</f>
+        <v>prop,318,2</v>
+      </c>
+      <c r="AQ13" s="4" t="str">
+        <f>VLOOKUP(AE13,价值!$B:$G,3,0)&amp;","&amp;AF13</f>
+        <v>prop,317,3</v>
+      </c>
+      <c r="AR13" s="3" t="str">
+        <f>IF(VLOOKUP(AE13,价值!$B:$G,5,0)=0,AQ13,VLOOKUP(AE13,价值!$B:$G,5,0)&amp;","&amp;AF13)</f>
+        <v>prop,317,3</v>
+      </c>
+      <c r="AS13" s="4" t="str">
+        <f>VLOOKUP(AH13,价值!$B:$G,3,0)&amp;","&amp;AI13</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT13" s="3" t="str">
+        <f>IF(VLOOKUP(AH13,价值!$B:$G,5,0)=0,AS13,VLOOKUP(AH13,价值!$B:$G,5,0)&amp;","&amp;AI13)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,318,2;prop,317,3;cash,100</v>
+      </c>
+      <c r="AV13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,318,2;prop,317,3;cash,100</v>
+      </c>
+      <c r="AY13" s="4"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="AA14" s="4">
         <v>130000</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AB14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="1">
         <v>2</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="1">
         <f>VLOOKUP(AB14,价值!$B:$G,6,0)*AC14</f>
-        <v>720</v>
-      </c>
-      <c r="AE14" s="4" t="str">
+        <v>1200</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>30000</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>VLOOKUP(AE14,价值!$B:$G,6,0)*AF14</f>
+        <v>600</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f>VLOOKUP(AH14,价值!$B:$G,6,0)*AI14</f>
+        <v>100</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1">
+        <f>VLOOKUP(AK14,价值!$B:$G,6,0)*AL14</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="AO14" s="4" t="str">
         <f>VLOOKUP(AB14,价值!$B:$G,3,0)&amp;","&amp;AC14</f>
-        <v>prop,318,2</v>
-      </c>
-      <c r="AF14" s="3" t="str">
-        <f>IF(VLOOKUP(AB14,价值!$B:$G,5,0)=0,AE14,VLOOKUP(AB14,价值!$B:$G,5,0)&amp;","&amp;AC14)</f>
-        <v>prop,318,2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+        <v>pack,304,2</v>
+      </c>
+      <c r="AP14" s="3" t="str">
+        <f>IF(VLOOKUP(AB14,价值!$B:$G,5,0)=0,AO14,VLOOKUP(AB14,价值!$B:$G,5,0)&amp;","&amp;AC14)</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="AQ14" s="4" t="str">
+        <f>VLOOKUP(AE14,价值!$B:$G,3,0)&amp;","&amp;AF14</f>
+        <v>coin,30000</v>
+      </c>
+      <c r="AR14" s="3" t="str">
+        <f>IF(VLOOKUP(AE14,价值!$B:$G,5,0)=0,AQ14,VLOOKUP(AE14,价值!$B:$G,5,0)&amp;","&amp;AF14)</f>
+        <v>coin,30000</v>
+      </c>
+      <c r="AS14" s="4" t="str">
+        <f>VLOOKUP(AH14,价值!$B:$G,3,0)&amp;","&amp;AI14</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT14" s="3" t="str">
+        <f>IF(VLOOKUP(AH14,价值!$B:$G,5,0)=0,AS14,VLOOKUP(AH14,价值!$B:$G,5,0)&amp;","&amp;AI14)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,304,2;coin,30000;cash,100</v>
+      </c>
+      <c r="AV14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>item,104,2;coin,30000;cash,100</v>
+      </c>
+      <c r="AY14" s="4"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="AA15" s="4">
         <v>140000</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="4">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="1">
         <f>VLOOKUP(AB15,价值!$B:$G,6,0)*AC15</f>
-        <v>1200</v>
-      </c>
-      <c r="AE15" s="4" t="str">
+        <v>1080</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="1">
+        <f>VLOOKUP(AE15,价值!$B:$G,6,0)*AF15</f>
+        <v>270</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f>VLOOKUP(AH15,价值!$B:$G,6,0)*AI15</f>
+        <v>100</v>
+      </c>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1">
+        <f>VLOOKUP(AK15,价值!$B:$G,6,0)*AL15</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="AO15" s="4" t="str">
         <f>VLOOKUP(AB15,价值!$B:$G,3,0)&amp;","&amp;AC15</f>
-        <v>pack,304,2</v>
-      </c>
-      <c r="AF15" s="3" t="str">
-        <f>IF(VLOOKUP(AB15,价值!$B:$G,5,0)=0,AE15,VLOOKUP(AB15,价值!$B:$G,5,0)&amp;","&amp;AC15)</f>
-        <v>item,104,2</v>
-      </c>
-      <c r="AG15" s="4">
+        <v>prop,315,3</v>
+      </c>
+      <c r="AP15" s="3" t="str">
+        <f>IF(VLOOKUP(AB15,价值!$B:$G,5,0)=0,AO15,VLOOKUP(AB15,价值!$B:$G,5,0)&amp;","&amp;AC15)</f>
+        <v>prop,315,3</v>
+      </c>
+      <c r="AQ15" s="4" t="str">
+        <f>VLOOKUP(AE15,价值!$B:$G,3,0)&amp;","&amp;AF15</f>
+        <v>prop,314,3</v>
+      </c>
+      <c r="AR15" s="3" t="str">
+        <f>IF(VLOOKUP(AE15,价值!$B:$G,5,0)=0,AQ15,VLOOKUP(AE15,价值!$B:$G,5,0)&amp;","&amp;AF15)</f>
+        <v>prop,314,3</v>
+      </c>
+      <c r="AS15" s="4" t="str">
+        <f>VLOOKUP(AH15,价值!$B:$G,3,0)&amp;","&amp;AI15</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT15" s="3" t="str">
+        <f>IF(VLOOKUP(AH15,价值!$B:$G,5,0)=0,AS15,VLOOKUP(AH15,价值!$B:$G,5,0)&amp;","&amp;AI15)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,315,3;prop,314,3;cash,100</v>
+      </c>
+      <c r="AV15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>prop,315,3;prop,314,3;cash,100</v>
+      </c>
+      <c r="AY15" s="4">
         <f>积分计算!K11</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
       </c>
+      <c r="J16" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="AA16" s="4">
         <v>150000</v>
       </c>
-      <c r="AB16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="4">
+      <c r="AB16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1">
         <f>VLOOKUP(AB16,价值!$B:$G,6,0)*AC16</f>
-        <v>4800</v>
-      </c>
-      <c r="AE16" s="4" t="str">
+        <v>1200</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="AG16" s="1">
+        <f>VLOOKUP(AE16,价值!$B:$G,6,0)*AF16</f>
+        <v>1000</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f>VLOOKUP(AH16,价值!$B:$G,6,0)*AI16</f>
+        <v>100</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1">
+        <f>VLOOKUP(AK16,价值!$B:$G,6,0)*AL16</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="AO16" s="4" t="str">
         <f>VLOOKUP(AB16,价值!$B:$G,3,0)&amp;","&amp;AC16</f>
-        <v>pack,305,1</v>
-      </c>
-      <c r="AF16" s="3" t="str">
-        <f>IF(VLOOKUP(AB16,价值!$B:$G,5,0)=0,AE16,VLOOKUP(AB16,价值!$B:$G,5,0)&amp;","&amp;AC16)</f>
-        <v>item,105,1</v>
-      </c>
-      <c r="AG16" s="5">
+        <v>pack,304,2</v>
+      </c>
+      <c r="AP16" s="3" t="str">
+        <f>IF(VLOOKUP(AB16,价值!$B:$G,5,0)=0,AO16,VLOOKUP(AB16,价值!$B:$G,5,0)&amp;","&amp;AC16)</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="AQ16" s="4" t="str">
+        <f>VLOOKUP(AE16,价值!$B:$G,3,0)&amp;","&amp;AF16</f>
+        <v>coin,50000</v>
+      </c>
+      <c r="AR16" s="3" t="str">
+        <f>IF(VLOOKUP(AE16,价值!$B:$G,5,0)=0,AQ16,VLOOKUP(AE16,价值!$B:$G,5,0)&amp;","&amp;AF16)</f>
+        <v>coin,50000</v>
+      </c>
+      <c r="AS16" s="4" t="str">
+        <f>VLOOKUP(AH16,价值!$B:$G,3,0)&amp;","&amp;AI16</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AT16" s="3" t="str">
+        <f>IF(VLOOKUP(AH16,价值!$B:$G,5,0)=0,AS16,VLOOKUP(AH16,价值!$B:$G,5,0)&amp;","&amp;AI16)</f>
+        <v>cash,100</v>
+      </c>
+      <c r="AU16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,304,2;coin,50000;cash,100</v>
+      </c>
+      <c r="AV16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>item,104,2;coin,50000;cash,100</v>
+      </c>
+      <c r="AY16" s="5">
         <f>D3</f>
-        <v>11750</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2">
         <v>50</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4">
-        <f>SUM(AD2:AD16)</f>
-        <v>11860</v>
-      </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="4">
+        <f>SUM(AN2:AN16)</f>
+        <v>16423</v>
+      </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
@@ -7111,14 +8195,63 @@
         <f>220</f>
         <v>220</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>102</v>
+      <c r="J18" s="2">
+        <f>E6</f>
+        <v>80</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="4">
+        <v>50</v>
+      </c>
+      <c r="N18" s="4">
+        <f>VLOOKUP(L18,价值!$B:$G,6,0)*M18</f>
+        <v>50</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>VLOOKUP(O18,价值!$B:$G,6,0)*P18</f>
+        <v>36</v>
+      </c>
+      <c r="R18" s="2">
+        <f>M18+Q18</f>
+        <v>86</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f>VLOOKUP(L18,价值!$B:$G,3,0)&amp;","&amp;M18</f>
+        <v>cash,50</v>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f>IF(VLOOKUP(L18,价值!$B:$G,5,0)=0,S18,VLOOKUP(L18,价值!$B:$G,5,0)&amp;","&amp;M18)</f>
+        <v>cash,50</v>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f>VLOOKUP(O18,价值!$B:$G,3,0)&amp;","&amp;P18</f>
+        <v>prop,104,2</v>
+      </c>
+      <c r="V18" s="2" t="str">
+        <f>IF(VLOOKUP(O18,价值!$B:$G,5,0)=0,U18,VLOOKUP(O18,价值!$B:$G,5,0)&amp;","&amp;P18)</f>
+        <v>prop,104,2</v>
+      </c>
+      <c r="W18" s="2" t="str">
+        <f>S18&amp;";"&amp;U18</f>
+        <v>cash,50;prop,104,2</v>
+      </c>
+      <c r="X18" s="2" t="str">
+        <f>T18&amp;";"&amp;V18</f>
+        <v>cash,50;prop,104,2</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -7127,53 +8260,60 @@
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="J19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>46</v>
+      <c r="J19" s="2">
+        <f>F6</f>
+        <v>180</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="4">
+        <v>80</v>
+      </c>
+      <c r="N19" s="4">
+        <f>VLOOKUP(L19,价值!$B:$G,6,0)*M19</f>
+        <v>80</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>VLOOKUP(O19,价值!$B:$G,6,0)*P19</f>
+        <v>100</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" ref="R19:R21" si="5">M19+Q19</f>
+        <v>180</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f>VLOOKUP(L19,价值!$B:$G,3,0)&amp;","&amp;M19</f>
+        <v>cash,80</v>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f>IF(VLOOKUP(L19,价值!$B:$G,5,0)=0,S19,VLOOKUP(L19,价值!$B:$G,5,0)&amp;","&amp;M19)</f>
+        <v>cash,80</v>
+      </c>
+      <c r="U19" s="2" t="str">
+        <f>VLOOKUP(O19,价值!$B:$G,3,0)&amp;","&amp;P19</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="V19" s="2" t="str">
+        <f>IF(VLOOKUP(O19,价值!$B:$G,5,0)=0,U19,VLOOKUP(O19,价值!$B:$G,5,0)&amp;","&amp;P19)</f>
+        <v>coin,5000</v>
+      </c>
+      <c r="W19" s="2" t="str">
+        <f t="shared" ref="W19:W21" si="6">S19&amp;";"&amp;U19</f>
+        <v>cash,80;coin,5000</v>
+      </c>
+      <c r="X19" s="2" t="str">
+        <f t="shared" ref="X19:X21" si="7">T19&amp;";"&amp;V19</f>
+        <v>cash,80;coin,5000</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>59</v>
@@ -7206,7 +8346,7 @@
         <v>65</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>46</v>
@@ -7230,10 +8370,10 @@
         <v>30</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.15">
@@ -7244,73 +8384,66 @@
         <f>B8</f>
         <v>100</v>
       </c>
-      <c r="I20" s="2">
-        <f>K20*100</f>
+      <c r="J20" s="2">
+        <f>G6</f>
+        <v>290</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="4">
         <v>100</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="N20" s="4">
         <f>VLOOKUP(L20,价值!$B:$G,6,0)*M20</f>
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P20" s="2">
         <v>3</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="4">
         <f>VLOOKUP(O20,价值!$B:$G,6,0)*P20</f>
-        <v>1800</v>
+        <v>180</v>
       </c>
       <c r="R20" s="2">
-        <f>N20+Q20</f>
-        <v>3300</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="S20" s="2" t="str">
         <f>VLOOKUP(L20,价值!$B:$G,3,0)&amp;","&amp;M20</f>
-        <v>prop,705,1</v>
+        <v>cash,100</v>
       </c>
       <c r="T20" s="2" t="str">
         <f>IF(VLOOKUP(L20,价值!$B:$G,5,0)=0,S20,VLOOKUP(L20,价值!$B:$G,5,0)&amp;","&amp;M20)</f>
-        <v>prop,705,1</v>
+        <v>cash,100</v>
       </c>
       <c r="U20" s="2" t="str">
         <f>VLOOKUP(O20,价值!$B:$G,3,0)&amp;","&amp;P20</f>
-        <v>pack,304,3</v>
+        <v>prop,105,3</v>
       </c>
       <c r="V20" s="2" t="str">
         <f>IF(VLOOKUP(O20,价值!$B:$G,5,0)=0,U20,VLOOKUP(O20,价值!$B:$G,5,0)&amp;","&amp;P20)</f>
-        <v>item,104,3</v>
+        <v>prop,105,3</v>
       </c>
       <c r="W20" s="2" t="str">
-        <f>S20&amp;";"&amp;U20</f>
-        <v>prop,705,1;pack,304,3</v>
+        <f t="shared" si="6"/>
+        <v>cash,100;prop,105,3</v>
       </c>
       <c r="X20" s="2" t="str">
-        <f>T20&amp;";"&amp;V20</f>
-        <v>prop,705,1;item,104,3</v>
-      </c>
-      <c r="Y20" s="5">
-        <f>B5</f>
-        <v>3300</v>
+        <f t="shared" si="7"/>
+        <v>cash,100;prop,105,3</v>
       </c>
       <c r="AA20" s="4">
         <v>1</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC20" s="4">
         <v>1</v>
@@ -7320,7 +8453,7 @@
         <v>15</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF20" s="4">
         <v>0</v>
@@ -7330,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI20" s="4">
         <v>750</v>
@@ -7382,78 +8515,72 @@
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2">
         <f>B20/B18*B17</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" ref="I21:I28" si="2">K21*100</f>
-        <v>300</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
+      <c r="J21" s="2">
+        <f>H6</f>
+        <v>400</v>
       </c>
       <c r="K21" s="1">
-        <v>3</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="4">
+        <v>150</v>
+      </c>
+      <c r="N21" s="4">
         <f>VLOOKUP(L21,价值!$B:$G,6,0)*M21</f>
-        <v>1500</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="P21" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="2">
+        <v>12500</v>
+      </c>
+      <c r="Q21" s="4">
         <f>VLOOKUP(O21,价值!$B:$G,6,0)*P21</f>
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21:R28" si="3">N21+Q21</f>
-        <v>2700</v>
+        <f t="shared" si="5"/>
+        <v>400</v>
       </c>
       <c r="S21" s="2" t="str">
         <f>VLOOKUP(L21,价值!$B:$G,3,0)&amp;","&amp;M21</f>
-        <v>prop,705,1</v>
+        <v>cash,150</v>
       </c>
       <c r="T21" s="2" t="str">
         <f>IF(VLOOKUP(L21,价值!$B:$G,5,0)=0,S21,VLOOKUP(L21,价值!$B:$G,5,0)&amp;","&amp;M21)</f>
-        <v>prop,705,1</v>
+        <v>cash,150</v>
       </c>
       <c r="U21" s="2" t="str">
         <f>VLOOKUP(O21,价值!$B:$G,3,0)&amp;","&amp;P21</f>
-        <v>pack,304,2</v>
+        <v>coin,12500</v>
       </c>
       <c r="V21" s="2" t="str">
         <f>IF(VLOOKUP(O21,价值!$B:$G,5,0)=0,U21,VLOOKUP(O21,价值!$B:$G,5,0)&amp;","&amp;P21)</f>
-        <v>item,104,2</v>
+        <v>coin,12500</v>
       </c>
       <c r="W21" s="2" t="str">
-        <f t="shared" ref="W21:W28" si="4">S21&amp;";"&amp;U21</f>
-        <v>prop,705,1;pack,304,2</v>
+        <f t="shared" si="6"/>
+        <v>cash,150;coin,12500</v>
       </c>
       <c r="X21" s="2" t="str">
-        <f t="shared" ref="X21:X28" si="5">T21&amp;";"&amp;V21</f>
-        <v>prop,705,1;item,104,2</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>cash,150;coin,12500</v>
       </c>
       <c r="AA21" s="4">
         <v>2</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC21" s="4">
         <v>1</v>
@@ -7463,17 +8590,17 @@
         <v>15</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF21" s="4">
         <v>0</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" ref="AG21:AG32" si="6">3*AF21</f>
+        <f t="shared" ref="AG21:AG32" si="8">3*AF21</f>
         <v>0</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI21" s="4">
         <v>800</v>
@@ -7483,7 +8610,7 @@
         <v>16</v>
       </c>
       <c r="AK21" s="4">
-        <f t="shared" ref="AK21:AK32" si="7">AD21+AG21+AJ21</f>
+        <f t="shared" ref="AK21:AK32" si="9">AD21+AG21+AJ21</f>
         <v>31</v>
       </c>
       <c r="AL21" s="5"/>
@@ -7512,7 +8639,7 @@
         <v>coin,800</v>
       </c>
       <c r="AS21" s="2" t="str">
-        <f t="shared" ref="AS21:AT32" si="8">AM21&amp;IF(AO21="","",";"&amp;AO21)&amp;";"&amp;AQ21</f>
+        <f t="shared" ref="AS21:AS32" si="10">AM21&amp;IF(AO21="","",";"&amp;AO21)&amp;";"&amp;AQ21</f>
         <v>pack,302,1;coin,800</v>
       </c>
       <c r="AT21" s="2" t="str">
@@ -7521,72 +8648,11 @@
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="I22" s="2">
-        <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>6</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
-        <f>VLOOKUP(L22,价值!$B:$G,6,0)*M22</f>
-        <v>1500</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2">
-        <f>VLOOKUP(O22,价值!$B:$G,6,0)*P22</f>
-        <v>600</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-      <c r="S22" s="2" t="str">
-        <f>VLOOKUP(L22,价值!$B:$G,3,0)&amp;","&amp;M22</f>
-        <v>prop,705,1</v>
-      </c>
-      <c r="T22" s="2" t="str">
-        <f>IF(VLOOKUP(L22,价值!$B:$G,5,0)=0,S22,VLOOKUP(L22,价值!$B:$G,5,0)&amp;","&amp;M22)</f>
-        <v>prop,705,1</v>
-      </c>
-      <c r="U22" s="2" t="str">
-        <f>VLOOKUP(O22,价值!$B:$G,3,0)&amp;","&amp;P22</f>
-        <v>pack,304,1</v>
-      </c>
-      <c r="V22" s="2" t="str">
-        <f>IF(VLOOKUP(O22,价值!$B:$G,5,0)=0,U22,VLOOKUP(O22,价值!$B:$G,5,0)&amp;","&amp;P22)</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="W22" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>prop,705,1;pack,304,1</v>
-      </c>
-      <c r="X22" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,705,1;item,104,1</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AA22" s="4">
         <v>3</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC22" s="4">
         <v>1</v>
@@ -7596,17 +8662,17 @@
         <v>15</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF22" s="4">
         <v>0</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI22" s="4">
         <v>850</v>
@@ -7616,7 +8682,7 @@
         <v>17</v>
       </c>
       <c r="AK22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="AL22" s="5"/>
@@ -7645,88 +8711,26 @@
         <v>coin,850</v>
       </c>
       <c r="AS22" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,302,1;coin,850</v>
       </c>
       <c r="AT22" s="2" t="str">
-        <f t="shared" ref="AT22:AT32" si="9">AT21&amp;"#S#"&amp;AS22</f>
+        <f t="shared" ref="AT22:AT32" si="11">AT21&amp;"#S#"&amp;AS22</f>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2">
         <v>0.4</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>6</v>
-      </c>
-      <c r="K23" s="1">
-        <v>10</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="2">
-        <v>4</v>
-      </c>
-      <c r="N23" s="2">
-        <f>VLOOKUP(L23,价值!$B:$G,6,0)*M23</f>
-        <v>1000</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2">
-        <f>VLOOKUP(O23,价值!$B:$G,6,0)*P23</f>
-        <v>600</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="S23" s="2" t="str">
-        <f>VLOOKUP(L23,价值!$B:$G,3,0)&amp;","&amp;M23</f>
-        <v>prop,702,4</v>
-      </c>
-      <c r="T23" s="2" t="str">
-        <f>IF(VLOOKUP(L23,价值!$B:$G,5,0)=0,S23,VLOOKUP(L23,价值!$B:$G,5,0)&amp;","&amp;M23)</f>
-        <v>prop,702,4</v>
-      </c>
-      <c r="U23" s="2" t="str">
-        <f>VLOOKUP(O23,价值!$B:$G,3,0)&amp;","&amp;P23</f>
-        <v>pack,304,1</v>
-      </c>
-      <c r="V23" s="2" t="str">
-        <f>IF(VLOOKUP(O23,价值!$B:$G,5,0)=0,U23,VLOOKUP(O23,价值!$B:$G,5,0)&amp;","&amp;P23)</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="W23" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>prop,702,4;pack,304,1</v>
-      </c>
-      <c r="X23" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,702,4;item,104,1</v>
-      </c>
-      <c r="Y23" s="5">
-        <f>C5</f>
-        <v>1600</v>
-      </c>
       <c r="AA23" s="4">
         <v>4</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC23" s="4">
         <v>1</v>
@@ -7736,17 +8740,17 @@
         <v>15</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF23" s="4">
         <v>1</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI23" s="4">
         <v>900</v>
@@ -7756,7 +8760,7 @@
         <v>18</v>
       </c>
       <c r="AK23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="AL23" s="5"/>
@@ -7785,88 +8789,27 @@
         <v>coin,900</v>
       </c>
       <c r="AS23" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,302,1;pack,302,1;coin,900</v>
       </c>
       <c r="AT23" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2">
         <f>FLOOR(B21/B23,10)</f>
         <v>50</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="J24" s="1">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1">
-        <v>15</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="2">
-        <v>3</v>
-      </c>
-      <c r="N24" s="2">
-        <f>VLOOKUP(L24,价值!$B:$G,6,0)*M24</f>
-        <v>750</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>VLOOKUP(O24,价值!$B:$G,6,0)*P24</f>
-        <v>600</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="3"/>
-        <v>1350</v>
-      </c>
-      <c r="S24" s="2" t="str">
-        <f>VLOOKUP(L24,价值!$B:$G,3,0)&amp;","&amp;M24</f>
-        <v>prop,702,3</v>
-      </c>
-      <c r="T24" s="2" t="str">
-        <f>IF(VLOOKUP(L24,价值!$B:$G,5,0)=0,S24,VLOOKUP(L24,价值!$B:$G,5,0)&amp;","&amp;M24)</f>
-        <v>prop,702,3</v>
-      </c>
-      <c r="U24" s="2" t="str">
-        <f>VLOOKUP(O24,价值!$B:$G,3,0)&amp;","&amp;P24</f>
-        <v>pack,304,1</v>
-      </c>
-      <c r="V24" s="2" t="str">
-        <f>IF(VLOOKUP(O24,价值!$B:$G,5,0)=0,U24,VLOOKUP(O24,价值!$B:$G,5,0)&amp;","&amp;P24)</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="W24" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>prop,702,3;pack,304,1</v>
-      </c>
-      <c r="X24" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,702,3;item,104,1</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AA24" s="4">
         <v>5</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AC24" s="4">
         <v>1</v>
@@ -7876,17 +8819,17 @@
         <v>15</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="4">
         <v>1</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI24" s="4">
         <v>950</v>
@@ -7896,7 +8839,7 @@
         <v>19</v>
       </c>
       <c r="AK24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="AL24" s="5"/>
@@ -7925,81 +8868,20 @@
         <v>coin,950</v>
       </c>
       <c r="AS24" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,302,1;pack,302,1;coin,950</v>
       </c>
       <c r="AT24" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="J25" s="1">
-        <v>15</v>
-      </c>
-      <c r="K25" s="1">
-        <v>20</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="2">
-        <v>2</v>
-      </c>
-      <c r="N25" s="2">
-        <f>VLOOKUP(L25,价值!$B:$G,6,0)*M25</f>
-        <v>500</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="2">
-        <f>VLOOKUP(O25,价值!$B:$G,6,0)*P25</f>
-        <v>600</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="S25" s="2" t="str">
-        <f>VLOOKUP(L25,价值!$B:$G,3,0)&amp;","&amp;M25</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="T25" s="2" t="str">
-        <f>IF(VLOOKUP(L25,价值!$B:$G,5,0)=0,S25,VLOOKUP(L25,价值!$B:$G,5,0)&amp;","&amp;M25)</f>
-        <v>prop,702,2</v>
-      </c>
-      <c r="U25" s="2" t="str">
-        <f>VLOOKUP(O25,价值!$B:$G,3,0)&amp;","&amp;P25</f>
-        <v>pack,304,1</v>
-      </c>
-      <c r="V25" s="2" t="str">
-        <f>IF(VLOOKUP(O25,价值!$B:$G,5,0)=0,U25,VLOOKUP(O25,价值!$B:$G,5,0)&amp;","&amp;P25)</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="W25" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>prop,702,2;pack,304,1</v>
-      </c>
-      <c r="X25" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,702,2;item,104,1</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AA25" s="4">
         <v>6</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC25" s="4">
         <v>1</v>
@@ -8009,17 +8891,17 @@
         <v>15</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF25" s="4">
         <v>1</v>
       </c>
       <c r="AG25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI25" s="4">
         <v>1000</v>
@@ -8029,7 +8911,7 @@
         <v>20</v>
       </c>
       <c r="AK25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="AL25" s="5"/>
@@ -8058,81 +8940,23 @@
         <v>coin,1000</v>
       </c>
       <c r="AS25" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,302,1;pack,302,1;coin,1000</v>
       </c>
       <c r="AT25" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="I26" s="2">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="J26" s="1">
-        <v>20</v>
-      </c>
-      <c r="K26" s="1">
-        <v>30</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <f>VLOOKUP(L26,价值!$B:$G,6,0)*M26</f>
-        <v>250</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="2">
-        <f>VLOOKUP(O26,价值!$B:$G,6,0)*P26</f>
-        <v>250</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="S26" s="2" t="str">
-        <f>VLOOKUP(L26,价值!$B:$G,3,0)&amp;","&amp;M26</f>
-        <v>prop,702,1</v>
-      </c>
-      <c r="T26" s="2" t="str">
-        <f>IF(VLOOKUP(L26,价值!$B:$G,5,0)=0,S26,VLOOKUP(L26,价值!$B:$G,5,0)&amp;","&amp;M26)</f>
-        <v>prop,702,1</v>
-      </c>
-      <c r="U26" s="2" t="str">
-        <f>VLOOKUP(O26,价值!$B:$G,3,0)&amp;","&amp;P26</f>
-        <v>pack,303,5</v>
-      </c>
-      <c r="V26" s="2" t="str">
-        <f>IF(VLOOKUP(O26,价值!$B:$G,5,0)=0,U26,VLOOKUP(O26,价值!$B:$G,5,0)&amp;","&amp;P26)</f>
-        <v>item,103,5</v>
-      </c>
-      <c r="W26" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>prop,702,1;pack,303,5</v>
-      </c>
-      <c r="X26" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,702,1;item,103,5</v>
-      </c>
       <c r="Y26" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA26" s="4">
         <v>7</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC26" s="4">
         <v>1</v>
@@ -8142,17 +8966,17 @@
         <v>15</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF26" s="4">
         <v>2</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI26" s="4">
         <v>1100</v>
@@ -8162,7 +8986,7 @@
         <v>22</v>
       </c>
       <c r="AK26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="AL26" s="5"/>
@@ -8191,81 +9015,23 @@
         <v>coin,1100</v>
       </c>
       <c r="AS26" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,302,1;pack,302,2;coin,1100</v>
       </c>
       <c r="AT26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="I27" s="2">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="J27" s="1">
-        <v>30</v>
-      </c>
-      <c r="K27" s="1">
-        <v>50</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <f>VLOOKUP(L27,价值!$B:$G,6,0)*M27</f>
-        <v>250</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P27" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="2">
-        <f>VLOOKUP(O27,价值!$B:$G,6,0)*P27</f>
-        <v>100</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="S27" s="2" t="str">
-        <f>VLOOKUP(L27,价值!$B:$G,3,0)&amp;","&amp;M27</f>
-        <v>prop,702,1</v>
-      </c>
-      <c r="T27" s="2" t="str">
-        <f>IF(VLOOKUP(L27,价值!$B:$G,5,0)=0,S27,VLOOKUP(L27,价值!$B:$G,5,0)&amp;","&amp;M27)</f>
-        <v>prop,702,1</v>
-      </c>
-      <c r="U27" s="2" t="str">
-        <f>VLOOKUP(O27,价值!$B:$G,3,0)&amp;","&amp;P27</f>
-        <v>pack,303,2</v>
-      </c>
-      <c r="V27" s="2" t="str">
-        <f>IF(VLOOKUP(O27,价值!$B:$G,5,0)=0,U27,VLOOKUP(O27,价值!$B:$G,5,0)&amp;","&amp;P27)</f>
-        <v>item,103,2</v>
-      </c>
-      <c r="W27" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>prop,702,1;pack,303,2</v>
-      </c>
-      <c r="X27" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,702,1;item,103,2</v>
-      </c>
       <c r="Y27" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA27" s="4">
         <v>8</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC27" s="4">
         <v>1</v>
@@ -8275,17 +9041,17 @@
         <v>15</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF27" s="4">
         <v>2</v>
       </c>
       <c r="AG27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI27" s="4">
         <v>1200</v>
@@ -8295,7 +9061,7 @@
         <v>24</v>
       </c>
       <c r="AK27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="AL27" s="5"/>
@@ -8324,81 +9090,20 @@
         <v>coin,1200</v>
       </c>
       <c r="AS27" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,302,1;pack,302,2;coin,1200</v>
       </c>
       <c r="AT27" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="I28" s="2">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="J28" s="1">
-        <v>50</v>
-      </c>
-      <c r="K28" s="1">
-        <v>100</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="2">
-        <v>10</v>
-      </c>
-      <c r="N28" s="2">
-        <v>50</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2">
-        <f>VLOOKUP(O28,价值!$B:$G,6,0)*P28</f>
-        <v>50</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="S28" s="2" t="str">
-        <f>VLOOKUP(L28,价值!$B:$G,3,0)&amp;","&amp;M28</f>
-        <v>cash,10</v>
-      </c>
-      <c r="T28" s="2" t="str">
-        <f>IF(VLOOKUP(L28,价值!$B:$G,5,0)=0,S28,VLOOKUP(L28,价值!$B:$G,5,0)&amp;","&amp;M28)</f>
-        <v>cash,10</v>
-      </c>
-      <c r="U28" s="2" t="str">
-        <f>VLOOKUP(O28,价值!$B:$G,3,0)&amp;","&amp;P28</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="V28" s="2" t="str">
-        <f>IF(VLOOKUP(O28,价值!$B:$G,5,0)=0,U28,VLOOKUP(O28,价值!$B:$G,5,0)&amp;","&amp;P28)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="W28" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,10;pack,303,1</v>
-      </c>
-      <c r="X28" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>cash,10;item,103,1</v>
-      </c>
-      <c r="Y28" s="5">
-        <f>D5</f>
-        <v>100</v>
-      </c>
       <c r="AA28" s="4">
         <v>9</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC28" s="4">
         <v>1</v>
@@ -8408,17 +9113,17 @@
         <v>50</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF28" s="4">
         <v>2</v>
       </c>
       <c r="AG28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI28" s="4">
         <v>1300</v>
@@ -8428,7 +9133,7 @@
         <v>26</v>
       </c>
       <c r="AK28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="AL28" s="5"/>
@@ -8457,11 +9162,11 @@
         <v>coin,1300</v>
       </c>
       <c r="AS28" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,303,1;pack,302,2;coin,1300</v>
       </c>
       <c r="AT28" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300</v>
       </c>
     </row>
@@ -8470,7 +9175,7 @@
         <v>10</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC29" s="4">
         <v>1</v>
@@ -8480,17 +9185,17 @@
         <v>50</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF29" s="4">
         <v>3</v>
       </c>
       <c r="AG29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI29" s="4">
         <v>1400</v>
@@ -8500,7 +9205,7 @@
         <v>28</v>
       </c>
       <c r="AK29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="AL29" s="5"/>
@@ -8529,23 +9234,20 @@
         <v>coin,1400</v>
       </c>
       <c r="AS29" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,303,1;pack,302,3;coin,1400</v>
       </c>
       <c r="AT29" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="J30" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="AA30" s="4">
         <v>11</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC30" s="4">
         <v>1</v>
@@ -8555,17 +9257,17 @@
         <v>50</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF30" s="4">
         <v>3</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AH30" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI30" s="4">
         <v>1500</v>
@@ -8575,7 +9277,7 @@
         <v>30</v>
       </c>
       <c r="AK30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="AL30" s="5"/>
@@ -8604,63 +9306,20 @@
         <v>coin,1500</v>
       </c>
       <c r="AS30" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,303,1;pack,302,3;coin,1500</v>
       </c>
       <c r="AT30" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="J31" s="2"/>
-      <c r="K31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="AA31" s="4">
         <v>12</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC31" s="4">
         <v>1</v>
@@ -8670,17 +9329,17 @@
         <v>50</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF31" s="4">
         <v>4</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI31" s="4">
         <v>1600</v>
@@ -8690,7 +9349,7 @@
         <v>32</v>
       </c>
       <c r="AK31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="AL31" s="5"/>
@@ -8719,78 +9378,23 @@
         <v>coin,1600</v>
       </c>
       <c r="AS31" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,303,1;pack,302,4;coin,1600</v>
       </c>
       <c r="AT31" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="J32" s="2">
-        <f>E6</f>
-        <v>80</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32" s="4">
-        <v>50</v>
-      </c>
-      <c r="N32" s="4">
-        <f>VLOOKUP(L32,价值!$B:$G,6,0)*M32</f>
-        <v>50</v>
-      </c>
-      <c r="O32" s="3" t="s">
+      <c r="Y32" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P32" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="4">
-        <f>VLOOKUP(O32,价值!$B:$G,6,0)*P32</f>
-        <v>36</v>
-      </c>
-      <c r="R32" s="2">
-        <f>M32+Q32</f>
-        <v>86</v>
-      </c>
-      <c r="S32" s="2" t="str">
-        <f>VLOOKUP(L32,价值!$B:$G,3,0)&amp;","&amp;M32</f>
-        <v>cash,50</v>
-      </c>
-      <c r="T32" s="2" t="str">
-        <f>IF(VLOOKUP(L32,价值!$B:$G,5,0)=0,S32,VLOOKUP(L32,价值!$B:$G,5,0)&amp;","&amp;M32)</f>
-        <v>cash,50</v>
-      </c>
-      <c r="U32" s="2" t="str">
-        <f>VLOOKUP(O32,价值!$B:$G,3,0)&amp;","&amp;P32</f>
-        <v>prop,104,2</v>
-      </c>
-      <c r="V32" s="2" t="str">
-        <f>IF(VLOOKUP(O32,价值!$B:$G,5,0)=0,U32,VLOOKUP(O32,价值!$B:$G,5,0)&amp;","&amp;P32)</f>
-        <v>prop,104,2</v>
-      </c>
-      <c r="W32" s="2" t="str">
-        <f>S32&amp;";"&amp;U32</f>
-        <v>cash,50;prop,104,2</v>
-      </c>
-      <c r="X32" s="2" t="str">
-        <f>T32&amp;";"&amp;V32</f>
-        <v>cash,50;prop,104,2</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="AA32" s="4">
         <v>13</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC32" s="4">
         <v>1</v>
@@ -8800,17 +9404,17 @@
         <v>50</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF32" s="4">
         <v>5</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI32" s="4">
         <v>1750</v>
@@ -8820,7 +9424,7 @@
         <v>35</v>
       </c>
       <c r="AK32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL32" s="5">
@@ -8852,192 +9456,647 @@
         <v>coin,1750</v>
       </c>
       <c r="AS32" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>pack,303,1;pack,302,5;coin,1750</v>
       </c>
       <c r="AT32" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750</v>
       </c>
     </row>
-    <row r="33" spans="10:25" x14ac:dyDescent="0.15">
-      <c r="J33" s="2">
-        <f>F6</f>
-        <v>180</v>
-      </c>
-      <c r="K33" s="1">
+    <row r="33" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="Y33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="Y34" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="Y35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Y37" s="2"/>
+      <c r="AE37" s="4"/>
+    </row>
+    <row r="38" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>100</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" s="1">
+        <v>700</v>
+      </c>
+      <c r="N39" s="4">
+        <f>VLOOKUP(L39,价值!$B:$G,6,0)*M39</f>
+        <v>700</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>VLOOKUP(O39,价值!$B:$G,6,0)*P39</f>
+        <v>1500</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S39" s="2">
+        <v>5</v>
+      </c>
+      <c r="T39" s="2">
+        <f>VLOOKUP(R39,价值!$B:$G,6,0)*S39</f>
+        <v>1250</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V39" s="2">
+        <v>3</v>
+      </c>
+      <c r="W39" s="2">
+        <f>VLOOKUP(U39,价值!$B:$G,6,0)*V39</f>
+        <v>1800</v>
+      </c>
+      <c r="X39" s="12">
+        <f>T39+W39+N39+Q39</f>
+        <v>5250</v>
+      </c>
+      <c r="Y39" s="2" t="str">
+        <f>IF(L39="","",VLOOKUP(L39,价值!$B:$G,3,0)&amp;","&amp;M39)</f>
+        <v>cash,700</v>
+      </c>
+      <c r="Z39" s="2" t="str">
+        <f>IF(L39="","",IF(VLOOKUP(L39,价值!$B:$G,5,0)=0,Y39,VLOOKUP(L39,价值!$B:$G,5,0)&amp;","&amp;M39))</f>
+        <v>cash,700</v>
+      </c>
+      <c r="AA39" s="2" t="str">
+        <f>IF(O39="","",VLOOKUP(O39,价值!$B:$G,3,0)&amp;","&amp;P39)</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="AB39" s="2" t="str">
+        <f>IF(O39="","",IF(VLOOKUP(O39,价值!$B:$G,5,0)=0,AA39,VLOOKUP(O39,价值!$B:$G,5,0)&amp;","&amp;P39))</f>
+        <v>prop,705,1</v>
+      </c>
+      <c r="AC39" s="2" t="str">
+        <f>IF(R39="","",VLOOKUP(R39,价值!$B:$G,3,0)&amp;","&amp;S39)</f>
+        <v>prop,702,5</v>
+      </c>
+      <c r="AD39" s="2" t="str">
+        <f>IF(R39="","",IF(VLOOKUP(R39,价值!$B:$G,5,0)=0,AC39,VLOOKUP(R39,价值!$B:$G,5,0)&amp;","&amp;S39))</f>
+        <v>prop,702,5</v>
+      </c>
+      <c r="AE39" s="2" t="str">
+        <f>IF(U39="","",VLOOKUP(U39,价值!$B:$G,3,0)&amp;","&amp;V39)</f>
+        <v>pack,304,3</v>
+      </c>
+      <c r="AF39" s="2" t="str">
+        <f>IF(U39="","",IF(VLOOKUP(U39,价值!$B:$G,5,0)=0,AE39,VLOOKUP(U39,价值!$B:$G,5,0)&amp;","&amp;V39))</f>
+        <v>item,104,3</v>
+      </c>
+      <c r="AG39" s="2" t="str">
+        <f>Y39&amp;IF(AI39="","",";"&amp;AI39)&amp;IF(AA39="","",";"&amp;AA39)&amp;IF(AC39="","",";"&amp;AC39)&amp;IF(AE39="","",";"&amp;AE39)</f>
+        <v>cash,700;frame,21;prop,705,1;prop,702,5;pack,304,3</v>
+      </c>
+      <c r="AH39" s="2" t="str">
+        <f>Z39&amp;IF(AI39="","",";"&amp;AI39)&amp;IF(AB39="","",";"&amp;AB39)&amp;IF(AD39="","",";"&amp;AD39)&amp;IF(AF39="","",";"&amp;AF39)</f>
+        <v>cash,700;frame,21;prop,705,1;prop,702,5;item,104,3</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ39" s="5">
+        <f>B5</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="40" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J40" s="1">
+        <f>K39</f>
+        <v>100</v>
+      </c>
+      <c r="K40" s="1">
+        <v>500</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" s="1">
+        <v>500</v>
+      </c>
+      <c r="N40" s="4">
+        <f>VLOOKUP(L40,价值!$B:$G,6,0)*M40</f>
+        <v>500</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S40" s="2">
+        <v>5</v>
+      </c>
+      <c r="T40" s="2">
+        <f>VLOOKUP(R40,价值!$B:$G,6,0)*S40</f>
+        <v>1250</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V40" s="2">
         <v>2</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" s="4">
-        <v>80</v>
-      </c>
-      <c r="N33" s="4">
-        <f>VLOOKUP(L33,价值!$B:$G,6,0)*M33</f>
-        <v>80</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P33" s="2">
+      <c r="W40" s="2">
+        <f>VLOOKUP(U40,价值!$B:$G,6,0)*V40</f>
+        <v>1200</v>
+      </c>
+      <c r="X40" s="12">
+        <f>T40+W40+N40+Q40</f>
+        <v>2950</v>
+      </c>
+      <c r="Y40" s="2" t="str">
+        <f>IF(L40="","",VLOOKUP(L40,价值!$B:$G,3,0)&amp;","&amp;M40)</f>
+        <v>cash,500</v>
+      </c>
+      <c r="Z40" s="2" t="str">
+        <f>IF(L40="","",IF(VLOOKUP(L40,价值!$B:$G,5,0)=0,Y40,VLOOKUP(L40,价值!$B:$G,5,0)&amp;","&amp;M40))</f>
+        <v>cash,500</v>
+      </c>
+      <c r="AA40" s="2" t="str">
+        <f>IF(O40="","",VLOOKUP(O40,价值!$B:$G,3,0)&amp;","&amp;P40)</f>
+        <v/>
+      </c>
+      <c r="AB40" s="2" t="str">
+        <f>IF(O40="","",IF(VLOOKUP(O40,价值!$B:$G,5,0)=0,AA40,VLOOKUP(O40,价值!$B:$G,5,0)&amp;","&amp;P40))</f>
+        <v/>
+      </c>
+      <c r="AC40" s="2" t="str">
+        <f>IF(R40="","",VLOOKUP(R40,价值!$B:$G,3,0)&amp;","&amp;S40)</f>
+        <v>prop,702,5</v>
+      </c>
+      <c r="AD40" s="2" t="str">
+        <f>IF(R40="","",IF(VLOOKUP(R40,价值!$B:$G,5,0)=0,AC40,VLOOKUP(R40,价值!$B:$G,5,0)&amp;","&amp;S40))</f>
+        <v>prop,702,5</v>
+      </c>
+      <c r="AE40" s="2" t="str">
+        <f>IF(U40="","",VLOOKUP(U40,价值!$B:$G,3,0)&amp;","&amp;V40)</f>
+        <v>pack,304,2</v>
+      </c>
+      <c r="AF40" s="2" t="str">
+        <f>IF(U40="","",IF(VLOOKUP(U40,价值!$B:$G,5,0)=0,AE40,VLOOKUP(U40,价值!$B:$G,5,0)&amp;","&amp;V40))</f>
+        <v>item,104,2</v>
+      </c>
+      <c r="AG40" s="2" t="str">
+        <f t="shared" ref="AG40:AG44" si="12">Y40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AA40="","",";"&amp;AA40)&amp;IF(AC40="","",";"&amp;AC40)&amp;IF(AE40="","",";"&amp;AE40)</f>
+        <v>cash,500;frame,21;prop,702,5;pack,304,2</v>
+      </c>
+      <c r="AH40" s="2" t="str">
+        <f t="shared" ref="AH40:AH44" si="13">Z40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AB40="","",";"&amp;AB40)&amp;IF(AD40="","",";"&amp;AD40)&amp;IF(AF40="","",";"&amp;AF40)</f>
+        <v>cash,500;frame,21;prop,702,5;item,104,2</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ40" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J41" s="1">
+        <f t="shared" ref="J41:J44" si="14">K40</f>
+        <v>500</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41" s="1">
+        <v>300</v>
+      </c>
+      <c r="N41" s="4">
+        <f>VLOOKUP(L41,价值!$B:$G,6,0)*M41</f>
+        <v>300</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S41" s="2">
+        <v>5</v>
+      </c>
+      <c r="T41" s="2">
+        <f>VLOOKUP(R41,价值!$B:$G,6,0)*S41</f>
+        <v>1250</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <f>VLOOKUP(U41,价值!$B:$G,6,0)*V41</f>
+        <v>600</v>
+      </c>
+      <c r="X41" s="12">
+        <f>T41+W41+N41+Q41</f>
+        <v>2150</v>
+      </c>
+      <c r="Y41" s="2" t="str">
+        <f>IF(L41="","",VLOOKUP(L41,价值!$B:$G,3,0)&amp;","&amp;M41)</f>
+        <v>cash,300</v>
+      </c>
+      <c r="Z41" s="2" t="str">
+        <f>IF(L41="","",IF(VLOOKUP(L41,价值!$B:$G,5,0)=0,Y41,VLOOKUP(L41,价值!$B:$G,5,0)&amp;","&amp;M41))</f>
+        <v>cash,300</v>
+      </c>
+      <c r="AA41" s="2" t="str">
+        <f>IF(O41="","",VLOOKUP(O41,价值!$B:$G,3,0)&amp;","&amp;P41)</f>
+        <v/>
+      </c>
+      <c r="AB41" s="2" t="str">
+        <f>IF(O41="","",IF(VLOOKUP(O41,价值!$B:$G,5,0)=0,AA41,VLOOKUP(O41,价值!$B:$G,5,0)&amp;","&amp;P41))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="2" t="str">
+        <f>IF(R41="","",VLOOKUP(R41,价值!$B:$G,3,0)&amp;","&amp;S41)</f>
+        <v>prop,702,5</v>
+      </c>
+      <c r="AD41" s="2" t="str">
+        <f>IF(R41="","",IF(VLOOKUP(R41,价值!$B:$G,5,0)=0,AC41,VLOOKUP(R41,价值!$B:$G,5,0)&amp;","&amp;S41))</f>
+        <v>prop,702,5</v>
+      </c>
+      <c r="AE41" s="2" t="str">
+        <f>IF(U41="","",VLOOKUP(U41,价值!$B:$G,3,0)&amp;","&amp;V41)</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="AF41" s="2" t="str">
+        <f>IF(U41="","",IF(VLOOKUP(U41,价值!$B:$G,5,0)=0,AE41,VLOOKUP(U41,价值!$B:$G,5,0)&amp;","&amp;V41))</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="AG41" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>cash,300;frame,21;prop,702,5;pack,304,1</v>
+      </c>
+      <c r="AH41" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>cash,300;frame,21;prop,702,5;item,104,1</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ41" s="5">
+        <f>C5</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J42" s="1">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="1">
+        <v>200</v>
+      </c>
+      <c r="N42" s="4">
+        <f>VLOOKUP(L42,价值!$B:$G,6,0)*M42</f>
+        <v>200</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S42" s="2">
+        <v>3</v>
+      </c>
+      <c r="T42" s="2">
+        <f>VLOOKUP(R42,价值!$B:$G,6,0)*S42</f>
+        <v>750</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <f>VLOOKUP(U42,价值!$B:$G,6,0)*V42</f>
+        <v>600</v>
+      </c>
+      <c r="X42" s="12">
+        <f>T42+W42+N42+Q42</f>
+        <v>1550</v>
+      </c>
+      <c r="Y42" s="2" t="str">
+        <f>IF(L42="","",VLOOKUP(L42,价值!$B:$G,3,0)&amp;","&amp;M42)</f>
+        <v>cash,200</v>
+      </c>
+      <c r="Z42" s="2" t="str">
+        <f>IF(L42="","",IF(VLOOKUP(L42,价值!$B:$G,5,0)=0,Y42,VLOOKUP(L42,价值!$B:$G,5,0)&amp;","&amp;M42))</f>
+        <v>cash,200</v>
+      </c>
+      <c r="AA42" s="2" t="str">
+        <f>IF(O42="","",VLOOKUP(O42,价值!$B:$G,3,0)&amp;","&amp;P42)</f>
+        <v/>
+      </c>
+      <c r="AB42" s="2" t="str">
+        <f>IF(O42="","",IF(VLOOKUP(O42,价值!$B:$G,5,0)=0,AA42,VLOOKUP(O42,价值!$B:$G,5,0)&amp;","&amp;P42))</f>
+        <v/>
+      </c>
+      <c r="AC42" s="2" t="str">
+        <f>IF(R42="","",VLOOKUP(R42,价值!$B:$G,3,0)&amp;","&amp;S42)</f>
+        <v>prop,702,3</v>
+      </c>
+      <c r="AD42" s="2" t="str">
+        <f>IF(R42="","",IF(VLOOKUP(R42,价值!$B:$G,5,0)=0,AC42,VLOOKUP(R42,价值!$B:$G,5,0)&amp;","&amp;S42))</f>
+        <v>prop,702,3</v>
+      </c>
+      <c r="AE42" s="2" t="str">
+        <f>IF(U42="","",VLOOKUP(U42,价值!$B:$G,3,0)&amp;","&amp;V42)</f>
+        <v>pack,304,1</v>
+      </c>
+      <c r="AF42" s="2" t="str">
+        <f>IF(U42="","",IF(VLOOKUP(U42,价值!$B:$G,5,0)=0,AE42,VLOOKUP(U42,价值!$B:$G,5,0)&amp;","&amp;V42))</f>
+        <v>item,104,1</v>
+      </c>
+      <c r="AG42" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>cash,200;frame,21;prop,702,3;pack,304,1</v>
+      </c>
+      <c r="AH42" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>cash,200;frame,21;prop,702,3;item,104,1</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J43" s="1">
+        <f t="shared" si="14"/>
+        <v>2000</v>
+      </c>
+      <c r="K43" s="1">
         <v>5000</v>
       </c>
-      <c r="Q33" s="4">
-        <f>VLOOKUP(O33,价值!$B:$G,6,0)*P33</f>
+      <c r="L43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="1">
         <v>100</v>
       </c>
-      <c r="R33" s="2">
-        <f t="shared" ref="R33:R35" si="10">M33+Q33</f>
-        <v>180</v>
-      </c>
-      <c r="S33" s="2" t="str">
-        <f>VLOOKUP(L33,价值!$B:$G,3,0)&amp;","&amp;M33</f>
-        <v>cash,80</v>
-      </c>
-      <c r="T33" s="2" t="str">
-        <f>IF(VLOOKUP(L33,价值!$B:$G,5,0)=0,S33,VLOOKUP(L33,价值!$B:$G,5,0)&amp;","&amp;M33)</f>
-        <v>cash,80</v>
-      </c>
-      <c r="U33" s="2" t="str">
-        <f>VLOOKUP(O33,价值!$B:$G,3,0)&amp;","&amp;P33</f>
-        <v>coin,5000</v>
-      </c>
-      <c r="V33" s="2" t="str">
-        <f>IF(VLOOKUP(O33,价值!$B:$G,5,0)=0,U33,VLOOKUP(O33,价值!$B:$G,5,0)&amp;","&amp;P33)</f>
-        <v>coin,5000</v>
-      </c>
-      <c r="W33" s="2" t="str">
-        <f t="shared" ref="W33:W35" si="11">S33&amp;";"&amp;U33</f>
-        <v>cash,80;coin,5000</v>
-      </c>
-      <c r="X33" s="2" t="str">
-        <f t="shared" ref="X33:X35" si="12">T33&amp;";"&amp;V33</f>
-        <v>cash,80;coin,5000</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="10:25" x14ac:dyDescent="0.15">
-      <c r="J34" s="2">
-        <f>G6</f>
-        <v>290</v>
-      </c>
-      <c r="K34" s="1">
-        <v>3</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="4">
+      <c r="N43" s="4">
+        <f>VLOOKUP(L43,价值!$B:$G,6,0)*M43</f>
         <v>100</v>
       </c>
-      <c r="N34" s="4">
-        <f>VLOOKUP(L34,价值!$B:$G,6,0)*M34</f>
-        <v>100</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>VLOOKUP(O34,价值!$B:$G,6,0)*P34</f>
-        <v>180</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="10"/>
-        <v>280</v>
-      </c>
-      <c r="S34" s="2" t="str">
-        <f>VLOOKUP(L34,价值!$B:$G,3,0)&amp;","&amp;M34</f>
+      <c r="R43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S43" s="2">
+        <v>2</v>
+      </c>
+      <c r="T43" s="2">
+        <f>VLOOKUP(R43,价值!$B:$G,6,0)*S43</f>
+        <v>500</v>
+      </c>
+      <c r="U43" s="3"/>
+      <c r="X43" s="12">
+        <f>T43+W43+N43+Q43</f>
+        <v>600</v>
+      </c>
+      <c r="Y43" s="2" t="str">
+        <f>IF(L43="","",VLOOKUP(L43,价值!$B:$G,3,0)&amp;","&amp;M43)</f>
         <v>cash,100</v>
       </c>
-      <c r="T34" s="2" t="str">
-        <f>IF(VLOOKUP(L34,价值!$B:$G,5,0)=0,S34,VLOOKUP(L34,价值!$B:$G,5,0)&amp;","&amp;M34)</f>
+      <c r="Z43" s="2" t="str">
+        <f>IF(L43="","",IF(VLOOKUP(L43,价值!$B:$G,5,0)=0,Y43,VLOOKUP(L43,价值!$B:$G,5,0)&amp;","&amp;M43))</f>
         <v>cash,100</v>
       </c>
-      <c r="U34" s="2" t="str">
-        <f>VLOOKUP(O34,价值!$B:$G,3,0)&amp;","&amp;P34</f>
-        <v>prop,105,3</v>
-      </c>
-      <c r="V34" s="2" t="str">
-        <f>IF(VLOOKUP(O34,价值!$B:$G,5,0)=0,U34,VLOOKUP(O34,价值!$B:$G,5,0)&amp;","&amp;P34)</f>
-        <v>prop,105,3</v>
-      </c>
-      <c r="W34" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>cash,100;prop,105,3</v>
-      </c>
-      <c r="X34" s="2" t="str">
+      <c r="AA43" s="2" t="str">
+        <f>IF(O43="","",VLOOKUP(O43,价值!$B:$G,3,0)&amp;","&amp;P43)</f>
+        <v/>
+      </c>
+      <c r="AB43" s="2" t="str">
+        <f>IF(O43="","",IF(VLOOKUP(O43,价值!$B:$G,5,0)=0,AA43,VLOOKUP(O43,价值!$B:$G,5,0)&amp;","&amp;P43))</f>
+        <v/>
+      </c>
+      <c r="AC43" s="2" t="str">
+        <f>IF(R43="","",VLOOKUP(R43,价值!$B:$G,3,0)&amp;","&amp;S43)</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AD43" s="2" t="str">
+        <f>IF(R43="","",IF(VLOOKUP(R43,价值!$B:$G,5,0)=0,AC43,VLOOKUP(R43,价值!$B:$G,5,0)&amp;","&amp;S43))</f>
+        <v>prop,702,2</v>
+      </c>
+      <c r="AE43" s="2" t="str">
+        <f>IF(U43="","",VLOOKUP(U43,价值!$B:$G,3,0)&amp;","&amp;V43)</f>
+        <v/>
+      </c>
+      <c r="AF43" s="2" t="str">
+        <f>IF(U43="","",IF(VLOOKUP(U43,价值!$B:$G,5,0)=0,AE43,VLOOKUP(U43,价值!$B:$G,5,0)&amp;","&amp;V43))</f>
+        <v/>
+      </c>
+      <c r="AG43" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>cash,100;prop,105,3</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="10:25" x14ac:dyDescent="0.15">
-      <c r="J35" s="2">
-        <f>H6</f>
-        <v>400</v>
-      </c>
-      <c r="K35" s="1">
-        <v>4</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M35" s="4">
-        <v>150</v>
-      </c>
-      <c r="N35" s="4">
-        <f>VLOOKUP(L35,价值!$B:$G,6,0)*M35</f>
-        <v>150</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P35" s="2">
-        <v>12500</v>
-      </c>
-      <c r="Q35" s="4">
-        <f>VLOOKUP(O35,价值!$B:$G,6,0)*P35</f>
+        <v>cash,100;frame,21;prop,702,2</v>
+      </c>
+      <c r="AH43" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>cash,100;frame,21;prop,702,2</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="J44" s="1">
+        <f t="shared" si="14"/>
+        <v>5000</v>
+      </c>
+      <c r="K44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M44" s="1">
+        <v>50</v>
+      </c>
+      <c r="N44" s="4">
+        <f>VLOOKUP(L44,价值!$B:$G,6,0)*M44</f>
+        <v>50</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2">
+        <f>VLOOKUP(R44,价值!$B:$G,6,0)*S44</f>
         <v>250</v>
       </c>
-      <c r="R35" s="2">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="S35" s="2" t="str">
-        <f>VLOOKUP(L35,价值!$B:$G,3,0)&amp;","&amp;M35</f>
-        <v>cash,150</v>
-      </c>
-      <c r="T35" s="2" t="str">
-        <f>IF(VLOOKUP(L35,价值!$B:$G,5,0)=0,S35,VLOOKUP(L35,价值!$B:$G,5,0)&amp;","&amp;M35)</f>
-        <v>cash,150</v>
-      </c>
-      <c r="U35" s="2" t="str">
-        <f>VLOOKUP(O35,价值!$B:$G,3,0)&amp;","&amp;P35</f>
-        <v>coin,12500</v>
-      </c>
-      <c r="V35" s="2" t="str">
-        <f>IF(VLOOKUP(O35,价值!$B:$G,5,0)=0,U35,VLOOKUP(O35,价值!$B:$G,5,0)&amp;","&amp;P35)</f>
-        <v>coin,12500</v>
-      </c>
-      <c r="W35" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>cash,150;coin,12500</v>
-      </c>
-      <c r="X35" s="2" t="str">
+      <c r="U44" s="3"/>
+      <c r="X44" s="12">
+        <f>T44+W44+N44+Q44</f>
+        <v>300</v>
+      </c>
+      <c r="Y44" s="2" t="str">
+        <f>IF(L44="","",VLOOKUP(L44,价值!$B:$G,3,0)&amp;","&amp;M44)</f>
+        <v>cash,50</v>
+      </c>
+      <c r="Z44" s="2" t="str">
+        <f>IF(L44="","",IF(VLOOKUP(L44,价值!$B:$G,5,0)=0,Y44,VLOOKUP(L44,价值!$B:$G,5,0)&amp;","&amp;M44))</f>
+        <v>cash,50</v>
+      </c>
+      <c r="AA44" s="2" t="str">
+        <f>IF(O44="","",VLOOKUP(O44,价值!$B:$G,3,0)&amp;","&amp;P44)</f>
+        <v/>
+      </c>
+      <c r="AB44" s="2" t="str">
+        <f>IF(O44="","",IF(VLOOKUP(O44,价值!$B:$G,5,0)=0,AA44,VLOOKUP(O44,价值!$B:$G,5,0)&amp;","&amp;P44))</f>
+        <v/>
+      </c>
+      <c r="AC44" s="2" t="str">
+        <f>IF(R44="","",VLOOKUP(R44,价值!$B:$G,3,0)&amp;","&amp;S44)</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="AD44" s="2" t="str">
+        <f>IF(R44="","",IF(VLOOKUP(R44,价值!$B:$G,5,0)=0,AC44,VLOOKUP(R44,价值!$B:$G,5,0)&amp;","&amp;S44))</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="AE44" s="2" t="str">
+        <f>IF(U44="","",VLOOKUP(U44,价值!$B:$G,3,0)&amp;","&amp;V44)</f>
+        <v/>
+      </c>
+      <c r="AF44" s="2" t="str">
+        <f>IF(U44="","",IF(VLOOKUP(U44,价值!$B:$G,5,0)=0,AE44,VLOOKUP(U44,价值!$B:$G,5,0)&amp;","&amp;V44))</f>
+        <v/>
+      </c>
+      <c r="AG44" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>cash,150;coin,12500</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>99</v>
+        <v>cash,50;prop,702,1</v>
+      </c>
+      <c r="AH44" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>cash,50;prop,702,1</v>
+      </c>
+      <c r="AJ44" s="5">
+        <f>D5</f>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -9170,13 +10229,13 @@
   <dimension ref="A1:G368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16859,29 +17918,25 @@
         <f>[1]物品定价!A258</f>
         <v>0</v>
       </c>
-      <c r="B258">
-        <f>[1]物品定价!B258</f>
-        <v>0</v>
+      <c r="B258" t="s">
+        <v>102</v>
       </c>
       <c r="C258">
         <f>[1]物品定价!C258</f>
         <v>0</v>
       </c>
-      <c r="D258">
-        <f>[1]物品定价!D258</f>
-        <v>0</v>
+      <c r="D258" t="s">
+        <v>103</v>
       </c>
       <c r="E258">
-        <f>[1]物品定价!E258</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F258">
         <f>[1]物品定价!F258</f>
         <v>0</v>
       </c>
       <c r="G258">
-        <f>[1]物品定价!G258</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">

--- a/OPM经济数值/活动_5_巨人Boss.xlsx
+++ b/OPM经济数值/活动_5_巨人Boss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37780" yWindow="800" windowWidth="38400" windowHeight="20080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080"/>
   </bookViews>
   <sheets>
     <sheet name="积分计算" sheetId="1" r:id="rId1"/>
@@ -5411,13 +5411,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="3"/>
     <col min="6" max="7" width="8.83203125" style="1"/>
     <col min="8" max="9" width="8.83203125" style="3"/>
     <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -5640,14 +5642,6 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="str">
-        <f>A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8</f>
-        <v>50000,200000,500000,1000000,9999999</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f>B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8</f>
-        <v>0.01,0.005,0.002,0.001,0.0005</v>
-      </c>
       <c r="F10" s="1">
         <v>450000</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F17" s="1">
         <v>800000</v>
       </c>
@@ -5741,7 +5735,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F18" s="1">
         <v>850000</v>
       </c>
@@ -5756,7 +5750,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="str">
+        <f>A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8</f>
+        <v>50000,200000,500000,1000000,9999999</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8</f>
+        <v>0.01,0.005,0.002,0.001,0.0005</v>
+      </c>
       <c r="F19" s="1">
         <v>900000</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F20" s="1">
         <v>950000</v>
       </c>
@@ -5780,7 +5782,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F21" s="1">
         <v>1000000</v>
       </c>
@@ -5789,7 +5791,16 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.01</v>
+      </c>
       <c r="F22" s="1">
         <v>1050000</v>
       </c>
@@ -5798,7 +5809,16 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.01</v>
+      </c>
       <c r="F23" s="1">
         <v>1100000</v>
       </c>
@@ -5807,7 +5827,16 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.01</v>
+      </c>
       <c r="F24" s="1">
         <v>1150000</v>
       </c>
@@ -5816,7 +5845,16 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.01</v>
+      </c>
       <c r="F25" s="1">
         <v>1200000</v>
       </c>
@@ -5825,7 +5863,16 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F26" s="1">
         <v>1250000</v>
       </c>
@@ -5834,7 +5881,16 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F27" s="1">
         <v>1300000</v>
       </c>
@@ -5843,7 +5899,16 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F28" s="1">
         <v>1350000</v>
       </c>
@@ -5852,7 +5917,16 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>300000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2E-3</v>
+      </c>
       <c r="F29" s="1">
         <v>1400000</v>
       </c>
@@ -5861,7 +5935,16 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2E-3</v>
+      </c>
       <c r="F30" s="1">
         <v>1450000</v>
       </c>
@@ -5870,7 +5953,16 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3">
+        <v>800000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2E-3</v>
+      </c>
       <c r="F31" s="1">
         <v>1500000</v>
       </c>
@@ -5879,7 +5971,16 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2E-3</v>
+      </c>
       <c r="F32" s="1">
         <v>1550000</v>
       </c>
@@ -5888,7 +5989,16 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1E-3</v>
+      </c>
       <c r="F33" s="1">
         <v>1600000</v>
       </c>
@@ -5897,7 +6007,16 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="F34" s="1">
         <v>1650000</v>
       </c>
@@ -5906,7 +6025,15 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="str">
+        <f>B22&amp;";"&amp;B23&amp;";"&amp;B24&amp;";"&amp;B25&amp;";"&amp;B26&amp;";"&amp;B27&amp;";"&amp;B28&amp;";"&amp;B29&amp;";"&amp;B30&amp;";"&amp;B31&amp;";"&amp;B32&amp;";"&amp;B33&amp;";"&amp;B34</f>
+        <v>5000;10000;20000;50000;100000;150000;200000;300000;500000;800000;1000000;2000000;9999999</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f>C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34</f>
+        <v>0.01,0.01,0.01,0.01,0.005,0.005,0.005,0.002,0.002,0.002,0.002,0.001,0.0005</v>
+      </c>
       <c r="F35" s="1">
         <v>1700000</v>
       </c>
@@ -5915,7 +6042,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F36" s="1">
         <v>1750000</v>
       </c>
@@ -5924,7 +6051,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F37" s="1">
         <v>1800000</v>
       </c>
@@ -5933,7 +6060,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F38" s="1">
         <v>1850000</v>
       </c>
@@ -5942,7 +6069,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F39" s="1">
         <v>1900000</v>
       </c>
@@ -5951,7 +6078,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F40" s="1">
         <v>1950000</v>
       </c>
@@ -5960,7 +6087,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F41" s="1">
         <v>2000000</v>
       </c>
@@ -5969,7 +6096,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F42" s="1">
         <v>2050000</v>
       </c>
@@ -5978,7 +6105,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F43" s="1">
         <v>2100000</v>
       </c>
@@ -5987,7 +6114,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F44" s="1">
         <v>2150000</v>
       </c>
@@ -5996,7 +6123,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F45" s="1">
         <v>2200000</v>
       </c>
@@ -6005,7 +6132,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F46" s="1">
         <v>2250000</v>
       </c>
@@ -6014,7 +6141,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F47" s="1">
         <v>2300000</v>
       </c>
@@ -6023,7 +6150,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F48" s="1">
         <v>2350000</v>
       </c>
@@ -6088,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9622,7 +9749,7 @@
         <v>1800</v>
       </c>
       <c r="X39" s="12">
-        <f>T39+W39+N39+Q39</f>
+        <f t="shared" ref="X39:X44" si="12">T39+W39+N39+Q39</f>
         <v>5250</v>
       </c>
       <c r="Y39" s="2" t="str">
@@ -9712,7 +9839,7 @@
         <v>1200</v>
       </c>
       <c r="X40" s="12">
-        <f>T40+W40+N40+Q40</f>
+        <f t="shared" si="12"/>
         <v>2950</v>
       </c>
       <c r="Y40" s="2" t="str">
@@ -9748,11 +9875,11 @@
         <v>item,104,2</v>
       </c>
       <c r="AG40" s="2" t="str">
-        <f t="shared" ref="AG40:AG44" si="12">Y40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AA40="","",";"&amp;AA40)&amp;IF(AC40="","",";"&amp;AC40)&amp;IF(AE40="","",";"&amp;AE40)</f>
+        <f t="shared" ref="AG40:AG44" si="13">Y40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AA40="","",";"&amp;AA40)&amp;IF(AC40="","",";"&amp;AC40)&amp;IF(AE40="","",";"&amp;AE40)</f>
         <v>cash,500;frame,21;prop,702,5;pack,304,2</v>
       </c>
       <c r="AH40" s="2" t="str">
-        <f t="shared" ref="AH40:AH44" si="13">Z40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AB40="","",";"&amp;AB40)&amp;IF(AD40="","",";"&amp;AD40)&amp;IF(AF40="","",";"&amp;AF40)</f>
+        <f t="shared" ref="AH40:AH44" si="14">Z40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AB40="","",";"&amp;AB40)&amp;IF(AD40="","",";"&amp;AD40)&amp;IF(AF40="","",";"&amp;AF40)</f>
         <v>cash,500;frame,21;prop,702,5;item,104,2</v>
       </c>
       <c r="AI40" s="3" t="s">
@@ -9764,7 +9891,7 @@
     </row>
     <row r="41" spans="10:36" x14ac:dyDescent="0.15">
       <c r="J41" s="1">
-        <f t="shared" ref="J41:J44" si="14">K40</f>
+        <f t="shared" ref="J41:J44" si="15">K40</f>
         <v>500</v>
       </c>
       <c r="K41" s="1">
@@ -9801,7 +9928,7 @@
         <v>600</v>
       </c>
       <c r="X41" s="12">
-        <f>T41+W41+N41+Q41</f>
+        <f t="shared" si="12"/>
         <v>2150</v>
       </c>
       <c r="Y41" s="2" t="str">
@@ -9837,11 +9964,11 @@
         <v>item,104,1</v>
       </c>
       <c r="AG41" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cash,300;frame,21;prop,702,5;pack,304,1</v>
       </c>
       <c r="AH41" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cash,300;frame,21;prop,702,5;item,104,1</v>
       </c>
       <c r="AI41" s="3" t="s">
@@ -9854,7 +9981,7 @@
     </row>
     <row r="42" spans="10:36" x14ac:dyDescent="0.15">
       <c r="J42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="K42" s="1">
@@ -9891,7 +10018,7 @@
         <v>600</v>
       </c>
       <c r="X42" s="12">
-        <f>T42+W42+N42+Q42</f>
+        <f t="shared" si="12"/>
         <v>1550</v>
       </c>
       <c r="Y42" s="2" t="str">
@@ -9927,11 +10054,11 @@
         <v>item,104,1</v>
       </c>
       <c r="AG42" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cash,200;frame,21;prop,702,3;pack,304,1</v>
       </c>
       <c r="AH42" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cash,200;frame,21;prop,702,3;item,104,1</v>
       </c>
       <c r="AI42" s="3" t="s">
@@ -9943,7 +10070,7 @@
     </row>
     <row r="43" spans="10:36" x14ac:dyDescent="0.15">
       <c r="J43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2000</v>
       </c>
       <c r="K43" s="1">
@@ -9971,7 +10098,7 @@
       </c>
       <c r="U43" s="3"/>
       <c r="X43" s="12">
-        <f>T43+W43+N43+Q43</f>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="Y43" s="2" t="str">
@@ -10007,13 +10134,13 @@
         <v/>
       </c>
       <c r="AG43" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>cash,100;frame,21;prop,702,2</v>
-      </c>
-      <c r="AH43" s="2" t="str">
         <f t="shared" si="13"/>
         <v>cash,100;frame,21;prop,702,2</v>
       </c>
+      <c r="AH43" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>cash,100;frame,21;prop,702,2</v>
+      </c>
       <c r="AI43" s="3" t="s">
         <v>101</v>
       </c>
@@ -10023,7 +10150,7 @@
     </row>
     <row r="44" spans="10:36" x14ac:dyDescent="0.15">
       <c r="J44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5000</v>
       </c>
       <c r="K44" s="1">
@@ -10051,7 +10178,7 @@
       </c>
       <c r="U44" s="3"/>
       <c r="X44" s="12">
-        <f>T44+W44+N44+Q44</f>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="Y44" s="2" t="str">
@@ -10087,11 +10214,11 @@
         <v/>
       </c>
       <c r="AG44" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cash,50;prop,702,1</v>
       </c>
       <c r="AH44" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cash,50;prop,702,1</v>
       </c>
       <c r="AJ44" s="5">

--- a/OPM经济数值/活动_5_巨人Boss.xlsx
+++ b/OPM经济数值/活动_5_巨人Boss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080"/>
+    <workbookView xWindow="-39080" yWindow="460" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="积分计算" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
   <si>
     <t>积分比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,14 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>甜心假面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>童帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,15 +299,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高级招募令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机4星饰品</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机3星饰品</t>
   </si>
   <si>
     <t>随机3星饰品</t>
@@ -334,14 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高等攻击天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等生存天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机2星饰品</t>
   </si>
   <si>
@@ -355,16 +332,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>xiao'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级招募令</t>
-    <rPh sb="0" eb="1">
-      <t>gao'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhao'mu'ling</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,9 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经验鱼籽丼</t>
-  </si>
-  <si>
     <t>现金</t>
     <rPh sb="0" eb="1">
       <t>xian'jin</t>
@@ -489,10 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventDamageRank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventPointRank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,16 +468,6 @@
   </si>
   <si>
     <t>frame,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄招募令</t>
-    <rPh sb="0" eb="1">
-      <t>ying'xiong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhao'mu'ling</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,55 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>警犬侠招募令</t>
-    <rPh sb="0" eb="1">
-      <t>jign'quan'xia</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhao'mu'ling</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特级实力徽章</t>
-    <rPh sb="0" eb="1">
-      <t>te'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hui'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级实力徽章</t>
-    <rPh sb="0" eb="1">
-      <t>gao'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hui'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级实力徽章</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hui'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初级实力徽章</t>
     <rPh sb="0" eb="1">
       <t>chu'ji</t>
@@ -611,81 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高等格斗力认证</t>
-    <rPh sb="0" eb="1">
-      <t>gao'deng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ge'dou'li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗力认证</t>
-    <rPh sb="0" eb="1">
-      <t>ge'dou'li</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ren'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级实力徽章</t>
-    <rPh sb="0" eb="1">
-      <t>chao'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hui'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等攻击天赋书</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'deng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tian'fu'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等生存天赋书</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'deng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sheng'cun</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tian'fu'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级觉醒胶囊</t>
-    <rPh sb="0" eb="1">
-      <t>gao'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jue'xing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiao'nagn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>觉醒胶囊</t>
     <rPh sb="0" eb="1">
       <t>jue'xing</t>
@@ -693,18 +519,6 @@
     <rPh sb="2" eb="3">
       <t>jiao'nang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Super-X”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元气牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肌力药剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,12 +548,440 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>急速3星</t>
+    <rPh sb="0" eb="1">
+      <t>ji'su</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心4星</t>
+    <rPh sb="0" eb="1">
+      <t>ai'xn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip,231;equip,232;equip,233;equip,234</t>
+  </si>
+  <si>
+    <t>equip,645;equip,646</t>
+  </si>
+  <si>
+    <t>随机4星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sh'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能碎片</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sui'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机5星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <rPh sb="0" eb="1">
+      <t>xian'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警犬侠招募令</t>
+    <rPh sb="0" eb="1">
+      <t>jign'quan'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao'mu'ling'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗力认证</t>
+  </si>
+  <si>
+    <t>高等格斗力认证</t>
+  </si>
+  <si>
+    <t>元气牛肉</t>
+  </si>
+  <si>
+    <t>武装力认证</t>
+  </si>
+  <si>
+    <t>超能力认证</t>
+  </si>
+  <si>
+    <t>机械力认证</t>
+  </si>
+  <si>
+    <t>高等武装力认证</t>
+  </si>
+  <si>
+    <t>高等超能力认证</t>
+  </si>
+  <si>
+    <t>高等机械力认证</t>
+  </si>
+  <si>
+    <t>“Super-X”</t>
+  </si>
+  <si>
+    <t>肌力药剂</t>
+  </si>
+  <si>
+    <t>训练拳套</t>
+  </si>
+  <si>
+    <t>训练刀具</t>
+  </si>
+  <si>
+    <t>训练枪械</t>
+  </si>
+  <si>
+    <t>超能勺子</t>
+  </si>
+  <si>
+    <t>超能飞石</t>
+  </si>
+  <si>
+    <t>超能量球</t>
+  </si>
+  <si>
+    <t>机械引擎</t>
+  </si>
+  <si>
+    <t>能量核心</t>
+  </si>
+  <si>
+    <t>低等攻击天赋书</t>
+  </si>
+  <si>
+    <t>中等攻击天赋书</t>
+  </si>
+  <si>
+    <t>高等攻击天赋书</t>
+  </si>
+  <si>
+    <t>低等生存天赋书</t>
+  </si>
+  <si>
+    <t>中等生存天赋书</t>
+  </si>
+  <si>
+    <t>高等生存天赋书</t>
+  </si>
+  <si>
+    <t>中级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'deng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>te</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级实力徽章</t>
+    <rPh sb="0" eb="1">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级觉醒胶囊</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'nang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械配件</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventWorldBossDamageRank</t>
+  </si>
+  <si>
+    <t>普通招募令</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦玉一拳</t>
+    <rPh sb="0" eb="1">
+      <t>qi'yu'yi'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦玉连续拳</t>
+    <rPh sb="0" eb="1">
+      <t>qi'yu'lian'xu'quan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力包</t>
+    <rPh sb="0" eb="1">
+      <t>ti'li'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通招募令</t>
+    <rPh sb="0" eb="1">
+      <t>pu'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30体力包</t>
+    <rPh sb="2" eb="3">
+      <t>ti'li'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰诺斯</t>
+    <rPh sb="0" eb="1">
+      <t>jie'nuo'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警犬侠</t>
+    <rPh sb="0" eb="1">
+      <t>jign'quan'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,102;item,103;coin,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分段</t>
+    <rPh sb="0" eb="1">
+      <t>fen'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <rPh sb="0" eb="1">
+      <t>shagn'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础分</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成分</t>
+    <rPh sb="0" eb="1">
+      <t>jia'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日免费积分</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总免费积分</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mian'fei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="1">
+      <t>tong'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分变化</t>
+    <rPh sb="0" eb="1">
+      <t>ji'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/s</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/天</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级</t>
+    <rPh sb="0" eb="1">
+      <t>ding'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +1060,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -827,7 +1078,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -835,16 +1086,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,14 +1144,31 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5409,42 +5696,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="3" customWidth="1"/>
     <col min="3" max="5" width="8.83203125" style="3"/>
     <col min="6" max="7" width="8.83203125" style="1"/>
     <col min="8" max="9" width="8.83203125" style="3"/>
     <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="16384" width="8.83203125" style="3"/>
+    <col min="12" max="13" width="8.83203125" style="3"/>
+    <col min="14" max="14" width="7" style="3" customWidth="1"/>
+    <col min="15" max="17" width="8.83203125" style="3"/>
+    <col min="18" max="18" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -5453,13 +5738,6 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>50000</v>
-      </c>
-      <c r="G2" s="1">
-        <f>IF(F2&lt;=$A$4,F2*$B$4,$A$4*$B$4+IF(F2&lt;=$A$5,(F2-$A$4)*$B$5,($A$5-$A$4)*$B$5+IF(F2&lt;=$A$6,(F2-$A$5)*$B$6,($A$6-$A$5)*$B$6+IF(F2&lt;=$A$7,(F2-$A$6)*$B$7,($A$7-$A$6)*$B$7+IF(F2&lt;=$A$8,(F2-$A$7)*$B$8,($A$8-$A$7)*$B$8)))))</f>
-        <v>500</v>
-      </c>
       <c r="J2" s="3" t="s">
         <v>34</v>
       </c>
@@ -5467,7 +5745,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5480,29 +5758,49 @@
       </c>
       <c r="D3" s="1">
         <f>SUM(D4:D8)</f>
-        <v>2250</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G53" si="0">IF(F3&lt;=$A$4,F3*$B$4,$A$4*$B$4+IF(F3&lt;=$A$5,(F3-$A$4)*$B$5,($A$5-$A$4)*$B$5+IF(F3&lt;=$A$6,(F3-$A$5)*$B$6,($A$6-$A$5)*$B$6+IF(F3&lt;=$A$7,(F3-$A$6)*$B$7,($A$7-$A$6)*$B$7+IF(F3&lt;=$A$8,(F3-$A$7)*$B$8,($A$8-$A$7)*$B$8)))))</f>
-        <v>750</v>
+        <v>1700</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="1">
         <f>D3*(1+MAX(K17:K19))</f>
-        <v>2362.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2210</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>50000</v>
       </c>
       <c r="B4" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="1">
         <f>MAX(IF(C3&gt;A4,A4,C3),0)</f>
@@ -5510,47 +5808,99 @@
       </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>500</v>
-      </c>
-      <c r="F4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="1">
         <f>K3*K1</f>
-        <v>11812.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>17680</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P4" s="1">
+        <f>IF(O4&lt;=$A$4,O4*$B$4,$A$4*$B$4+IF(O4&lt;=$A$5,(O4-$A$4)*$B$5,($A$5-$A$4)*$B$5+IF(O4&lt;=$A$6,(O4-$A$5)*$B$6,($A$6-$A$5)*$B$6+IF(O4&lt;=$A$7,(O4-$A$6)*$B$7,($A$7-$A$6)*$B$7+IF(O4&lt;=$A$8,(O4-$A$7)*$B$8,($A$8-$A$7)*$B$8)))))</f>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>P4*(1+$K$18)</f>
+        <v>30</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Q4*$K$1</f>
+        <v>240</v>
+      </c>
+      <c r="S4" s="3">
+        <f>R4*$K$7</f>
+        <v>2400</v>
+      </c>
+      <c r="T4" s="3">
+        <v>600</v>
+      </c>
+      <c r="U4" s="3">
+        <f>T4/3600/24</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V4" s="3">
+        <f>INT(U4*R4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>200000</v>
       </c>
       <c r="B5" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C5" s="1">
         <f>MAX(IF($C$3&gt;A5,A5-A4,$C$3-A4),0)</f>
         <v>150000</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D8" si="1">B5*C5</f>
-        <v>750</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200000</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" ref="D5:D8" si="0">B5*C5</f>
+        <v>450</v>
+      </c>
+      <c r="N5" s="1">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P10" si="1">IF(O5&lt;=$A$4,O5*$B$4,$A$4*$B$4+IF(O5&lt;=$A$5,(O5-$A$4)*$B$5,($A$5-$A$4)*$B$5+IF(O5&lt;=$A$6,(O5-$A$5)*$B$6,($A$6-$A$5)*$B$6+IF(O5&lt;=$A$7,(O5-$A$6)*$B$7,($A$7-$A$6)*$B$7+IF(O5&lt;=$A$8,(O5-$A$7)*$B$8,($A$8-$A$7)*$B$8)))))</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q10" si="2">P5*(1+$K$18)</f>
+        <v>60</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R10" si="3">Q5*$K$1</f>
+        <v>480</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5:S10" si="4">R5*$K$7</f>
+        <v>4800</v>
+      </c>
+      <c r="T5" s="3">
+        <v>600</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5:U10" si="5">T5/3600/24</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5:V10" si="6">INT(U5*R5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>500000</v>
       </c>
@@ -5558,22 +5908,48 @@
         <v>2E-3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C8" si="2">MAX(IF($C$3&gt;A6,A6-A5,$C$3-A5),0)</f>
+        <f t="shared" ref="C6:C8" si="7">MAX(IF($C$3&gt;A6,A6-A5,$C$3-A5),0)</f>
         <v>300000</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="N6" s="1">
+        <v>40</v>
+      </c>
+      <c r="O6" s="3">
+        <v>40000</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
+        <v>1920</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="4"/>
+        <v>19200</v>
+      </c>
+      <c r="T6" s="3">
         <v>600</v>
       </c>
-      <c r="F6" s="1">
-        <v>250000</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="U6" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -5581,28 +5957,54 @@
         <v>1E-3</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="F7" s="1">
-        <v>300000</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>1450</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
+        <v>3840</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="4"/>
+        <v>38400</v>
+      </c>
+      <c r="T7" s="3">
+        <v>600</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>9999999</v>
       </c>
@@ -5610,54 +6012,125 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>350000</v>
-      </c>
-      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="1">
         <f>K7*K4</f>
-        <v>165375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F9" s="1">
-        <v>400000</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F10" s="1">
-        <v>450000</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F11" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>1850</v>
-      </c>
+        <v>176800</v>
+      </c>
+      <c r="N8" s="1">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3">
+        <v>350000</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="4"/>
+        <v>96000</v>
+      </c>
+      <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="N9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="3">
+        <v>750000</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>1550</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="2"/>
+        <v>1860</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="3"/>
+        <v>14880</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="4"/>
+        <v>148800</v>
+      </c>
+      <c r="T9" s="3">
+        <v>600</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="N10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="2"/>
+        <v>2520</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
+        <v>20160</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="4"/>
+        <v>201600</v>
+      </c>
+      <c r="T10" s="3">
+        <v>600</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J11" s="3" t="s">
         <v>39</v>
       </c>
@@ -5665,130 +6138,51 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F12" s="1">
-        <v>550000</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1">
         <f>K11/K1/K3</f>
-        <v>12.698412698412698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F13" s="1">
-        <v>600000</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F14" s="1">
-        <v>650000</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F15" s="1">
-        <v>700000</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F16" s="1">
-        <v>750000</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
+        <v>8.4841628959276019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I17" s="3">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I18" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F17" s="1">
-        <v>800000</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>2150</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I19" s="3">
+        <v>52</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F18" s="1">
-        <v>850000</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="str">
-        <f>A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8</f>
-        <v>50000,200000,500000,1000000,9999999</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f>B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8</f>
-        <v>0.01,0.005,0.002,0.001,0.0005</v>
-      </c>
-      <c r="F19" s="1">
-        <v>900000</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="K19" s="8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F20" s="1">
-        <v>950000</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F21" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>2350</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -5799,14 +6193,11 @@
         <v>5000</v>
       </c>
       <c r="C22" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1050000</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>2375</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22*10000</f>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -5817,14 +6208,11 @@
         <v>10000</v>
       </c>
       <c r="C23" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1100000</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D38" si="8">C23*10000</f>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -5835,14 +6223,11 @@
         <v>20000</v>
       </c>
       <c r="C24" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1150000</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>2425</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -5850,17 +6235,14 @@
         <v>4</v>
       </c>
       <c r="B25" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="C25" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1200000</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>2450</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -5868,17 +6250,14 @@
         <v>5</v>
       </c>
       <c r="B26" s="3">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="C26" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1250000</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>2475</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -5886,17 +6265,18 @@
         <v>6</v>
       </c>
       <c r="B27" s="3">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="C27" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1300000</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="J27" s="3">
+        <f>8*1.2</f>
+        <v>9.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -5904,17 +6284,14 @@
         <v>7</v>
       </c>
       <c r="B28" s="3">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="C28" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1350000</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>2525</v>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -5922,17 +6299,14 @@
         <v>8</v>
       </c>
       <c r="B29" s="3">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="C29" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1400000</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -5940,17 +6314,14 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>500000</v>
+        <v>350000</v>
       </c>
       <c r="C30" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1450000</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>2575</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -5958,17 +6329,14 @@
         <v>10</v>
       </c>
       <c r="B31" s="3">
-        <v>800000</v>
+        <v>520000</v>
       </c>
       <c r="C31" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -5976,232 +6344,120 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="C32" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1550000</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>12</v>
       </c>
       <c r="B33" s="3">
-        <v>2000000</v>
+        <v>1100000</v>
       </c>
       <c r="C33" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1600000</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>13</v>
       </c>
       <c r="B34" s="3">
-        <v>9999999</v>
+        <v>1600000</v>
       </c>
       <c r="C34" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1650000</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="str">
-        <f>B22&amp;";"&amp;B23&amp;";"&amp;B24&amp;";"&amp;B25&amp;";"&amp;B26&amp;";"&amp;B27&amp;";"&amp;B28&amp;";"&amp;B29&amp;";"&amp;B30&amp;";"&amp;B31&amp;";"&amp;B32&amp;";"&amp;B33&amp;";"&amp;B34</f>
-        <v>5000;10000;20000;50000;100000;150000;200000;300000;500000;800000;1000000;2000000;9999999</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f>C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34</f>
-        <v>0.01,0.01,0.01,0.01,0.005,0.005,0.005,0.002,0.002,0.002,0.002,0.001,0.0005</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1700000</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F36" s="1">
-        <v>1750000</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F37" s="1">
-        <v>1800000</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F38" s="1">
-        <v>1850000</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F39" s="1">
-        <v>1900000</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F40" s="1">
-        <v>1950000</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F41" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F42" s="1">
-        <v>2050000</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F43" s="1">
-        <v>2100000</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F44" s="1">
-        <v>2150000</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F45" s="1">
-        <v>2200000</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F46" s="1">
-        <v>2250000</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F47" s="1">
-        <v>2300000</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F48" s="1">
-        <v>2350000</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F49" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3">
         <v>2400000</v>
       </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F50" s="1">
-        <v>2450000</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F51" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F52" s="1">
-        <v>2550000</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F53" s="1">
-        <v>2600000</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>3150</v>
+      <c r="C35" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3">
+        <v>999999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="str">
+        <f>B22&amp;";"&amp;B23&amp;";"&amp;B24&amp;";"&amp;B25&amp;";"&amp;B26&amp;";"&amp;B27&amp;";"&amp;B28&amp;";"&amp;B29&amp;";"&amp;B30&amp;";"&amp;B31&amp;";"&amp;B32&amp;";"&amp;B33&amp;";"&amp;B34&amp;";"&amp;B35&amp;";"&amp;B36&amp;";"&amp;B37&amp;";"&amp;B38</f>
+        <v>5000;10000;20000;40000;60000;100000;150000;230000;350000;520000;750000;1100000;1600000;2400000;3600000;5400000;999999999</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f>D22&amp;","&amp;D23&amp;","&amp;D24&amp;","&amp;D25&amp;","&amp;D26&amp;","&amp;D27&amp;","&amp;D28&amp;","&amp;D29&amp;","&amp;D30&amp;","&amp;D31&amp;","&amp;D32&amp;","&amp;D33&amp;","&amp;D34&amp;","&amp;D35&amp;","&amp;D36&amp;","&amp;D37&amp;","&amp;D38</f>
+        <v>40,40,40,40,25,25,25,16,16,16,16,80,4,2,1,1,1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="str">
+        <f>D39</f>
+        <v>40,40,40,40,25,25,25,16,16,16,16,80,4,2,1,1,1</v>
       </c>
     </row>
   </sheetData>
@@ -6213,34 +6469,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY44"/>
+  <dimension ref="A1:BA66"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AT32" sqref="AT32"/>
+    <sheetView tabSelected="1" topLeftCell="W28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
     <col min="2" max="8" width="6.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="6.1640625" style="2" customWidth="1"/>
-    <col min="19" max="24" width="8.83203125" style="2"/>
+    <col min="19" max="22" width="8.83203125" style="2"/>
+    <col min="23" max="24" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.83203125" style="4"/>
     <col min="26" max="26" width="8.83203125" style="2"/>
     <col min="27" max="27" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="8.83203125" style="2"/>
+    <col min="29" max="30" width="8.83203125" style="2"/>
+    <col min="31" max="31" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="2"/>
     <col min="33" max="33" width="8.83203125" style="4"/>
-    <col min="34" max="34" width="13" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="8.83203125" style="2"/>
+    <col min="34" max="34" width="15.5" style="2" customWidth="1"/>
+    <col min="35" max="48" width="8.83203125" style="2"/>
+    <col min="49" max="50" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -6255,10 +6516,10 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>32</v>
@@ -6300,7 +6561,7 @@
         <v>28</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>29</v>
@@ -6309,25 +6570,25 @@
         <v>30</v>
       </c>
       <c r="AS1"/>
-      <c r="AU1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5">
+        <v>40000</v>
+      </c>
+      <c r="C2" s="5">
         <v>30000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>25000</v>
       </c>
       <c r="D2" s="5">
         <v>20000</v>
@@ -6346,29 +6607,29 @@
         <v>26</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AA2" s="4">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AC2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="1">
         <f>VLOOKUP(AB2,价值!$B:$G,6,0)*AC2</f>
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AF2" s="1">
         <v>3</v>
@@ -6377,15 +6638,11 @@
         <f>VLOOKUP(AE2,价值!$B:$G,6,0)*AF2</f>
         <v>54</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>10</v>
-      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
       <c r="AJ2" s="1">
         <f>VLOOKUP(AH2,价值!$B:$G,6,0)*AI2</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -6395,15 +6652,15 @@
       </c>
       <c r="AN2" s="2">
         <f>AD2+AG2+AJ2+AM2</f>
-        <v>614</v>
+        <v>114</v>
       </c>
       <c r="AO2" s="4" t="str">
         <f>VLOOKUP(AB2,价值!$B:$G,3,0)&amp;","&amp;AC2</f>
-        <v>prop,707,2</v>
+        <v>prop,202,10</v>
       </c>
       <c r="AP2" s="3" t="str">
         <f>IF(VLOOKUP(AB2,价值!$B:$G,5,0)=0,AO2,VLOOKUP(AB2,价值!$B:$G,5,0)&amp;","&amp;AC2)</f>
-        <v>prop,707,2</v>
+        <v>prop,202,10</v>
       </c>
       <c r="AQ2" s="4" t="str">
         <f>VLOOKUP(AE2,价值!$B:$G,3,0)&amp;","&amp;AF2</f>
@@ -6414,38 +6671,46 @@
         <v>prop,104,3</v>
       </c>
       <c r="AS2" s="4" t="str">
-        <f>VLOOKUP(AH2,价值!$B:$G,3,0)&amp;","&amp;AI2</f>
-        <v>prop,202,10</v>
+        <f>IF(AH2="","",VLOOKUP(AH2,价值!$B:$G,3,0)&amp;","&amp;AI2)</f>
+        <v/>
       </c>
       <c r="AT2" s="3" t="str">
         <f>IF(VLOOKUP(AH2,价值!$B:$G,5,0)=0,AS2,VLOOKUP(AH2,价值!$B:$G,5,0)&amp;","&amp;AI2)</f>
-        <v>prop,202,10</v>
-      </c>
-      <c r="AU2" s="2" t="str">
-        <f>AO2&amp;";"&amp;AQ2&amp;";"&amp;AS2</f>
-        <v>prop,707,2;prop,104,3;prop,202,10</v>
-      </c>
-      <c r="AV2" s="2" t="str">
-        <f>AP2&amp;";"&amp;AR2&amp;";"&amp;AT2</f>
-        <v>prop,707,2;prop,104,3;prop,202,10</v>
-      </c>
-      <c r="AY2" s="4"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+        <v/>
+      </c>
+      <c r="AU2" s="4" t="str">
+        <f>VLOOKUP(AK2,价值!$B:$G,3,0)&amp;","&amp;AL2</f>
+        <v>0,</v>
+      </c>
+      <c r="AV2" s="3" t="str">
+        <f>IF(VLOOKUP(AK2,价值!$B:$G,5,0)=0,AU2,VLOOKUP(AK2,价值!$B:$G,5,0)&amp;","&amp;AL2)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW2" s="14" t="str">
+        <f>AO2&amp;";"&amp;AQ2&amp;IF(AS2="","",";"&amp;AS2)</f>
+        <v>prop,202,10;prop,104,3</v>
+      </c>
+      <c r="AX2" s="14" t="str">
+        <f>AP2&amp;";"&amp;AR2&amp;IF(AT2="","",";"&amp;AT2)</f>
+        <v>prop,202,10;prop,104,3</v>
+      </c>
+      <c r="BA2" s="4"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4">
         <f>D3</f>
-        <v>16650</v>
+        <v>12800</v>
       </c>
       <c r="C3" s="4">
         <f>D3</f>
-        <v>16650</v>
+        <v>12800</v>
       </c>
       <c r="D3" s="4">
         <f>D2-SUM(D4:D7)</f>
-        <v>16650</v>
+        <v>12800</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -6458,49 +6723,43 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="5"/>
       <c r="AA3" s="4">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1">
         <f>VLOOKUP(AB3,价值!$B:$G,6,0)*AC3</f>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="1">
         <f>VLOOKUP(AE3,价值!$B:$G,6,0)*AF3</f>
-        <v>45</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>10</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
       <c r="AJ3" s="1">
         <f>VLOOKUP(AH3,价值!$B:$G,6,0)*AI3</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6509,44 +6768,52 @@
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN16" si="0">AD3+AG3+AJ3+AM3</f>
-        <v>285</v>
+        <f t="shared" ref="AN3:AN24" si="0">AD3+AG3+AJ3+AM3</f>
+        <v>180</v>
       </c>
       <c r="AO3" s="4" t="str">
         <f>VLOOKUP(AB3,价值!$B:$G,3,0)&amp;","&amp;AC3</f>
-        <v>prop,205,5</v>
+        <v>prop,301,2</v>
       </c>
       <c r="AP3" s="3" t="str">
         <f>IF(VLOOKUP(AB3,价值!$B:$G,5,0)=0,AO3,VLOOKUP(AB3,价值!$B:$G,5,0)&amp;","&amp;AC3)</f>
-        <v>prop,205,5</v>
+        <v>prop,301,2</v>
       </c>
       <c r="AQ3" s="4" t="str">
         <f>VLOOKUP(AE3,价值!$B:$G,3,0)&amp;","&amp;AF3</f>
-        <v>prop,204,3</v>
+        <v>prop,207,2</v>
       </c>
       <c r="AR3" s="3" t="str">
         <f>IF(VLOOKUP(AE3,价值!$B:$G,5,0)=0,AQ3,VLOOKUP(AE3,价值!$B:$G,5,0)&amp;","&amp;AF3)</f>
-        <v>prop,204,3</v>
+        <v>prop,207,2</v>
       </c>
       <c r="AS3" s="4" t="str">
-        <f>VLOOKUP(AH3,价值!$B:$G,3,0)&amp;","&amp;AI3</f>
-        <v>prop,203,10</v>
+        <f>IF(AH3="","",VLOOKUP(AH3,价值!$B:$G,3,0)&amp;","&amp;AI3)</f>
+        <v/>
       </c>
       <c r="AT3" s="3" t="str">
         <f>IF(VLOOKUP(AH3,价值!$B:$G,5,0)=0,AS3,VLOOKUP(AH3,价值!$B:$G,5,0)&amp;","&amp;AI3)</f>
-        <v>prop,203,10</v>
-      </c>
-      <c r="AU3" s="2" t="str">
-        <f t="shared" ref="AU3:AU16" si="1">AO3&amp;";"&amp;AQ3&amp;";"&amp;AS3</f>
-        <v>prop,205,5;prop,204,3;prop,203,10</v>
-      </c>
-      <c r="AV3" s="2" t="str">
-        <f t="shared" ref="AV3:AV16" si="2">AP3&amp;";"&amp;AR3&amp;";"&amp;AT3</f>
-        <v>prop,205,5;prop,204,3;prop,203,10</v>
-      </c>
-      <c r="AY3" s="4"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+        <v/>
+      </c>
+      <c r="AU3" s="4" t="str">
+        <f>VLOOKUP(AK3,价值!$B:$G,3,0)&amp;","&amp;AL3</f>
+        <v>0,</v>
+      </c>
+      <c r="AV3" s="3" t="str">
+        <f>IF(VLOOKUP(AK3,价值!$B:$G,5,0)=0,AU3,VLOOKUP(AK3,价值!$B:$G,5,0)&amp;","&amp;AL3)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW3" s="14" t="str">
+        <f t="shared" ref="AW3:AX24" si="1">AO3&amp;";"&amp;AQ3&amp;IF(AS3="","",";"&amp;AS3)</f>
+        <v>prop,301,2;prop,207,2</v>
+      </c>
+      <c r="AX3" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,301,2;prop,207,2</v>
+      </c>
+      <c r="BA3" s="4"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6563,95 +6830,50 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="10">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11">
-        <f>VLOOKUP(L4,价值!$B:$G,6,0)*M4</f>
-        <v>600</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="11">
-        <v>15000</v>
-      </c>
-      <c r="Q4" s="11">
-        <f>VLOOKUP(O4,价值!$B:$G,6,0)*P4</f>
-        <v>300</v>
-      </c>
-      <c r="R4" s="11">
-        <f t="shared" ref="R4:R13" si="3">Q4+N4</f>
-        <v>900</v>
-      </c>
-      <c r="S4" s="11" t="str">
-        <f>VLOOKUP(L4,价值!$B:$G,3,0)&amp;","&amp;M4</f>
-        <v>pack,304,1</v>
-      </c>
-      <c r="T4" s="11" t="str">
-        <f>IF(VLOOKUP(L4,价值!$B:$G,5,0)=0,S4,VLOOKUP(L4,价值!$B:$G,5,0)&amp;","&amp;M4)</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="U4" s="11" t="str">
-        <f>VLOOKUP(O4,价值!$B:$G,3,0)&amp;","&amp;P4</f>
-        <v>coin,15000</v>
-      </c>
-      <c r="V4" s="11" t="str">
-        <f>IF(VLOOKUP(O4,价值!$B:$G,5,0)=0,U4,VLOOKUP(O4,价值!$B:$G,5,0)&amp;","&amp;P4)</f>
-        <v>coin,15000</v>
-      </c>
-      <c r="W4" s="11" t="str">
-        <f t="shared" ref="W4:X13" si="4">S4&amp;";"&amp;U4</f>
-        <v>pack,304,1;coin,15000</v>
-      </c>
-      <c r="X4" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,104,1;coin,15000</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="10"/>
       <c r="AA4" s="4">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AC4" s="1">
         <v>2</v>
       </c>
       <c r="AD4" s="1">
         <f>VLOOKUP(AB4,价值!$B:$G,6,0)*AC4</f>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AF4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="1">
         <f>VLOOKUP(AE4,价值!$B:$G,6,0)*AF4</f>
-        <v>90</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
       <c r="AJ4" s="1">
         <f>VLOOKUP(AH4,价值!$B:$G,6,0)*AI4</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -6661,312 +6883,233 @@
       </c>
       <c r="AN4" s="2">
         <f t="shared" si="0"/>
-        <v>690</v>
+        <v>180</v>
       </c>
       <c r="AO4" s="4" t="str">
         <f>VLOOKUP(AB4,价值!$B:$G,3,0)&amp;","&amp;AC4</f>
-        <v>prop,707,2</v>
+        <v>prop,304,2</v>
       </c>
       <c r="AP4" s="3" t="str">
         <f>IF(VLOOKUP(AB4,价值!$B:$G,5,0)=0,AO4,VLOOKUP(AB4,价值!$B:$G,5,0)&amp;","&amp;AC4)</f>
-        <v>prop,707,2</v>
+        <v>prop,304,2</v>
       </c>
       <c r="AQ4" s="4" t="str">
         <f>VLOOKUP(AE4,价值!$B:$G,3,0)&amp;","&amp;AF4</f>
-        <v>prop,104,5</v>
+        <v>prop,208,2</v>
       </c>
       <c r="AR4" s="3" t="str">
         <f>IF(VLOOKUP(AE4,价值!$B:$G,5,0)=0,AQ4,VLOOKUP(AE4,价值!$B:$G,5,0)&amp;","&amp;AF4)</f>
-        <v>prop,104,5</v>
+        <v>prop,208,2</v>
       </c>
       <c r="AS4" s="4" t="str">
-        <f>VLOOKUP(AH4,价值!$B:$G,3,0)&amp;","&amp;AI4</f>
-        <v>pack,303,2</v>
+        <f>IF(AH4="","",VLOOKUP(AH4,价值!$B:$G,3,0)&amp;","&amp;AI4)</f>
+        <v/>
       </c>
       <c r="AT4" s="3" t="str">
         <f>IF(VLOOKUP(AH4,价值!$B:$G,5,0)=0,AS4,VLOOKUP(AH4,价值!$B:$G,5,0)&amp;","&amp;AI4)</f>
-        <v>item,103,2</v>
-      </c>
-      <c r="AU4" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU4" s="4" t="str">
+        <f>VLOOKUP(AK4,价值!$B:$G,3,0)&amp;","&amp;AL4</f>
+        <v>0,</v>
+      </c>
+      <c r="AV4" s="3" t="str">
+        <f>IF(VLOOKUP(AK4,价值!$B:$G,5,0)=0,AU4,VLOOKUP(AK4,价值!$B:$G,5,0)&amp;","&amp;AL4)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW4" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,707,2;prop,104,5;pack,303,2</v>
-      </c>
-      <c r="AV4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,707,2;prop,104,5;item,103,2</v>
-      </c>
-      <c r="AY4" s="4"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,304,2;prop,208,2</v>
+      </c>
+      <c r="AX4" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,304,2;prop,208,2</v>
+      </c>
+      <c r="BA4" s="4"/>
+    </row>
+    <row r="5" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="6">
         <f>B2-B3-B4-B6-B7</f>
-        <v>5400</v>
+        <v>15200</v>
       </c>
       <c r="C5" s="6">
         <f>C2-C3-C4-C6-C7</f>
-        <v>3200</v>
+        <v>8400</v>
       </c>
       <c r="D5" s="5">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="J5" s="10">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="AA5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="5">
+        <f>VLOOKUP(AB5,价值!$B:$G,6,0)*AC5</f>
+        <v>500</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF5" s="5">
         <v>5</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="11">
-        <v>1</v>
-      </c>
-      <c r="N5" s="11">
-        <f>VLOOKUP(L5,价值!$B:$G,6,0)*M5</f>
-        <v>600</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="11">
-        <v>12000</v>
-      </c>
-      <c r="Q5" s="11">
-        <f>VLOOKUP(O5,价值!$B:$G,6,0)*P5</f>
-        <v>240</v>
-      </c>
-      <c r="R5" s="11">
-        <f t="shared" si="3"/>
-        <v>840</v>
-      </c>
-      <c r="S5" s="11" t="str">
-        <f>VLOOKUP(L5,价值!$B:$G,3,0)&amp;","&amp;M5</f>
-        <v>pack,304,1</v>
-      </c>
-      <c r="T5" s="11" t="str">
-        <f>IF(VLOOKUP(L5,价值!$B:$G,5,0)=0,S5,VLOOKUP(L5,价值!$B:$G,5,0)&amp;","&amp;M5)</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="U5" s="11" t="str">
-        <f>VLOOKUP(O5,价值!$B:$G,3,0)&amp;","&amp;P5</f>
-        <v>coin,12000</v>
-      </c>
-      <c r="V5" s="11" t="str">
-        <f>IF(VLOOKUP(O5,价值!$B:$G,5,0)=0,U5,VLOOKUP(O5,价值!$B:$G,5,0)&amp;","&amp;P5)</f>
-        <v>coin,12000</v>
-      </c>
-      <c r="W5" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,304,1;coin,12000</v>
-      </c>
-      <c r="X5" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,104,1;coin,12000</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>40000</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="AG5" s="5">
+        <f>VLOOKUP(AE5,价值!$B:$G,6,0)*AF5</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI5" s="5">
         <v>5</v>
       </c>
-      <c r="AD5" s="1">
-        <f>VLOOKUP(AB5,价值!$B:$G,6,0)*AC5</f>
-        <v>300</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG5" s="1">
-        <f>VLOOKUP(AE5,价值!$B:$G,6,0)*AF5</f>
-        <v>90</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="5">
         <f>VLOOKUP(AH5,价值!$B:$G,6,0)*AI5</f>
-        <v>100</v>
-      </c>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1">
+        <v>150</v>
+      </c>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5">
         <f>VLOOKUP(AK5,价值!$B:$G,6,0)*AL5</f>
         <v>0</v>
       </c>
       <c r="AN5" s="2">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>800</v>
       </c>
       <c r="AO5" s="4" t="str">
         <f>VLOOKUP(AB5,价值!$B:$G,3,0)&amp;","&amp;AC5</f>
-        <v>prop,211,5</v>
+        <v>prop,707,2</v>
       </c>
       <c r="AP5" s="3" t="str">
         <f>IF(VLOOKUP(AB5,价值!$B:$G,5,0)=0,AO5,VLOOKUP(AB5,价值!$B:$G,5,0)&amp;","&amp;AC5)</f>
-        <v>prop,211,5</v>
+        <v>prop,707,2</v>
       </c>
       <c r="AQ5" s="4" t="str">
         <f>VLOOKUP(AE5,价值!$B:$G,3,0)&amp;","&amp;AF5</f>
-        <v>prop,207,3</v>
+        <v>prop,313,5</v>
       </c>
       <c r="AR5" s="3" t="str">
         <f>IF(VLOOKUP(AE5,价值!$B:$G,5,0)=0,AQ5,VLOOKUP(AE5,价值!$B:$G,5,0)&amp;","&amp;AF5)</f>
-        <v>prop,207,3</v>
+        <v>prop,313,5</v>
       </c>
       <c r="AS5" s="4" t="str">
-        <f>VLOOKUP(AH5,价值!$B:$G,3,0)&amp;","&amp;AI5</f>
-        <v>coin,5000</v>
+        <f>IF(AH5="","",VLOOKUP(AH5,价值!$B:$G,3,0)&amp;","&amp;AI5)</f>
+        <v>prop,316,5</v>
       </c>
       <c r="AT5" s="3" t="str">
         <f>IF(VLOOKUP(AH5,价值!$B:$G,5,0)=0,AS5,VLOOKUP(AH5,价值!$B:$G,5,0)&amp;","&amp;AI5)</f>
-        <v>coin,5000</v>
-      </c>
-      <c r="AU5" s="2" t="str">
+        <v>prop,316,5</v>
+      </c>
+      <c r="AU5" s="4" t="str">
+        <f>VLOOKUP(AK5,价值!$B:$G,3,0)&amp;","&amp;AL5</f>
+        <v>0,</v>
+      </c>
+      <c r="AV5" s="3" t="str">
+        <f>IF(VLOOKUP(AK5,价值!$B:$G,5,0)=0,AU5,VLOOKUP(AK5,价值!$B:$G,5,0)&amp;","&amp;AL5)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW5" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,211,5;prop,207,3;coin,5000</v>
-      </c>
-      <c r="AV5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,211,5;prop,207,3;coin,5000</v>
-      </c>
-      <c r="AY5" s="4"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,707,2;prop,313,5;prop,316,5</v>
+      </c>
+      <c r="AX5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,2;prop,313,5;prop,316,5</v>
+      </c>
+      <c r="BA5" s="4"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="4">
         <f>D6</f>
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="C6" s="4">
         <f>D6</f>
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="5">
-        <f>SUM(E6:H6)</f>
-        <v>950</v>
-      </c>
-      <c r="E6" s="5">
-        <v>80</v>
-      </c>
-      <c r="F6" s="5">
-        <v>180</v>
-      </c>
-      <c r="G6" s="5">
-        <v>290</v>
-      </c>
-      <c r="H6" s="5">
-        <v>400</v>
-      </c>
-      <c r="J6" s="10">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="AA6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC6" s="1">
         <v>5</v>
-      </c>
-      <c r="K6" s="10">
-        <v>10</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="11">
-        <v>5</v>
-      </c>
-      <c r="N6" s="11">
-        <f>VLOOKUP(L6,价值!$B:$G,6,0)*M6</f>
-        <v>250</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="11">
-        <v>10000</v>
-      </c>
-      <c r="Q6" s="11">
-        <f>VLOOKUP(O6,价值!$B:$G,6,0)*P6</f>
-        <v>200</v>
-      </c>
-      <c r="R6" s="11">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="S6" s="11" t="str">
-        <f>VLOOKUP(L6,价值!$B:$G,3,0)&amp;","&amp;M6</f>
-        <v>pack,303,5</v>
-      </c>
-      <c r="T6" s="11" t="str">
-        <f>IF(VLOOKUP(L6,价值!$B:$G,5,0)=0,S6,VLOOKUP(L6,价值!$B:$G,5,0)&amp;","&amp;M6)</f>
-        <v>item,103,5</v>
-      </c>
-      <c r="U6" s="11" t="str">
-        <f>VLOOKUP(O6,价值!$B:$G,3,0)&amp;","&amp;P6</f>
-        <v>coin,10000</v>
-      </c>
-      <c r="V6" s="11" t="str">
-        <f>IF(VLOOKUP(O6,价值!$B:$G,5,0)=0,U6,VLOOKUP(O6,价值!$B:$G,5,0)&amp;","&amp;P6)</f>
-        <v>coin,10000</v>
-      </c>
-      <c r="W6" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,5;coin,10000</v>
-      </c>
-      <c r="X6" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,5;coin,10000</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2</v>
       </c>
       <c r="AD6" s="1">
         <f>VLOOKUP(AB6,价值!$B:$G,6,0)*AC6</f>
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="1">
         <v>2</v>
       </c>
       <c r="AG6" s="1">
         <f>VLOOKUP(AE6,价值!$B:$G,6,0)*AF6</f>
-        <v>120</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
       <c r="AJ6" s="1">
         <f>VLOOKUP(AH6,价值!$B:$G,6,0)*AI6</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -6976,151 +7119,114 @@
       </c>
       <c r="AN6" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>145</v>
       </c>
       <c r="AO6" s="4" t="str">
         <f>VLOOKUP(AB6,价值!$B:$G,3,0)&amp;","&amp;AC6</f>
-        <v>prop,707,2</v>
+        <v>prop,203,5</v>
       </c>
       <c r="AP6" s="3" t="str">
         <f>IF(VLOOKUP(AB6,价值!$B:$G,5,0)=0,AO6,VLOOKUP(AB6,价值!$B:$G,5,0)&amp;","&amp;AC6)</f>
-        <v>prop,707,2</v>
+        <v>prop,203,5</v>
       </c>
       <c r="AQ6" s="4" t="str">
         <f>VLOOKUP(AE6,价值!$B:$G,3,0)&amp;","&amp;AF6</f>
-        <v>prop,105,2</v>
+        <v>pack,303,2</v>
       </c>
       <c r="AR6" s="3" t="str">
         <f>IF(VLOOKUP(AE6,价值!$B:$G,5,0)=0,AQ6,VLOOKUP(AE6,价值!$B:$G,5,0)&amp;","&amp;AF6)</f>
-        <v>prop,105,2</v>
+        <v>item,103,2</v>
       </c>
       <c r="AS6" s="4" t="str">
-        <f>VLOOKUP(AH6,价值!$B:$G,3,0)&amp;","&amp;AI6</f>
-        <v>pack,303,2</v>
+        <f>IF(AH6="","",VLOOKUP(AH6,价值!$B:$G,3,0)&amp;","&amp;AI6)</f>
+        <v/>
       </c>
       <c r="AT6" s="3" t="str">
         <f>IF(VLOOKUP(AH6,价值!$B:$G,5,0)=0,AS6,VLOOKUP(AH6,价值!$B:$G,5,0)&amp;","&amp;AI6)</f>
-        <v>item,103,2</v>
-      </c>
-      <c r="AU6" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU6" s="4" t="str">
+        <f>VLOOKUP(AK6,价值!$B:$G,3,0)&amp;","&amp;AL6</f>
+        <v>0,</v>
+      </c>
+      <c r="AV6" s="3" t="str">
+        <f>IF(VLOOKUP(AK6,价值!$B:$G,5,0)=0,AU6,VLOOKUP(AK6,价值!$B:$G,5,0)&amp;","&amp;AL6)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW6" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,707,2;prop,105,2;pack,303,2</v>
-      </c>
-      <c r="AV6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,707,2;prop,105,2;item,103,2</v>
-      </c>
-      <c r="AY6" s="4"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,203,5;pack,303,2</v>
+      </c>
+      <c r="AX6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,203,5;item,103,2</v>
+      </c>
+      <c r="BA6" s="4"/>
+    </row>
+    <row r="7" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4">
         <f>B8*积分计算!$K$1*积分计算!$K$7</f>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="C7" s="4">
         <f>C8*积分计算!$K$1*积分计算!$K$7</f>
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="D7" s="4">
         <f>D8*积分计算!$K$1*积分计算!$K$7</f>
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="10">
-        <v>10</v>
-      </c>
-      <c r="K7" s="10">
-        <v>20</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="11">
-        <v>4</v>
-      </c>
-      <c r="N7" s="11">
-        <f>VLOOKUP(L7,价值!$B:$G,6,0)*M7</f>
-        <v>200</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="11">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10"/>
+      <c r="AA7" s="4">
         <v>8000</v>
       </c>
-      <c r="Q7" s="11">
-        <f>VLOOKUP(O7,价值!$B:$G,6,0)*P7</f>
-        <v>160</v>
-      </c>
-      <c r="R7" s="11">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="S7" s="11" t="str">
-        <f>VLOOKUP(L7,价值!$B:$G,3,0)&amp;","&amp;M7</f>
-        <v>pack,303,4</v>
-      </c>
-      <c r="T7" s="11" t="str">
-        <f>IF(VLOOKUP(L7,价值!$B:$G,5,0)=0,S7,VLOOKUP(L7,价值!$B:$G,5,0)&amp;","&amp;M7)</f>
-        <v>item,103,4</v>
-      </c>
-      <c r="U7" s="11" t="str">
-        <f>VLOOKUP(O7,价值!$B:$G,3,0)&amp;","&amp;P7</f>
-        <v>coin,8000</v>
-      </c>
-      <c r="V7" s="11" t="str">
-        <f>IF(VLOOKUP(O7,价值!$B:$G,5,0)=0,U7,VLOOKUP(O7,价值!$B:$G,5,0)&amp;","&amp;P7)</f>
-        <v>coin,8000</v>
-      </c>
-      <c r="W7" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,4;coin,8000</v>
-      </c>
-      <c r="X7" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,4;coin,8000</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>60000</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>116</v>
+      <c r="AB7" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="AC7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="1">
         <f>VLOOKUP(AB7,价值!$B:$G,6,0)*AC7</f>
-        <v>450</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="AF7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="1">
         <f>VLOOKUP(AE7,价值!$B:$G,6,0)*AF7</f>
-        <v>180</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>5000</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
         <f>VLOOKUP(AH7,价值!$B:$G,6,0)*AI7</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
@@ -7130,45 +7236,53 @@
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>180</v>
       </c>
       <c r="AO7" s="4" t="str">
         <f>VLOOKUP(AB7,价值!$B:$G,3,0)&amp;","&amp;AC7</f>
-        <v>prop,302,3</v>
+        <v>prop,307,2</v>
       </c>
       <c r="AP7" s="3" t="str">
         <f>IF(VLOOKUP(AB7,价值!$B:$G,5,0)=0,AO7,VLOOKUP(AB7,价值!$B:$G,5,0)&amp;","&amp;AC7)</f>
-        <v>prop,302,3</v>
+        <v>prop,307,2</v>
       </c>
       <c r="AQ7" s="4" t="str">
         <f>VLOOKUP(AE7,价值!$B:$G,3,0)&amp;","&amp;AF7</f>
-        <v>prop,301,3</v>
+        <v>prop,209,2</v>
       </c>
       <c r="AR7" s="3" t="str">
         <f>IF(VLOOKUP(AE7,价值!$B:$G,5,0)=0,AQ7,VLOOKUP(AE7,价值!$B:$G,5,0)&amp;","&amp;AF7)</f>
-        <v>prop,301,3</v>
+        <v>prop,209,2</v>
       </c>
       <c r="AS7" s="4" t="str">
-        <f>VLOOKUP(AH7,价值!$B:$G,3,0)&amp;","&amp;AI7</f>
-        <v>coin,5000</v>
+        <f>IF(AH7="","",VLOOKUP(AH7,价值!$B:$G,3,0)&amp;","&amp;AI7)</f>
+        <v/>
       </c>
       <c r="AT7" s="3" t="str">
         <f>IF(VLOOKUP(AH7,价值!$B:$G,5,0)=0,AS7,VLOOKUP(AH7,价值!$B:$G,5,0)&amp;","&amp;AI7)</f>
-        <v>coin,5000</v>
-      </c>
-      <c r="AU7" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU7" s="4" t="str">
+        <f>VLOOKUP(AK7,价值!$B:$G,3,0)&amp;","&amp;AL7</f>
+        <v>0,</v>
+      </c>
+      <c r="AV7" s="3" t="str">
+        <f>IF(VLOOKUP(AK7,价值!$B:$G,5,0)=0,AU7,VLOOKUP(AK7,价值!$B:$G,5,0)&amp;","&amp;AL7)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW7" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,302,3;prop,301,3;coin,5000</v>
-      </c>
-      <c r="AV7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,302,3;prop,301,3;coin,5000</v>
-      </c>
-      <c r="AY7" s="4"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,307,2;prop,209,2</v>
+      </c>
+      <c r="AX7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,307,2;prop,209,2</v>
+      </c>
+      <c r="BA7" s="4"/>
+    </row>
+    <row r="8" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5">
         <v>100</v>
@@ -7183,95 +7297,50 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="J8" s="10">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10">
-        <v>50</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="11">
-        <v>3</v>
-      </c>
-      <c r="N8" s="11">
-        <f>VLOOKUP(L8,价值!$B:$G,6,0)*M8</f>
-        <v>150</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="11">
-        <v>6000</v>
-      </c>
-      <c r="Q8" s="11">
-        <f>VLOOKUP(O8,价值!$B:$G,6,0)*P8</f>
-        <v>120</v>
-      </c>
-      <c r="R8" s="11">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="S8" s="11" t="str">
-        <f>VLOOKUP(L8,价值!$B:$G,3,0)&amp;","&amp;M8</f>
-        <v>pack,303,3</v>
-      </c>
-      <c r="T8" s="11" t="str">
-        <f>IF(VLOOKUP(L8,价值!$B:$G,5,0)=0,S8,VLOOKUP(L8,价值!$B:$G,5,0)&amp;","&amp;M8)</f>
-        <v>item,103,3</v>
-      </c>
-      <c r="U8" s="11" t="str">
-        <f>VLOOKUP(O8,价值!$B:$G,3,0)&amp;","&amp;P8</f>
-        <v>coin,6000</v>
-      </c>
-      <c r="V8" s="11" t="str">
-        <f>IF(VLOOKUP(O8,价值!$B:$G,5,0)=0,U8,VLOOKUP(O8,价值!$B:$G,5,0)&amp;","&amp;P8)</f>
-        <v>coin,6000</v>
-      </c>
-      <c r="W8" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,3;coin,6000</v>
-      </c>
-      <c r="X8" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,3;coin,6000</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="10"/>
       <c r="AA8" s="4">
-        <v>70000</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>104</v>
+        <v>12000</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="AC8" s="1">
         <v>2</v>
       </c>
       <c r="AD8" s="1">
         <f>VLOOKUP(AB8,价值!$B:$G,6,0)*AC8</f>
-        <v>500</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="AF8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="1">
         <f>VLOOKUP(AE8,价值!$B:$G,6,0)*AF8</f>
-        <v>54</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
       <c r="AJ8" s="1">
         <f>VLOOKUP(AH8,价值!$B:$G,6,0)*AI8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -7281,267 +7350,197 @@
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="0"/>
-        <v>654</v>
+        <v>180</v>
       </c>
       <c r="AO8" s="4" t="str">
         <f>VLOOKUP(AB8,价值!$B:$G,3,0)&amp;","&amp;AC8</f>
-        <v>prop,707,2</v>
+        <v>prop,310,2</v>
       </c>
       <c r="AP8" s="3" t="str">
         <f>IF(VLOOKUP(AB8,价值!$B:$G,5,0)=0,AO8,VLOOKUP(AB8,价值!$B:$G,5,0)&amp;","&amp;AC8)</f>
-        <v>prop,707,2</v>
+        <v>prop,310,2</v>
       </c>
       <c r="AQ8" s="4" t="str">
         <f>VLOOKUP(AE8,价值!$B:$G,3,0)&amp;","&amp;AF8</f>
-        <v>prop,104,3</v>
+        <v>prop,210,2</v>
       </c>
       <c r="AR8" s="3" t="str">
         <f>IF(VLOOKUP(AE8,价值!$B:$G,5,0)=0,AQ8,VLOOKUP(AE8,价值!$B:$G,5,0)&amp;","&amp;AF8)</f>
-        <v>prop,104,3</v>
+        <v>prop,210,2</v>
       </c>
       <c r="AS8" s="4" t="str">
-        <f>VLOOKUP(AH8,价值!$B:$G,3,0)&amp;","&amp;AI8</f>
-        <v>pack,303,2</v>
+        <f>IF(AH8="","",VLOOKUP(AH8,价值!$B:$G,3,0)&amp;","&amp;AI8)</f>
+        <v/>
       </c>
       <c r="AT8" s="3" t="str">
         <f>IF(VLOOKUP(AH8,价值!$B:$G,5,0)=0,AS8,VLOOKUP(AH8,价值!$B:$G,5,0)&amp;","&amp;AI8)</f>
-        <v>item,103,2</v>
-      </c>
-      <c r="AU8" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU8" s="4" t="str">
+        <f>VLOOKUP(AK8,价值!$B:$G,3,0)&amp;","&amp;AL8</f>
+        <v>0,</v>
+      </c>
+      <c r="AV8" s="3" t="str">
+        <f>IF(VLOOKUP(AK8,价值!$B:$G,5,0)=0,AU8,VLOOKUP(AK8,价值!$B:$G,5,0)&amp;","&amp;AL8)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW8" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,707,2;prop,104,3;pack,303,2</v>
-      </c>
-      <c r="AV8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,707,2;prop,104,3;item,103,2</v>
-      </c>
-      <c r="AY8" s="4"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="J9" s="10">
-        <v>50</v>
-      </c>
-      <c r="K9" s="10">
-        <v>100</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="11">
-        <v>2</v>
-      </c>
-      <c r="N9" s="11">
-        <f>VLOOKUP(L9,价值!$B:$G,6,0)*M9</f>
-        <v>100</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="11">
-        <v>4000</v>
-      </c>
-      <c r="Q9" s="11">
-        <f>VLOOKUP(O9,价值!$B:$G,6,0)*P9</f>
-        <v>80</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="S9" s="11" t="str">
-        <f>VLOOKUP(L9,价值!$B:$G,3,0)&amp;","&amp;M9</f>
-        <v>pack,303,2</v>
-      </c>
-      <c r="T9" s="11" t="str">
-        <f>IF(VLOOKUP(L9,价值!$B:$G,5,0)=0,S9,VLOOKUP(L9,价值!$B:$G,5,0)&amp;","&amp;M9)</f>
-        <v>item,103,2</v>
-      </c>
-      <c r="U9" s="11" t="str">
-        <f>VLOOKUP(O9,价值!$B:$G,3,0)&amp;","&amp;P9</f>
-        <v>coin,4000</v>
-      </c>
-      <c r="V9" s="11" t="str">
-        <f>IF(VLOOKUP(O9,价值!$B:$G,5,0)=0,U9,VLOOKUP(O9,价值!$B:$G,5,0)&amp;","&amp;P9)</f>
-        <v>coin,4000</v>
-      </c>
-      <c r="W9" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,2;coin,4000</v>
-      </c>
-      <c r="X9" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,2;coin,4000</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>80000</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC9" s="1">
+        <v>prop,310,2;prop,210,2</v>
+      </c>
+      <c r="AX8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,310,2;prop,210,2</v>
+      </c>
+      <c r="BA8" s="4"/>
+    </row>
+    <row r="9" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="10"/>
+      <c r="AA9" s="5">
+        <v>16000</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" s="5">
         <v>3</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="5">
         <f>VLOOKUP(AB9,价值!$B:$G,6,0)*AC9</f>
-        <v>1350</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF9" s="5">
         <v>3</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="5">
         <f>VLOOKUP(AE9,价值!$B:$G,6,0)*AF9</f>
-        <v>180</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="AJ9" s="1">
+        <v>270</v>
+      </c>
+      <c r="AH9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="AJ9" s="5">
         <f>VLOOKUP(AH9,价值!$B:$G,6,0)*AI9</f>
-        <v>100</v>
-      </c>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5">
         <f>VLOOKUP(AK9,价值!$B:$G,6,0)*AL9</f>
         <v>0</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="0"/>
-        <v>1630</v>
+        <v>3070</v>
       </c>
       <c r="AO9" s="4" t="str">
         <f>VLOOKUP(AB9,价值!$B:$G,3,0)&amp;","&amp;AC9</f>
-        <v>prop,303,3</v>
+        <v>pack,304,3</v>
       </c>
       <c r="AP9" s="3" t="str">
         <f>IF(VLOOKUP(AB9,价值!$B:$G,5,0)=0,AO9,VLOOKUP(AB9,价值!$B:$G,5,0)&amp;","&amp;AC9)</f>
-        <v>prop,303,3</v>
+        <v>item,104,3</v>
       </c>
       <c r="AQ9" s="4" t="str">
         <f>VLOOKUP(AE9,价值!$B:$G,3,0)&amp;","&amp;AF9</f>
-        <v>prop,206,3</v>
+        <v>prop,314,3</v>
       </c>
       <c r="AR9" s="3" t="str">
         <f>IF(VLOOKUP(AE9,价值!$B:$G,5,0)=0,AQ9,VLOOKUP(AE9,价值!$B:$G,5,0)&amp;","&amp;AF9)</f>
-        <v>prop,206,3</v>
+        <v>prop,314,3</v>
       </c>
       <c r="AS9" s="4" t="str">
-        <f>VLOOKUP(AH9,价值!$B:$G,3,0)&amp;","&amp;AI9</f>
-        <v>coin,5000</v>
+        <f>IF(AH9="","",VLOOKUP(AH9,价值!$B:$G,3,0)&amp;","&amp;AI9)</f>
+        <v>coin,50000</v>
       </c>
       <c r="AT9" s="3" t="str">
         <f>IF(VLOOKUP(AH9,价值!$B:$G,5,0)=0,AS9,VLOOKUP(AH9,价值!$B:$G,5,0)&amp;","&amp;AI9)</f>
-        <v>coin,5000</v>
-      </c>
-      <c r="AU9" s="2" t="str">
+        <v>coin,50000</v>
+      </c>
+      <c r="AU9" s="4" t="str">
+        <f>VLOOKUP(AK9,价值!$B:$G,3,0)&amp;","&amp;AL9</f>
+        <v>0,</v>
+      </c>
+      <c r="AV9" s="3" t="str">
+        <f>IF(VLOOKUP(AK9,价值!$B:$G,5,0)=0,AU9,VLOOKUP(AK9,价值!$B:$G,5,0)&amp;","&amp;AL9)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW9" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,303,3;prop,206,3;coin,5000</v>
-      </c>
-      <c r="AV9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,303,3;prop,206,3;coin,5000</v>
-      </c>
-      <c r="AY9" s="4"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="J10" s="10">
-        <v>100</v>
-      </c>
-      <c r="K10" s="10">
-        <v>200</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11">
-        <f>VLOOKUP(L10,价值!$B:$G,6,0)*M10</f>
-        <v>50</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="11">
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="11">
-        <f>VLOOKUP(O10,价值!$B:$G,6,0)*P10</f>
-        <v>60</v>
-      </c>
-      <c r="R10" s="11">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="S10" s="11" t="str">
-        <f>VLOOKUP(L10,价值!$B:$G,3,0)&amp;","&amp;M10</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="T10" s="11" t="str">
-        <f>IF(VLOOKUP(L10,价值!$B:$G,5,0)=0,S10,VLOOKUP(L10,价值!$B:$G,5,0)&amp;","&amp;M10)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="U10" s="11" t="str">
-        <f>VLOOKUP(O10,价值!$B:$G,3,0)&amp;","&amp;P10</f>
-        <v>coin,3000</v>
-      </c>
-      <c r="V10" s="11" t="str">
-        <f>IF(VLOOKUP(O10,价值!$B:$G,5,0)=0,U10,VLOOKUP(O10,价值!$B:$G,5,0)&amp;","&amp;P10)</f>
-        <v>coin,3000</v>
-      </c>
-      <c r="W10" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,1;coin,3000</v>
-      </c>
-      <c r="X10" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,1;coin,3000</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
+        <v>pack,304,3;prop,314,3;coin,50000</v>
+      </c>
+      <c r="AX9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>item,104,3;prop,314,3;coin,50000</v>
+      </c>
+      <c r="BA9" s="4"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="10"/>
       <c r="AA10" s="4">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="AC10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="1">
         <f>VLOOKUP(AB10,价值!$B:$G,6,0)*AC10</f>
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AF10" s="1">
         <v>2</v>
       </c>
       <c r="AG10" s="1">
         <f>VLOOKUP(AE10,价值!$B:$G,6,0)*AF10</f>
-        <v>120</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>100</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="1">
         <f>VLOOKUP(AH10,价值!$B:$G,6,0)*AI10</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -7551,132 +7550,95 @@
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="AO10" s="4" t="str">
         <f>VLOOKUP(AB10,价值!$B:$G,3,0)&amp;","&amp;AC10</f>
-        <v>prop,707,2</v>
+        <v>prop,204,5</v>
       </c>
       <c r="AP10" s="3" t="str">
         <f>IF(VLOOKUP(AB10,价值!$B:$G,5,0)=0,AO10,VLOOKUP(AB10,价值!$B:$G,5,0)&amp;","&amp;AC10)</f>
-        <v>prop,707,2</v>
+        <v>prop,204,5</v>
       </c>
       <c r="AQ10" s="4" t="str">
         <f>VLOOKUP(AE10,价值!$B:$G,3,0)&amp;","&amp;AF10</f>
-        <v>prop,105,2</v>
+        <v>prop,322,2</v>
       </c>
       <c r="AR10" s="3" t="str">
         <f>IF(VLOOKUP(AE10,价值!$B:$G,5,0)=0,AQ10,VLOOKUP(AE10,价值!$B:$G,5,0)&amp;","&amp;AF10)</f>
-        <v>prop,105,2</v>
+        <v>prop,322,2</v>
       </c>
       <c r="AS10" s="4" t="str">
-        <f>VLOOKUP(AH10,价值!$B:$G,3,0)&amp;","&amp;AI10</f>
-        <v>cash,100</v>
+        <f>IF(AH10="","",VLOOKUP(AH10,价值!$B:$G,3,0)&amp;","&amp;AI10)</f>
+        <v/>
       </c>
       <c r="AT10" s="3" t="str">
         <f>IF(VLOOKUP(AH10,价值!$B:$G,5,0)=0,AS10,VLOOKUP(AH10,价值!$B:$G,5,0)&amp;","&amp;AI10)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU10" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU10" s="4" t="str">
+        <f>VLOOKUP(AK10,价值!$B:$G,3,0)&amp;","&amp;AL10</f>
+        <v>0,</v>
+      </c>
+      <c r="AV10" s="3" t="str">
+        <f>IF(VLOOKUP(AK10,价值!$B:$G,5,0)=0,AU10,VLOOKUP(AK10,价值!$B:$G,5,0)&amp;","&amp;AL10)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,707,2;prop,105,2;cash,100</v>
-      </c>
-      <c r="AV10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,707,2;prop,105,2;cash,100</v>
-      </c>
-      <c r="AY10" s="4"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="J11" s="10">
-        <v>200</v>
-      </c>
-      <c r="K11" s="10">
-        <v>500</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="11">
-        <v>1</v>
-      </c>
-      <c r="N11" s="11">
-        <f>VLOOKUP(L11,价值!$B:$G,6,0)*M11</f>
-        <v>50</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2000</v>
-      </c>
-      <c r="Q11" s="11">
-        <f>VLOOKUP(O11,价值!$B:$G,6,0)*P11</f>
-        <v>40</v>
-      </c>
-      <c r="R11" s="11">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="S11" s="11" t="str">
-        <f>VLOOKUP(L11,价值!$B:$G,3,0)&amp;","&amp;M11</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="T11" s="11" t="str">
-        <f>IF(VLOOKUP(L11,价值!$B:$G,5,0)=0,S11,VLOOKUP(L11,价值!$B:$G,5,0)&amp;","&amp;M11)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="U11" s="11" t="str">
-        <f>VLOOKUP(O11,价值!$B:$G,3,0)&amp;","&amp;P11</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="V11" s="11" t="str">
-        <f>IF(VLOOKUP(O11,价值!$B:$G,5,0)=0,U11,VLOOKUP(O11,价值!$B:$G,5,0)&amp;","&amp;P11)</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="W11" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,1;coin,2000</v>
-      </c>
-      <c r="X11" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,1;coin,2000</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>prop,204,5;prop,322,2</v>
+      </c>
+      <c r="AX10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,204,5;prop,322,2</v>
+      </c>
+      <c r="BA10" s="4"/>
+    </row>
+    <row r="11" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="10"/>
       <c r="AA11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>114</v>
+        <v>25000</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="AC11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="1">
         <f>VLOOKUP(AB11,价值!$B:$G,6,0)*AC11</f>
-        <v>900</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>115</v>
+        <v>300</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="AF11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="1">
         <f>VLOOKUP(AE11,价值!$B:$G,6,0)*AF11</f>
-        <v>450</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI11" s="1">
         <v>100</v>
       </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
       <c r="AJ11" s="1">
         <f>VLOOKUP(AH11,价值!$B:$G,6,0)*AI11</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -7686,135 +7648,98 @@
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>400</v>
       </c>
       <c r="AO11" s="4" t="str">
         <f>VLOOKUP(AB11,价值!$B:$G,3,0)&amp;","&amp;AC11</f>
-        <v>prop,323,3</v>
+        <v>prop,302,2</v>
       </c>
       <c r="AP11" s="3" t="str">
         <f>IF(VLOOKUP(AB11,价值!$B:$G,5,0)=0,AO11,VLOOKUP(AB11,价值!$B:$G,5,0)&amp;","&amp;AC11)</f>
-        <v>prop,323,3</v>
+        <v>prop,302,2</v>
       </c>
       <c r="AQ11" s="4" t="str">
         <f>VLOOKUP(AE11,价值!$B:$G,3,0)&amp;","&amp;AF11</f>
-        <v>prop,322,3</v>
+        <v>prop,701,2</v>
       </c>
       <c r="AR11" s="3" t="str">
         <f>IF(VLOOKUP(AE11,价值!$B:$G,5,0)=0,AQ11,VLOOKUP(AE11,价值!$B:$G,5,0)&amp;","&amp;AF11)</f>
-        <v>prop,322,3</v>
+        <v>prop,701,2</v>
       </c>
       <c r="AS11" s="4" t="str">
-        <f>VLOOKUP(AH11,价值!$B:$G,3,0)&amp;","&amp;AI11</f>
-        <v>cash,100</v>
+        <f>IF(AH11="","",VLOOKUP(AH11,价值!$B:$G,3,0)&amp;","&amp;AI11)</f>
+        <v/>
       </c>
       <c r="AT11" s="3" t="str">
         <f>IF(VLOOKUP(AH11,价值!$B:$G,5,0)=0,AS11,VLOOKUP(AH11,价值!$B:$G,5,0)&amp;","&amp;AI11)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU11" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU11" s="4" t="str">
+        <f>VLOOKUP(AK11,价值!$B:$G,3,0)&amp;","&amp;AL11</f>
+        <v>0,</v>
+      </c>
+      <c r="AV11" s="3" t="str">
+        <f>IF(VLOOKUP(AK11,价值!$B:$G,5,0)=0,AU11,VLOOKUP(AK11,价值!$B:$G,5,0)&amp;","&amp;AL11)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,323,3;prop,322,3;cash,100</v>
-      </c>
-      <c r="AV11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,323,3;prop,322,3;cash,100</v>
-      </c>
-      <c r="AY11" s="4"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,302,2;prop,701,2</v>
+      </c>
+      <c r="AX11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,302,2;prop,701,2</v>
+      </c>
+      <c r="BA11" s="4"/>
+    </row>
+    <row r="12" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="10">
-        <v>500</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11">
-        <f>VLOOKUP(L12,价值!$B:$G,6,0)*M12</f>
-        <v>50</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="11">
-        <f>VLOOKUP(O12,价值!$B:$G,6,0)*P12</f>
-        <v>20</v>
-      </c>
-      <c r="R12" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="S12" s="11" t="str">
-        <f>VLOOKUP(L12,价值!$B:$G,3,0)&amp;","&amp;M12</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="T12" s="11" t="str">
-        <f>IF(VLOOKUP(L12,价值!$B:$G,5,0)=0,S12,VLOOKUP(L12,价值!$B:$G,5,0)&amp;","&amp;M12)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="U12" s="11" t="str">
-        <f>VLOOKUP(O12,价值!$B:$G,3,0)&amp;","&amp;P12</f>
-        <v>coin,1000</v>
-      </c>
-      <c r="V12" s="11" t="str">
-        <f>IF(VLOOKUP(O12,价值!$B:$G,5,0)=0,U12,VLOOKUP(O12,价值!$B:$G,5,0)&amp;","&amp;P12)</f>
-        <v>coin,1000</v>
-      </c>
-      <c r="W12" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,1;coin,1000</v>
-      </c>
-      <c r="X12" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,1;coin,1000</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="10"/>
       <c r="AA12" s="4">
-        <v>110000</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>79</v>
+        <v>30000</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="AC12" s="1">
         <v>2</v>
       </c>
       <c r="AD12" s="1">
         <f>VLOOKUP(AB12,价值!$B:$G,6,0)*AC12</f>
-        <v>1200</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>89</v>
+        <v>300</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="AF12" s="1">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="1">
         <f>VLOOKUP(AE12,价值!$B:$G,6,0)*AF12</f>
-        <v>400</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>100</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="1">
         <f>VLOOKUP(AH12,价值!$B:$G,6,0)*AI12</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -7824,153 +7749,120 @@
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>425</v>
       </c>
       <c r="AO12" s="4" t="str">
         <f>VLOOKUP(AB12,价值!$B:$G,3,0)&amp;","&amp;AC12</f>
-        <v>pack,304,2</v>
+        <v>prop,305,2</v>
       </c>
       <c r="AP12" s="3" t="str">
         <f>IF(VLOOKUP(AB12,价值!$B:$G,5,0)=0,AO12,VLOOKUP(AB12,价值!$B:$G,5,0)&amp;","&amp;AC12)</f>
-        <v>item,104,2</v>
+        <v>prop,305,2</v>
       </c>
       <c r="AQ12" s="4" t="str">
         <f>VLOOKUP(AE12,价值!$B:$G,3,0)&amp;","&amp;AF12</f>
-        <v>coin,20000</v>
+        <v>prop,603,1</v>
       </c>
       <c r="AR12" s="3" t="str">
         <f>IF(VLOOKUP(AE12,价值!$B:$G,5,0)=0,AQ12,VLOOKUP(AE12,价值!$B:$G,5,0)&amp;","&amp;AF12)</f>
-        <v>coin,20000</v>
+        <v>prop,603,1</v>
       </c>
       <c r="AS12" s="4" t="str">
-        <f>VLOOKUP(AH12,价值!$B:$G,3,0)&amp;","&amp;AI12</f>
-        <v>cash,100</v>
+        <f>IF(AH12="","",VLOOKUP(AH12,价值!$B:$G,3,0)&amp;","&amp;AI12)</f>
+        <v/>
       </c>
       <c r="AT12" s="3" t="str">
         <f>IF(VLOOKUP(AH12,价值!$B:$G,5,0)=0,AS12,VLOOKUP(AH12,价值!$B:$G,5,0)&amp;","&amp;AI12)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU12" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU12" s="4" t="str">
+        <f>VLOOKUP(AK12,价值!$B:$G,3,0)&amp;","&amp;AL12</f>
+        <v>0,</v>
+      </c>
+      <c r="AV12" s="3" t="str">
+        <f>IF(VLOOKUP(AK12,价值!$B:$G,5,0)=0,AU12,VLOOKUP(AK12,价值!$B:$G,5,0)&amp;","&amp;AL12)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>pack,304,2;coin,20000;cash,100</v>
-      </c>
-      <c r="AV12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>item,104,2;coin,20000;cash,100</v>
-      </c>
-      <c r="AY12" s="4"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,305,2;prop,603,1</v>
+      </c>
+      <c r="AX12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,305,2;prop,603,1</v>
+      </c>
+      <c r="BA12" s="4"/>
+    </row>
+    <row r="13" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>22900</v>
       </c>
-      <c r="J13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="10">
-        <v>9999</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="11">
-        <v>1</v>
-      </c>
-      <c r="N13" s="11">
-        <f>VLOOKUP(L13,价值!$B:$G,6,0)*M13</f>
-        <v>50</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="11">
-        <v>500</v>
-      </c>
-      <c r="Q13" s="11">
-        <f>VLOOKUP(O13,价值!$B:$G,6,0)*P13</f>
-        <v>10</v>
-      </c>
-      <c r="R13" s="11">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="S13" s="11" t="str">
-        <f>VLOOKUP(L13,价值!$B:$G,3,0)&amp;","&amp;M13</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="T13" s="11" t="str">
-        <f>IF(VLOOKUP(L13,价值!$B:$G,5,0)=0,S13,VLOOKUP(L13,价值!$B:$G,5,0)&amp;","&amp;M13)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="U13" s="11" t="str">
-        <f>VLOOKUP(O13,价值!$B:$G,3,0)&amp;","&amp;P13</f>
-        <v>coin,500</v>
-      </c>
-      <c r="V13" s="11" t="str">
-        <f>IF(VLOOKUP(O13,价值!$B:$G,5,0)=0,U13,VLOOKUP(O13,价值!$B:$G,5,0)&amp;","&amp;P13)</f>
-        <v>coin,500</v>
-      </c>
-      <c r="W13" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>pack,303,1;coin,500</v>
-      </c>
-      <c r="X13" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>item,103,1;coin,500</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>120000</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="1">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="10"/>
+      <c r="AA13" s="5">
+        <v>35000</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="5">
         <f>VLOOKUP(AB13,价值!$B:$G,6,0)*AC13</f>
-        <v>720</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF13" s="1">
+        <v>750</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF13" s="5">
         <v>3</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="5">
         <f>VLOOKUP(AE13,价值!$B:$G,6,0)*AF13</f>
         <v>270</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>100</v>
-      </c>
-      <c r="AJ13" s="1">
+      <c r="AH13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>200</v>
+      </c>
+      <c r="AJ13" s="5">
         <f>VLOOKUP(AH13,价值!$B:$G,6,0)*AI13</f>
-        <v>100</v>
-      </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1">
+        <v>200</v>
+      </c>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5">
         <f>VLOOKUP(AK13,价值!$B:$G,6,0)*AL13</f>
         <v>0</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" si="0"/>
-        <v>1090</v>
+        <v>1220</v>
       </c>
       <c r="AO13" s="4" t="str">
         <f>VLOOKUP(AB13,价值!$B:$G,3,0)&amp;","&amp;AC13</f>
-        <v>prop,318,2</v>
+        <v>prop,707,3</v>
       </c>
       <c r="AP13" s="3" t="str">
         <f>IF(VLOOKUP(AB13,价值!$B:$G,5,0)=0,AO13,VLOOKUP(AB13,价值!$B:$G,5,0)&amp;","&amp;AC13)</f>
-        <v>prop,318,2</v>
+        <v>prop,707,3</v>
       </c>
       <c r="AQ13" s="4" t="str">
         <f>VLOOKUP(AE13,价值!$B:$G,3,0)&amp;","&amp;AF13</f>
@@ -7981,56 +7873,60 @@
         <v>prop,317,3</v>
       </c>
       <c r="AS13" s="4" t="str">
-        <f>VLOOKUP(AH13,价值!$B:$G,3,0)&amp;","&amp;AI13</f>
-        <v>cash,100</v>
+        <f>IF(AH13="","",VLOOKUP(AH13,价值!$B:$G,3,0)&amp;","&amp;AI13)</f>
+        <v>cash,200</v>
       </c>
       <c r="AT13" s="3" t="str">
         <f>IF(VLOOKUP(AH13,价值!$B:$G,5,0)=0,AS13,VLOOKUP(AH13,价值!$B:$G,5,0)&amp;","&amp;AI13)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU13" s="2" t="str">
+        <v>cash,200</v>
+      </c>
+      <c r="AU13" s="4" t="str">
+        <f>VLOOKUP(AK13,价值!$B:$G,3,0)&amp;","&amp;AL13</f>
+        <v>0,</v>
+      </c>
+      <c r="AV13" s="3" t="str">
+        <f>IF(VLOOKUP(AK13,价值!$B:$G,5,0)=0,AU13,VLOOKUP(AK13,价值!$B:$G,5,0)&amp;","&amp;AL13)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,318,2;prop,317,3;cash,100</v>
-      </c>
-      <c r="AV13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,318,2;prop,317,3;cash,100</v>
-      </c>
-      <c r="AY13" s="4"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+        <v>prop,707,3;prop,317,3;cash,200</v>
+      </c>
+      <c r="AX13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,3;prop,317,3;cash,200</v>
+      </c>
+      <c r="BA13" s="4"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.15">
       <c r="AA14" s="4">
-        <v>130000</v>
+        <v>40000</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="1">
         <f>VLOOKUP(AB14,价值!$B:$G,6,0)*AC14</f>
-        <v>1200</v>
+        <v>90</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AF14" s="1">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="1">
         <f>VLOOKUP(AE14,价值!$B:$G,6,0)*AF14</f>
-        <v>600</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI14" s="1">
         <v>100</v>
       </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1">
         <f>VLOOKUP(AH14,价值!$B:$G,6,0)*AI14</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -8040,75 +7936,79 @@
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>190</v>
       </c>
       <c r="AO14" s="4" t="str">
         <f>VLOOKUP(AB14,价值!$B:$G,3,0)&amp;","&amp;AC14</f>
-        <v>pack,304,2</v>
+        <v>prop,205,3</v>
       </c>
       <c r="AP14" s="3" t="str">
         <f>IF(VLOOKUP(AB14,价值!$B:$G,5,0)=0,AO14,VLOOKUP(AB14,价值!$B:$G,5,0)&amp;","&amp;AC14)</f>
-        <v>item,104,2</v>
+        <v>prop,205,3</v>
       </c>
       <c r="AQ14" s="4" t="str">
         <f>VLOOKUP(AE14,价值!$B:$G,3,0)&amp;","&amp;AF14</f>
-        <v>coin,30000</v>
+        <v>pack,303,2</v>
       </c>
       <c r="AR14" s="3" t="str">
         <f>IF(VLOOKUP(AE14,价值!$B:$G,5,0)=0,AQ14,VLOOKUP(AE14,价值!$B:$G,5,0)&amp;","&amp;AF14)</f>
-        <v>coin,30000</v>
+        <v>item,103,2</v>
       </c>
       <c r="AS14" s="4" t="str">
-        <f>VLOOKUP(AH14,价值!$B:$G,3,0)&amp;","&amp;AI14</f>
-        <v>cash,100</v>
+        <f>IF(AH14="","",VLOOKUP(AH14,价值!$B:$G,3,0)&amp;","&amp;AI14)</f>
+        <v/>
       </c>
       <c r="AT14" s="3" t="str">
         <f>IF(VLOOKUP(AH14,价值!$B:$G,5,0)=0,AS14,VLOOKUP(AH14,价值!$B:$G,5,0)&amp;","&amp;AI14)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU14" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU14" s="4" t="str">
+        <f>VLOOKUP(AK14,价值!$B:$G,3,0)&amp;","&amp;AL14</f>
+        <v>0,</v>
+      </c>
+      <c r="AV14" s="3" t="str">
+        <f>IF(VLOOKUP(AK14,价值!$B:$G,5,0)=0,AU14,VLOOKUP(AK14,价值!$B:$G,5,0)&amp;","&amp;AL14)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>pack,304,2;coin,30000;cash,100</v>
-      </c>
-      <c r="AV14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>item,104,2;coin,30000;cash,100</v>
-      </c>
-      <c r="AY14" s="4"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="AA15" s="4">
-        <v>140000</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>73</v>
+        <v>prop,205,3;pack,303,2</v>
+      </c>
+      <c r="AX14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,205,3;item,103,2</v>
+      </c>
+      <c r="BA14" s="4"/>
+    </row>
+    <row r="15" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+      <c r="AA15" s="6">
+        <v>48000</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="AC15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
         <f>VLOOKUP(AB15,价值!$B:$G,6,0)*AC15</f>
-        <v>1080</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="AF15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="1">
         <f>VLOOKUP(AE15,价值!$B:$G,6,0)*AF15</f>
-        <v>270</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>100</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1">
         <f>VLOOKUP(AH15,价值!$B:$G,6,0)*AI15</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -8118,87 +8018,92 @@
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>270</v>
       </c>
       <c r="AO15" s="4" t="str">
         <f>VLOOKUP(AB15,价值!$B:$G,3,0)&amp;","&amp;AC15</f>
-        <v>prop,315,3</v>
+        <v>prop,308,1</v>
       </c>
       <c r="AP15" s="3" t="str">
         <f>IF(VLOOKUP(AB15,价值!$B:$G,5,0)=0,AO15,VLOOKUP(AB15,价值!$B:$G,5,0)&amp;","&amp;AC15)</f>
-        <v>prop,315,3</v>
+        <v>prop,308,1</v>
       </c>
       <c r="AQ15" s="4" t="str">
         <f>VLOOKUP(AE15,价值!$B:$G,3,0)&amp;","&amp;AF15</f>
-        <v>prop,314,3</v>
+        <v>prop,213,2</v>
       </c>
       <c r="AR15" s="3" t="str">
         <f>IF(VLOOKUP(AE15,价值!$B:$G,5,0)=0,AQ15,VLOOKUP(AE15,价值!$B:$G,5,0)&amp;","&amp;AF15)</f>
-        <v>prop,314,3</v>
+        <v>prop,213,2</v>
       </c>
       <c r="AS15" s="4" t="str">
-        <f>VLOOKUP(AH15,价值!$B:$G,3,0)&amp;","&amp;AI15</f>
-        <v>cash,100</v>
+        <f>IF(AH15="","",VLOOKUP(AH15,价值!$B:$G,3,0)&amp;","&amp;AI15)</f>
+        <v/>
       </c>
       <c r="AT15" s="3" t="str">
         <f>IF(VLOOKUP(AH15,价值!$B:$G,5,0)=0,AS15,VLOOKUP(AH15,价值!$B:$G,5,0)&amp;","&amp;AI15)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU15" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU15" s="4" t="str">
+        <f>VLOOKUP(AK15,价值!$B:$G,3,0)&amp;","&amp;AL15</f>
+        <v>0,</v>
+      </c>
+      <c r="AV15" s="3" t="str">
+        <f>IF(VLOOKUP(AK15,价值!$B:$G,5,0)=0,AU15,VLOOKUP(AK15,价值!$B:$G,5,0)&amp;","&amp;AL15)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>prop,315,3;prop,314,3;cash,100</v>
-      </c>
-      <c r="AV15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>prop,315,3;prop,314,3;cash,100</v>
-      </c>
-      <c r="AY15" s="4">
+        <v>prop,308,1;prop,213,2</v>
+      </c>
+      <c r="AX15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,308,1;prop,213,2</v>
+      </c>
+      <c r="BA15" s="4">
         <f>积分计算!K11</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="G16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="AA16" s="4">
-        <v>150000</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>79</v>
+        <v>56000</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="AC16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1">
         <f>VLOOKUP(AB16,价值!$B:$G,6,0)*AC16</f>
-        <v>1200</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>89</v>
+        <v>150</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="AF16" s="1">
-        <v>50000</v>
+        <v>2</v>
       </c>
       <c r="AG16" s="1">
         <f>VLOOKUP(AE16,价值!$B:$G,6,0)*AF16</f>
-        <v>1000</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>100</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1">
         <f>VLOOKUP(AH16,价值!$B:$G,6,0)*AI16</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -8208,76 +8113,86 @@
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>270</v>
       </c>
       <c r="AO16" s="4" t="str">
         <f>VLOOKUP(AB16,价值!$B:$G,3,0)&amp;","&amp;AC16</f>
-        <v>pack,304,2</v>
+        <v>prop,311,1</v>
       </c>
       <c r="AP16" s="3" t="str">
         <f>IF(VLOOKUP(AB16,价值!$B:$G,5,0)=0,AO16,VLOOKUP(AB16,价值!$B:$G,5,0)&amp;","&amp;AC16)</f>
-        <v>item,104,2</v>
+        <v>prop,311,1</v>
       </c>
       <c r="AQ16" s="4" t="str">
         <f>VLOOKUP(AE16,价值!$B:$G,3,0)&amp;","&amp;AF16</f>
-        <v>coin,50000</v>
+        <v>prop,214,2</v>
       </c>
       <c r="AR16" s="3" t="str">
         <f>IF(VLOOKUP(AE16,价值!$B:$G,5,0)=0,AQ16,VLOOKUP(AE16,价值!$B:$G,5,0)&amp;","&amp;AF16)</f>
-        <v>coin,50000</v>
+        <v>prop,214,2</v>
       </c>
       <c r="AS16" s="4" t="str">
-        <f>VLOOKUP(AH16,价值!$B:$G,3,0)&amp;","&amp;AI16</f>
-        <v>cash,100</v>
+        <f>IF(AH16="","",VLOOKUP(AH16,价值!$B:$G,3,0)&amp;","&amp;AI16)</f>
+        <v/>
       </c>
       <c r="AT16" s="3" t="str">
         <f>IF(VLOOKUP(AH16,价值!$B:$G,5,0)=0,AS16,VLOOKUP(AH16,价值!$B:$G,5,0)&amp;","&amp;AI16)</f>
-        <v>cash,100</v>
-      </c>
-      <c r="AU16" s="2" t="str">
+        <v/>
+      </c>
+      <c r="AU16" s="4" t="str">
+        <f>VLOOKUP(AK16,价值!$B:$G,3,0)&amp;","&amp;AL16</f>
+        <v>0,</v>
+      </c>
+      <c r="AV16" s="3" t="str">
+        <f>IF(VLOOKUP(AK16,价值!$B:$G,5,0)=0,AU16,VLOOKUP(AK16,价值!$B:$G,5,0)&amp;","&amp;AL16)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>pack,304,2;coin,50000;cash,100</v>
-      </c>
-      <c r="AV16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>item,104,2;coin,50000;cash,100</v>
-      </c>
-      <c r="AY16" s="5">
+        <v>prop,311,1;prop,214,2</v>
+      </c>
+      <c r="AX16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,311,1;prop,214,2</v>
+      </c>
+      <c r="BA16" s="5">
         <f>D3</f>
-        <v>16650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.15">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2">
         <v>50</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>29</v>
@@ -8292,1333 +8207,1151 @@
         <v>30</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="4">
-        <f>SUM(AN2:AN16)</f>
-        <v>16423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>64000</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="5">
+        <f>VLOOKUP(AB17,价值!$B:$G,6,0)*AC17</f>
+        <v>1800</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="5">
+        <f>VLOOKUP(AE17,价值!$B:$G,6,0)*AF17</f>
+        <v>720</v>
+      </c>
+      <c r="AH17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>50000</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f>VLOOKUP(AH17,价值!$B:$G,6,0)*AI17</f>
+        <v>1000</v>
+      </c>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5">
+        <f>VLOOKUP(AK17,价值!$B:$G,6,0)*AL17</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AO17" s="4" t="str">
+        <f>VLOOKUP(AB17,价值!$B:$G,3,0)&amp;","&amp;AC17</f>
+        <v>pack,304,3</v>
+      </c>
+      <c r="AP17" s="3" t="str">
+        <f>IF(VLOOKUP(AB17,价值!$B:$G,5,0)=0,AO17,VLOOKUP(AB17,价值!$B:$G,5,0)&amp;","&amp;AC17)</f>
+        <v>item,104,3</v>
+      </c>
+      <c r="AQ17" s="4" t="str">
+        <f>VLOOKUP(AE17,价值!$B:$G,3,0)&amp;","&amp;AF17</f>
+        <v>prop,315,2</v>
+      </c>
+      <c r="AR17" s="3" t="str">
+        <f>IF(VLOOKUP(AE17,价值!$B:$G,5,0)=0,AQ17,VLOOKUP(AE17,价值!$B:$G,5,0)&amp;","&amp;AF17)</f>
+        <v>prop,315,2</v>
+      </c>
+      <c r="AS17" s="4" t="str">
+        <f>IF(AH17="","",VLOOKUP(AH17,价值!$B:$G,3,0)&amp;","&amp;AI17)</f>
+        <v>coin,50000</v>
+      </c>
+      <c r="AT17" s="3" t="str">
+        <f>IF(VLOOKUP(AH17,价值!$B:$G,5,0)=0,AS17,VLOOKUP(AH17,价值!$B:$G,5,0)&amp;","&amp;AI17)</f>
+        <v>coin,50000</v>
+      </c>
+      <c r="AU17" s="4" t="str">
+        <f>VLOOKUP(AK17,价值!$B:$G,3,0)&amp;","&amp;AL17</f>
+        <v>0,</v>
+      </c>
+      <c r="AV17" s="3" t="str">
+        <f>IF(VLOOKUP(AK17,价值!$B:$G,5,0)=0,AU17,VLOOKUP(AK17,价值!$B:$G,5,0)&amp;","&amp;AL17)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>pack,304,3;prop,315,2;coin,50000</v>
+      </c>
+      <c r="AX17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>item,104,3;prop,315,2;coin,50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <f>220</f>
         <v>220</v>
       </c>
-      <c r="J18" s="2">
+      <c r="G18" s="2">
         <f>E6</f>
-        <v>80</v>
-      </c>
-      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="4">
-        <v>50</v>
-      </c>
-      <c r="N18" s="4">
-        <f>VLOOKUP(L18,价值!$B:$G,6,0)*M18</f>
-        <v>50</v>
-      </c>
+      <c r="I18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="4">
         <f>VLOOKUP(O18,价值!$B:$G,6,0)*P18</f>
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="R18" s="2">
-        <f>M18+Q18</f>
-        <v>86</v>
+        <f>M18+Q18+K18</f>
+        <v>200</v>
       </c>
       <c r="S18" s="2" t="str">
         <f>VLOOKUP(L18,价值!$B:$G,3,0)&amp;","&amp;M18</f>
-        <v>cash,50</v>
+        <v>0,</v>
       </c>
       <c r="T18" s="2" t="str">
         <f>IF(VLOOKUP(L18,价值!$B:$G,5,0)=0,S18,VLOOKUP(L18,价值!$B:$G,5,0)&amp;","&amp;M18)</f>
-        <v>cash,50</v>
+        <v>0,</v>
       </c>
       <c r="U18" s="2" t="str">
         <f>VLOOKUP(O18,价值!$B:$G,3,0)&amp;","&amp;P18</f>
-        <v>prop,104,2</v>
+        <v>pack,303,4</v>
       </c>
       <c r="V18" s="2" t="str">
         <f>IF(VLOOKUP(O18,价值!$B:$G,5,0)=0,U18,VLOOKUP(O18,价值!$B:$G,5,0)&amp;","&amp;P18)</f>
-        <v>prop,104,2</v>
-      </c>
-      <c r="W18" s="2" t="str">
-        <f>S18&amp;";"&amp;U18</f>
-        <v>cash,50;prop,104,2</v>
-      </c>
-      <c r="X18" s="2" t="str">
-        <f>T18&amp;";"&amp;V18</f>
-        <v>cash,50;prop,104,2</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="J19" s="2">
+        <v>item,103,4</v>
+      </c>
+      <c r="W18" s="14" t="str">
+        <f>J18</f>
+        <v>equip,231;equip,232;equip,233;equip,234</v>
+      </c>
+      <c r="X18" s="14" t="str">
+        <f>J18</f>
+        <v>equip,231;equip,232;equip,233;equip,234</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>72000</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>VLOOKUP(AB18,价值!$B:$G,6,0)*AC18</f>
+        <v>300</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
+        <f>VLOOKUP(AE18,价值!$B:$G,6,0)*AF18</f>
+        <v>300</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1">
+        <f>VLOOKUP(AH18,价值!$B:$G,6,0)*AI18</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1">
+        <f>VLOOKUP(AK18,价值!$B:$G,6,0)*AL18</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="AO18" s="4" t="str">
+        <f>VLOOKUP(AB18,价值!$B:$G,3,0)&amp;","&amp;AC18</f>
+        <v>prop,206,5</v>
+      </c>
+      <c r="AP18" s="3" t="str">
+        <f>IF(VLOOKUP(AB18,价值!$B:$G,5,0)=0,AO18,VLOOKUP(AB18,价值!$B:$G,5,0)&amp;","&amp;AC18)</f>
+        <v>prop,206,5</v>
+      </c>
+      <c r="AQ18" s="4" t="str">
+        <f>VLOOKUP(AE18,价值!$B:$G,3,0)&amp;","&amp;AF18</f>
+        <v>prop,323,1</v>
+      </c>
+      <c r="AR18" s="3" t="str">
+        <f>IF(VLOOKUP(AE18,价值!$B:$G,5,0)=0,AQ18,VLOOKUP(AE18,价值!$B:$G,5,0)&amp;","&amp;AF18)</f>
+        <v>prop,323,1</v>
+      </c>
+      <c r="AS18" s="4" t="str">
+        <f>IF(AH18="","",VLOOKUP(AH18,价值!$B:$G,3,0)&amp;","&amp;AI18)</f>
+        <v/>
+      </c>
+      <c r="AT18" s="3" t="str">
+        <f>IF(VLOOKUP(AH18,价值!$B:$G,5,0)=0,AS18,VLOOKUP(AH18,价值!$B:$G,5,0)&amp;","&amp;AI18)</f>
+        <v/>
+      </c>
+      <c r="AU18" s="4" t="str">
+        <f>VLOOKUP(AK18,价值!$B:$G,3,0)&amp;","&amp;AL18</f>
+        <v>0,</v>
+      </c>
+      <c r="AV18" s="3" t="str">
+        <f>IF(VLOOKUP(AK18,价值!$B:$G,5,0)=0,AU18,VLOOKUP(AK18,价值!$B:$G,5,0)&amp;","&amp;AL18)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,206,5;prop,323,1</v>
+      </c>
+      <c r="AX18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,206,5;prop,323,1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="G19" s="2">
         <f>F6</f>
-        <v>180</v>
-      </c>
-      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="4">
-        <v>80</v>
-      </c>
-      <c r="N19" s="4">
-        <f>VLOOKUP(L19,价值!$B:$G,6,0)*M19</f>
-        <v>80</v>
-      </c>
+      <c r="I19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="P19" s="2">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="4">
         <f>VLOOKUP(O19,价值!$B:$G,6,0)*P19</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19:R21" si="5">M19+Q19</f>
-        <v>180</v>
+        <f t="shared" ref="R19:R21" si="2">M19+Q19+K19</f>
+        <v>1200</v>
       </c>
       <c r="S19" s="2" t="str">
         <f>VLOOKUP(L19,价值!$B:$G,3,0)&amp;","&amp;M19</f>
-        <v>cash,80</v>
+        <v>0,</v>
       </c>
       <c r="T19" s="2" t="str">
         <f>IF(VLOOKUP(L19,价值!$B:$G,5,0)=0,S19,VLOOKUP(L19,价值!$B:$G,5,0)&amp;","&amp;M19)</f>
-        <v>cash,80</v>
+        <v>0,</v>
       </c>
       <c r="U19" s="2" t="str">
         <f>VLOOKUP(O19,价值!$B:$G,3,0)&amp;","&amp;P19</f>
-        <v>coin,5000</v>
+        <v>pack,304,2</v>
       </c>
       <c r="V19" s="2" t="str">
         <f>IF(VLOOKUP(O19,价值!$B:$G,5,0)=0,U19,VLOOKUP(O19,价值!$B:$G,5,0)&amp;","&amp;P19)</f>
-        <v>coin,5000</v>
-      </c>
-      <c r="W19" s="2" t="str">
-        <f t="shared" ref="W19:W21" si="6">S19&amp;";"&amp;U19</f>
-        <v>cash,80;coin,5000</v>
-      </c>
-      <c r="X19" s="2" t="str">
-        <f t="shared" ref="X19:X21" si="7">T19&amp;";"&amp;V19</f>
-        <v>cash,80;coin,5000</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.15">
+        <v>item,104,2</v>
+      </c>
+      <c r="W19" s="14" t="str">
+        <f>J19</f>
+        <v>equip,645;equip,646</v>
+      </c>
+      <c r="X19" s="14" t="str">
+        <f>J19</f>
+        <v>equip,645;equip,646</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>80000</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>VLOOKUP(AB19,价值!$B:$G,6,0)*AC19</f>
+        <v>450</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="1">
+        <f>VLOOKUP(AE19,价值!$B:$G,6,0)*AF19</f>
+        <v>120</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1">
+        <f>VLOOKUP(AH19,价值!$B:$G,6,0)*AI19</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1">
+        <f>VLOOKUP(AK19,价值!$B:$G,6,0)*AL19</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="AO19" s="4" t="str">
+        <f>VLOOKUP(AB19,价值!$B:$G,3,0)&amp;","&amp;AC19</f>
+        <v>prop,303,1</v>
+      </c>
+      <c r="AP19" s="3" t="str">
+        <f>IF(VLOOKUP(AB19,价值!$B:$G,5,0)=0,AO19,VLOOKUP(AB19,价值!$B:$G,5,0)&amp;","&amp;AC19)</f>
+        <v>prop,303,1</v>
+      </c>
+      <c r="AQ19" s="4" t="str">
+        <f>VLOOKUP(AE19,价值!$B:$G,3,0)&amp;","&amp;AF19</f>
+        <v>prop,211,2</v>
+      </c>
+      <c r="AR19" s="3" t="str">
+        <f>IF(VLOOKUP(AE19,价值!$B:$G,5,0)=0,AQ19,VLOOKUP(AE19,价值!$B:$G,5,0)&amp;","&amp;AF19)</f>
+        <v>prop,211,2</v>
+      </c>
+      <c r="AS19" s="4" t="str">
+        <f>IF(AH19="","",VLOOKUP(AH19,价值!$B:$G,3,0)&amp;","&amp;AI19)</f>
+        <v/>
+      </c>
+      <c r="AT19" s="3" t="str">
+        <f>IF(VLOOKUP(AH19,价值!$B:$G,5,0)=0,AS19,VLOOKUP(AH19,价值!$B:$G,5,0)&amp;","&amp;AI19)</f>
+        <v/>
+      </c>
+      <c r="AU19" s="4" t="str">
+        <f>VLOOKUP(AK19,价值!$B:$G,3,0)&amp;","&amp;AL19</f>
+        <v>0,</v>
+      </c>
+      <c r="AV19" s="3" t="str">
+        <f>IF(VLOOKUP(AK19,价值!$B:$G,5,0)=0,AU19,VLOOKUP(AK19,价值!$B:$G,5,0)&amp;","&amp;AL19)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,303,1;prop,211,2</v>
+      </c>
+      <c r="AX19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,303,1;prop,211,2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
         <f>B8</f>
         <v>100</v>
       </c>
-      <c r="J20" s="2">
+      <c r="G20" s="2">
         <f>G6</f>
-        <v>290</v>
-      </c>
-      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>3</v>
       </c>
+      <c r="I20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K20" s="4">
+        <f>VLOOKUP(I20,价值!$B:$G,6,0)*J20</f>
+        <v>1000</v>
+      </c>
       <c r="L20" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M20" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N20" s="4">
         <f>VLOOKUP(L20,价值!$B:$G,6,0)*M20</f>
-        <v>100</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>88</v>
+        <v>500</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="P20" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="4">
         <f>VLOOKUP(O20,价值!$B:$G,6,0)*P20</f>
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="5"/>
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>2500</v>
       </c>
       <c r="S20" s="2" t="str">
         <f>VLOOKUP(L20,价值!$B:$G,3,0)&amp;","&amp;M20</f>
-        <v>cash,100</v>
+        <v>cash,500</v>
       </c>
       <c r="T20" s="2" t="str">
         <f>IF(VLOOKUP(L20,价值!$B:$G,5,0)=0,S20,VLOOKUP(L20,价值!$B:$G,5,0)&amp;","&amp;M20)</f>
-        <v>cash,100</v>
+        <v>cash,500</v>
       </c>
       <c r="U20" s="2" t="str">
         <f>VLOOKUP(O20,价值!$B:$G,3,0)&amp;","&amp;P20</f>
-        <v>prop,105,3</v>
+        <v>prop,403,10</v>
       </c>
       <c r="V20" s="2" t="str">
         <f>IF(VLOOKUP(O20,价值!$B:$G,5,0)=0,U20,VLOOKUP(O20,价值!$B:$G,5,0)&amp;","&amp;P20)</f>
-        <v>prop,105,3</v>
-      </c>
-      <c r="W20" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>cash,100;prop,105,3</v>
-      </c>
-      <c r="X20" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>cash,100;prop,105,3</v>
+        <v>prop,403,10</v>
+      </c>
+      <c r="W20" s="14" t="str">
+        <f>S20&amp;";"&amp;U20&amp;";coin,"&amp;J20</f>
+        <v>cash,500;prop,403,10;coin,50000</v>
+      </c>
+      <c r="X20" s="14" t="str">
+        <f>T20&amp;";"&amp;V20&amp;";coin,"&amp;J20</f>
+        <v>cash,500;prop,403,10;coin,50000</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AA20" s="4">
+        <v>90000</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC20" s="1">
         <v>1</v>
       </c>
-      <c r="AB20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="4">
+      <c r="AD20" s="1">
         <f>VLOOKUP(AB20,价值!$B:$G,6,0)*AC20</f>
-        <v>15</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="4">
-        <f>3*AF20</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>750</v>
-      </c>
-      <c r="AJ20" s="4">
+        <v>450</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="1">
+        <f>VLOOKUP(AE20,价值!$B:$G,6,0)*AF20</f>
+        <v>120</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1">
         <f>VLOOKUP(AH20,价值!$B:$G,6,0)*AI20</f>
-        <v>15</v>
-      </c>
-      <c r="AK20" s="4">
-        <f>AD20+AG20+AJ20</f>
-        <v>30</v>
-      </c>
-      <c r="AL20" s="5">
-        <f>D8</f>
-        <v>30</v>
-      </c>
-      <c r="AM20" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1">
+        <f>VLOOKUP(AK20,价值!$B:$G,6,0)*AL20</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="AO20" s="4" t="str">
         <f>VLOOKUP(AB20,价值!$B:$G,3,0)&amp;","&amp;AC20</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN20" s="2" t="str">
-        <f>IF(VLOOKUP(AB20,价值!$B:$G,5,0)=0,AM20,VLOOKUP(AB20,价值!$B:$G,5,0)&amp;","&amp;AC20)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO20" s="2" t="str">
-        <f>IF(AF20=0,"",VLOOKUP(AE20,价值!$B:$G,3,0)&amp;","&amp;AF20)</f>
+        <v>prop,306,1</v>
+      </c>
+      <c r="AP20" s="3" t="str">
+        <f>IF(VLOOKUP(AB20,价值!$B:$G,5,0)=0,AO20,VLOOKUP(AB20,价值!$B:$G,5,0)&amp;","&amp;AC20)</f>
+        <v>prop,306,1</v>
+      </c>
+      <c r="AQ20" s="4" t="str">
+        <f>VLOOKUP(AE20,价值!$B:$G,3,0)&amp;","&amp;AF20</f>
+        <v>prop,212,2</v>
+      </c>
+      <c r="AR20" s="3" t="str">
+        <f>IF(VLOOKUP(AE20,价值!$B:$G,5,0)=0,AQ20,VLOOKUP(AE20,价值!$B:$G,5,0)&amp;","&amp;AF20)</f>
+        <v>prop,212,2</v>
+      </c>
+      <c r="AS20" s="4" t="str">
+        <f>IF(AH20="","",VLOOKUP(AH20,价值!$B:$G,3,0)&amp;","&amp;AI20)</f>
         <v/>
       </c>
-      <c r="AP20" s="2" t="str">
-        <f>IF(AF20=0,"",IF(VLOOKUP(AE20,价值!$B:$G,5,0)=0,AO20,VLOOKUP(AE20,价值!$B:$G,5,0)&amp;","&amp;AF20))</f>
+      <c r="AT20" s="3" t="str">
+        <f>IF(VLOOKUP(AH20,价值!$B:$G,5,0)=0,AS20,VLOOKUP(AH20,价值!$B:$G,5,0)&amp;","&amp;AI20)</f>
         <v/>
       </c>
-      <c r="AQ20" s="2" t="str">
-        <f>VLOOKUP(AH20,价值!$B:$G,3,0)&amp;","&amp;AI20</f>
-        <v>coin,750</v>
-      </c>
-      <c r="AR20" s="2" t="str">
-        <f>IF(VLOOKUP(AH20,价值!$B:$G,5,0)=0,AQ20,VLOOKUP(AH20,价值!$B:$G,5,0)&amp;","&amp;AI20)</f>
-        <v>coin,750</v>
-      </c>
-      <c r="AS20" s="2" t="str">
-        <f>AM20&amp;IF(AO20="","",";"&amp;AO20)&amp;";"&amp;AQ20</f>
-        <v>pack,302,1;coin,750</v>
-      </c>
-      <c r="AT20" s="2" t="str">
-        <f>AS20</f>
-        <v>pack,302,1;coin,750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AU20" s="4" t="str">
+        <f>VLOOKUP(AK20,价值!$B:$G,3,0)&amp;","&amp;AL20</f>
+        <v>0,</v>
+      </c>
+      <c r="AV20" s="3" t="str">
+        <f>IF(VLOOKUP(AK20,价值!$B:$G,5,0)=0,AU20,VLOOKUP(AK20,价值!$B:$G,5,0)&amp;","&amp;AL20)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,306,1;prop,212,2</v>
+      </c>
+      <c r="AX20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,306,1;prop,212,2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2">
         <f>B20/B18*B17</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="J21" s="2">
+      <c r="G21" s="11">
         <f>H6</f>
-        <v>400</v>
-      </c>
-      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
         <v>4</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="I21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="4">
-        <v>150</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="J21" s="10">
+        <v>50000</v>
+      </c>
+      <c r="K21" s="10">
+        <f>VLOOKUP(I21,价值!$B:$G,6,0)*J21</f>
+        <v>1000</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="10">
+        <v>500</v>
+      </c>
+      <c r="N21" s="10">
         <f>VLOOKUP(L21,价值!$B:$G,6,0)*M21</f>
-        <v>150</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="2">
-        <v>12500</v>
-      </c>
-      <c r="Q21" s="4">
+        <v>500</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="10">
         <f>VLOOKUP(O21,价值!$B:$G,6,0)*P21</f>
-        <v>250</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="S21" s="2" t="str">
+        <v>1000</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="S21" s="11" t="str">
         <f>VLOOKUP(L21,价值!$B:$G,3,0)&amp;","&amp;M21</f>
-        <v>cash,150</v>
-      </c>
-      <c r="T21" s="2" t="str">
+        <v>cash,500</v>
+      </c>
+      <c r="T21" s="11" t="str">
         <f>IF(VLOOKUP(L21,价值!$B:$G,5,0)=0,S21,VLOOKUP(L21,价值!$B:$G,5,0)&amp;","&amp;M21)</f>
-        <v>cash,150</v>
-      </c>
-      <c r="U21" s="2" t="str">
+        <v>cash,500</v>
+      </c>
+      <c r="U21" s="11" t="str">
         <f>VLOOKUP(O21,价值!$B:$G,3,0)&amp;","&amp;P21</f>
-        <v>coin,12500</v>
-      </c>
-      <c r="V21" s="2" t="str">
+        <v>prop,403,10</v>
+      </c>
+      <c r="V21" s="11" t="str">
         <f>IF(VLOOKUP(O21,价值!$B:$G,5,0)=0,U21,VLOOKUP(O21,价值!$B:$G,5,0)&amp;","&amp;P21)</f>
-        <v>coin,12500</v>
-      </c>
-      <c r="W21" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>cash,150;coin,12500</v>
-      </c>
-      <c r="X21" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>cash,150;coin,12500</v>
-      </c>
-      <c r="AA21" s="4">
+        <v>prop,403,10</v>
+      </c>
+      <c r="W21" s="17" t="str">
+        <f>S21&amp;";"&amp;U21&amp;";coin,"&amp;J21</f>
+        <v>cash,500;prop,403,10;coin,50000</v>
+      </c>
+      <c r="X21" s="17" t="str">
+        <f t="shared" ref="X21" si="3">T21&amp;";"&amp;V21</f>
+        <v>cash,500;prop,403,10</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>100000</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="5">
+        <f>VLOOKUP(AB21,价值!$B:$G,6,0)*AC21</f>
+        <v>1250</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF21" s="5">
         <v>2</v>
       </c>
-      <c r="AB21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC21" s="4">
+      <c r="AG21" s="5">
+        <f>VLOOKUP(AE21,价值!$B:$G,6,0)*AF21</f>
+        <v>720</v>
+      </c>
+      <c r="AH21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>200</v>
+      </c>
+      <c r="AJ21" s="5">
+        <f>VLOOKUP(AH21,价值!$B:$G,6,0)*AI21</f>
+        <v>200</v>
+      </c>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5">
+        <f>VLOOKUP(AK21,价值!$B:$G,6,0)*AL21</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+      <c r="AO21" s="4" t="str">
+        <f>VLOOKUP(AB21,价值!$B:$G,3,0)&amp;","&amp;AC21</f>
+        <v>prop,707,5</v>
+      </c>
+      <c r="AP21" s="3" t="str">
+        <f>IF(VLOOKUP(AB21,价值!$B:$G,5,0)=0,AO21,VLOOKUP(AB21,价值!$B:$G,5,0)&amp;","&amp;AC21)</f>
+        <v>prop,707,5</v>
+      </c>
+      <c r="AQ21" s="4" t="str">
+        <f>VLOOKUP(AE21,价值!$B:$G,3,0)&amp;","&amp;AF21</f>
+        <v>prop,318,2</v>
+      </c>
+      <c r="AR21" s="3" t="str">
+        <f>IF(VLOOKUP(AE21,价值!$B:$G,5,0)=0,AQ21,VLOOKUP(AE21,价值!$B:$G,5,0)&amp;","&amp;AF21)</f>
+        <v>prop,318,2</v>
+      </c>
+      <c r="AS21" s="4" t="str">
+        <f>IF(AH21="","",VLOOKUP(AH21,价值!$B:$G,3,0)&amp;","&amp;AI21)</f>
+        <v>cash,200</v>
+      </c>
+      <c r="AT21" s="3" t="str">
+        <f>IF(VLOOKUP(AH21,价值!$B:$G,5,0)=0,AS21,VLOOKUP(AH21,价值!$B:$G,5,0)&amp;","&amp;AI21)</f>
+        <v>cash,200</v>
+      </c>
+      <c r="AU21" s="4" t="str">
+        <f>VLOOKUP(AK21,价值!$B:$G,3,0)&amp;","&amp;AL21</f>
+        <v>0,</v>
+      </c>
+      <c r="AV21" s="3" t="str">
+        <f>IF(VLOOKUP(AK21,价值!$B:$G,5,0)=0,AU21,VLOOKUP(AK21,价值!$B:$G,5,0)&amp;","&amp;AL21)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,5;prop,318,2;cash,200</v>
+      </c>
+      <c r="AX21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,707,5;prop,318,2;cash,200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="AA22" s="4">
+        <v>110000</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC22" s="1">
         <v>1</v>
       </c>
-      <c r="AD21" s="4">
-        <f>VLOOKUP(AB21,价值!$B:$G,6,0)*AC21</f>
-        <v>15</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4">
-        <f t="shared" ref="AG21:AG32" si="8">3*AF21</f>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI21" s="4">
-        <v>800</v>
-      </c>
-      <c r="AJ21" s="4">
-        <f>VLOOKUP(AH21,价值!$B:$G,6,0)*AI21</f>
-        <v>16</v>
-      </c>
-      <c r="AK21" s="4">
-        <f t="shared" ref="AK21:AK32" si="9">AD21+AG21+AJ21</f>
-        <v>31</v>
-      </c>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="2" t="str">
-        <f>VLOOKUP(AB21,价值!$B:$G,3,0)&amp;","&amp;AC21</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN21" s="2" t="str">
-        <f>IF(VLOOKUP(AB21,价值!$B:$G,5,0)=0,AM21,VLOOKUP(AB21,价值!$B:$G,5,0)&amp;","&amp;AC21)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO21" s="2" t="str">
-        <f>IF(AF21=0,"",VLOOKUP(AE21,价值!$B:$G,3,0)&amp;","&amp;AF21)</f>
+      <c r="AD22" s="1">
+        <f>VLOOKUP(AB22,价值!$B:$G,6,0)*AC22</f>
+        <v>450</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG22" s="1">
+        <f>VLOOKUP(AE22,价值!$B:$G,6,0)*AF22</f>
+        <v>300</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1">
+        <f>VLOOKUP(AH22,价值!$B:$G,6,0)*AI22</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1">
+        <f>VLOOKUP(AK22,价值!$B:$G,6,0)*AL22</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="AO22" s="4" t="str">
+        <f>VLOOKUP(AB22,价值!$B:$G,3,0)&amp;","&amp;AC22</f>
+        <v>prop,309,1</v>
+      </c>
+      <c r="AP22" s="3" t="str">
+        <f>IF(VLOOKUP(AB22,价值!$B:$G,5,0)=0,AO22,VLOOKUP(AB22,价值!$B:$G,5,0)&amp;","&amp;AC22)</f>
+        <v>prop,309,1</v>
+      </c>
+      <c r="AQ22" s="4" t="str">
+        <f>VLOOKUP(AE22,价值!$B:$G,3,0)&amp;","&amp;AF22</f>
+        <v>prop,801,20</v>
+      </c>
+      <c r="AR22" s="3" t="str">
+        <f>IF(VLOOKUP(AE22,价值!$B:$G,5,0)=0,AQ22,VLOOKUP(AE22,价值!$B:$G,5,0)&amp;","&amp;AF22)</f>
+        <v>prop,801,20</v>
+      </c>
+      <c r="AS22" s="4" t="str">
+        <f>IF(AH22="","",VLOOKUP(AH22,价值!$B:$G,3,0)&amp;","&amp;AI22)</f>
         <v/>
       </c>
-      <c r="AP21" s="2" t="str">
-        <f>IF(AF21=0,"",IF(VLOOKUP(AE21,价值!$B:$G,5,0)=0,AO21,VLOOKUP(AE21,价值!$B:$G,5,0)&amp;","&amp;AF21))</f>
+      <c r="AT22" s="3" t="str">
+        <f>IF(VLOOKUP(AH22,价值!$B:$G,5,0)=0,AS22,VLOOKUP(AH22,价值!$B:$G,5,0)&amp;","&amp;AI22)</f>
         <v/>
       </c>
-      <c r="AQ21" s="2" t="str">
-        <f>VLOOKUP(AH21,价值!$B:$G,3,0)&amp;","&amp;AI21</f>
-        <v>coin,800</v>
-      </c>
-      <c r="AR21" s="2" t="str">
-        <f>IF(VLOOKUP(AH21,价值!$B:$G,5,0)=0,AQ21,VLOOKUP(AH21,价值!$B:$G,5,0)&amp;","&amp;AI21)</f>
-        <v>coin,800</v>
-      </c>
-      <c r="AS21" s="2" t="str">
-        <f t="shared" ref="AS21:AS32" si="10">AM21&amp;IF(AO21="","",";"&amp;AO21)&amp;";"&amp;AQ21</f>
-        <v>pack,302,1;coin,800</v>
-      </c>
-      <c r="AT21" s="2" t="str">
-        <f>AT20&amp;"#S#"&amp;AS21</f>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AA22" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="4">
-        <f>VLOOKUP(AB22,价值!$B:$G,6,0)*AC22</f>
-        <v>15</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>850</v>
-      </c>
-      <c r="AJ22" s="4">
-        <f>VLOOKUP(AH22,价值!$B:$G,6,0)*AI22</f>
-        <v>17</v>
-      </c>
-      <c r="AK22" s="4">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="2" t="str">
-        <f>VLOOKUP(AB22,价值!$B:$G,3,0)&amp;","&amp;AC22</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN22" s="2" t="str">
-        <f>IF(VLOOKUP(AB22,价值!$B:$G,5,0)=0,AM22,VLOOKUP(AB22,价值!$B:$G,5,0)&amp;","&amp;AC22)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO22" s="2" t="str">
-        <f>IF(AF22=0,"",VLOOKUP(AE22,价值!$B:$G,3,0)&amp;","&amp;AF22)</f>
-        <v/>
-      </c>
-      <c r="AP22" s="2" t="str">
-        <f>IF(AF22=0,"",IF(VLOOKUP(AE22,价值!$B:$G,5,0)=0,AO22,VLOOKUP(AE22,价值!$B:$G,5,0)&amp;","&amp;AF22))</f>
-        <v/>
-      </c>
-      <c r="AQ22" s="2" t="str">
-        <f>VLOOKUP(AH22,价值!$B:$G,3,0)&amp;","&amp;AI22</f>
-        <v>coin,850</v>
-      </c>
-      <c r="AR22" s="2" t="str">
-        <f>IF(VLOOKUP(AH22,价值!$B:$G,5,0)=0,AQ22,VLOOKUP(AH22,价值!$B:$G,5,0)&amp;","&amp;AI22)</f>
-        <v>coin,850</v>
-      </c>
-      <c r="AS22" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,302,1;coin,850</v>
-      </c>
-      <c r="AT22" s="2" t="str">
-        <f t="shared" ref="AT22:AT32" si="11">AT21&amp;"#S#"&amp;AS22</f>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AU22" s="4" t="str">
+        <f>VLOOKUP(AK22,价值!$B:$G,3,0)&amp;","&amp;AL22</f>
+        <v>0,</v>
+      </c>
+      <c r="AV22" s="3" t="str">
+        <f>IF(VLOOKUP(AK22,价值!$B:$G,5,0)=0,AU22,VLOOKUP(AK22,价值!$B:$G,5,0)&amp;","&amp;AL22)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,309,1;prop,801,20</v>
+      </c>
+      <c r="AX22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,309,1;prop,801,20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2">
         <v>0.4</v>
       </c>
-      <c r="AA23" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC23" s="4">
+      <c r="AA23" s="6">
+        <v>120000</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC23" s="1">
         <v>1</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AD23" s="1">
         <f>VLOOKUP(AB23,价值!$B:$G,6,0)*AC23</f>
-        <v>15</v>
-      </c>
-      <c r="AE23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>900</v>
-      </c>
-      <c r="AJ23" s="4">
+        <v>450</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="1">
+        <f>VLOOKUP(AE23,价值!$B:$G,6,0)*AF23</f>
+        <v>250</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1">
         <f>VLOOKUP(AH23,价值!$B:$G,6,0)*AI23</f>
-        <v>18</v>
-      </c>
-      <c r="AK23" s="4">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1">
+        <f>VLOOKUP(AK23,价值!$B:$G,6,0)*AL23</f>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="AO23" s="4" t="str">
         <f>VLOOKUP(AB23,价值!$B:$G,3,0)&amp;","&amp;AC23</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN23" s="2" t="str">
-        <f>IF(VLOOKUP(AB23,价值!$B:$G,5,0)=0,AM23,VLOOKUP(AB23,价值!$B:$G,5,0)&amp;","&amp;AC23)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO23" s="2" t="str">
-        <f>IF(AF23=0,"",VLOOKUP(AE23,价值!$B:$G,3,0)&amp;","&amp;AF23)</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AP23" s="2" t="str">
-        <f>IF(AF23=0,"",IF(VLOOKUP(AE23,价值!$B:$G,5,0)=0,AO23,VLOOKUP(AE23,价值!$B:$G,5,0)&amp;","&amp;AF23))</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AQ23" s="2" t="str">
-        <f>VLOOKUP(AH23,价值!$B:$G,3,0)&amp;","&amp;AI23</f>
-        <v>coin,900</v>
-      </c>
-      <c r="AR23" s="2" t="str">
-        <f>IF(VLOOKUP(AH23,价值!$B:$G,5,0)=0,AQ23,VLOOKUP(AH23,价值!$B:$G,5,0)&amp;","&amp;AI23)</f>
-        <v>coin,900</v>
-      </c>
-      <c r="AS23" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,302,1;pack,302,1;coin,900</v>
-      </c>
-      <c r="AT23" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.15">
+        <v>prop,312,1</v>
+      </c>
+      <c r="AP23" s="3" t="str">
+        <f>IF(VLOOKUP(AB23,价值!$B:$G,5,0)=0,AO23,VLOOKUP(AB23,价值!$B:$G,5,0)&amp;","&amp;AC23)</f>
+        <v>prop,312,1</v>
+      </c>
+      <c r="AQ23" s="4" t="str">
+        <f>VLOOKUP(AE23,价值!$B:$G,3,0)&amp;","&amp;AF23</f>
+        <v>prop,802,5</v>
+      </c>
+      <c r="AR23" s="3" t="str">
+        <f>IF(VLOOKUP(AE23,价值!$B:$G,5,0)=0,AQ23,VLOOKUP(AE23,价值!$B:$G,5,0)&amp;","&amp;AF23)</f>
+        <v>prop,802,5</v>
+      </c>
+      <c r="AS23" s="4" t="str">
+        <f>IF(AH23="","",VLOOKUP(AH23,价值!$B:$G,3,0)&amp;","&amp;AI23)</f>
+        <v/>
+      </c>
+      <c r="AT23" s="3" t="str">
+        <f>IF(VLOOKUP(AH23,价值!$B:$G,5,0)=0,AS23,VLOOKUP(AH23,价值!$B:$G,5,0)&amp;","&amp;AI23)</f>
+        <v/>
+      </c>
+      <c r="AU23" s="4" t="str">
+        <f>VLOOKUP(AK23,价值!$B:$G,3,0)&amp;","&amp;AL23</f>
+        <v>0,</v>
+      </c>
+      <c r="AV23" s="3" t="str">
+        <f>IF(VLOOKUP(AK23,价值!$B:$G,5,0)=0,AU23,VLOOKUP(AK23,价值!$B:$G,5,0)&amp;","&amp;AL23)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,312,1;prop,802,5</v>
+      </c>
+      <c r="AX23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,312,1;prop,802,5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
         <f>FLOOR(B21/B23,10)</f>
         <v>50</v>
       </c>
       <c r="AA24" s="4">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC24" s="4">
+        <v>130000</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="1">
+        <f>VLOOKUP(AB24,价值!$B:$G,6,0)*AC24</f>
+        <v>300</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF24" s="1">
         <v>1</v>
       </c>
-      <c r="AD24" s="4">
-        <f>VLOOKUP(AB24,价值!$B:$G,6,0)*AC24</f>
-        <v>15</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>950</v>
-      </c>
-      <c r="AJ24" s="4">
+      <c r="AG24" s="1">
+        <f>VLOOKUP(AE24,价值!$B:$G,6,0)*AF24</f>
+        <v>125</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1">
         <f>VLOOKUP(AH24,价值!$B:$G,6,0)*AI24</f>
-        <v>19</v>
-      </c>
-      <c r="AK24" s="4">
-        <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1">
+        <f>VLOOKUP(AK24,价值!$B:$G,6,0)*AL24</f>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="AO24" s="4" t="str">
         <f>VLOOKUP(AB24,价值!$B:$G,3,0)&amp;","&amp;AC24</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN24" s="2" t="str">
-        <f>IF(VLOOKUP(AB24,价值!$B:$G,5,0)=0,AM24,VLOOKUP(AB24,价值!$B:$G,5,0)&amp;","&amp;AC24)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO24" s="2" t="str">
-        <f>IF(AF24=0,"",VLOOKUP(AE24,价值!$B:$G,3,0)&amp;","&amp;AF24)</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AP24" s="2" t="str">
-        <f>IF(AF24=0,"",IF(VLOOKUP(AE24,价值!$B:$G,5,0)=0,AO24,VLOOKUP(AE24,价值!$B:$G,5,0)&amp;","&amp;AF24))</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AQ24" s="2" t="str">
-        <f>VLOOKUP(AH24,价值!$B:$G,3,0)&amp;","&amp;AI24</f>
-        <v>coin,950</v>
-      </c>
-      <c r="AR24" s="2" t="str">
-        <f>IF(VLOOKUP(AH24,价值!$B:$G,5,0)=0,AQ24,VLOOKUP(AH24,价值!$B:$G,5,0)&amp;","&amp;AI24)</f>
-        <v>coin,950</v>
-      </c>
-      <c r="AS24" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,302,1;pack,302,1;coin,950</v>
-      </c>
-      <c r="AT24" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AA25" s="4">
-        <v>6</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="4">
-        <f>VLOOKUP(AB25,价值!$B:$G,6,0)*AC25</f>
-        <v>15</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" s="4">
-        <f>VLOOKUP(AH25,价值!$B:$G,6,0)*AI25</f>
-        <v>20</v>
-      </c>
-      <c r="AK25" s="4">
-        <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="2" t="str">
-        <f>VLOOKUP(AB25,价值!$B:$G,3,0)&amp;","&amp;AC25</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN25" s="2" t="str">
-        <f>IF(VLOOKUP(AB25,价值!$B:$G,5,0)=0,AM25,VLOOKUP(AB25,价值!$B:$G,5,0)&amp;","&amp;AC25)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO25" s="2" t="str">
-        <f>IF(AF25=0,"",VLOOKUP(AE25,价值!$B:$G,3,0)&amp;","&amp;AF25)</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AP25" s="2" t="str">
-        <f>IF(AF25=0,"",IF(VLOOKUP(AE25,价值!$B:$G,5,0)=0,AO25,VLOOKUP(AE25,价值!$B:$G,5,0)&amp;","&amp;AF25))</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AQ25" s="2" t="str">
-        <f>VLOOKUP(AH25,价值!$B:$G,3,0)&amp;","&amp;AI25</f>
-        <v>coin,1000</v>
-      </c>
-      <c r="AR25" s="2" t="str">
-        <f>IF(VLOOKUP(AH25,价值!$B:$G,5,0)=0,AQ25,VLOOKUP(AH25,价值!$B:$G,5,0)&amp;","&amp;AI25)</f>
-        <v>coin,1000</v>
-      </c>
-      <c r="AS25" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,302,1;pack,302,1;coin,1000</v>
-      </c>
-      <c r="AT25" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.15">
+        <v>prop,403,3</v>
+      </c>
+      <c r="AP24" s="3" t="str">
+        <f>IF(VLOOKUP(AB24,价值!$B:$G,5,0)=0,AO24,VLOOKUP(AB24,价值!$B:$G,5,0)&amp;","&amp;AC24)</f>
+        <v>prop,403,3</v>
+      </c>
+      <c r="AQ24" s="4" t="str">
+        <f>VLOOKUP(AE24,价值!$B:$G,3,0)&amp;","&amp;AF24</f>
+        <v>prop,603,1</v>
+      </c>
+      <c r="AR24" s="3" t="str">
+        <f>IF(VLOOKUP(AE24,价值!$B:$G,5,0)=0,AQ24,VLOOKUP(AE24,价值!$B:$G,5,0)&amp;","&amp;AF24)</f>
+        <v>prop,603,1</v>
+      </c>
+      <c r="AS24" s="4" t="str">
+        <f>IF(AH24="","",VLOOKUP(AH24,价值!$B:$G,3,0)&amp;","&amp;AI24)</f>
+        <v/>
+      </c>
+      <c r="AT24" s="3" t="str">
+        <f>IF(VLOOKUP(AH24,价值!$B:$G,5,0)=0,AS24,VLOOKUP(AH24,价值!$B:$G,5,0)&amp;","&amp;AI24)</f>
+        <v/>
+      </c>
+      <c r="AU24" s="4" t="str">
+        <f>VLOOKUP(AK24,价值!$B:$G,3,0)&amp;","&amp;AL24</f>
+        <v>0,</v>
+      </c>
+      <c r="AV24" s="3" t="str">
+        <f>IF(VLOOKUP(AK24,价值!$B:$G,5,0)=0,AU24,VLOOKUP(AK24,价值!$B:$G,5,0)&amp;","&amp;AL24)</f>
+        <v>0,</v>
+      </c>
+      <c r="AW24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,403,3;prop,603,1</v>
+      </c>
+      <c r="AX24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>prop,403,3;prop,603,1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="AA25" s="4"/>
+      <c r="AN25" s="1">
+        <f>SUM(AN2:AN24)</f>
+        <v>17304</v>
+      </c>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AR25"/>
+      <c r="AS25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+    </row>
+    <row r="26" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="Y26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA26" s="4">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="4">
-        <f>VLOOKUP(AB26,价值!$B:$G,6,0)*AC26</f>
-        <v>15</v>
-      </c>
-      <c r="AE26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="4">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AH26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>1100</v>
-      </c>
-      <c r="AJ26" s="4">
-        <f>VLOOKUP(AH26,价值!$B:$G,6,0)*AI26</f>
-        <v>22</v>
-      </c>
-      <c r="AK26" s="4">
-        <f t="shared" si="9"/>
-        <v>43</v>
-      </c>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="2" t="str">
-        <f>VLOOKUP(AB26,价值!$B:$G,3,0)&amp;","&amp;AC26</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN26" s="2" t="str">
-        <f>IF(VLOOKUP(AB26,价值!$B:$G,5,0)=0,AM26,VLOOKUP(AB26,价值!$B:$G,5,0)&amp;","&amp;AC26)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO26" s="2" t="str">
-        <f>IF(AF26=0,"",VLOOKUP(AE26,价值!$B:$G,3,0)&amp;","&amp;AF26)</f>
-        <v>pack,302,2</v>
-      </c>
-      <c r="AP26" s="2" t="str">
-        <f>IF(AF26=0,"",IF(VLOOKUP(AE26,价值!$B:$G,5,0)=0,AO26,VLOOKUP(AE26,价值!$B:$G,5,0)&amp;","&amp;AF26))</f>
-        <v>item,102,2</v>
-      </c>
-      <c r="AQ26" s="2" t="str">
-        <f>VLOOKUP(AH26,价值!$B:$G,3,0)&amp;","&amp;AI26</f>
-        <v>coin,1100</v>
-      </c>
-      <c r="AR26" s="2" t="str">
-        <f>IF(VLOOKUP(AH26,价值!$B:$G,5,0)=0,AQ26,VLOOKUP(AH26,价值!$B:$G,5,0)&amp;","&amp;AI26)</f>
-        <v>coin,1100</v>
-      </c>
-      <c r="AS26" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,302,1;pack,302,2;coin,1100</v>
-      </c>
-      <c r="AT26" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="AA26" s="4"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AR26"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26" s="1"/>
+    </row>
+    <row r="27" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="Y27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>8</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="4">
-        <f>VLOOKUP(AB27,价值!$B:$G,6,0)*AC27</f>
-        <v>15</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG27" s="4">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AH27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI27" s="4">
-        <v>1200</v>
-      </c>
-      <c r="AJ27" s="4">
-        <f>VLOOKUP(AH27,价值!$B:$G,6,0)*AI27</f>
-        <v>24</v>
-      </c>
-      <c r="AK27" s="4">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="2" t="str">
-        <f>VLOOKUP(AB27,价值!$B:$G,3,0)&amp;","&amp;AC27</f>
-        <v>pack,302,1</v>
-      </c>
-      <c r="AN27" s="2" t="str">
-        <f>IF(VLOOKUP(AB27,价值!$B:$G,5,0)=0,AM27,VLOOKUP(AB27,价值!$B:$G,5,0)&amp;","&amp;AC27)</f>
-        <v>item,102,1</v>
-      </c>
-      <c r="AO27" s="2" t="str">
-        <f>IF(AF27=0,"",VLOOKUP(AE27,价值!$B:$G,3,0)&amp;","&amp;AF27)</f>
-        <v>pack,302,2</v>
-      </c>
-      <c r="AP27" s="2" t="str">
-        <f>IF(AF27=0,"",IF(VLOOKUP(AE27,价值!$B:$G,5,0)=0,AO27,VLOOKUP(AE27,价值!$B:$G,5,0)&amp;","&amp;AF27))</f>
-        <v>item,102,2</v>
-      </c>
-      <c r="AQ27" s="2" t="str">
-        <f>VLOOKUP(AH27,价值!$B:$G,3,0)&amp;","&amp;AI27</f>
-        <v>coin,1200</v>
-      </c>
-      <c r="AR27" s="2" t="str">
-        <f>IF(VLOOKUP(AH27,价值!$B:$G,5,0)=0,AQ27,VLOOKUP(AH27,价值!$B:$G,5,0)&amp;","&amp;AI27)</f>
-        <v>coin,1200</v>
-      </c>
-      <c r="AS27" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,302,1;pack,302,2;coin,1200</v>
-      </c>
-      <c r="AT27" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AA28" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="4">
-        <f>VLOOKUP(AB28,价值!$B:$G,6,0)*AC28</f>
-        <v>50</v>
-      </c>
-      <c r="AE28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG28" s="4">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AH28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>1300</v>
-      </c>
-      <c r="AJ28" s="4">
-        <f>VLOOKUP(AH28,价值!$B:$G,6,0)*AI28</f>
-        <v>26</v>
-      </c>
-      <c r="AK28" s="4">
-        <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="2" t="str">
-        <f>VLOOKUP(AB28,价值!$B:$G,3,0)&amp;","&amp;AC28</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="AN28" s="2" t="str">
-        <f>IF(VLOOKUP(AB28,价值!$B:$G,5,0)=0,AM28,VLOOKUP(AB28,价值!$B:$G,5,0)&amp;","&amp;AC28)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="AO28" s="2" t="str">
-        <f>IF(AF28=0,"",VLOOKUP(AE28,价值!$B:$G,3,0)&amp;","&amp;AF28)</f>
-        <v>pack,302,2</v>
-      </c>
-      <c r="AP28" s="2" t="str">
-        <f>IF(AF28=0,"",IF(VLOOKUP(AE28,价值!$B:$G,5,0)=0,AO28,VLOOKUP(AE28,价值!$B:$G,5,0)&amp;","&amp;AF28))</f>
-        <v>item,102,2</v>
-      </c>
-      <c r="AQ28" s="2" t="str">
-        <f>VLOOKUP(AH28,价值!$B:$G,3,0)&amp;","&amp;AI28</f>
-        <v>coin,1300</v>
-      </c>
-      <c r="AR28" s="2" t="str">
-        <f>IF(VLOOKUP(AH28,价值!$B:$G,5,0)=0,AQ28,VLOOKUP(AH28,价值!$B:$G,5,0)&amp;","&amp;AI28)</f>
-        <v>coin,1300</v>
-      </c>
-      <c r="AS28" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,303,1;pack,302,2;coin,1300</v>
-      </c>
-      <c r="AT28" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AA29" s="4">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="4">
-        <f>VLOOKUP(AB29,价值!$B:$G,6,0)*AC29</f>
-        <v>50</v>
-      </c>
-      <c r="AE29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>3</v>
-      </c>
-      <c r="AG29" s="4">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>1400</v>
-      </c>
-      <c r="AJ29" s="4">
-        <f>VLOOKUP(AH29,价值!$B:$G,6,0)*AI29</f>
-        <v>28</v>
-      </c>
-      <c r="AK29" s="4">
-        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="1"/>
+      <c r="AE27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AR27"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27" s="1"/>
+    </row>
+    <row r="28" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="AA28" s="4"/>
+      <c r="AE28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28" s="1"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="AA29" s="4"/>
+      <c r="AE29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+    </row>
+    <row r="30" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AR30"/>
+      <c r="AS30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+    </row>
+    <row r="31" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AR31"/>
+      <c r="AS31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+    </row>
+    <row r="32" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AR32"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+    </row>
+    <row r="33" spans="10:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AR33"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+    </row>
+    <row r="34" spans="10:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AR34"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+    </row>
+    <row r="35" spans="10:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AR35"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+    </row>
+    <row r="36" spans="10:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AR36"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+    </row>
+    <row r="37" spans="10:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="J37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="2" t="str">
-        <f>VLOOKUP(AB29,价值!$B:$G,3,0)&amp;","&amp;AC29</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="AN29" s="2" t="str">
-        <f>IF(VLOOKUP(AB29,价值!$B:$G,5,0)=0,AM29,VLOOKUP(AB29,价值!$B:$G,5,0)&amp;","&amp;AC29)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="AO29" s="2" t="str">
-        <f>IF(AF29=0,"",VLOOKUP(AE29,价值!$B:$G,3,0)&amp;","&amp;AF29)</f>
-        <v>pack,302,3</v>
-      </c>
-      <c r="AP29" s="2" t="str">
-        <f>IF(AF29=0,"",IF(VLOOKUP(AE29,价值!$B:$G,5,0)=0,AO29,VLOOKUP(AE29,价值!$B:$G,5,0)&amp;","&amp;AF29))</f>
-        <v>item,102,3</v>
-      </c>
-      <c r="AQ29" s="2" t="str">
-        <f>VLOOKUP(AH29,价值!$B:$G,3,0)&amp;","&amp;AI29</f>
-        <v>coin,1400</v>
-      </c>
-      <c r="AR29" s="2" t="str">
-        <f>IF(VLOOKUP(AH29,价值!$B:$G,5,0)=0,AQ29,VLOOKUP(AH29,价值!$B:$G,5,0)&amp;","&amp;AI29)</f>
-        <v>coin,1400</v>
-      </c>
-      <c r="AS29" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,303,1;pack,302,3;coin,1400</v>
-      </c>
-      <c r="AT29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AA30" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="4">
-        <f>VLOOKUP(AB30,价值!$B:$G,6,0)*AC30</f>
-        <v>50</v>
-      </c>
-      <c r="AE30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="4">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AH30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>1500</v>
-      </c>
-      <c r="AJ30" s="4">
-        <f>VLOOKUP(AH30,价值!$B:$G,6,0)*AI30</f>
-        <v>30</v>
-      </c>
-      <c r="AK30" s="4">
-        <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="2" t="str">
-        <f>VLOOKUP(AB30,价值!$B:$G,3,0)&amp;","&amp;AC30</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="AN30" s="2" t="str">
-        <f>IF(VLOOKUP(AB30,价值!$B:$G,5,0)=0,AM30,VLOOKUP(AB30,价值!$B:$G,5,0)&amp;","&amp;AC30)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="AO30" s="2" t="str">
-        <f>IF(AF30=0,"",VLOOKUP(AE30,价值!$B:$G,3,0)&amp;","&amp;AF30)</f>
-        <v>pack,302,3</v>
-      </c>
-      <c r="AP30" s="2" t="str">
-        <f>IF(AF30=0,"",IF(VLOOKUP(AE30,价值!$B:$G,5,0)=0,AO30,VLOOKUP(AE30,价值!$B:$G,5,0)&amp;","&amp;AF30))</f>
-        <v>item,102,3</v>
-      </c>
-      <c r="AQ30" s="2" t="str">
-        <f>VLOOKUP(AH30,价值!$B:$G,3,0)&amp;","&amp;AI30</f>
-        <v>coin,1500</v>
-      </c>
-      <c r="AR30" s="2" t="str">
-        <f>IF(VLOOKUP(AH30,价值!$B:$G,5,0)=0,AQ30,VLOOKUP(AH30,价值!$B:$G,5,0)&amp;","&amp;AI30)</f>
-        <v>coin,1500</v>
-      </c>
-      <c r="AS30" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,303,1;pack,302,3;coin,1500</v>
-      </c>
-      <c r="AT30" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AA31" s="4">
-        <v>12</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="4">
-        <f>VLOOKUP(AB31,价值!$B:$G,6,0)*AC31</f>
-        <v>50</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF31" s="4">
-        <v>4</v>
-      </c>
-      <c r="AG31" s="4">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="AH31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI31" s="4">
-        <v>1600</v>
-      </c>
-      <c r="AJ31" s="4">
-        <f>VLOOKUP(AH31,价值!$B:$G,6,0)*AI31</f>
-        <v>32</v>
-      </c>
-      <c r="AK31" s="4">
-        <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="2" t="str">
-        <f>VLOOKUP(AB31,价值!$B:$G,3,0)&amp;","&amp;AC31</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="AN31" s="2" t="str">
-        <f>IF(VLOOKUP(AB31,价值!$B:$G,5,0)=0,AM31,VLOOKUP(AB31,价值!$B:$G,5,0)&amp;","&amp;AC31)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="AO31" s="2" t="str">
-        <f>IF(AF31=0,"",VLOOKUP(AE31,价值!$B:$G,3,0)&amp;","&amp;AF31)</f>
-        <v>pack,302,4</v>
-      </c>
-      <c r="AP31" s="2" t="str">
-        <f>IF(AF31=0,"",IF(VLOOKUP(AE31,价值!$B:$G,5,0)=0,AO31,VLOOKUP(AE31,价值!$B:$G,5,0)&amp;","&amp;AF31))</f>
-        <v>item,102,4</v>
-      </c>
-      <c r="AQ31" s="2" t="str">
-        <f>VLOOKUP(AH31,价值!$B:$G,3,0)&amp;","&amp;AI31</f>
-        <v>coin,1600</v>
-      </c>
-      <c r="AR31" s="2" t="str">
-        <f>IF(VLOOKUP(AH31,价值!$B:$G,5,0)=0,AQ31,VLOOKUP(AH31,价值!$B:$G,5,0)&amp;","&amp;AI31)</f>
-        <v>coin,1600</v>
-      </c>
-      <c r="AS31" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,303,1;pack,302,4;coin,1600</v>
-      </c>
-      <c r="AT31" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="Y32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA32" s="4">
-        <v>13</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="4">
-        <f>VLOOKUP(AB32,价值!$B:$G,6,0)*AC32</f>
-        <v>50</v>
-      </c>
-      <c r="AE32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF32" s="4">
-        <v>5</v>
-      </c>
-      <c r="AG32" s="4">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="AH32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI32" s="4">
-        <v>1750</v>
-      </c>
-      <c r="AJ32" s="4">
-        <f>VLOOKUP(AH32,价值!$B:$G,6,0)*AI32</f>
-        <v>35</v>
-      </c>
-      <c r="AK32" s="4">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="AL32" s="5">
-        <f>B8</f>
-        <v>100</v>
-      </c>
-      <c r="AM32" s="2" t="str">
-        <f>VLOOKUP(AB32,价值!$B:$G,3,0)&amp;","&amp;AC32</f>
-        <v>pack,303,1</v>
-      </c>
-      <c r="AN32" s="2" t="str">
-        <f>IF(VLOOKUP(AB32,价值!$B:$G,5,0)=0,AM32,VLOOKUP(AB32,价值!$B:$G,5,0)&amp;","&amp;AC32)</f>
-        <v>item,103,1</v>
-      </c>
-      <c r="AO32" s="2" t="str">
-        <f>IF(AF32=0,"",VLOOKUP(AE32,价值!$B:$G,3,0)&amp;","&amp;AF32)</f>
-        <v>pack,302,5</v>
-      </c>
-      <c r="AP32" s="2" t="str">
-        <f>IF(AF32=0,"",IF(VLOOKUP(AE32,价值!$B:$G,5,0)=0,AO32,VLOOKUP(AE32,价值!$B:$G,5,0)&amp;","&amp;AF32))</f>
-        <v>item,102,5</v>
-      </c>
-      <c r="AQ32" s="2" t="str">
-        <f>VLOOKUP(AH32,价值!$B:$G,3,0)&amp;","&amp;AI32</f>
-        <v>coin,1750</v>
-      </c>
-      <c r="AR32" s="2" t="str">
-        <f>IF(VLOOKUP(AH32,价值!$B:$G,5,0)=0,AQ32,VLOOKUP(AH32,价值!$B:$G,5,0)&amp;","&amp;AI32)</f>
-        <v>coin,1750</v>
-      </c>
-      <c r="AS32" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pack,303,1;pack,302,5;coin,1750</v>
-      </c>
-      <c r="AT32" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750</v>
-      </c>
-    </row>
-    <row r="33" spans="10:36" x14ac:dyDescent="0.15">
-      <c r="Y33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="10:36" x14ac:dyDescent="0.15">
-      <c r="Y34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="10:36" x14ac:dyDescent="0.15">
-      <c r="Y35" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="10:36" x14ac:dyDescent="0.15">
-      <c r="J37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Y37" s="2"/>
       <c r="AE37" s="4"/>
-    </row>
-    <row r="38" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AR37"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+    </row>
+    <row r="38" spans="10:50" ht="15" x14ac:dyDescent="0.2">
       <c r="J38" s="1" t="s">
         <v>24</v>
       </c>
@@ -9689,19 +9422,29 @@
         <v>30</v>
       </c>
       <c r="AG38" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI38" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ38" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="10:36" x14ac:dyDescent="0.15">
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AR38"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+    </row>
+    <row r="39" spans="10:50" x14ac:dyDescent="0.15">
       <c r="J39" s="1">
         <v>0</v>
       </c>
@@ -9709,98 +9452,102 @@
         <v>100</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M39" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N39" s="4">
         <f>VLOOKUP(L39,价值!$B:$G,6,0)*M39</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="4">
         <f>VLOOKUP(O39,价值!$B:$G,6,0)*P39</f>
-        <v>1500</v>
+        <v>14400</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="S39" s="2">
-        <v>5</v>
+        <v>100000</v>
       </c>
       <c r="T39" s="2">
         <f>VLOOKUP(R39,价值!$B:$G,6,0)*S39</f>
-        <v>1250</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V39" s="2">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="W39" s="2">
         <f>VLOOKUP(U39,价值!$B:$G,6,0)*V39</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="X39" s="12">
-        <f t="shared" ref="X39:X44" si="12">T39+W39+N39+Q39</f>
-        <v>5250</v>
+        <f t="shared" ref="X39:X44" si="4">T39+W39+N39+Q39</f>
+        <v>16900</v>
       </c>
       <c r="Y39" s="2" t="str">
         <f>IF(L39="","",VLOOKUP(L39,价值!$B:$G,3,0)&amp;","&amp;M39)</f>
-        <v>cash,700</v>
+        <v>cash,500</v>
       </c>
       <c r="Z39" s="2" t="str">
         <f>IF(L39="","",IF(VLOOKUP(L39,价值!$B:$G,5,0)=0,Y39,VLOOKUP(L39,价值!$B:$G,5,0)&amp;","&amp;M39))</f>
-        <v>cash,700</v>
+        <v>cash,500</v>
       </c>
       <c r="AA39" s="2" t="str">
         <f>IF(O39="","",VLOOKUP(O39,价值!$B:$G,3,0)&amp;","&amp;P39)</f>
-        <v>prop,705,1</v>
+        <v>pack,305,3</v>
       </c>
       <c r="AB39" s="2" t="str">
         <f>IF(O39="","",IF(VLOOKUP(O39,价值!$B:$G,5,0)=0,AA39,VLOOKUP(O39,价值!$B:$G,5,0)&amp;","&amp;P39))</f>
-        <v>prop,705,1</v>
+        <v>item,105,3</v>
       </c>
       <c r="AC39" s="2" t="str">
         <f>IF(R39="","",VLOOKUP(R39,价值!$B:$G,3,0)&amp;","&amp;S39)</f>
-        <v>prop,702,5</v>
+        <v>coin,100000</v>
       </c>
       <c r="AD39" s="2" t="str">
         <f>IF(R39="","",IF(VLOOKUP(R39,价值!$B:$G,5,0)=0,AC39,VLOOKUP(R39,价值!$B:$G,5,0)&amp;","&amp;S39))</f>
-        <v>prop,702,5</v>
+        <v>coin,100000</v>
       </c>
       <c r="AE39" s="2" t="str">
         <f>IF(U39="","",VLOOKUP(U39,价值!$B:$G,3,0)&amp;","&amp;V39)</f>
-        <v>pack,304,3</v>
+        <v/>
       </c>
       <c r="AF39" s="2" t="str">
         <f>IF(U39="","",IF(VLOOKUP(U39,价值!$B:$G,5,0)=0,AE39,VLOOKUP(U39,价值!$B:$G,5,0)&amp;","&amp;V39))</f>
-        <v>item,104,3</v>
-      </c>
-      <c r="AG39" s="2" t="str">
-        <f>Y39&amp;IF(AI39="","",";"&amp;AI39)&amp;IF(AA39="","",";"&amp;AA39)&amp;IF(AC39="","",";"&amp;AC39)&amp;IF(AE39="","",";"&amp;AE39)</f>
-        <v>cash,700;frame,21;prop,705,1;prop,702,5;pack,304,3</v>
-      </c>
-      <c r="AH39" s="2" t="str">
-        <f>Z39&amp;IF(AI39="","",";"&amp;AI39)&amp;IF(AB39="","",";"&amp;AB39)&amp;IF(AD39="","",";"&amp;AD39)&amp;IF(AF39="","",";"&amp;AF39)</f>
-        <v>cash,700;frame,21;prop,705,1;prop,702,5;item,104,3</v>
+        <v/>
+      </c>
+      <c r="AG39" s="14" t="str">
+        <f>Y39&amp;IF(AA39="","",";"&amp;AA39)&amp;IF(AC39="","",";"&amp;AC39)&amp;IF(AE39="","",";"&amp;AE39)&amp;IF(AI39="","",";"&amp;AI39)</f>
+        <v>cash,500;pack,305,3;coin,100000;frame,21</v>
+      </c>
+      <c r="AH39" s="14" t="str">
+        <f>Z39&amp;IF(AB39="","",";"&amp;AB39)&amp;IF(AD39="","",";"&amp;AD39)&amp;IF(AF39="","",";"&amp;AF39)&amp;IF(AI39="","",";"&amp;AI39)</f>
+        <v>cash,500;item,105,3;coin,100000;frame,21</v>
       </c>
       <c r="AI39" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="5">
         <f>B5</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="40" spans="10:36" x14ac:dyDescent="0.15">
+        <v>15200</v>
+      </c>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+    </row>
+    <row r="40" spans="10:50" x14ac:dyDescent="0.15">
       <c r="J40" s="1">
         <f>K39</f>
         <v>100</v>
@@ -9809,321 +9556,343 @@
         <v>500</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M40" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N40" s="4">
         <f>VLOOKUP(L40,价值!$B:$G,6,0)*M40</f>
-        <v>500</v>
+        <v>300</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P40" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>VLOOKUP(O40,价值!$B:$G,6,0)*P40</f>
+        <v>9600</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="S40" s="2">
-        <v>5</v>
+        <v>80000</v>
       </c>
       <c r="T40" s="2">
         <f>VLOOKUP(R40,价值!$B:$G,6,0)*S40</f>
-        <v>1250</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V40" s="2">
-        <v>2</v>
+        <v>1600</v>
       </c>
       <c r="W40" s="2">
         <f>VLOOKUP(U40,价值!$B:$G,6,0)*V40</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
-        <f t="shared" si="12"/>
-        <v>2950</v>
+        <f t="shared" si="4"/>
+        <v>11500</v>
       </c>
       <c r="Y40" s="2" t="str">
         <f>IF(L40="","",VLOOKUP(L40,价值!$B:$G,3,0)&amp;","&amp;M40)</f>
-        <v>cash,500</v>
+        <v>cash,300</v>
       </c>
       <c r="Z40" s="2" t="str">
         <f>IF(L40="","",IF(VLOOKUP(L40,价值!$B:$G,5,0)=0,Y40,VLOOKUP(L40,价值!$B:$G,5,0)&amp;","&amp;M40))</f>
-        <v>cash,500</v>
+        <v>cash,300</v>
       </c>
       <c r="AA40" s="2" t="str">
         <f>IF(O40="","",VLOOKUP(O40,价值!$B:$G,3,0)&amp;","&amp;P40)</f>
-        <v/>
+        <v>pack,305,2</v>
       </c>
       <c r="AB40" s="2" t="str">
         <f>IF(O40="","",IF(VLOOKUP(O40,价值!$B:$G,5,0)=0,AA40,VLOOKUP(O40,价值!$B:$G,5,0)&amp;","&amp;P40))</f>
-        <v/>
+        <v>item,105,2</v>
       </c>
       <c r="AC40" s="2" t="str">
         <f>IF(R40="","",VLOOKUP(R40,价值!$B:$G,3,0)&amp;","&amp;S40)</f>
-        <v>prop,702,5</v>
+        <v>coin,80000</v>
       </c>
       <c r="AD40" s="2" t="str">
         <f>IF(R40="","",IF(VLOOKUP(R40,价值!$B:$G,5,0)=0,AC40,VLOOKUP(R40,价值!$B:$G,5,0)&amp;","&amp;S40))</f>
-        <v>prop,702,5</v>
+        <v>coin,80000</v>
       </c>
       <c r="AE40" s="2" t="str">
         <f>IF(U40="","",VLOOKUP(U40,价值!$B:$G,3,0)&amp;","&amp;V40)</f>
-        <v>pack,304,2</v>
+        <v/>
       </c>
       <c r="AF40" s="2" t="str">
         <f>IF(U40="","",IF(VLOOKUP(U40,价值!$B:$G,5,0)=0,AE40,VLOOKUP(U40,价值!$B:$G,5,0)&amp;","&amp;V40))</f>
-        <v>item,104,2</v>
-      </c>
-      <c r="AG40" s="2" t="str">
-        <f t="shared" ref="AG40:AG44" si="13">Y40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AA40="","",";"&amp;AA40)&amp;IF(AC40="","",";"&amp;AC40)&amp;IF(AE40="","",";"&amp;AE40)</f>
-        <v>cash,500;frame,21;prop,702,5;pack,304,2</v>
-      </c>
-      <c r="AH40" s="2" t="str">
-        <f t="shared" ref="AH40:AH44" si="14">Z40&amp;IF(AI40="","",";"&amp;AI40)&amp;IF(AB40="","",";"&amp;AB40)&amp;IF(AD40="","",";"&amp;AD40)&amp;IF(AF40="","",";"&amp;AF40)</f>
-        <v>cash,500;frame,21;prop,702,5;item,104,2</v>
+        <v/>
+      </c>
+      <c r="AG40" s="14" t="str">
+        <f t="shared" ref="AG40:AG44" si="5">Y40&amp;IF(AA40="","",";"&amp;AA40)&amp;IF(AC40="","",";"&amp;AC40)&amp;IF(AE40="","",";"&amp;AE40)&amp;IF(AI40="","",";"&amp;AI40)</f>
+        <v>cash,300;pack,305,2;coin,80000;frame,21</v>
+      </c>
+      <c r="AH40" s="14" t="str">
+        <f t="shared" ref="AH40:AH44" si="6">Z40&amp;IF(AB40="","",";"&amp;AB40)&amp;IF(AD40="","",";"&amp;AD40)&amp;IF(AF40="","",";"&amp;AF40)&amp;IF(AI40="","",";"&amp;AI40)</f>
+        <v>cash,300;item,105,2;coin,80000;frame,21</v>
       </c>
       <c r="AI40" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="10:36" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="10:50" x14ac:dyDescent="0.15">
       <c r="J41" s="1">
-        <f t="shared" ref="J41:J44" si="15">K40</f>
+        <f t="shared" ref="J41:J44" si="7">K40</f>
         <v>500</v>
       </c>
       <c r="K41" s="1">
         <v>1000</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M41" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N41" s="4">
         <f>VLOOKUP(L41,价值!$B:$G,6,0)*M41</f>
-        <v>300</v>
+        <v>200</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>VLOOKUP(O41,价值!$B:$G,6,0)*P41</f>
+        <v>4800</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="S41" s="2">
-        <v>5</v>
+        <v>60000</v>
       </c>
       <c r="T41" s="2">
         <f>VLOOKUP(R41,价值!$B:$G,6,0)*S41</f>
-        <v>1250</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V41" s="2">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="W41" s="2">
         <f>VLOOKUP(U41,价值!$B:$G,6,0)*V41</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="X41" s="12">
-        <f t="shared" si="12"/>
-        <v>2150</v>
+        <f t="shared" si="4"/>
+        <v>6200</v>
       </c>
       <c r="Y41" s="2" t="str">
         <f>IF(L41="","",VLOOKUP(L41,价值!$B:$G,3,0)&amp;","&amp;M41)</f>
-        <v>cash,300</v>
+        <v>cash,200</v>
       </c>
       <c r="Z41" s="2" t="str">
         <f>IF(L41="","",IF(VLOOKUP(L41,价值!$B:$G,5,0)=0,Y41,VLOOKUP(L41,价值!$B:$G,5,0)&amp;","&amp;M41))</f>
-        <v>cash,300</v>
+        <v>cash,200</v>
       </c>
       <c r="AA41" s="2" t="str">
         <f>IF(O41="","",VLOOKUP(O41,价值!$B:$G,3,0)&amp;","&amp;P41)</f>
-        <v/>
+        <v>pack,305,1</v>
       </c>
       <c r="AB41" s="2" t="str">
         <f>IF(O41="","",IF(VLOOKUP(O41,价值!$B:$G,5,0)=0,AA41,VLOOKUP(O41,价值!$B:$G,5,0)&amp;","&amp;P41))</f>
-        <v/>
+        <v>item,105,1</v>
       </c>
       <c r="AC41" s="2" t="str">
         <f>IF(R41="","",VLOOKUP(R41,价值!$B:$G,3,0)&amp;","&amp;S41)</f>
-        <v>prop,702,5</v>
+        <v>coin,60000</v>
       </c>
       <c r="AD41" s="2" t="str">
         <f>IF(R41="","",IF(VLOOKUP(R41,价值!$B:$G,5,0)=0,AC41,VLOOKUP(R41,价值!$B:$G,5,0)&amp;","&amp;S41))</f>
-        <v>prop,702,5</v>
+        <v>coin,60000</v>
       </c>
       <c r="AE41" s="2" t="str">
         <f>IF(U41="","",VLOOKUP(U41,价值!$B:$G,3,0)&amp;","&amp;V41)</f>
-        <v>pack,304,1</v>
+        <v/>
       </c>
       <c r="AF41" s="2" t="str">
         <f>IF(U41="","",IF(VLOOKUP(U41,价值!$B:$G,5,0)=0,AE41,VLOOKUP(U41,价值!$B:$G,5,0)&amp;","&amp;V41))</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="AG41" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>cash,300;frame,21;prop,702,5;pack,304,1</v>
-      </c>
-      <c r="AH41" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>cash,300;frame,21;prop,702,5;item,104,1</v>
+        <v/>
+      </c>
+      <c r="AG41" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>cash,200;pack,305,1;coin,60000;frame,21</v>
+      </c>
+      <c r="AH41" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,200;item,105,1;coin,60000;frame,21</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AJ41" s="5">
         <f>C5</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="42" spans="10:36" x14ac:dyDescent="0.15">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="42" spans="10:50" x14ac:dyDescent="0.15">
       <c r="J42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="K42" s="1">
         <v>2000</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M42" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N42" s="4">
         <f>VLOOKUP(L42,价值!$B:$G,6,0)*M42</f>
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P42" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>VLOOKUP(O42,价值!$B:$G,6,0)*P42</f>
+        <v>1800</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="S42" s="2">
-        <v>3</v>
+        <v>40000</v>
       </c>
       <c r="T42" s="2">
         <f>VLOOKUP(R42,价值!$B:$G,6,0)*S42</f>
-        <v>750</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V42" s="2">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="W42" s="2">
         <f>VLOOKUP(U42,价值!$B:$G,6,0)*V42</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="X42" s="12">
-        <f t="shared" si="12"/>
-        <v>1550</v>
+        <f t="shared" si="4"/>
+        <v>2700</v>
       </c>
       <c r="Y42" s="2" t="str">
         <f>IF(L42="","",VLOOKUP(L42,价值!$B:$G,3,0)&amp;","&amp;M42)</f>
-        <v>cash,200</v>
+        <v>cash,100</v>
       </c>
       <c r="Z42" s="2" t="str">
         <f>IF(L42="","",IF(VLOOKUP(L42,价值!$B:$G,5,0)=0,Y42,VLOOKUP(L42,价值!$B:$G,5,0)&amp;","&amp;M42))</f>
-        <v>cash,200</v>
+        <v>cash,100</v>
       </c>
       <c r="AA42" s="2" t="str">
         <f>IF(O42="","",VLOOKUP(O42,价值!$B:$G,3,0)&amp;","&amp;P42)</f>
-        <v/>
+        <v>pack,304,3</v>
       </c>
       <c r="AB42" s="2" t="str">
         <f>IF(O42="","",IF(VLOOKUP(O42,价值!$B:$G,5,0)=0,AA42,VLOOKUP(O42,价值!$B:$G,5,0)&amp;","&amp;P42))</f>
-        <v/>
+        <v>item,104,3</v>
       </c>
       <c r="AC42" s="2" t="str">
         <f>IF(R42="","",VLOOKUP(R42,价值!$B:$G,3,0)&amp;","&amp;S42)</f>
-        <v>prop,702,3</v>
+        <v>coin,40000</v>
       </c>
       <c r="AD42" s="2" t="str">
         <f>IF(R42="","",IF(VLOOKUP(R42,价值!$B:$G,5,0)=0,AC42,VLOOKUP(R42,价值!$B:$G,5,0)&amp;","&amp;S42))</f>
-        <v>prop,702,3</v>
+        <v>coin,40000</v>
       </c>
       <c r="AE42" s="2" t="str">
         <f>IF(U42="","",VLOOKUP(U42,价值!$B:$G,3,0)&amp;","&amp;V42)</f>
-        <v>pack,304,1</v>
+        <v/>
       </c>
       <c r="AF42" s="2" t="str">
         <f>IF(U42="","",IF(VLOOKUP(U42,价值!$B:$G,5,0)=0,AE42,VLOOKUP(U42,价值!$B:$G,5,0)&amp;","&amp;V42))</f>
-        <v>item,104,1</v>
-      </c>
-      <c r="AG42" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>cash,200;frame,21;prop,702,3;pack,304,1</v>
-      </c>
-      <c r="AH42" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>cash,200;frame,21;prop,702,3;item,104,1</v>
+        <v/>
+      </c>
+      <c r="AG42" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>cash,100;pack,304,3;coin,40000;frame,21</v>
+      </c>
+      <c r="AH42" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,100;item,104,3;coin,40000;frame,21</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="10:36" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="10:50" x14ac:dyDescent="0.15">
       <c r="J43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="K43" s="1">
         <v>5000</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M43" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43" s="4">
         <f>VLOOKUP(L43,价值!$B:$G,6,0)*M43</f>
-        <v>100</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>VLOOKUP(O43,价值!$B:$G,6,0)*P43</f>
+        <v>1200</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="S43" s="2">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="T43" s="2">
         <f>VLOOKUP(R43,价值!$B:$G,6,0)*S43</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U43" s="3"/>
       <c r="X43" s="12">
-        <f t="shared" si="12"/>
-        <v>600</v>
+        <f t="shared" si="4"/>
+        <v>1650</v>
       </c>
       <c r="Y43" s="2" t="str">
         <f>IF(L43="","",VLOOKUP(L43,价值!$B:$G,3,0)&amp;","&amp;M43)</f>
-        <v>cash,100</v>
+        <v>cash,50</v>
       </c>
       <c r="Z43" s="2" t="str">
         <f>IF(L43="","",IF(VLOOKUP(L43,价值!$B:$G,5,0)=0,Y43,VLOOKUP(L43,价值!$B:$G,5,0)&amp;","&amp;M43))</f>
-        <v>cash,100</v>
+        <v>cash,50</v>
       </c>
       <c r="AA43" s="2" t="str">
         <f>IF(O43="","",VLOOKUP(O43,价值!$B:$G,3,0)&amp;","&amp;P43)</f>
-        <v/>
+        <v>pack,304,2</v>
       </c>
       <c r="AB43" s="2" t="str">
         <f>IF(O43="","",IF(VLOOKUP(O43,价值!$B:$G,5,0)=0,AA43,VLOOKUP(O43,价值!$B:$G,5,0)&amp;","&amp;P43))</f>
-        <v/>
+        <v>item,104,2</v>
       </c>
       <c r="AC43" s="2" t="str">
         <f>IF(R43="","",VLOOKUP(R43,价值!$B:$G,3,0)&amp;","&amp;S43)</f>
-        <v>prop,702,2</v>
+        <v>coin,20000</v>
       </c>
       <c r="AD43" s="2" t="str">
         <f>IF(R43="","",IF(VLOOKUP(R43,价值!$B:$G,5,0)=0,AC43,VLOOKUP(R43,价值!$B:$G,5,0)&amp;","&amp;S43))</f>
-        <v>prop,702,2</v>
+        <v>coin,20000</v>
       </c>
       <c r="AE43" s="2" t="str">
         <f>IF(U43="","",VLOOKUP(U43,价值!$B:$G,3,0)&amp;","&amp;V43)</f>
@@ -10133,77 +9902,87 @@
         <f>IF(U43="","",IF(VLOOKUP(U43,价值!$B:$G,5,0)=0,AE43,VLOOKUP(U43,价值!$B:$G,5,0)&amp;","&amp;V43))</f>
         <v/>
       </c>
-      <c r="AG43" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>cash,100;frame,21;prop,702,2</v>
-      </c>
-      <c r="AH43" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>cash,100;frame,21;prop,702,2</v>
+      <c r="AG43" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>cash,50;pack,304,2;coin,20000;frame,21</v>
+      </c>
+      <c r="AH43" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,50;item,104,2;coin,20000;frame,21</v>
       </c>
       <c r="AI43" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="10:36" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="10:50" x14ac:dyDescent="0.15">
       <c r="J44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="K44" s="1">
         <v>10000</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M44" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N44" s="4">
         <f>VLOOKUP(L44,价值!$B:$G,6,0)*M44</f>
-        <v>50</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>VLOOKUP(O44,价值!$B:$G,6,0)*P44</f>
+        <v>600</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="S44" s="2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="T44" s="2">
         <f>VLOOKUP(R44,价值!$B:$G,6,0)*S44</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3"/>
       <c r="X44" s="12">
-        <f t="shared" si="12"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>820</v>
       </c>
       <c r="Y44" s="2" t="str">
         <f>IF(L44="","",VLOOKUP(L44,价值!$B:$G,3,0)&amp;","&amp;M44)</f>
-        <v>cash,50</v>
+        <v>cash,20</v>
       </c>
       <c r="Z44" s="2" t="str">
         <f>IF(L44="","",IF(VLOOKUP(L44,价值!$B:$G,5,0)=0,Y44,VLOOKUP(L44,价值!$B:$G,5,0)&amp;","&amp;M44))</f>
-        <v>cash,50</v>
+        <v>cash,20</v>
       </c>
       <c r="AA44" s="2" t="str">
         <f>IF(O44="","",VLOOKUP(O44,价值!$B:$G,3,0)&amp;","&amp;P44)</f>
-        <v/>
+        <v>pack,304,1</v>
       </c>
       <c r="AB44" s="2" t="str">
         <f>IF(O44="","",IF(VLOOKUP(O44,价值!$B:$G,5,0)=0,AA44,VLOOKUP(O44,价值!$B:$G,5,0)&amp;","&amp;P44))</f>
-        <v/>
+        <v>item,104,1</v>
       </c>
       <c r="AC44" s="2" t="str">
         <f>IF(R44="","",VLOOKUP(R44,价值!$B:$G,3,0)&amp;","&amp;S44)</f>
-        <v>prop,702,1</v>
+        <v>coin,10000</v>
       </c>
       <c r="AD44" s="2" t="str">
         <f>IF(R44="","",IF(VLOOKUP(R44,价值!$B:$G,5,0)=0,AC44,VLOOKUP(R44,价值!$B:$G,5,0)&amp;","&amp;S44))</f>
-        <v>prop,702,1</v>
+        <v>coin,10000</v>
       </c>
       <c r="AE44" s="2" t="str">
         <f>IF(U44="","",VLOOKUP(U44,价值!$B:$G,3,0)&amp;","&amp;V44)</f>
@@ -10213,17 +9992,1092 @@
         <f>IF(U44="","",IF(VLOOKUP(U44,价值!$B:$G,5,0)=0,AE44,VLOOKUP(U44,价值!$B:$G,5,0)&amp;","&amp;V44))</f>
         <v/>
       </c>
-      <c r="AG44" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>cash,50;prop,702,1</v>
-      </c>
-      <c r="AH44" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>cash,50;prop,702,1</v>
+      <c r="AG44" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>cash,20;pack,304,1;coin,10000</v>
+      </c>
+      <c r="AH44" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,20;item,104,1;coin,10000</v>
       </c>
       <c r="AJ44" s="5">
         <f>D5</f>
-        <v>300</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="10:50" x14ac:dyDescent="0.15">
+      <c r="J48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
+        <f>VLOOKUP(K50,价值!$B:$G,6,0)*L50</f>
+        <v>15</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f>3*O50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" s="4">
+        <v>750</v>
+      </c>
+      <c r="S50" s="4">
+        <f>VLOOKUP(Q50,价值!$B:$G,6,0)*R50</f>
+        <v>15</v>
+      </c>
+      <c r="T50" s="4">
+        <f>M50+P50+S50</f>
+        <v>30</v>
+      </c>
+      <c r="U50" s="5">
+        <f>D8</f>
+        <v>30</v>
+      </c>
+      <c r="V50" s="2" t="str">
+        <f>VLOOKUP(K50,价值!$B:$G,3,0)&amp;","&amp;L50</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W50" s="2" t="str">
+        <f>IF(VLOOKUP(K50,价值!$B:$G,5,0)=0,V50,VLOOKUP(K50,价值!$B:$G,5,0)&amp;","&amp;L50)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X50" s="2" t="str">
+        <f>IF(O50=0,"",VLOOKUP(N50,价值!$B:$G,3,0)&amp;","&amp;O50)</f>
+        <v/>
+      </c>
+      <c r="Y50" s="2" t="str">
+        <f>IF(O50=0,"",IF(VLOOKUP(N50,价值!$B:$G,5,0)=0,X50,VLOOKUP(N50,价值!$B:$G,5,0)&amp;","&amp;O50))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="2" t="str">
+        <f>VLOOKUP(Q50,价值!$B:$G,3,0)&amp;","&amp;R50</f>
+        <v>coin,750</v>
+      </c>
+      <c r="AA50" s="2" t="str">
+        <f>IF(VLOOKUP(Q50,价值!$B:$G,5,0)=0,Z50,VLOOKUP(Q50,价值!$B:$G,5,0)&amp;","&amp;R50)</f>
+        <v>coin,750</v>
+      </c>
+      <c r="AB50" s="2" t="str">
+        <f>V50&amp;IF(X50="","",";"&amp;X50)&amp;";"&amp;Z50</f>
+        <v>pack,302,1;coin,750</v>
+      </c>
+      <c r="AC50" s="2" t="str">
+        <f>AB50</f>
+        <v>pack,302,1;coin,750</v>
+      </c>
+    </row>
+    <row r="51" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J51" s="4">
+        <v>2</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4">
+        <f>VLOOKUP(K51,价值!$B:$G,6,0)*L51</f>
+        <v>15</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" ref="P51:P62" si="8">3*O51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R51" s="4">
+        <v>800</v>
+      </c>
+      <c r="S51" s="4">
+        <f>VLOOKUP(Q51,价值!$B:$G,6,0)*R51</f>
+        <v>16</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" ref="T51:T62" si="9">M51+P51+S51</f>
+        <v>31</v>
+      </c>
+      <c r="U51" s="5"/>
+      <c r="V51" s="2" t="str">
+        <f>VLOOKUP(K51,价值!$B:$G,3,0)&amp;","&amp;L51</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W51" s="2" t="str">
+        <f>IF(VLOOKUP(K51,价值!$B:$G,5,0)=0,V51,VLOOKUP(K51,价值!$B:$G,5,0)&amp;","&amp;L51)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X51" s="2" t="str">
+        <f>IF(O51=0,"",VLOOKUP(N51,价值!$B:$G,3,0)&amp;","&amp;O51)</f>
+        <v/>
+      </c>
+      <c r="Y51" s="2" t="str">
+        <f>IF(O51=0,"",IF(VLOOKUP(N51,价值!$B:$G,5,0)=0,X51,VLOOKUP(N51,价值!$B:$G,5,0)&amp;","&amp;O51))</f>
+        <v/>
+      </c>
+      <c r="Z51" s="2" t="str">
+        <f>VLOOKUP(Q51,价值!$B:$G,3,0)&amp;","&amp;R51</f>
+        <v>coin,800</v>
+      </c>
+      <c r="AA51" s="2" t="str">
+        <f>IF(VLOOKUP(Q51,价值!$B:$G,5,0)=0,Z51,VLOOKUP(Q51,价值!$B:$G,5,0)&amp;","&amp;R51)</f>
+        <v>coin,800</v>
+      </c>
+      <c r="AB51" s="2" t="str">
+        <f t="shared" ref="AB51:AB66" si="10">V51&amp;IF(X51="","",";"&amp;X51)&amp;";"&amp;Z51</f>
+        <v>pack,302,1;coin,800</v>
+      </c>
+      <c r="AC51" s="2" t="str">
+        <f>AC50&amp;"#S#"&amp;AB51</f>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800</v>
+      </c>
+    </row>
+    <row r="52" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J52" s="4">
+        <v>3</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4">
+        <f>VLOOKUP(K52,价值!$B:$G,6,0)*L52</f>
+        <v>15</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R52" s="4">
+        <v>850</v>
+      </c>
+      <c r="S52" s="4">
+        <f>VLOOKUP(Q52,价值!$B:$G,6,0)*R52</f>
+        <v>17</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="U52" s="5"/>
+      <c r="V52" s="2" t="str">
+        <f>VLOOKUP(K52,价值!$B:$G,3,0)&amp;","&amp;L52</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W52" s="2" t="str">
+        <f>IF(VLOOKUP(K52,价值!$B:$G,5,0)=0,V52,VLOOKUP(K52,价值!$B:$G,5,0)&amp;","&amp;L52)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X52" s="2" t="str">
+        <f>IF(O52=0,"",VLOOKUP(N52,价值!$B:$G,3,0)&amp;","&amp;O52)</f>
+        <v/>
+      </c>
+      <c r="Y52" s="2" t="str">
+        <f>IF(O52=0,"",IF(VLOOKUP(N52,价值!$B:$G,5,0)=0,X52,VLOOKUP(N52,价值!$B:$G,5,0)&amp;","&amp;O52))</f>
+        <v/>
+      </c>
+      <c r="Z52" s="2" t="str">
+        <f>VLOOKUP(Q52,价值!$B:$G,3,0)&amp;","&amp;R52</f>
+        <v>coin,850</v>
+      </c>
+      <c r="AA52" s="2" t="str">
+        <f>IF(VLOOKUP(Q52,价值!$B:$G,5,0)=0,Z52,VLOOKUP(Q52,价值!$B:$G,5,0)&amp;","&amp;R52)</f>
+        <v>coin,850</v>
+      </c>
+      <c r="AB52" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,302,1;coin,850</v>
+      </c>
+      <c r="AC52" s="2" t="str">
+        <f t="shared" ref="AC52:AC66" si="11">AC51&amp;"#S#"&amp;AB52</f>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850</v>
+      </c>
+    </row>
+    <row r="53" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J53" s="4">
+        <v>4</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
+        <f>VLOOKUP(K53,价值!$B:$G,6,0)*L53</f>
+        <v>15</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" s="4">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R53" s="4">
+        <v>900</v>
+      </c>
+      <c r="S53" s="4">
+        <f>VLOOKUP(Q53,价值!$B:$G,6,0)*R53</f>
+        <v>18</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="U53" s="5"/>
+      <c r="V53" s="2" t="str">
+        <f>VLOOKUP(K53,价值!$B:$G,3,0)&amp;","&amp;L53</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W53" s="2" t="str">
+        <f>IF(VLOOKUP(K53,价值!$B:$G,5,0)=0,V53,VLOOKUP(K53,价值!$B:$G,5,0)&amp;","&amp;L53)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X53" s="2" t="str">
+        <f>IF(O53=0,"",VLOOKUP(N53,价值!$B:$G,3,0)&amp;","&amp;O53)</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="Y53" s="2" t="str">
+        <f>IF(O53=0,"",IF(VLOOKUP(N53,价值!$B:$G,5,0)=0,X53,VLOOKUP(N53,价值!$B:$G,5,0)&amp;","&amp;O53))</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="Z53" s="2" t="str">
+        <f>VLOOKUP(Q53,价值!$B:$G,3,0)&amp;","&amp;R53</f>
+        <v>coin,900</v>
+      </c>
+      <c r="AA53" s="2" t="str">
+        <f>IF(VLOOKUP(Q53,价值!$B:$G,5,0)=0,Z53,VLOOKUP(Q53,价值!$B:$G,5,0)&amp;","&amp;R53)</f>
+        <v>coin,900</v>
+      </c>
+      <c r="AB53" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,302,1;pack,302,1;coin,900</v>
+      </c>
+      <c r="AC53" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900</v>
+      </c>
+    </row>
+    <row r="54" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J54" s="4">
+        <v>5</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
+        <f>VLOOKUP(K54,价值!$B:$G,6,0)*L54</f>
+        <v>15</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R54" s="4">
+        <v>950</v>
+      </c>
+      <c r="S54" s="4">
+        <f>VLOOKUP(Q54,价值!$B:$G,6,0)*R54</f>
+        <v>19</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="U54" s="5"/>
+      <c r="V54" s="2" t="str">
+        <f>VLOOKUP(K54,价值!$B:$G,3,0)&amp;","&amp;L54</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W54" s="2" t="str">
+        <f>IF(VLOOKUP(K54,价值!$B:$G,5,0)=0,V54,VLOOKUP(K54,价值!$B:$G,5,0)&amp;","&amp;L54)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X54" s="2" t="str">
+        <f>IF(O54=0,"",VLOOKUP(N54,价值!$B:$G,3,0)&amp;","&amp;O54)</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="Y54" s="2" t="str">
+        <f>IF(O54=0,"",IF(VLOOKUP(N54,价值!$B:$G,5,0)=0,X54,VLOOKUP(N54,价值!$B:$G,5,0)&amp;","&amp;O54))</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="Z54" s="2" t="str">
+        <f>VLOOKUP(Q54,价值!$B:$G,3,0)&amp;","&amp;R54</f>
+        <v>coin,950</v>
+      </c>
+      <c r="AA54" s="2" t="str">
+        <f>IF(VLOOKUP(Q54,价值!$B:$G,5,0)=0,Z54,VLOOKUP(Q54,价值!$B:$G,5,0)&amp;","&amp;R54)</f>
+        <v>coin,950</v>
+      </c>
+      <c r="AB54" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,302,1;pack,302,1;coin,950</v>
+      </c>
+      <c r="AC54" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950</v>
+      </c>
+    </row>
+    <row r="55" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J55" s="4">
+        <v>6</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
+        <f>VLOOKUP(K55,价值!$B:$G,6,0)*L55</f>
+        <v>15</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S55" s="4">
+        <f>VLOOKUP(Q55,价值!$B:$G,6,0)*R55</f>
+        <v>20</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="U55" s="5"/>
+      <c r="V55" s="2" t="str">
+        <f>VLOOKUP(K55,价值!$B:$G,3,0)&amp;","&amp;L55</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W55" s="2" t="str">
+        <f>IF(VLOOKUP(K55,价值!$B:$G,5,0)=0,V55,VLOOKUP(K55,价值!$B:$G,5,0)&amp;","&amp;L55)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X55" s="2" t="str">
+        <f>IF(O55=0,"",VLOOKUP(N55,价值!$B:$G,3,0)&amp;","&amp;O55)</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="Y55" s="2" t="str">
+        <f>IF(O55=0,"",IF(VLOOKUP(N55,价值!$B:$G,5,0)=0,X55,VLOOKUP(N55,价值!$B:$G,5,0)&amp;","&amp;O55))</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="Z55" s="2" t="str">
+        <f>VLOOKUP(Q55,价值!$B:$G,3,0)&amp;","&amp;R55</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="AA55" s="2" t="str">
+        <f>IF(VLOOKUP(Q55,价值!$B:$G,5,0)=0,Z55,VLOOKUP(Q55,价值!$B:$G,5,0)&amp;","&amp;R55)</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="AB55" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,302,1;pack,302,1;coin,1000</v>
+      </c>
+      <c r="AC55" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000</v>
+      </c>
+    </row>
+    <row r="56" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J56" s="4">
+        <v>7</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
+        <f>VLOOKUP(K56,价值!$B:$G,6,0)*L56</f>
+        <v>15</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O56" s="4">
+        <v>2</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R56" s="4">
+        <v>1100</v>
+      </c>
+      <c r="S56" s="4">
+        <f>VLOOKUP(Q56,价值!$B:$G,6,0)*R56</f>
+        <v>22</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="U56" s="5"/>
+      <c r="V56" s="2" t="str">
+        <f>VLOOKUP(K56,价值!$B:$G,3,0)&amp;","&amp;L56</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W56" s="2" t="str">
+        <f>IF(VLOOKUP(K56,价值!$B:$G,5,0)=0,V56,VLOOKUP(K56,价值!$B:$G,5,0)&amp;","&amp;L56)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X56" s="2" t="str">
+        <f>IF(O56=0,"",VLOOKUP(N56,价值!$B:$G,3,0)&amp;","&amp;O56)</f>
+        <v>pack,302,2</v>
+      </c>
+      <c r="Y56" s="2" t="str">
+        <f>IF(O56=0,"",IF(VLOOKUP(N56,价值!$B:$G,5,0)=0,X56,VLOOKUP(N56,价值!$B:$G,5,0)&amp;","&amp;O56))</f>
+        <v>item,102,2</v>
+      </c>
+      <c r="Z56" s="2" t="str">
+        <f>VLOOKUP(Q56,价值!$B:$G,3,0)&amp;","&amp;R56</f>
+        <v>coin,1100</v>
+      </c>
+      <c r="AA56" s="2" t="str">
+        <f>IF(VLOOKUP(Q56,价值!$B:$G,5,0)=0,Z56,VLOOKUP(Q56,价值!$B:$G,5,0)&amp;","&amp;R56)</f>
+        <v>coin,1100</v>
+      </c>
+      <c r="AB56" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,302,1;pack,302,2;coin,1100</v>
+      </c>
+      <c r="AC56" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100</v>
+      </c>
+    </row>
+    <row r="57" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J57" s="4">
+        <v>8</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4">
+        <f>VLOOKUP(K57,价值!$B:$G,6,0)*L57</f>
+        <v>15</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O57" s="4">
+        <v>2</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R57" s="4">
+        <v>1200</v>
+      </c>
+      <c r="S57" s="4">
+        <f>VLOOKUP(Q57,价值!$B:$G,6,0)*R57</f>
+        <v>24</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="U57" s="5"/>
+      <c r="V57" s="2" t="str">
+        <f>VLOOKUP(K57,价值!$B:$G,3,0)&amp;","&amp;L57</f>
+        <v>pack,302,1</v>
+      </c>
+      <c r="W57" s="2" t="str">
+        <f>IF(VLOOKUP(K57,价值!$B:$G,5,0)=0,V57,VLOOKUP(K57,价值!$B:$G,5,0)&amp;","&amp;L57)</f>
+        <v>item,102,1</v>
+      </c>
+      <c r="X57" s="2" t="str">
+        <f>IF(O57=0,"",VLOOKUP(N57,价值!$B:$G,3,0)&amp;","&amp;O57)</f>
+        <v>pack,302,2</v>
+      </c>
+      <c r="Y57" s="2" t="str">
+        <f>IF(O57=0,"",IF(VLOOKUP(N57,价值!$B:$G,5,0)=0,X57,VLOOKUP(N57,价值!$B:$G,5,0)&amp;","&amp;O57))</f>
+        <v>item,102,2</v>
+      </c>
+      <c r="Z57" s="2" t="str">
+        <f>VLOOKUP(Q57,价值!$B:$G,3,0)&amp;","&amp;R57</f>
+        <v>coin,1200</v>
+      </c>
+      <c r="AA57" s="2" t="str">
+        <f>IF(VLOOKUP(Q57,价值!$B:$G,5,0)=0,Z57,VLOOKUP(Q57,价值!$B:$G,5,0)&amp;","&amp;R57)</f>
+        <v>coin,1200</v>
+      </c>
+      <c r="AB57" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,302,1;pack,302,2;coin,1200</v>
+      </c>
+      <c r="AC57" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200</v>
+      </c>
+    </row>
+    <row r="58" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J58" s="4">
+        <v>9</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
+        <f>VLOOKUP(K58,价值!$B:$G,6,0)*L58</f>
+        <v>50</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O58" s="4">
+        <v>2</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1300</v>
+      </c>
+      <c r="S58" s="4">
+        <f>VLOOKUP(Q58,价值!$B:$G,6,0)*R58</f>
+        <v>26</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="U58" s="5"/>
+      <c r="V58" s="2" t="str">
+        <f>VLOOKUP(K58,价值!$B:$G,3,0)&amp;","&amp;L58</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="W58" s="2" t="str">
+        <f>IF(VLOOKUP(K58,价值!$B:$G,5,0)=0,V58,VLOOKUP(K58,价值!$B:$G,5,0)&amp;","&amp;L58)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="X58" s="2" t="str">
+        <f>IF(O58=0,"",VLOOKUP(N58,价值!$B:$G,3,0)&amp;","&amp;O58)</f>
+        <v>pack,302,2</v>
+      </c>
+      <c r="Y58" s="2" t="str">
+        <f>IF(O58=0,"",IF(VLOOKUP(N58,价值!$B:$G,5,0)=0,X58,VLOOKUP(N58,价值!$B:$G,5,0)&amp;","&amp;O58))</f>
+        <v>item,102,2</v>
+      </c>
+      <c r="Z58" s="2" t="str">
+        <f>VLOOKUP(Q58,价值!$B:$G,3,0)&amp;","&amp;R58</f>
+        <v>coin,1300</v>
+      </c>
+      <c r="AA58" s="2" t="str">
+        <f>IF(VLOOKUP(Q58,价值!$B:$G,5,0)=0,Z58,VLOOKUP(Q58,价值!$B:$G,5,0)&amp;","&amp;R58)</f>
+        <v>coin,1300</v>
+      </c>
+      <c r="AB58" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,303,1;pack,302,2;coin,1300</v>
+      </c>
+      <c r="AC58" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300</v>
+      </c>
+    </row>
+    <row r="59" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J59" s="4">
+        <v>10</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
+        <f>VLOOKUP(K59,价值!$B:$G,6,0)*L59</f>
+        <v>50</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O59" s="4">
+        <v>3</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R59" s="4">
+        <v>1400</v>
+      </c>
+      <c r="S59" s="4">
+        <f>VLOOKUP(Q59,价值!$B:$G,6,0)*R59</f>
+        <v>28</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="U59" s="5"/>
+      <c r="V59" s="2" t="str">
+        <f>VLOOKUP(K59,价值!$B:$G,3,0)&amp;","&amp;L59</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="W59" s="2" t="str">
+        <f>IF(VLOOKUP(K59,价值!$B:$G,5,0)=0,V59,VLOOKUP(K59,价值!$B:$G,5,0)&amp;","&amp;L59)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="X59" s="2" t="str">
+        <f>IF(O59=0,"",VLOOKUP(N59,价值!$B:$G,3,0)&amp;","&amp;O59)</f>
+        <v>pack,302,3</v>
+      </c>
+      <c r="Y59" s="2" t="str">
+        <f>IF(O59=0,"",IF(VLOOKUP(N59,价值!$B:$G,5,0)=0,X59,VLOOKUP(N59,价值!$B:$G,5,0)&amp;","&amp;O59))</f>
+        <v>item,102,3</v>
+      </c>
+      <c r="Z59" s="2" t="str">
+        <f>VLOOKUP(Q59,价值!$B:$G,3,0)&amp;","&amp;R59</f>
+        <v>coin,1400</v>
+      </c>
+      <c r="AA59" s="2" t="str">
+        <f>IF(VLOOKUP(Q59,价值!$B:$G,5,0)=0,Z59,VLOOKUP(Q59,价值!$B:$G,5,0)&amp;","&amp;R59)</f>
+        <v>coin,1400</v>
+      </c>
+      <c r="AB59" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,303,1;pack,302,3;coin,1400</v>
+      </c>
+      <c r="AC59" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400</v>
+      </c>
+    </row>
+    <row r="60" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J60" s="4">
+        <v>11</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4">
+        <f>VLOOKUP(K60,价值!$B:$G,6,0)*L60</f>
+        <v>50</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60" s="4">
+        <v>3</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R60" s="4">
+        <v>1500</v>
+      </c>
+      <c r="S60" s="4">
+        <f>VLOOKUP(Q60,价值!$B:$G,6,0)*R60</f>
+        <v>30</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="U60" s="5"/>
+      <c r="V60" s="2" t="str">
+        <f>VLOOKUP(K60,价值!$B:$G,3,0)&amp;","&amp;L60</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="W60" s="2" t="str">
+        <f>IF(VLOOKUP(K60,价值!$B:$G,5,0)=0,V60,VLOOKUP(K60,价值!$B:$G,5,0)&amp;","&amp;L60)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="X60" s="2" t="str">
+        <f>IF(O60=0,"",VLOOKUP(N60,价值!$B:$G,3,0)&amp;","&amp;O60)</f>
+        <v>pack,302,3</v>
+      </c>
+      <c r="Y60" s="2" t="str">
+        <f>IF(O60=0,"",IF(VLOOKUP(N60,价值!$B:$G,5,0)=0,X60,VLOOKUP(N60,价值!$B:$G,5,0)&amp;","&amp;O60))</f>
+        <v>item,102,3</v>
+      </c>
+      <c r="Z60" s="2" t="str">
+        <f>VLOOKUP(Q60,价值!$B:$G,3,0)&amp;","&amp;R60</f>
+        <v>coin,1500</v>
+      </c>
+      <c r="AA60" s="2" t="str">
+        <f>IF(VLOOKUP(Q60,价值!$B:$G,5,0)=0,Z60,VLOOKUP(Q60,价值!$B:$G,5,0)&amp;","&amp;R60)</f>
+        <v>coin,1500</v>
+      </c>
+      <c r="AB60" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,303,1;pack,302,3;coin,1500</v>
+      </c>
+      <c r="AC60" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500</v>
+      </c>
+    </row>
+    <row r="61" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J61" s="4">
+        <v>12</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4">
+        <f>VLOOKUP(K61,价值!$B:$G,6,0)*L61</f>
+        <v>50</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O61" s="4">
+        <v>4</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R61" s="4">
+        <v>1600</v>
+      </c>
+      <c r="S61" s="4">
+        <f>VLOOKUP(Q61,价值!$B:$G,6,0)*R61</f>
+        <v>32</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="U61" s="5"/>
+      <c r="V61" s="2" t="str">
+        <f>VLOOKUP(K61,价值!$B:$G,3,0)&amp;","&amp;L61</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="W61" s="2" t="str">
+        <f>IF(VLOOKUP(K61,价值!$B:$G,5,0)=0,V61,VLOOKUP(K61,价值!$B:$G,5,0)&amp;","&amp;L61)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="X61" s="2" t="str">
+        <f>IF(O61=0,"",VLOOKUP(N61,价值!$B:$G,3,0)&amp;","&amp;O61)</f>
+        <v>pack,302,4</v>
+      </c>
+      <c r="Y61" s="2" t="str">
+        <f>IF(O61=0,"",IF(VLOOKUP(N61,价值!$B:$G,5,0)=0,X61,VLOOKUP(N61,价值!$B:$G,5,0)&amp;","&amp;O61))</f>
+        <v>item,102,4</v>
+      </c>
+      <c r="Z61" s="2" t="str">
+        <f>VLOOKUP(Q61,价值!$B:$G,3,0)&amp;","&amp;R61</f>
+        <v>coin,1600</v>
+      </c>
+      <c r="AA61" s="2" t="str">
+        <f>IF(VLOOKUP(Q61,价值!$B:$G,5,0)=0,Z61,VLOOKUP(Q61,价值!$B:$G,5,0)&amp;","&amp;R61)</f>
+        <v>coin,1600</v>
+      </c>
+      <c r="AB61" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,303,1;pack,302,4;coin,1600</v>
+      </c>
+      <c r="AC61" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600</v>
+      </c>
+    </row>
+    <row r="62" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J62" s="4">
+        <v>13</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4">
+        <f>VLOOKUP(K62,价值!$B:$G,6,0)*L62</f>
+        <v>50</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O62" s="4">
+        <v>5</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R62" s="4">
+        <v>1750</v>
+      </c>
+      <c r="S62" s="4">
+        <f>VLOOKUP(Q62,价值!$B:$G,6,0)*R62</f>
+        <v>35</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="U62" s="5">
+        <f>B8</f>
+        <v>100</v>
+      </c>
+      <c r="V62" s="2" t="str">
+        <f>VLOOKUP(K62,价值!$B:$G,3,0)&amp;","&amp;L62</f>
+        <v>pack,303,1</v>
+      </c>
+      <c r="W62" s="2" t="str">
+        <f>IF(VLOOKUP(K62,价值!$B:$G,5,0)=0,V62,VLOOKUP(K62,价值!$B:$G,5,0)&amp;","&amp;L62)</f>
+        <v>item,103,1</v>
+      </c>
+      <c r="X62" s="2" t="str">
+        <f>IF(O62=0,"",VLOOKUP(N62,价值!$B:$G,3,0)&amp;","&amp;O62)</f>
+        <v>pack,302,5</v>
+      </c>
+      <c r="Y62" s="2" t="str">
+        <f>IF(O62=0,"",IF(VLOOKUP(N62,价值!$B:$G,5,0)=0,X62,VLOOKUP(N62,价值!$B:$G,5,0)&amp;","&amp;O62))</f>
+        <v>item,102,5</v>
+      </c>
+      <c r="Z62" s="2" t="str">
+        <f>VLOOKUP(Q62,价值!$B:$G,3,0)&amp;","&amp;R62</f>
+        <v>coin,1750</v>
+      </c>
+      <c r="AA62" s="2" t="str">
+        <f>IF(VLOOKUP(Q62,价值!$B:$G,5,0)=0,Z62,VLOOKUP(Q62,价值!$B:$G,5,0)&amp;","&amp;R62)</f>
+        <v>coin,1750</v>
+      </c>
+      <c r="AB62" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+      <c r="AC62" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+    </row>
+    <row r="63" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J63" s="1">
+        <v>14</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB63" s="2" t="str">
+        <f>AB62</f>
+        <v>pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+      <c r="AC63" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+    </row>
+    <row r="64" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J64" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB64" s="2" t="str">
+        <f t="shared" ref="AB64:AB66" si="12">AB63</f>
+        <v>pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+      <c r="AC64" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+    </row>
+    <row r="65" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J65" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB65" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+      <c r="AC65" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+    </row>
+    <row r="66" spans="10:29" x14ac:dyDescent="0.15">
+      <c r="J66" s="4">
+        <v>17</v>
+      </c>
+      <c r="AB66" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>pack,303,1;pack,302,5;coin,1750</v>
+      </c>
+      <c r="AC66" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>pack,302,1;coin,750#S#pack,302,1;coin,800#S#pack,302,1;coin,850#S#pack,302,1;pack,302,1;coin,900#S#pack,302,1;pack,302,1;coin,950#S#pack,302,1;pack,302,1;coin,1000#S#pack,302,1;pack,302,2;coin,1100#S#pack,302,1;pack,302,2;coin,1200#S#pack,303,1;pack,302,2;coin,1300#S#pack,303,1;pack,302,3;coin,1400#S#pack,303,1;pack,302,3;coin,1500#S#pack,303,1;pack,302,4;coin,1600#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750#S#pack,303,1;pack,302,5;coin,1750</v>
       </c>
     </row>
   </sheetData>
@@ -10355,8 +11209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14848,16 +15702,14 @@
         <v>prop,603</v>
       </c>
       <c r="E151">
-        <f>[1]物品定价!E151</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F151">
         <f>[1]物品定价!F151</f>
         <v>0</v>
       </c>
       <c r="G151">
-        <f>[1]物品定价!G151</f>
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -18046,14 +18898,14 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C258">
         <f>[1]物品定价!C258</f>
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E258">
         <v>250</v>
